--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ08_ComprehensiveDeal.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ08_ComprehensiveDeal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="10" activeTab="14" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="13" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -133,12 +133,6 @@
       <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="12">
@@ -297,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -453,57 +447,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={18C058B7-AD06-4252-A501-0281D3A8D732}</author>
-    <author>tc={AEC386EB-7EFE-46CB-9039-917A25DD9A33}</author>
-    <author>tc={8CF56A1B-6622-447E-B66C-D7E348EFC810}</author>
-    <author>tc={EC7B3D7C-A3BF-4A03-AAB9-CEDA9DEAE88D}</author>
-  </authors>
-  <commentList>
-    <comment ref="Z1" authorId="0" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    For Lender1</t>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="1" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    For Lender1</t>
-      </text>
-    </comment>
-    <comment ref="AB1" authorId="2" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    For Lender2</t>
-      </text>
-    </comment>
-    <comment ref="AC1" authorId="3" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    For Lender2</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2758,8 +2714,8 @@
   </sheetPr>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU7" sqref="AU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2846,7 +2802,7 @@
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="I1" s="79" t="inlineStr">
+      <c r="I1" s="77" t="inlineStr">
         <is>
           <t>Calendar</t>
         </is>
@@ -2856,7 +2812,7 @@
           <t>Loan_PricingOption</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="77" t="inlineStr">
         <is>
           <t>Facility_Currency</t>
         </is>
@@ -3063,7 +3019,7 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="89" t="inlineStr">
         <is>
           <t>S8TERM14092020165659</t>
         </is>
@@ -3073,7 +3029,7 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="I2" s="36" t="inlineStr">
+      <c r="I2" s="86" t="inlineStr">
         <is>
           <t>Sydney, Australia</t>
         </is>
@@ -3083,7 +3039,7 @@
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="K2" s="36" t="inlineStr">
+      <c r="K2" s="86" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -3098,12 +3054,12 @@
           <t>20,000,000.00</t>
         </is>
       </c>
-      <c r="N2" s="27" t="inlineStr">
+      <c r="N2" s="88" t="inlineStr">
         <is>
           <t>16-Oct-2018</t>
         </is>
       </c>
-      <c r="O2" s="27" t="inlineStr">
+      <c r="O2" s="88" t="inlineStr">
         <is>
           <t>18-Apr-2020</t>
         </is>
@@ -3185,7 +3141,7 @@
       <c r="AF2" s="75" t="n">
         <v>20</v>
       </c>
-      <c r="AG2" s="75" t="inlineStr">
+      <c r="AG2" s="87" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/012689</t>
         </is>
@@ -3235,7 +3191,7 @@
           <t>Email</t>
         </is>
       </c>
-      <c r="AQ2" s="75" t="n"/>
+      <c r="AQ2" s="87" t="n"/>
       <c r="AR2" s="3" t="inlineStr">
         <is>
           <t>27,000,000.00</t>
@@ -3280,7 +3236,7 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="89" t="inlineStr">
         <is>
           <t>S8TERM14092020165659</t>
         </is>
@@ -3290,12 +3246,13 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
+      <c r="I3" s="86" t="n"/>
       <c r="J3" s="36" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="K3" s="36" t="inlineStr">
+      <c r="K3" s="86" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -3310,12 +3267,12 @@
           <t>7,000,000.00</t>
         </is>
       </c>
-      <c r="N3" s="27" t="inlineStr">
+      <c r="N3" s="88" t="inlineStr">
         <is>
           <t>16-Oct-2018</t>
         </is>
       </c>
-      <c r="O3" s="27" t="inlineStr">
+      <c r="O3" s="88" t="inlineStr">
         <is>
           <t>18-Apr-2020</t>
         </is>
@@ -3343,17 +3300,17 @@
           <t>Base Rate changed to 2.25%</t>
         </is>
       </c>
-      <c r="U3" s="36" t="inlineStr">
+      <c r="U3" s="86" t="inlineStr">
         <is>
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="V3" s="36" t="inlineStr">
+      <c r="V3" s="86" t="inlineStr">
         <is>
           <t>BDOLEND44119</t>
         </is>
       </c>
-      <c r="W3" s="36" t="inlineStr">
+      <c r="W3" s="86" t="inlineStr">
         <is>
           <t>BPILEND28140</t>
         </is>
@@ -3397,7 +3354,7 @@
       <c r="AF3" s="75" t="n">
         <v>20</v>
       </c>
-      <c r="AG3" s="75" t="inlineStr">
+      <c r="AG3" s="87" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/012689</t>
         </is>
@@ -3447,7 +3404,7 @@
           <t>Email</t>
         </is>
       </c>
-      <c r="AQ3" s="75" t="n"/>
+      <c r="AQ3" s="87" t="n"/>
     </row>
     <row r="4" customFormat="1" s="36">
       <c r="A4" s="36" t="inlineStr">
@@ -3472,7 +3429,7 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>60000324</t>
+          <t>60000011</t>
         </is>
       </c>
       <c r="F4" s="36" t="inlineStr">
@@ -3480,7 +3437,7 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="89" t="inlineStr">
         <is>
           <t>S8TERM14092020165659</t>
         </is>
@@ -3490,12 +3447,13 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
+      <c r="I4" s="86" t="n"/>
       <c r="J4" s="75" t="inlineStr">
         <is>
           <t>USD LIBOR Option</t>
         </is>
       </c>
-      <c r="K4" s="75" t="n"/>
+      <c r="K4" s="87" t="n"/>
       <c r="L4" s="36" t="inlineStr">
         <is>
           <t>USD</t>
@@ -3506,6 +3464,8 @@
           <t>15,000,000.00</t>
         </is>
       </c>
+      <c r="N4" s="86" t="n"/>
+      <c r="O4" s="86" t="n"/>
       <c r="P4" s="81" t="n">
         <v>41389</v>
       </c>
@@ -3514,39 +3474,58 @@
           <t>2 Days</t>
         </is>
       </c>
+      <c r="R4" s="86" t="n"/>
       <c r="S4" s="36" t="inlineStr">
         <is>
           <t>to the actual due date</t>
         </is>
       </c>
+      <c r="T4" s="86" t="n"/>
+      <c r="U4" s="86" t="n"/>
+      <c r="V4" s="86" t="n"/>
+      <c r="W4" s="86" t="n"/>
       <c r="X4" s="36" t="inlineStr">
         <is>
-          <t>IMT</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="Y4" s="36" t="inlineStr">
         <is>
-          <t>IMTUSD1-0522</t>
+          <t>DDA3</t>
         </is>
       </c>
       <c r="Z4" s="36" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="AA4" s="36" t="inlineStr">
         <is>
-          <t>RTGS1</t>
+          <t>DDA2</t>
         </is>
       </c>
       <c r="AB4" s="36" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="AC4" s="36" t="inlineStr">
         <is>
-          <t>RTGS1</t>
+          <t>DDA2</t>
+        </is>
+      </c>
+      <c r="AD4" s="75" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE4" s="75" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="87" t="inlineStr">
+        <is>
+          <t>CB001/Hold for Investment - Australia/012689</t>
         </is>
       </c>
       <c r="AH4" s="42" t="inlineStr">
@@ -3604,7 +3583,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -3716,10 +3694,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3788,12 +3766,12 @@
           <t>TransactionNo_Prefix</t>
         </is>
       </c>
-      <c r="G1" s="39" t="inlineStr">
+      <c r="G1" s="91" t="inlineStr">
         <is>
           <t>PricingChange_TransactionNo</t>
         </is>
       </c>
-      <c r="H1" s="39" t="inlineStr">
+      <c r="H1" s="91" t="inlineStr">
         <is>
           <t>PricingChange_EffectiveDate</t>
         </is>
@@ -3957,12 +3935,12 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>TRN4304</t>
+          <t>TRN1515</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>05-Mar-2019</t>
+          <t>24-Apr-2013</t>
         </is>
       </c>
       <c r="I2" s="75" t="inlineStr">
@@ -4070,6 +4048,13 @@
           <t>Awaiting Release</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="90" t="n"/>
+      <c r="D3" s="90" t="n"/>
+      <c r="E3" s="90" t="n"/>
+      <c r="F3" s="90" t="n"/>
+      <c r="I3" s="90" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4287,7 +4272,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>60000324</t>
+          <t>60000011</t>
         </is>
       </c>
       <c r="J2" s="27" t="inlineStr">
@@ -7103,7 +7088,6 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="C4" s="44" t="n"/>
       <c r="T4" s="75" t="inlineStr">
@@ -7263,16 +7247,10 @@
       <c r="AK6" s="31" t="n"/>
       <c r="AL6" s="31" t="n"/>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="R8" s="75" t="n"/>
       <c r="U8" s="30" t="n"/>
     </row>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
     <row r="14">
       <c r="C14" s="36" t="n"/>
       <c r="E14" s="36" t="n"/>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ08_ComprehensiveDeal.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ08_ComprehensiveDeal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="10" activeTab="14" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="15" activeTab="18" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -133,12 +133,6 @@
       <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="12">
@@ -297,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -453,57 +447,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={18C058B7-AD06-4252-A501-0281D3A8D732}</author>
-    <author>tc={AEC386EB-7EFE-46CB-9039-917A25DD9A33}</author>
-    <author>tc={8CF56A1B-6622-447E-B66C-D7E348EFC810}</author>
-    <author>tc={EC7B3D7C-A3BF-4A03-AAB9-CEDA9DEAE88D}</author>
-  </authors>
-  <commentList>
-    <comment ref="Z1" authorId="0" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    For Lender1</t>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="1" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    For Lender1</t>
-      </text>
-    </comment>
-    <comment ref="AB1" authorId="2" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    For Lender2</t>
-      </text>
-    </comment>
-    <comment ref="AC1" authorId="3" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    For Lender2</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2758,8 +2717,8 @@
   </sheetPr>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU7" sqref="AU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2846,7 +2805,7 @@
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="I1" s="79" t="inlineStr">
+      <c r="I1" s="77" t="inlineStr">
         <is>
           <t>Calendar</t>
         </is>
@@ -2856,7 +2815,7 @@
           <t>Loan_PricingOption</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="77" t="inlineStr">
         <is>
           <t>Facility_Currency</t>
         </is>
@@ -3063,7 +3022,7 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="89" t="inlineStr">
         <is>
           <t>S8TERM14092020165659</t>
         </is>
@@ -3073,7 +3032,7 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="I2" s="36" t="inlineStr">
+      <c r="I2" s="86" t="inlineStr">
         <is>
           <t>Sydney, Australia</t>
         </is>
@@ -3083,7 +3042,7 @@
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="K2" s="36" t="inlineStr">
+      <c r="K2" s="86" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -3098,12 +3057,12 @@
           <t>20,000,000.00</t>
         </is>
       </c>
-      <c r="N2" s="27" t="inlineStr">
+      <c r="N2" s="88" t="inlineStr">
         <is>
           <t>16-Oct-2018</t>
         </is>
       </c>
-      <c r="O2" s="27" t="inlineStr">
+      <c r="O2" s="88" t="inlineStr">
         <is>
           <t>18-Apr-2020</t>
         </is>
@@ -3185,7 +3144,7 @@
       <c r="AF2" s="75" t="n">
         <v>20</v>
       </c>
-      <c r="AG2" s="75" t="inlineStr">
+      <c r="AG2" s="87" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/012689</t>
         </is>
@@ -3235,7 +3194,7 @@
           <t>Email</t>
         </is>
       </c>
-      <c r="AQ2" s="75" t="n"/>
+      <c r="AQ2" s="87" t="n"/>
       <c r="AR2" s="3" t="inlineStr">
         <is>
           <t>27,000,000.00</t>
@@ -3280,7 +3239,7 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="89" t="inlineStr">
         <is>
           <t>S8TERM14092020165659</t>
         </is>
@@ -3290,12 +3249,13 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
+      <c r="I3" s="86" t="n"/>
       <c r="J3" s="36" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="K3" s="36" t="inlineStr">
+      <c r="K3" s="86" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -3310,12 +3270,12 @@
           <t>7,000,000.00</t>
         </is>
       </c>
-      <c r="N3" s="27" t="inlineStr">
+      <c r="N3" s="88" t="inlineStr">
         <is>
           <t>16-Oct-2018</t>
         </is>
       </c>
-      <c r="O3" s="27" t="inlineStr">
+      <c r="O3" s="88" t="inlineStr">
         <is>
           <t>18-Apr-2020</t>
         </is>
@@ -3343,17 +3303,17 @@
           <t>Base Rate changed to 2.25%</t>
         </is>
       </c>
-      <c r="U3" s="36" t="inlineStr">
+      <c r="U3" s="86" t="inlineStr">
         <is>
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="V3" s="36" t="inlineStr">
+      <c r="V3" s="86" t="inlineStr">
         <is>
           <t>BDOLEND44119</t>
         </is>
       </c>
-      <c r="W3" s="36" t="inlineStr">
+      <c r="W3" s="86" t="inlineStr">
         <is>
           <t>BPILEND28140</t>
         </is>
@@ -3397,7 +3357,7 @@
       <c r="AF3" s="75" t="n">
         <v>20</v>
       </c>
-      <c r="AG3" s="75" t="inlineStr">
+      <c r="AG3" s="87" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/012689</t>
         </is>
@@ -3447,7 +3407,7 @@
           <t>Email</t>
         </is>
       </c>
-      <c r="AQ3" s="75" t="n"/>
+      <c r="AQ3" s="87" t="n"/>
     </row>
     <row r="4" customFormat="1" s="36">
       <c r="A4" s="36" t="inlineStr">
@@ -3472,7 +3432,7 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>60000324</t>
+          <t>60000011</t>
         </is>
       </c>
       <c r="F4" s="36" t="inlineStr">
@@ -3480,7 +3440,7 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="89" t="inlineStr">
         <is>
           <t>S8TERM14092020165659</t>
         </is>
@@ -3490,12 +3450,13 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
+      <c r="I4" s="86" t="n"/>
       <c r="J4" s="75" t="inlineStr">
         <is>
           <t>USD LIBOR Option</t>
         </is>
       </c>
-      <c r="K4" s="75" t="n"/>
+      <c r="K4" s="87" t="n"/>
       <c r="L4" s="36" t="inlineStr">
         <is>
           <t>USD</t>
@@ -3506,6 +3467,8 @@
           <t>15,000,000.00</t>
         </is>
       </c>
+      <c r="N4" s="86" t="n"/>
+      <c r="O4" s="86" t="n"/>
       <c r="P4" s="81" t="n">
         <v>41389</v>
       </c>
@@ -3514,39 +3477,58 @@
           <t>2 Days</t>
         </is>
       </c>
+      <c r="R4" s="86" t="n"/>
       <c r="S4" s="36" t="inlineStr">
         <is>
           <t>to the actual due date</t>
         </is>
       </c>
+      <c r="T4" s="86" t="n"/>
+      <c r="U4" s="86" t="n"/>
+      <c r="V4" s="86" t="n"/>
+      <c r="W4" s="86" t="n"/>
       <c r="X4" s="36" t="inlineStr">
         <is>
-          <t>IMT</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="Y4" s="36" t="inlineStr">
         <is>
-          <t>IMTUSD1-0522</t>
+          <t>DDA3</t>
         </is>
       </c>
       <c r="Z4" s="36" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="AA4" s="36" t="inlineStr">
         <is>
-          <t>RTGS1</t>
+          <t>DDA2</t>
         </is>
       </c>
       <c r="AB4" s="36" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>DDA</t>
         </is>
       </c>
       <c r="AC4" s="36" t="inlineStr">
         <is>
-          <t>RTGS1</t>
+          <t>DDA2</t>
+        </is>
+      </c>
+      <c r="AD4" s="75" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE4" s="75" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="75" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="87" t="inlineStr">
+        <is>
+          <t>CB001/Hold for Investment - Australia/012689</t>
         </is>
       </c>
       <c r="AH4" s="42" t="inlineStr">
@@ -3604,7 +3586,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -3716,10 +3697,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3788,12 +3769,12 @@
           <t>TransactionNo_Prefix</t>
         </is>
       </c>
-      <c r="G1" s="39" t="inlineStr">
+      <c r="G1" s="91" t="inlineStr">
         <is>
           <t>PricingChange_TransactionNo</t>
         </is>
       </c>
-      <c r="H1" s="39" t="inlineStr">
+      <c r="H1" s="91" t="inlineStr">
         <is>
           <t>PricingChange_EffectiveDate</t>
         </is>
@@ -3957,12 +3938,12 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>TRN4304</t>
+          <t>TRN1515</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>05-Mar-2019</t>
+          <t>24-Apr-2013</t>
         </is>
       </c>
       <c r="I2" s="75" t="inlineStr">
@@ -4070,6 +4051,13 @@
           <t>Awaiting Release</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="90" t="n"/>
+      <c r="D3" s="90" t="n"/>
+      <c r="E3" s="90" t="n"/>
+      <c r="F3" s="90" t="n"/>
+      <c r="I3" s="90" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4084,10 +4072,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4097,12 +4085,14 @@
     <col width="22.5703125" customWidth="1" style="27" min="3" max="3"/>
     <col width="20.140625" customWidth="1" style="27" min="4" max="4"/>
     <col width="21.5703125" customWidth="1" style="27" min="5" max="5"/>
-    <col width="18.42578125" customWidth="1" style="27" min="6" max="6"/>
+    <col width="9.140625" bestFit="1" customWidth="1" style="27" min="6" max="6"/>
     <col width="12.7109375" customWidth="1" style="27" min="7" max="8"/>
     <col width="18.7109375" customWidth="1" style="27" min="9" max="9"/>
     <col width="24.28515625" customWidth="1" style="27" min="10" max="10"/>
     <col width="12.42578125" customWidth="1" style="27" min="11" max="11"/>
-    <col width="18.7109375" customWidth="1" style="75" min="12" max="14"/>
+    <col width="17.85546875" bestFit="1" customWidth="1" style="75" min="12" max="12"/>
+    <col width="18.7109375" customWidth="1" style="75" min="13" max="13"/>
+    <col width="13.42578125" bestFit="1" customWidth="1" style="75" min="14" max="14"/>
     <col width="17.7109375" customWidth="1" style="75" min="15" max="15"/>
     <col width="9" customWidth="1" style="27" min="16" max="16"/>
     <col width="17.42578125" customWidth="1" style="27" min="17" max="17"/>
@@ -4114,7 +4104,13 @@
     <col width="9" customWidth="1" style="27" min="24" max="25"/>
     <col width="8" customWidth="1" style="27" min="26" max="26"/>
     <col width="16" customWidth="1" style="36" min="27" max="27"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="28" max="28"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="28" max="28"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" min="29" max="29"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" min="30" max="31"/>
+    <col width="26.5703125" bestFit="1" customWidth="1" min="32" max="32"/>
+    <col width="25.5703125" bestFit="1" customWidth="1" min="33" max="34"/>
+    <col width="21.140625" bestFit="1" customWidth="1" min="35" max="35"/>
+    <col width="20.140625" bestFit="1" customWidth="1" min="36" max="37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="26">
@@ -4148,17 +4144,17 @@
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="94" t="inlineStr">
         <is>
           <t>Repricing_Type</t>
         </is>
       </c>
-      <c r="H1" s="26" t="inlineStr">
+      <c r="H1" s="94" t="inlineStr">
         <is>
           <t>Repricing_Date</t>
         </is>
       </c>
-      <c r="I1" s="26" t="inlineStr">
+      <c r="I1" s="94" t="inlineStr">
         <is>
           <t>Repricing_Add_Option</t>
         </is>
@@ -4168,32 +4164,32 @@
           <t>Repricing_Add_Option_Setup</t>
         </is>
       </c>
-      <c r="K1" s="26" t="inlineStr">
+      <c r="K1" s="94" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="79" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="79" t="inlineStr">
         <is>
           <t>Notice_ContactPerson</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="79" t="inlineStr">
         <is>
           <t>Notice_Method</t>
         </is>
       </c>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="O1" s="79" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="P1" s="26" t="inlineStr">
+      <c r="P1" s="94" t="inlineStr">
         <is>
           <t>Base_Rate</t>
         </is>
@@ -4256,6 +4252,51 @@
       <c r="AB1" s="26" t="inlineStr">
         <is>
           <t>Borrower_Name</t>
+        </is>
+      </c>
+      <c r="AC1" s="25" t="inlineStr">
+        <is>
+          <t>BorrowerContact_Email</t>
+        </is>
+      </c>
+      <c r="AD1" s="25" t="inlineStr">
+        <is>
+          <t>Lender1Contact_Email</t>
+        </is>
+      </c>
+      <c r="AE1" s="25" t="inlineStr">
+        <is>
+          <t>Lender2Contact_Email</t>
+        </is>
+      </c>
+      <c r="AF1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_BorrowerContactPerson</t>
+        </is>
+      </c>
+      <c r="AG1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_Lender1ContactPerson</t>
+        </is>
+      </c>
+      <c r="AH1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_Lender2ContactPerson</t>
+        </is>
+      </c>
+      <c r="AI1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_BorrowerMethod</t>
+        </is>
+      </c>
+      <c r="AJ1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_Lender1Method</t>
+        </is>
+      </c>
+      <c r="AK1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_Lender2Method</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4328,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>60000324</t>
+          <t>60000011</t>
         </is>
       </c>
       <c r="J2" s="27" t="inlineStr">
@@ -4385,16 +4426,74 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="AC2" s="3" t="n"/>
-      <c r="AD2" s="3" t="n"/>
-      <c r="AE2" s="3" t="n"/>
-      <c r="AF2" s="3" t="n"/>
-      <c r="AG2" s="3" t="n"/>
-      <c r="AH2" s="3" t="n"/>
-      <c r="AI2" s="3" t="n"/>
-      <c r="AJ2" s="3" t="n"/>
-      <c r="AK2" s="3" t="n"/>
+      <c r="AC2" s="42" t="inlineStr">
+        <is>
+          <t>john.blogg@abc.com</t>
+        </is>
+      </c>
+      <c r="AD2" s="36" t="inlineStr">
+        <is>
+          <t>darlonhijara@abc.com</t>
+        </is>
+      </c>
+      <c r="AE2" s="36" t="inlineStr">
+        <is>
+          <t>darlonhijara@abc.com</t>
+        </is>
+      </c>
+      <c r="AF2" s="75" t="inlineStr">
+        <is>
+          <t>John Bloggs</t>
+        </is>
+      </c>
+      <c r="AG2" s="75" t="inlineStr">
+        <is>
+          <t>Darlon Hijara</t>
+        </is>
+      </c>
+      <c r="AH2" s="75" t="inlineStr">
+        <is>
+          <t>DarlonJeremiah Hijaratwo</t>
+        </is>
+      </c>
+      <c r="AI2" s="75" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="AJ2" s="75" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="AK2" s="75" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="AL2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="92" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="92" t="n"/>
+      <c r="J3" s="92" t="n"/>
+      <c r="Q3" s="92" t="n"/>
+      <c r="T3" s="92" t="n"/>
+      <c r="V3" s="92" t="n"/>
+      <c r="W3" s="92" t="n"/>
+      <c r="X3" s="92" t="n"/>
+      <c r="Y3" s="92" t="n"/>
+      <c r="Z3" s="92" t="n"/>
+      <c r="AC3" s="93" t="n"/>
+      <c r="AD3" s="93" t="n"/>
+      <c r="AE3" s="93" t="n"/>
+      <c r="AF3" s="93" t="n"/>
+      <c r="AG3" s="93" t="n"/>
+      <c r="AH3" s="93" t="n"/>
+      <c r="AI3" s="93" t="n"/>
+      <c r="AJ3" s="93" t="n"/>
+      <c r="AK3" s="93" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4409,10 +4508,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4480,172 +4579,172 @@
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="39" t="inlineStr">
+      <c r="E1" s="91" t="inlineStr">
         <is>
           <t>Current_Cmt</t>
         </is>
       </c>
-      <c r="F1" s="39" t="inlineStr">
+      <c r="F1" s="91" t="inlineStr">
         <is>
           <t>Contr_Gross</t>
         </is>
       </c>
-      <c r="G1" s="39" t="inlineStr">
+      <c r="G1" s="91" t="inlineStr">
         <is>
           <t>Net_Cmt</t>
         </is>
       </c>
-      <c r="H1" s="39" t="inlineStr">
+      <c r="H1" s="74" t="inlineStr">
         <is>
           <t>HostBank_Lender</t>
         </is>
       </c>
-      <c r="I1" s="39" t="inlineStr">
+      <c r="I1" s="74" t="inlineStr">
         <is>
           <t>Lender1</t>
         </is>
       </c>
-      <c r="J1" s="39" t="inlineStr">
+      <c r="J1" s="74" t="inlineStr">
         <is>
           <t>Lender2</t>
         </is>
       </c>
-      <c r="K1" s="39" t="inlineStr">
+      <c r="K1" s="91" t="inlineStr">
         <is>
           <t>Original_UIHBActualAmount</t>
         </is>
       </c>
-      <c r="L1" s="39" t="inlineStr">
+      <c r="L1" s="91" t="inlineStr">
         <is>
           <t>Original_UILender1ActualAmount</t>
         </is>
       </c>
-      <c r="M1" s="39" t="inlineStr">
+      <c r="M1" s="91" t="inlineStr">
         <is>
           <t>Original_UILender2ActualAmount</t>
         </is>
       </c>
-      <c r="N1" s="39" t="inlineStr">
+      <c r="N1" s="91" t="inlineStr">
         <is>
           <t>Orig_PrimariesAssignees_ActualTotal</t>
         </is>
       </c>
-      <c r="O1" s="39" t="inlineStr">
+      <c r="O1" s="91" t="inlineStr">
         <is>
           <t>Original_UIHBSharesActualAmount</t>
         </is>
       </c>
-      <c r="P1" s="39" t="inlineStr">
+      <c r="P1" s="91" t="inlineStr">
         <is>
           <t>Orig_HostBankShares_ActualNetAllTotal</t>
         </is>
       </c>
-      <c r="Q1" s="39" t="inlineStr">
+      <c r="Q1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityCurrentCmt</t>
         </is>
       </c>
-      <c r="R1" s="39" t="inlineStr">
+      <c r="R1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityAvailableToDraw</t>
         </is>
       </c>
-      <c r="S1" s="39" t="inlineStr">
+      <c r="S1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBContrGross</t>
         </is>
       </c>
-      <c r="T1" s="39" t="inlineStr">
+      <c r="T1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBOutstandings</t>
         </is>
       </c>
-      <c r="U1" s="39" t="inlineStr">
+      <c r="U1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBAvailToDraw</t>
         </is>
       </c>
-      <c r="V1" s="39" t="inlineStr">
+      <c r="V1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityNetCmt</t>
         </is>
       </c>
-      <c r="W1" s="39" t="inlineStr">
+      <c r="W1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetFundableCmt</t>
         </is>
       </c>
-      <c r="X1" s="39" t="inlineStr">
+      <c r="X1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetOutstandings_Funded</t>
         </is>
       </c>
-      <c r="Y1" s="39" t="inlineStr">
+      <c r="Y1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetAvailToDraw_Fundable</t>
         </is>
       </c>
-      <c r="Z1" s="39" t="inlineStr">
+      <c r="Z1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetAvailToDraw</t>
         </is>
       </c>
-      <c r="AA1" s="39" t="inlineStr">
+      <c r="AA1" s="91" t="inlineStr">
         <is>
           <t>Original_UIFacHBActualAmount</t>
         </is>
       </c>
-      <c r="AB1" s="39" t="inlineStr">
+      <c r="AB1" s="91" t="inlineStr">
         <is>
           <t>Original_UIFacLender1ActualAmount</t>
         </is>
       </c>
-      <c r="AC1" s="39" t="inlineStr">
+      <c r="AC1" s="91" t="inlineStr">
         <is>
           <t>Original_UIFacLender2ActualAmount</t>
         </is>
       </c>
-      <c r="AD1" s="39" t="inlineStr">
+      <c r="AD1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacPrimariesAssignees_ActualTotal</t>
         </is>
       </c>
-      <c r="AE1" s="39" t="inlineStr">
+      <c r="AE1" s="91" t="inlineStr">
         <is>
           <t>Original_UIFacHBSharesActualAmount</t>
         </is>
       </c>
-      <c r="AF1" s="39" t="inlineStr">
+      <c r="AF1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacHostBankShares_ActualNetAllTotal</t>
         </is>
       </c>
-      <c r="AG1" s="39" t="inlineStr">
+      <c r="AG1" s="91" t="inlineStr">
         <is>
           <t>Computed_HBActualAmount</t>
         </is>
       </c>
-      <c r="AH1" s="39" t="inlineStr">
+      <c r="AH1" s="91" t="inlineStr">
         <is>
           <t>Computed_Lender1ActualAmount</t>
         </is>
       </c>
-      <c r="AI1" s="39" t="inlineStr">
+      <c r="AI1" s="91" t="inlineStr">
         <is>
           <t>Computed_Lender2ActualAmount</t>
         </is>
       </c>
-      <c r="AJ1" s="39" t="inlineStr">
+      <c r="AJ1" s="91" t="inlineStr">
         <is>
           <t>HBShares_UIActualAmount</t>
         </is>
       </c>
-      <c r="AK1" s="39" t="inlineStr">
+      <c r="AK1" s="91" t="inlineStr">
         <is>
           <t>Updated_UIFaciltyCurrentCmt</t>
         </is>
       </c>
-      <c r="AL1" s="39" t="inlineStr">
+      <c r="AL1" s="91" t="inlineStr">
         <is>
           <t>AMD_EffectiveDate</t>
         </is>
@@ -4655,7 +4754,7 @@
           <t>AmendmentNumber_Prefix</t>
         </is>
       </c>
-      <c r="AN1" s="39" t="inlineStr">
+      <c r="AN1" s="91" t="inlineStr">
         <is>
           <t>AmendmentNo</t>
         </is>
@@ -4680,17 +4779,17 @@
           <t>AmortSched_Status</t>
         </is>
       </c>
-      <c r="AS1" s="39" t="inlineStr">
+      <c r="AS1" s="74" t="inlineStr">
         <is>
           <t>HostBankLender_Percentage</t>
         </is>
       </c>
-      <c r="AT1" s="39" t="inlineStr">
+      <c r="AT1" s="74" t="inlineStr">
         <is>
           <t>Lender1_Percentage</t>
         </is>
       </c>
-      <c r="AU1" s="39" t="inlineStr">
+      <c r="AU1" s="74" t="inlineStr">
         <is>
           <t>Lender2_Percentage</t>
         </is>
@@ -4834,7 +4933,7 @@
       </c>
       <c r="AL2" s="1" t="inlineStr">
         <is>
-          <t>06-Mar-2019</t>
+          <t>25-Apr-2013</t>
         </is>
       </c>
       <c r="AM2" s="75" t="inlineStr">
@@ -4844,7 +4943,7 @@
       </c>
       <c r="AN2" s="1" t="inlineStr">
         <is>
-          <t>82627</t>
+          <t>82235</t>
         </is>
       </c>
       <c r="AO2" s="75" t="inlineStr">
@@ -4874,6 +4973,15 @@
       <c r="AU2" s="75" t="n">
         <v>20</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="90" t="n"/>
+      <c r="D3" s="90" t="n"/>
+      <c r="AM3" s="90" t="n"/>
+      <c r="AO3" s="90" t="n"/>
+      <c r="AP3" s="90" t="n"/>
+      <c r="AQ3" s="90" t="n"/>
+      <c r="AR3" s="90" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -7103,7 +7211,6 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="C4" s="44" t="n"/>
       <c r="T4" s="75" t="inlineStr">
@@ -7263,16 +7370,10 @@
       <c r="AK6" s="31" t="n"/>
       <c r="AL6" s="31" t="n"/>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="R8" s="75" t="n"/>
       <c r="U8" s="30" t="n"/>
     </row>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
     <row r="14">
       <c r="C14" s="36" t="n"/>
       <c r="E14" s="36" t="n"/>
@@ -7546,7 +7647,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>60000327</t>
+          <t>60000027</t>
         </is>
       </c>
       <c r="F2" s="75" t="inlineStr">
@@ -9113,7 +9214,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>60000327</t>
+          <t>60000027</t>
         </is>
       </c>
       <c r="F2" s="75" t="inlineStr">

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ08_ComprehensiveDeal.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ08_ComprehensiveDeal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="13" activeTab="16" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2430" yWindow="8370" windowWidth="24510" windowHeight="6555" tabRatio="600" firstSheet="16" activeTab="19" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMCH06_PricingChangeTransaction" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV12_LoanSplit" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMCH03_UnschedFacilityIncrease" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COMPR06_LoanMerge" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV11_Loan Amalgamation" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAP02_InterestCapitalRule" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAP03_OngoingFeeCapitalization" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MTAM01_ManualGL" sheetId="23" state="visible" r:id="rId23"/>
@@ -135,7 +135,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -199,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.3499862666707358"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -454,6 +460,12 @@
     <xf numFmtId="49" fontId="9" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3696,8 +3708,8 @@
   </sheetPr>
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4069,10 +4081,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4082,12 +4094,14 @@
     <col width="22.5703125" customWidth="1" style="27" min="3" max="3"/>
     <col width="20.140625" customWidth="1" style="27" min="4" max="4"/>
     <col width="21.5703125" customWidth="1" style="27" min="5" max="5"/>
-    <col width="18.42578125" customWidth="1" style="27" min="6" max="6"/>
+    <col width="9.140625" bestFit="1" customWidth="1" style="27" min="6" max="6"/>
     <col width="12.7109375" customWidth="1" style="27" min="7" max="8"/>
     <col width="18.7109375" customWidth="1" style="27" min="9" max="9"/>
     <col width="24.28515625" customWidth="1" style="27" min="10" max="10"/>
     <col width="12.42578125" customWidth="1" style="27" min="11" max="11"/>
-    <col width="18.7109375" customWidth="1" style="75" min="12" max="14"/>
+    <col width="17.85546875" bestFit="1" customWidth="1" style="75" min="12" max="12"/>
+    <col width="18.7109375" customWidth="1" style="75" min="13" max="13"/>
+    <col width="13.42578125" bestFit="1" customWidth="1" style="75" min="14" max="14"/>
     <col width="17.7109375" customWidth="1" style="75" min="15" max="15"/>
     <col width="9" customWidth="1" style="27" min="16" max="16"/>
     <col width="17.42578125" customWidth="1" style="27" min="17" max="17"/>
@@ -4099,7 +4113,13 @@
     <col width="9" customWidth="1" style="27" min="24" max="25"/>
     <col width="8" customWidth="1" style="27" min="26" max="26"/>
     <col width="16" customWidth="1" style="36" min="27" max="27"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="28" max="28"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="28" max="28"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" min="29" max="29"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" min="30" max="31"/>
+    <col width="26.5703125" bestFit="1" customWidth="1" min="32" max="32"/>
+    <col width="25.5703125" bestFit="1" customWidth="1" min="33" max="34"/>
+    <col width="21.140625" bestFit="1" customWidth="1" min="35" max="35"/>
+    <col width="20.140625" bestFit="1" customWidth="1" min="36" max="37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="26">
@@ -4133,17 +4153,17 @@
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="94" t="inlineStr">
         <is>
           <t>Repricing_Type</t>
         </is>
       </c>
-      <c r="H1" s="26" t="inlineStr">
+      <c r="H1" s="94" t="inlineStr">
         <is>
           <t>Repricing_Date</t>
         </is>
       </c>
-      <c r="I1" s="26" t="inlineStr">
+      <c r="I1" s="94" t="inlineStr">
         <is>
           <t>Repricing_Add_Option</t>
         </is>
@@ -4153,32 +4173,32 @@
           <t>Repricing_Add_Option_Setup</t>
         </is>
       </c>
-      <c r="K1" s="26" t="inlineStr">
+      <c r="K1" s="94" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="79" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="79" t="inlineStr">
         <is>
           <t>Notice_ContactPerson</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="79" t="inlineStr">
         <is>
           <t>Notice_Method</t>
         </is>
       </c>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="O1" s="79" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="P1" s="26" t="inlineStr">
+      <c r="P1" s="94" t="inlineStr">
         <is>
           <t>Base_Rate</t>
         </is>
@@ -4241,6 +4261,51 @@
       <c r="AB1" s="26" t="inlineStr">
         <is>
           <t>Borrower_Name</t>
+        </is>
+      </c>
+      <c r="AC1" s="25" t="inlineStr">
+        <is>
+          <t>BorrowerContact_Email</t>
+        </is>
+      </c>
+      <c r="AD1" s="25" t="inlineStr">
+        <is>
+          <t>Lender1Contact_Email</t>
+        </is>
+      </c>
+      <c r="AE1" s="25" t="inlineStr">
+        <is>
+          <t>Lender2Contact_Email</t>
+        </is>
+      </c>
+      <c r="AF1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_BorrowerContactPerson</t>
+        </is>
+      </c>
+      <c r="AG1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_Lender1ContactPerson</t>
+        </is>
+      </c>
+      <c r="AH1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_Lender2ContactPerson</t>
+        </is>
+      </c>
+      <c r="AI1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_BorrowerMethod</t>
+        </is>
+      </c>
+      <c r="AJ1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_Lender1Method</t>
+        </is>
+      </c>
+      <c r="AK1" s="25" t="inlineStr">
+        <is>
+          <t>Notice_Lender2Method</t>
         </is>
       </c>
     </row>
@@ -4370,16 +4435,74 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="AC2" s="3" t="n"/>
-      <c r="AD2" s="3" t="n"/>
-      <c r="AE2" s="3" t="n"/>
-      <c r="AF2" s="3" t="n"/>
-      <c r="AG2" s="3" t="n"/>
-      <c r="AH2" s="3" t="n"/>
-      <c r="AI2" s="3" t="n"/>
-      <c r="AJ2" s="3" t="n"/>
-      <c r="AK2" s="3" t="n"/>
+      <c r="AC2" s="42" t="inlineStr">
+        <is>
+          <t>john.blogg@abc.com</t>
+        </is>
+      </c>
+      <c r="AD2" s="36" t="inlineStr">
+        <is>
+          <t>darlonhijara@abc.com</t>
+        </is>
+      </c>
+      <c r="AE2" s="36" t="inlineStr">
+        <is>
+          <t>darlonhijara@abc.com</t>
+        </is>
+      </c>
+      <c r="AF2" s="75" t="inlineStr">
+        <is>
+          <t>John Bloggs</t>
+        </is>
+      </c>
+      <c r="AG2" s="75" t="inlineStr">
+        <is>
+          <t>Darlon Hijara</t>
+        </is>
+      </c>
+      <c r="AH2" s="75" t="inlineStr">
+        <is>
+          <t>DarlonJeremiah Hijaratwo</t>
+        </is>
+      </c>
+      <c r="AI2" s="75" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="AJ2" s="75" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="AK2" s="75" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="AL2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="92" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="92" t="n"/>
+      <c r="J3" s="92" t="n"/>
+      <c r="Q3" s="92" t="n"/>
+      <c r="T3" s="92" t="n"/>
+      <c r="V3" s="92" t="n"/>
+      <c r="W3" s="92" t="n"/>
+      <c r="X3" s="92" t="n"/>
+      <c r="Y3" s="92" t="n"/>
+      <c r="Z3" s="92" t="n"/>
+      <c r="AC3" s="93" t="n"/>
+      <c r="AD3" s="93" t="n"/>
+      <c r="AE3" s="93" t="n"/>
+      <c r="AF3" s="93" t="n"/>
+      <c r="AG3" s="93" t="n"/>
+      <c r="AH3" s="93" t="n"/>
+      <c r="AI3" s="93" t="n"/>
+      <c r="AJ3" s="93" t="n"/>
+      <c r="AK3" s="93" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4394,10 +4517,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4465,172 +4588,172 @@
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="39" t="inlineStr">
+      <c r="E1" s="91" t="inlineStr">
         <is>
           <t>Current_Cmt</t>
         </is>
       </c>
-      <c r="F1" s="39" t="inlineStr">
+      <c r="F1" s="91" t="inlineStr">
         <is>
           <t>Contr_Gross</t>
         </is>
       </c>
-      <c r="G1" s="39" t="inlineStr">
+      <c r="G1" s="91" t="inlineStr">
         <is>
           <t>Net_Cmt</t>
         </is>
       </c>
-      <c r="H1" s="39" t="inlineStr">
+      <c r="H1" s="74" t="inlineStr">
         <is>
           <t>HostBank_Lender</t>
         </is>
       </c>
-      <c r="I1" s="39" t="inlineStr">
+      <c r="I1" s="74" t="inlineStr">
         <is>
           <t>Lender1</t>
         </is>
       </c>
-      <c r="J1" s="39" t="inlineStr">
+      <c r="J1" s="74" t="inlineStr">
         <is>
           <t>Lender2</t>
         </is>
       </c>
-      <c r="K1" s="39" t="inlineStr">
+      <c r="K1" s="91" t="inlineStr">
         <is>
           <t>Original_UIHBActualAmount</t>
         </is>
       </c>
-      <c r="L1" s="39" t="inlineStr">
+      <c r="L1" s="91" t="inlineStr">
         <is>
           <t>Original_UILender1ActualAmount</t>
         </is>
       </c>
-      <c r="M1" s="39" t="inlineStr">
+      <c r="M1" s="91" t="inlineStr">
         <is>
           <t>Original_UILender2ActualAmount</t>
         </is>
       </c>
-      <c r="N1" s="39" t="inlineStr">
+      <c r="N1" s="91" t="inlineStr">
         <is>
           <t>Orig_PrimariesAssignees_ActualTotal</t>
         </is>
       </c>
-      <c r="O1" s="39" t="inlineStr">
+      <c r="O1" s="91" t="inlineStr">
         <is>
           <t>Original_UIHBSharesActualAmount</t>
         </is>
       </c>
-      <c r="P1" s="39" t="inlineStr">
+      <c r="P1" s="91" t="inlineStr">
         <is>
           <t>Orig_HostBankShares_ActualNetAllTotal</t>
         </is>
       </c>
-      <c r="Q1" s="39" t="inlineStr">
+      <c r="Q1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityCurrentCmt</t>
         </is>
       </c>
-      <c r="R1" s="39" t="inlineStr">
+      <c r="R1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityAvailableToDraw</t>
         </is>
       </c>
-      <c r="S1" s="39" t="inlineStr">
+      <c r="S1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBContrGross</t>
         </is>
       </c>
-      <c r="T1" s="39" t="inlineStr">
+      <c r="T1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBOutstandings</t>
         </is>
       </c>
-      <c r="U1" s="39" t="inlineStr">
+      <c r="U1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBAvailToDraw</t>
         </is>
       </c>
-      <c r="V1" s="39" t="inlineStr">
+      <c r="V1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityNetCmt</t>
         </is>
       </c>
-      <c r="W1" s="39" t="inlineStr">
+      <c r="W1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetFundableCmt</t>
         </is>
       </c>
-      <c r="X1" s="39" t="inlineStr">
+      <c r="X1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetOutstandings_Funded</t>
         </is>
       </c>
-      <c r="Y1" s="39" t="inlineStr">
+      <c r="Y1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetAvailToDraw_Fundable</t>
         </is>
       </c>
-      <c r="Z1" s="39" t="inlineStr">
+      <c r="Z1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetAvailToDraw</t>
         </is>
       </c>
-      <c r="AA1" s="39" t="inlineStr">
+      <c r="AA1" s="91" t="inlineStr">
         <is>
           <t>Original_UIFacHBActualAmount</t>
         </is>
       </c>
-      <c r="AB1" s="39" t="inlineStr">
+      <c r="AB1" s="91" t="inlineStr">
         <is>
           <t>Original_UIFacLender1ActualAmount</t>
         </is>
       </c>
-      <c r="AC1" s="39" t="inlineStr">
+      <c r="AC1" s="91" t="inlineStr">
         <is>
           <t>Original_UIFacLender2ActualAmount</t>
         </is>
       </c>
-      <c r="AD1" s="39" t="inlineStr">
+      <c r="AD1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacPrimariesAssignees_ActualTotal</t>
         </is>
       </c>
-      <c r="AE1" s="39" t="inlineStr">
+      <c r="AE1" s="91" t="inlineStr">
         <is>
           <t>Original_UIFacHBSharesActualAmount</t>
         </is>
       </c>
-      <c r="AF1" s="39" t="inlineStr">
+      <c r="AF1" s="91" t="inlineStr">
         <is>
           <t>Orig_FacHostBankShares_ActualNetAllTotal</t>
         </is>
       </c>
-      <c r="AG1" s="39" t="inlineStr">
+      <c r="AG1" s="91" t="inlineStr">
         <is>
           <t>Computed_HBActualAmount</t>
         </is>
       </c>
-      <c r="AH1" s="39" t="inlineStr">
+      <c r="AH1" s="91" t="inlineStr">
         <is>
           <t>Computed_Lender1ActualAmount</t>
         </is>
       </c>
-      <c r="AI1" s="39" t="inlineStr">
+      <c r="AI1" s="91" t="inlineStr">
         <is>
           <t>Computed_Lender2ActualAmount</t>
         </is>
       </c>
-      <c r="AJ1" s="39" t="inlineStr">
+      <c r="AJ1" s="91" t="inlineStr">
         <is>
           <t>HBShares_UIActualAmount</t>
         </is>
       </c>
-      <c r="AK1" s="39" t="inlineStr">
+      <c r="AK1" s="91" t="inlineStr">
         <is>
           <t>Updated_UIFaciltyCurrentCmt</t>
         </is>
       </c>
-      <c r="AL1" s="39" t="inlineStr">
+      <c r="AL1" s="91" t="inlineStr">
         <is>
           <t>AMD_EffectiveDate</t>
         </is>
@@ -4640,7 +4763,7 @@
           <t>AmendmentNumber_Prefix</t>
         </is>
       </c>
-      <c r="AN1" s="39" t="inlineStr">
+      <c r="AN1" s="91" t="inlineStr">
         <is>
           <t>AmendmentNo</t>
         </is>
@@ -4665,17 +4788,17 @@
           <t>AmortSched_Status</t>
         </is>
       </c>
-      <c r="AS1" s="39" t="inlineStr">
+      <c r="AS1" s="74" t="inlineStr">
         <is>
           <t>HostBankLender_Percentage</t>
         </is>
       </c>
-      <c r="AT1" s="39" t="inlineStr">
+      <c r="AT1" s="74" t="inlineStr">
         <is>
           <t>Lender1_Percentage</t>
         </is>
       </c>
-      <c r="AU1" s="39" t="inlineStr">
+      <c r="AU1" s="74" t="inlineStr">
         <is>
           <t>Lender2_Percentage</t>
         </is>
@@ -4819,7 +4942,7 @@
       </c>
       <c r="AL2" s="1" t="inlineStr">
         <is>
-          <t>06-Mar-2019</t>
+          <t>25-Apr-2013</t>
         </is>
       </c>
       <c r="AM2" s="75" t="inlineStr">
@@ -4829,7 +4952,7 @@
       </c>
       <c r="AN2" s="1" t="inlineStr">
         <is>
-          <t>82627</t>
+          <t>82235</t>
         </is>
       </c>
       <c r="AO2" s="75" t="inlineStr">
@@ -4859,6 +4982,15 @@
       <c r="AU2" s="75" t="n">
         <v>20</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="90" t="n"/>
+      <c r="D3" s="90" t="n"/>
+      <c r="AM3" s="90" t="n"/>
+      <c r="AO3" s="90" t="n"/>
+      <c r="AP3" s="90" t="n"/>
+      <c r="AQ3" s="90" t="n"/>
+      <c r="AR3" s="90" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6552,8 +6684,8 @@
   </sheetPr>
   <dimension ref="A1:EK14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -6695,7 +6827,7 @@
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="95" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
@@ -6705,7 +6837,7 @@
           <t>OutstandingSelect_Type</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="95" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
@@ -6715,17 +6847,17 @@
           <t>Branch</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="95" t="inlineStr">
         <is>
           <t>Alias_Loan1</t>
         </is>
       </c>
-      <c r="H1" s="26" t="inlineStr">
+      <c r="H1" s="95" t="inlineStr">
         <is>
           <t>Alias_Loan2</t>
         </is>
       </c>
-      <c r="I1" s="26" t="inlineStr">
+      <c r="I1" s="95" t="inlineStr">
         <is>
           <t>Alias_LoanMerge</t>
         </is>
@@ -6735,17 +6867,17 @@
           <t>Status</t>
         </is>
       </c>
-      <c r="K1" s="26" t="inlineStr">
+      <c r="K1" s="95" t="inlineStr">
         <is>
           <t>Outstandings_Loan1</t>
         </is>
       </c>
-      <c r="L1" s="26" t="inlineStr">
+      <c r="L1" s="95" t="inlineStr">
         <is>
           <t>Outstandings_Loan2</t>
         </is>
       </c>
-      <c r="M1" s="26" t="inlineStr">
+      <c r="M1" s="95" t="inlineStr">
         <is>
           <t>LoanMerge_Amount</t>
         </is>
@@ -6755,7 +6887,7 @@
           <t>Repricing_Type</t>
         </is>
       </c>
-      <c r="O1" s="26" t="inlineStr">
+      <c r="O1" s="96" t="inlineStr">
         <is>
           <t>RepricingDate_Loan1</t>
         </is>
@@ -6765,127 +6897,127 @@
           <t>Repricing_Add_Option</t>
         </is>
       </c>
-      <c r="Q1" s="26" t="inlineStr">
+      <c r="Q1" s="96" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="R1" s="26" t="inlineStr">
+      <c r="R1" s="96" t="inlineStr">
         <is>
           <t>ShortName</t>
         </is>
       </c>
-      <c r="S1" s="25" t="inlineStr">
+      <c r="S1" s="78" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="T1" s="25" t="inlineStr">
+      <c r="T1" s="97" t="inlineStr">
         <is>
           <t>Legal_Entity</t>
         </is>
       </c>
-      <c r="U1" s="25" t="inlineStr">
+      <c r="U1" s="97" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="V1" s="25" t="inlineStr">
+      <c r="V1" s="97" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
       </c>
-      <c r="W1" s="26" t="inlineStr">
+      <c r="W1" s="96" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="X1" s="26" t="inlineStr">
+      <c r="X1" s="96" t="inlineStr">
         <is>
           <t>Base_Rate</t>
         </is>
       </c>
-      <c r="Y1" s="26" t="inlineStr">
+      <c r="Y1" s="96" t="inlineStr">
         <is>
           <t>GLEntriesPercentageAmt</t>
         </is>
       </c>
-      <c r="Z1" s="26" t="inlineStr">
+      <c r="Z1" s="96" t="inlineStr">
         <is>
           <t>Loan1_Outstanding_AfterMerge</t>
         </is>
       </c>
-      <c r="AA1" s="26" t="inlineStr">
+      <c r="AA1" s="96" t="inlineStr">
         <is>
           <t>Loan2_Outstanding_AfterMerge</t>
         </is>
       </c>
-      <c r="AB1" s="26" t="inlineStr">
+      <c r="AB1" s="96" t="inlineStr">
         <is>
           <t>LegalEntity_ExpectedAmount</t>
         </is>
       </c>
-      <c r="AC1" s="26" t="inlineStr">
+      <c r="AC1" s="96" t="inlineStr">
         <is>
           <t>Lender1_ExpectedAmount</t>
         </is>
       </c>
-      <c r="AD1" s="26" t="inlineStr">
+      <c r="AD1" s="96" t="inlineStr">
         <is>
           <t>Lender2_ExpectedAmount</t>
         </is>
       </c>
-      <c r="AE1" s="26" t="inlineStr">
+      <c r="AE1" s="96" t="inlineStr">
         <is>
           <t>Facility_HostBankContrGross_Percentage</t>
         </is>
       </c>
-      <c r="AF1" s="26" t="inlineStr">
+      <c r="AF1" s="96" t="inlineStr">
         <is>
           <t>Facility_HostBankOutstandings_Percentage</t>
         </is>
       </c>
-      <c r="AG1" s="26" t="inlineStr">
+      <c r="AG1" s="96" t="inlineStr">
         <is>
           <t>Facility_HostBankAvailToDraw_Percentage</t>
         </is>
       </c>
-      <c r="AH1" s="26" t="inlineStr">
+      <c r="AH1" s="96" t="inlineStr">
         <is>
           <t>LenderShareHost_Percentage</t>
         </is>
       </c>
-      <c r="AI1" s="26" t="inlineStr">
+      <c r="AI1" s="96" t="inlineStr">
         <is>
           <t>Lender1ShareHost_Percentage</t>
         </is>
       </c>
-      <c r="AJ1" s="26" t="inlineStr">
+      <c r="AJ1" s="96" t="inlineStr">
         <is>
           <t>Lender2ShareHost_Percentage</t>
         </is>
       </c>
-      <c r="AK1" s="26" t="inlineStr">
+      <c r="AK1" s="96" t="inlineStr">
         <is>
           <t>Customer_Legal_Name</t>
         </is>
       </c>
-      <c r="AL1" s="26" t="inlineStr">
+      <c r="AL1" s="96" t="inlineStr">
         <is>
           <t>NoticeStatus</t>
         </is>
       </c>
-      <c r="AM1" s="25" t="inlineStr">
+      <c r="AM1" s="97" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
       </c>
-      <c r="AN1" s="25" t="inlineStr">
+      <c r="AN1" s="97" t="inlineStr">
         <is>
           <t>Notice_ContactPerson</t>
         </is>
       </c>
-      <c r="AO1" s="25" t="inlineStr">
+      <c r="AO1" s="97" t="inlineStr">
         <is>
           <t>Notice_Method</t>
         </is>
@@ -6934,7 +7066,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>60000444</t>
+          <t>60000039</t>
         </is>
       </c>
       <c r="J2" s="36" t="inlineStr">
@@ -6954,7 +7086,7 @@
       </c>
       <c r="M2" s="63" t="inlineStr">
         <is>
-          <t>200,000.00</t>
+          <t>27,000,000.00</t>
         </is>
       </c>
       <c r="N2" s="27" t="inlineStr">
@@ -7087,6 +7219,19 @@
           <t>Email</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="92" t="n"/>
+      <c r="D3" s="92" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="G3" s="92" t="n"/>
+      <c r="H3" s="92" t="n"/>
+      <c r="I3" s="92" t="n"/>
+      <c r="K3" s="92" t="n"/>
+      <c r="L3" s="92" t="n"/>
+      <c r="M3" s="92" t="n"/>
+      <c r="N3" s="92" t="n"/>
+      <c r="P3" s="92" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="44" t="n"/>
@@ -7524,7 +7669,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>60000327</t>
+          <t>60000027</t>
         </is>
       </c>
       <c r="F2" s="75" t="inlineStr">
@@ -7862,7 +8007,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>60000444</t>
+          <t>60000039</t>
         </is>
       </c>
       <c r="I2" s="36" t="inlineStr">
@@ -9091,7 +9236,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>60000327</t>
+          <t>60000027</t>
         </is>
       </c>
       <c r="F2" s="75" t="inlineStr">
@@ -10104,7 +10249,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>60000444</t>
+          <t>60000039</t>
         </is>
       </c>
       <c r="G2" s="36" t="n"/>
@@ -10714,7 +10859,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>60000444</t>
+          <t>60000039</t>
         </is>
       </c>
       <c r="N2" s="75" t="inlineStr">

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ08_ComprehensiveDeal.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ08_ComprehensiveDeal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD57B36-5163-4CE6-A9BD-A7CBAFE8E898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C552AFE6-FAB8-47D0-8052-99334E3AB7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" firstSheet="25" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4155" windowWidth="25365" windowHeight="11445" firstSheet="20" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="1345">
   <si>
     <t>rowid</t>
   </si>
@@ -3221,16 +3221,433 @@
     <t>60000027</t>
   </si>
   <si>
-    <t>19-Mar-2019</t>
-  </si>
-  <si>
-    <t>17-Jun-2019</t>
+    <t>29-Apr-2013</t>
+  </si>
+  <si>
+    <t>28-Jul-2013</t>
   </si>
   <si>
     <t>75.0000%</t>
   </si>
   <si>
-    <t>USD LIBOR Option Loan (60000327)</t>
+    <t>USD LIBOR Option Loan (60000027)</t>
+  </si>
+  <si>
+    <t>Capitalization_FromDate</t>
+  </si>
+  <si>
+    <t>Capitalization_ToDate</t>
+  </si>
+  <si>
+    <t>PricingOption</t>
+  </si>
+  <si>
+    <t>Capitalization_PctofPayment</t>
+  </si>
+  <si>
+    <t>Fee_Type</t>
+  </si>
+  <si>
+    <t>Fee_Alias</t>
+  </si>
+  <si>
+    <t>EVGLIQ_FEE_CAP03_CapitalizeOngoingFeeRule</t>
+  </si>
+  <si>
+    <t>01-May-2013</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Borrower1_ShortName</t>
+  </si>
+  <si>
+    <t>Deal_BorrowerLegalName</t>
+  </si>
+  <si>
+    <t>AdminFee_Alias</t>
+  </si>
+  <si>
+    <t>Fee_Amount</t>
+  </si>
+  <si>
+    <t>Credit_Fee_Amount</t>
+  </si>
+  <si>
+    <t>Fee_Currency</t>
+  </si>
+  <si>
+    <t>Borrower1_RTGSRemittanceDescription</t>
+  </si>
+  <si>
+    <t>Borrower_Profile</t>
+  </si>
+  <si>
+    <t>UpfronFee_NoticeMethod</t>
+  </si>
+  <si>
+    <t>GL_Account_1</t>
+  </si>
+  <si>
+    <t>GL_Account_2</t>
+  </si>
+  <si>
+    <t>GL_Account_3</t>
+  </si>
+  <si>
+    <t>Processing_Area</t>
+  </si>
+  <si>
+    <t>Debit_GL_ShortName</t>
+  </si>
+  <si>
+    <t>Credit_GL_ShortName</t>
+  </si>
+  <si>
+    <t>HostBankSharePct</t>
+  </si>
+  <si>
+    <t>GL_Account_Debit</t>
+  </si>
+  <si>
+    <t>GL_Account_Credit</t>
+  </si>
+  <si>
+    <t>Fee_Comment</t>
+  </si>
+  <si>
+    <t>EVGLIQ_MAN_GL01_ManualGLTransaction</t>
+  </si>
+  <si>
+    <t>S8TERM19102018212041</t>
+  </si>
+  <si>
+    <t>IEEBRW764235129</t>
+  </si>
+  <si>
+    <t>AFE000000000001</t>
+  </si>
+  <si>
+    <t>12,400.00</t>
+  </si>
+  <si>
+    <t>DOIT</t>
+  </si>
+  <si>
+    <t>Underwriting Fee</t>
+  </si>
+  <si>
+    <t>46029001838</t>
+  </si>
+  <si>
+    <t>22021001838</t>
+  </si>
+  <si>
+    <t>18567000000</t>
+  </si>
+  <si>
+    <t>Non-Agency Australia</t>
+  </si>
+  <si>
+    <t>Fees Held Awaiting Dispos.</t>
+  </si>
+  <si>
+    <t>Amortized Admin. Fee Income</t>
+  </si>
+  <si>
+    <t>CASHNOSTCLR</t>
+  </si>
+  <si>
+    <t>FEESFHADPAY</t>
+  </si>
+  <si>
+    <t>Scenario 8 Testting</t>
+  </si>
+  <si>
+    <t>Deal_Borrower</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Proc_Area</t>
+  </si>
+  <si>
+    <t>Security_ID</t>
+  </si>
+  <si>
+    <t>Branch_ServicingGroup</t>
+  </si>
+  <si>
+    <t>Customer_ServicingGroup</t>
+  </si>
+  <si>
+    <t>GL_ShortName</t>
+  </si>
+  <si>
+    <t>CustomRI_Method</t>
+  </si>
+  <si>
+    <t>RI_Method</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>SPAP_GLAccount</t>
+  </si>
+  <si>
+    <t>FHAD_GLAccount</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_NoticeMethod</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_Comment</t>
+  </si>
+  <si>
+    <t>GL_Account1</t>
+  </si>
+  <si>
+    <t>GL_Account2</t>
+  </si>
+  <si>
+    <t>GL_Account_ShortName1</t>
+  </si>
+  <si>
+    <t>GL_Account_ShortName2</t>
+  </si>
+  <si>
+    <t>EVGLIQ_MAN_CSH01_ManualCashflowForFeePayment</t>
+  </si>
+  <si>
+    <t>Testing on Manual Cashflow</t>
+  </si>
+  <si>
+    <t>Special Acc't Pay.</t>
+  </si>
+  <si>
+    <t>DDAAUD1-3733</t>
+  </si>
+  <si>
+    <t>Special Accounts Payable</t>
+  </si>
+  <si>
+    <t>Demand Deposit Account</t>
+  </si>
+  <si>
+    <t>SPAP</t>
+  </si>
+  <si>
+    <t>28098000000</t>
+  </si>
+  <si>
+    <t>Testing Manual Cashflow</t>
+  </si>
+  <si>
+    <t>Loan_CycleNumber</t>
+  </si>
+  <si>
+    <t>Computed_LoanIntProjectedCycleDue</t>
+  </si>
+  <si>
+    <t>Pro_Rate</t>
+  </si>
+  <si>
+    <t>Loan_Borrower</t>
+  </si>
+  <si>
+    <t>Lender_Name1</t>
+  </si>
+  <si>
+    <t>Lender_Name2</t>
+  </si>
+  <si>
+    <t>Lender_Name3</t>
+  </si>
+  <si>
+    <t>Lender_ShareAmount1</t>
+  </si>
+  <si>
+    <t>Lender_ShareAmount2</t>
+  </si>
+  <si>
+    <t>Lender_ShareAmount3</t>
+  </si>
+  <si>
+    <t>Lender_SharePercentage1</t>
+  </si>
+  <si>
+    <t>Lender_SharePercentage2</t>
+  </si>
+  <si>
+    <t>Lender_SharePercentage3</t>
+  </si>
+  <si>
+    <t>IncompleteCashfromBorrower_Percentage</t>
+  </si>
+  <si>
+    <t>IncompleteCashtoLender_Percentage</t>
+  </si>
+  <si>
+    <t>HostBankCashNet_Percentage</t>
+  </si>
+  <si>
+    <t>CashflowBorrower_Percentage</t>
+  </si>
+  <si>
+    <t>CashflowLender1_Percentage</t>
+  </si>
+  <si>
+    <t>CashflowLender2_Percentage</t>
+  </si>
+  <si>
+    <t>IncompleteCashfromBorrower_Amount</t>
+  </si>
+  <si>
+    <t>IncompleteCashtoLender_Amount</t>
+  </si>
+  <si>
+    <t>HostBankCashNet_Amount</t>
+  </si>
+  <si>
+    <t>AccruedInterestRecord_ShortName</t>
+  </si>
+  <si>
+    <t>HostBankDebit_LoanAmount_Percentage</t>
+  </si>
+  <si>
+    <t>BorrowerDebit_Percentage</t>
+  </si>
+  <si>
+    <t>Lender1Credit_Percentage</t>
+  </si>
+  <si>
+    <t>Lender2Credit_Percentage</t>
+  </si>
+  <si>
+    <t>HostBankCredit_AccruedInterest_Percentage</t>
+  </si>
+  <si>
+    <t>IntentNoticeStatus</t>
+  </si>
+  <si>
+    <t>Borrower_LegalName</t>
+  </si>
+  <si>
+    <t>Lender1_LegalName</t>
+  </si>
+  <si>
+    <t>Lender2_LegalName</t>
+  </si>
+  <si>
+    <t>Notice_ContactEmail</t>
+  </si>
+  <si>
+    <t>WIP_TransactionTypePayments</t>
+  </si>
+  <si>
+    <t>WIP_AwaitingApprovalStatus</t>
+  </si>
+  <si>
+    <t>WIP_PaymentType</t>
+  </si>
+  <si>
+    <t>WIP_AwaitingReleaseStatus</t>
+  </si>
+  <si>
+    <t>Loan_Currency1</t>
+  </si>
+  <si>
+    <t>Orig_FacilityProposedcmt</t>
+  </si>
+  <si>
+    <t>Orig_FacilityClosingCmt</t>
+  </si>
+  <si>
+    <t>Orig_FacilityOutstandings</t>
+  </si>
+  <si>
+    <t>Orig_LoanGlobalOriginal</t>
+  </si>
+  <si>
+    <t>Orig_LoanGlobalCurrent</t>
+  </si>
+  <si>
+    <t>Orig_LoanHostBankGross</t>
+  </si>
+  <si>
+    <t>Orig_LoanHostBankNet</t>
+  </si>
+  <si>
+    <t>HostBankDebit_Amount</t>
+  </si>
+  <si>
+    <t>BorrowerDebit_Amount</t>
+  </si>
+  <si>
+    <t>Lender1Credit_Amount</t>
+  </si>
+  <si>
+    <t>Lender2Credit_Amount</t>
+  </si>
+  <si>
+    <t>HostBankCredit_Amount</t>
+  </si>
+  <si>
+    <t>CurrentAmount_ExpectedIncreasePercentage</t>
+  </si>
+  <si>
+    <t>Computed_IncreasedCurrentAmountinUSD</t>
+  </si>
+  <si>
+    <t>FXrate_fromAPI</t>
+  </si>
+  <si>
+    <t>HostBankGross_Percentage</t>
+  </si>
+  <si>
+    <t>HostBankNet_Percentage</t>
+  </si>
+  <si>
+    <t>Computed_IncreasedCurrentAmountinAUD</t>
+  </si>
+  <si>
+    <t>EVGLIQ_INT_CAP03_InterestPaymentForCapitalizeInterest</t>
+  </si>
+  <si>
+    <t>3232.88</t>
+  </si>
+  <si>
+    <t>Projected Due</t>
+  </si>
+  <si>
+    <t>IMT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">808.22  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">363.69  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">444.53  </t>
+  </si>
+  <si>
+    <t>Accrued Interest Rec.</t>
+  </si>
+  <si>
+    <t>IDTBRW21134</t>
+  </si>
+  <si>
+    <t>BPILEND28142</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Interest Payment</t>
   </si>
   <si>
     <t>S8REV26022019143011</t>
@@ -3341,417 +3758,6 @@
     <t>S8REV30052019143829</t>
   </si>
   <si>
-    <t>Capitalization_FromDate</t>
-  </si>
-  <si>
-    <t>Capitalization_ToDate</t>
-  </si>
-  <si>
-    <t>PricingOption</t>
-  </si>
-  <si>
-    <t>Capitalization_PctofPayment</t>
-  </si>
-  <si>
-    <t>Fee_Type</t>
-  </si>
-  <si>
-    <t>Fee_Alias</t>
-  </si>
-  <si>
-    <t>EVGLIQ_FEE_CAP03_CapitalizeOngoingFeeRule</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Borrower1_ShortName</t>
-  </si>
-  <si>
-    <t>Deal_BorrowerLegalName</t>
-  </si>
-  <si>
-    <t>AdminFee_Alias</t>
-  </si>
-  <si>
-    <t>Fee_Amount</t>
-  </si>
-  <si>
-    <t>Credit_Fee_Amount</t>
-  </si>
-  <si>
-    <t>Fee_Currency</t>
-  </si>
-  <si>
-    <t>Borrower1_RTGSRemittanceDescription</t>
-  </si>
-  <si>
-    <t>Borrower_Profile</t>
-  </si>
-  <si>
-    <t>UpfronFee_NoticeMethod</t>
-  </si>
-  <si>
-    <t>GL_Account_1</t>
-  </si>
-  <si>
-    <t>GL_Account_2</t>
-  </si>
-  <si>
-    <t>GL_Account_3</t>
-  </si>
-  <si>
-    <t>Processing_Area</t>
-  </si>
-  <si>
-    <t>Debit_GL_ShortName</t>
-  </si>
-  <si>
-    <t>Credit_GL_ShortName</t>
-  </si>
-  <si>
-    <t>HostBankSharePct</t>
-  </si>
-  <si>
-    <t>GL_Account_Debit</t>
-  </si>
-  <si>
-    <t>GL_Account_Credit</t>
-  </si>
-  <si>
-    <t>EVGLIQ_MAN_GL01_ManualGLTransaction</t>
-  </si>
-  <si>
-    <t>S8TERM19102018212041</t>
-  </si>
-  <si>
-    <t>IEEBRW764235129</t>
-  </si>
-  <si>
-    <t>AFE000000000214</t>
-  </si>
-  <si>
-    <t>12,400.00</t>
-  </si>
-  <si>
-    <t>DOIT</t>
-  </si>
-  <si>
-    <t>Underwriting Fee</t>
-  </si>
-  <si>
-    <t>46029001838</t>
-  </si>
-  <si>
-    <t>22021001838</t>
-  </si>
-  <si>
-    <t>18567000000</t>
-  </si>
-  <si>
-    <t>Non-Agency Australia</t>
-  </si>
-  <si>
-    <t>Fees Held Awaiting Dispos.</t>
-  </si>
-  <si>
-    <t>Amortized Admin. Fee Income</t>
-  </si>
-  <si>
-    <t>012689</t>
-  </si>
-  <si>
-    <t>CASHNOSTCLR</t>
-  </si>
-  <si>
-    <t>FEESFHADPAY</t>
-  </si>
-  <si>
-    <t>Deal_Borrower</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Proc_Area</t>
-  </si>
-  <si>
-    <t>Security_ID</t>
-  </si>
-  <si>
-    <t>Branch_ServicingGroup</t>
-  </si>
-  <si>
-    <t>Customer_ServicingGroup</t>
-  </si>
-  <si>
-    <t>GL_ShortName</t>
-  </si>
-  <si>
-    <t>CustomRI_Method</t>
-  </si>
-  <si>
-    <t>RI_Method</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>SPAP_GLAccount</t>
-  </si>
-  <si>
-    <t>FHAD_GLAccount</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_NoticeMethod</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_Comment</t>
-  </si>
-  <si>
-    <t>GL_Account1</t>
-  </si>
-  <si>
-    <t>GL_Account2</t>
-  </si>
-  <si>
-    <t>EVGLIQ_MAN_CSH01_ManualCashflowForFeePayment</t>
-  </si>
-  <si>
-    <t>07-Dec-2018</t>
-  </si>
-  <si>
-    <t>Testing on Manual Cashflow</t>
-  </si>
-  <si>
-    <t>LENDING</t>
-  </si>
-  <si>
-    <t>Special Acc't Pay.</t>
-  </si>
-  <si>
-    <t>DDAAUD1-3733</t>
-  </si>
-  <si>
-    <t>Special Accounts Payable</t>
-  </si>
-  <si>
-    <t>Demand Deposit Account</t>
-  </si>
-  <si>
-    <t>SPAP</t>
-  </si>
-  <si>
-    <t>28098000000</t>
-  </si>
-  <si>
-    <t>Testing Manual Cashflow</t>
-  </si>
-  <si>
-    <t>Loan_CycleNumber</t>
-  </si>
-  <si>
-    <t>Computed_LoanIntProjectedCycleDue</t>
-  </si>
-  <si>
-    <t>Pro_Rate</t>
-  </si>
-  <si>
-    <t>Loan_Borrower</t>
-  </si>
-  <si>
-    <t>Lender_Name1</t>
-  </si>
-  <si>
-    <t>Lender_Name2</t>
-  </si>
-  <si>
-    <t>Lender_Name3</t>
-  </si>
-  <si>
-    <t>Lender_ShareAmount1</t>
-  </si>
-  <si>
-    <t>Lender_ShareAmount2</t>
-  </si>
-  <si>
-    <t>Lender_ShareAmount3</t>
-  </si>
-  <si>
-    <t>Lender_SharePercentage1</t>
-  </si>
-  <si>
-    <t>Lender_SharePercentage2</t>
-  </si>
-  <si>
-    <t>Lender_SharePercentage3</t>
-  </si>
-  <si>
-    <t>IncompleteCashfromBorrower_Percentage</t>
-  </si>
-  <si>
-    <t>IncompleteCashtoLender_Percentage</t>
-  </si>
-  <si>
-    <t>HostBankCashNet_Percentage</t>
-  </si>
-  <si>
-    <t>CashflowBorrower_Percentage</t>
-  </si>
-  <si>
-    <t>CashflowLender1_Percentage</t>
-  </si>
-  <si>
-    <t>CashflowLender2_Percentage</t>
-  </si>
-  <si>
-    <t>IncompleteCashfromBorrower_Amount</t>
-  </si>
-  <si>
-    <t>IncompleteCashtoLender_Amount</t>
-  </si>
-  <si>
-    <t>HostBankCashNet_Amount</t>
-  </si>
-  <si>
-    <t>AccruedInterestRecord_ShortName</t>
-  </si>
-  <si>
-    <t>HostBankDebit_LoanAmount_Percentage</t>
-  </si>
-  <si>
-    <t>BorrowerDebit_Percentage</t>
-  </si>
-  <si>
-    <t>Lender1Credit_Percentage</t>
-  </si>
-  <si>
-    <t>Lender2Credit_Percentage</t>
-  </si>
-  <si>
-    <t>HostBankCredit_AccruedInterest_Percentage</t>
-  </si>
-  <si>
-    <t>IntentNoticeStatus</t>
-  </si>
-  <si>
-    <t>Borrower_LegalName</t>
-  </si>
-  <si>
-    <t>Lender1_LegalName</t>
-  </si>
-  <si>
-    <t>Lender2_LegalName</t>
-  </si>
-  <si>
-    <t>Notice_ContactEmail</t>
-  </si>
-  <si>
-    <t>WIP_TransactionTypePayments</t>
-  </si>
-  <si>
-    <t>WIP_AwaitingApprovalStatus</t>
-  </si>
-  <si>
-    <t>WIP_PaymentType</t>
-  </si>
-  <si>
-    <t>WIP_AwaitingReleaseStatus</t>
-  </si>
-  <si>
-    <t>Loan_Currency1</t>
-  </si>
-  <si>
-    <t>Orig_FacilityProposedcmt</t>
-  </si>
-  <si>
-    <t>Orig_FacilityClosingCmt</t>
-  </si>
-  <si>
-    <t>Orig_FacilityOutstandings</t>
-  </si>
-  <si>
-    <t>Orig_LoanGlobalOriginal</t>
-  </si>
-  <si>
-    <t>Orig_LoanGlobalCurrent</t>
-  </si>
-  <si>
-    <t>Orig_LoanHostBankGross</t>
-  </si>
-  <si>
-    <t>Orig_LoanHostBankNet</t>
-  </si>
-  <si>
-    <t>HostBankDebit_Amount</t>
-  </si>
-  <si>
-    <t>BorrowerDebit_Amount</t>
-  </si>
-  <si>
-    <t>Lender1Credit_Amount</t>
-  </si>
-  <si>
-    <t>Lender2Credit_Amount</t>
-  </si>
-  <si>
-    <t>HostBankCredit_Amount</t>
-  </si>
-  <si>
-    <t>CurrentAmount_ExpectedIncreasePercentage</t>
-  </si>
-  <si>
-    <t>Computed_IncreasedCurrentAmountinUSD</t>
-  </si>
-  <si>
-    <t>FXrate_fromAPI</t>
-  </si>
-  <si>
-    <t>HostBankGross_Percentage</t>
-  </si>
-  <si>
-    <t>HostBankNet_Percentage</t>
-  </si>
-  <si>
-    <t>Computed_IncreasedCurrentAmountinAUD</t>
-  </si>
-  <si>
-    <t>EVGLIQ_INT_CAP03_InterestPaymentForCapitalizeInterest</t>
-  </si>
-  <si>
-    <t>3232.88</t>
-  </si>
-  <si>
-    <t>Projected Due</t>
-  </si>
-  <si>
-    <t>IMT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">808.22  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">363.69  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">444.53  </t>
-  </si>
-  <si>
-    <t>Accrued Interest Rec.</t>
-  </si>
-  <si>
-    <t>IDTBRW21134</t>
-  </si>
-  <si>
-    <t>BPILEND28142</t>
-  </si>
-  <si>
-    <t>Payments</t>
-  </si>
-  <si>
-    <t>Interest Payment</t>
-  </si>
-  <si>
     <t>S8REV06062019183347</t>
   </si>
   <si>
@@ -4079,10 +4085,7 @@
     <t>Actual_CustomCBAInterface_TL_FXRATES_02</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>AU</t>
+    <t>Establishment/Extension Fee</t>
   </si>
 </sst>
 </file>
@@ -4343,7 +4346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4400,7 +4403,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4512,6 +4514,14 @@
     <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4832,8 +4842,8 @@
   <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW1" sqref="AW1:AW2"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5069,9 +5079,7 @@
       <c r="AV1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
-        <v>1342</v>
-      </c>
+      <c r="AW1" s="6"/>
       <c r="AX1" s="6"/>
       <c r="AY1" s="6"/>
       <c r="AZ1" s="6"/>
@@ -5270,9 +5278,6 @@
       <c r="AV2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AW2" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -5286,36 +5291,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="75" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="75" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="75" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="75" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="21" style="75" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="75" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="75" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="75" customWidth="1"/>
-    <col min="15" max="15" width="20" style="75" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="75" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="75" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" style="75" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="74" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="74" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="21" style="74" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="74" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="74" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="74" customWidth="1"/>
+    <col min="15" max="15" width="20" style="74" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="74" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="74" customWidth="1"/>
+    <col min="18" max="18" width="28.7109375" style="74" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -5373,15 +5378,12 @@
       <c r="S1" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>733</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -5399,44 +5401,41 @@
       <c r="G2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="74" t="s">
         <v>584</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="74" t="s">
         <v>586</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="74" t="s">
         <v>347</v>
       </c>
-      <c r="L2" s="75">
+      <c r="L2" s="74">
         <v>3.5</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>602</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="Q2" s="75" t="s">
+      <c r="Q2" s="74" t="s">
         <v>736</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="74" t="s">
         <v>737</v>
       </c>
-      <c r="S2" s="75">
+      <c r="S2" s="74">
         <v>2</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -5451,36 +5450,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="75" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="75" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="75" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="75" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="21" style="75" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="75" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="75" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="75" customWidth="1"/>
-    <col min="15" max="15" width="20" style="75" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="75" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="75" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" style="75" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="74" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="74" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="21" style="74" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="74" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="74" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="74" customWidth="1"/>
+    <col min="15" max="15" width="20" style="74" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="74" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="74" customWidth="1"/>
+    <col min="18" max="18" width="28.7109375" style="74" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -5541,15 +5540,12 @@
       <c r="T1" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>733</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -5567,44 +5563,41 @@
       <c r="G2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="74" t="s">
         <v>584</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="74" t="s">
         <v>586</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="74" t="s">
         <v>347</v>
       </c>
-      <c r="L2" s="75">
+      <c r="L2" s="74">
         <v>3.5</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>602</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="Q2" s="75" t="s">
+      <c r="Q2" s="74" t="s">
         <v>736</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="74" t="s">
         <v>737</v>
       </c>
-      <c r="S2" s="75">
+      <c r="S2" s="74">
         <v>2</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -5619,29 +5612,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="75" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="75" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="75" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="75" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="75" customWidth="1"/>
-    <col min="12" max="12" width="21" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="74" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="74" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="74" customWidth="1"/>
+    <col min="12" max="12" width="21" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -5678,15 +5671,12 @@
       <c r="L1" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>733</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -5695,32 +5685,29 @@
       <c r="D2" s="32" t="s">
         <v>747</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>748</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>749</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="74" t="s">
         <v>750</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="74">
         <v>2</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="99" t="s">
         <v>348</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="99">
         <v>100</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -5735,211 +5722,208 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AV18"/>
+  <dimension ref="A1:AU18"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV2"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="75" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" style="75" customWidth="1"/>
-    <col min="8" max="9" width="20.5703125" style="75" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="75" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="75" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="75" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="75" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" style="75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" style="75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="40.85546875" style="75" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" style="75" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="75" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" style="75" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" style="75" customWidth="1"/>
-    <col min="28" max="28" width="11" style="75" customWidth="1"/>
-    <col min="29" max="29" width="19.140625" style="75" customWidth="1"/>
-    <col min="30" max="30" width="6.140625" style="75" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="75" customWidth="1"/>
-    <col min="32" max="32" width="16.140625" style="75" customWidth="1"/>
-    <col min="33" max="33" width="20.28515625" style="75" customWidth="1"/>
-    <col min="34" max="34" width="17.85546875" style="75" customWidth="1"/>
-    <col min="35" max="35" width="11" style="75" customWidth="1"/>
-    <col min="36" max="36" width="19" style="75" customWidth="1"/>
-    <col min="37" max="37" width="25.5703125" style="75" customWidth="1"/>
-    <col min="38" max="38" width="10.5703125" style="75" customWidth="1"/>
-    <col min="39" max="39" width="25.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.5703125" style="75" customWidth="1"/>
-    <col min="41" max="41" width="20" style="75" customWidth="1"/>
-    <col min="42" max="42" width="15.85546875" style="75" customWidth="1"/>
-    <col min="43" max="43" width="9.140625" style="75" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" style="75" customWidth="1"/>
-    <col min="45" max="45" width="8" style="75" customWidth="1"/>
-    <col min="46" max="46" width="9.140625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="74" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="74" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" style="74" customWidth="1"/>
+    <col min="8" max="9" width="20.5703125" style="74" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="74" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="74" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="74" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="74" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="74" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="74" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" style="74" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" style="74" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="74" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.85546875" style="74" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" style="74" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="74" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" style="74" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" style="74" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="74" customWidth="1"/>
+    <col min="28" max="28" width="11" style="74" customWidth="1"/>
+    <col min="29" max="29" width="19.140625" style="74" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" style="74" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" style="74" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" style="74" customWidth="1"/>
+    <col min="33" max="33" width="20.28515625" style="74" customWidth="1"/>
+    <col min="34" max="34" width="17.85546875" style="74" customWidth="1"/>
+    <col min="35" max="35" width="11" style="74" customWidth="1"/>
+    <col min="36" max="36" width="19" style="74" customWidth="1"/>
+    <col min="37" max="37" width="25.5703125" style="74" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" style="74" customWidth="1"/>
+    <col min="39" max="39" width="25.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.5703125" style="74" customWidth="1"/>
+    <col min="41" max="41" width="20" style="74" customWidth="1"/>
+    <col min="42" max="42" width="15.85546875" style="74" customWidth="1"/>
+    <col min="43" max="43" width="9.140625" style="74" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" style="74" customWidth="1"/>
+    <col min="45" max="45" width="8" style="74" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" style="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:47" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>752</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>753</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>754</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>755</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>756</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="75" t="s">
         <v>721</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="75" t="s">
         <v>757</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>758</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>759</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>760</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="70" t="s">
         <v>761</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="70" t="s">
         <v>762</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="70" t="s">
         <v>763</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="70" t="s">
         <v>764</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="70" t="s">
         <v>765</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="70" t="s">
         <v>766</v>
       </c>
-      <c r="U1" s="71" t="s">
+      <c r="U1" s="70" t="s">
         <v>767</v>
       </c>
-      <c r="V1" s="71" t="s">
+      <c r="V1" s="70" t="s">
         <v>768</v>
       </c>
-      <c r="W1" s="71" t="s">
+      <c r="W1" s="70" t="s">
         <v>769</v>
       </c>
-      <c r="X1" s="73" t="s">
+      <c r="X1" s="72" t="s">
         <v>770</v>
       </c>
-      <c r="Y1" s="74" t="s">
+      <c r="Y1" s="73" t="s">
         <v>771</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="36" t="s">
         <v>772</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AA1" s="36" t="s">
         <v>773</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AB1" s="36" t="s">
         <v>774</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="36" t="s">
         <v>775</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="36" t="s">
         <v>776</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AE1" s="36" t="s">
         <v>777</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AF1" s="36" t="s">
         <v>778</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="36" t="s">
         <v>779</v>
       </c>
-      <c r="AH1" s="72" t="s">
+      <c r="AH1" s="71" t="s">
         <v>780</v>
       </c>
-      <c r="AI1" s="72" t="s">
+      <c r="AI1" s="71" t="s">
         <v>781</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AJ1" s="36" t="s">
         <v>782</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AK1" s="36" t="s">
         <v>783</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AL1" s="36" t="s">
         <v>784</v>
       </c>
-      <c r="AM1" s="37" t="s">
+      <c r="AM1" s="36" t="s">
         <v>785</v>
       </c>
-      <c r="AN1" s="73" t="s">
+      <c r="AN1" s="72" t="s">
         <v>786</v>
       </c>
-      <c r="AO1" s="73" t="s">
+      <c r="AO1" s="72" t="s">
         <v>787</v>
       </c>
-      <c r="AP1" s="74" t="s">
+      <c r="AP1" s="73" t="s">
         <v>728</v>
       </c>
-      <c r="AQ1" s="74" t="s">
+      <c r="AQ1" s="73" t="s">
         <v>729</v>
       </c>
-      <c r="AR1" s="74" t="s">
+      <c r="AR1" s="73" t="s">
         <v>788</v>
       </c>
-      <c r="AS1" s="73" t="s">
+      <c r="AS1" s="72" t="s">
         <v>789</v>
       </c>
-      <c r="AT1" s="73" t="s">
+      <c r="AT1" s="72" t="s">
         <v>790</v>
       </c>
-      <c r="AU1" s="39" t="s">
+      <c r="AU1" s="38" t="s">
         <v>791</v>
       </c>
-      <c r="AV1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:48" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:47" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>792</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -5957,73 +5941,73 @@
       <c r="G2" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="74">
         <v>0.25</v>
       </c>
-      <c r="I2" s="75">
+      <c r="I2" s="74">
         <v>0.2</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="74" t="s">
         <v>793</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>794</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="74" t="s">
         <v>795</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="74" t="s">
         <v>796</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="Q2" s="75" t="s">
+      <c r="Q2" s="74" t="s">
         <v>797</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="74" t="s">
         <v>798</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="S2" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="74" t="s">
         <v>799</v>
       </c>
-      <c r="U2" s="75" t="s">
+      <c r="U2" s="74" t="s">
         <v>615</v>
       </c>
-      <c r="V2" s="75" t="s">
+      <c r="V2" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="W2" s="75" t="s">
+      <c r="W2" s="74" t="s">
         <v>616</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="Z2" s="75" t="s">
+      <c r="Z2" s="74" t="s">
         <v>794</v>
       </c>
-      <c r="AA2" s="75" t="s">
+      <c r="AA2" s="74" t="s">
         <v>801</v>
       </c>
-      <c r="AB2" s="75">
+      <c r="AB2" s="74">
         <v>25</v>
       </c>
-      <c r="AC2" s="75">
+      <c r="AC2" s="74">
         <v>20</v>
       </c>
-      <c r="AD2" s="75">
+      <c r="AD2" s="74">
         <v>0</v>
       </c>
-      <c r="AE2" s="75" t="s">
+      <c r="AE2" s="74" t="s">
         <v>802</v>
       </c>
-      <c r="AF2" s="75" t="s">
+      <c r="AF2" s="74" t="s">
         <v>803</v>
       </c>
-      <c r="AG2" s="75">
+      <c r="AG2" s="74">
         <v>100</v>
       </c>
       <c r="AH2" s="3" t="s">
@@ -6032,26 +6016,23 @@
       <c r="AI2" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="AJ2" s="75" t="s">
+      <c r="AJ2" s="74" t="s">
         <v>805</v>
       </c>
-      <c r="AK2" s="75" t="s">
+      <c r="AK2" s="74" t="s">
         <v>806</v>
       </c>
-      <c r="AL2" s="75" t="s">
+      <c r="AL2" s="74" t="s">
         <v>795</v>
       </c>
-      <c r="AM2" s="75" t="s">
+      <c r="AM2" s="74" t="s">
         <v>807</v>
       </c>
-      <c r="AT2" s="75" t="s">
+      <c r="AT2" s="74" t="s">
         <v>808</v>
       </c>
-      <c r="AU2" s="75" t="s">
+      <c r="AU2" s="74" t="s">
         <v>332</v>
-      </c>
-      <c r="AV2" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="17" spans="46:46" x14ac:dyDescent="0.2">
@@ -6074,45 +6055,45 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="75" customWidth="1"/>
-    <col min="2" max="2" width="32" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="75" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" style="75" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="74" customWidth="1"/>
+    <col min="2" max="2" width="32" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="74" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="74" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="74" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="74" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>809</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="84" t="s">
         <v>810</v>
       </c>
       <c r="F1" s="25" t="s">
@@ -6121,7 +6102,7 @@
       <c r="G1" s="25" t="s">
         <v>811</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="76" t="s">
         <v>568</v>
       </c>
       <c r="I1" s="25" t="s">
@@ -6145,15 +6126,13 @@
       <c r="O1" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>1342</v>
-      </c>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>814</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -6165,40 +6144,37 @@
       <c r="E2" s="27" t="s">
         <v>815</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>816</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="74" t="s">
         <v>817</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>818</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="74" t="s">
         <v>820</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="74" t="s">
         <v>821</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="74" t="s">
         <v>822</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="O2" s="75">
+      <c r="O2" s="74">
         <v>1</v>
       </c>
-      <c r="P2" s="20" t="s">
-        <v>1343</v>
-      </c>
-      <c r="Q2" s="75"/>
+      <c r="Q2" s="74"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6214,49 +6190,49 @@
   </sheetPr>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1:AT2"/>
+    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU7" sqref="AU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="36" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="36" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="36" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="36" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="36" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="36" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" style="36" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" style="36" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" style="36" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="36" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" style="36" customWidth="1"/>
-    <col min="22" max="23" width="17.7109375" style="36" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" style="36" customWidth="1"/>
-    <col min="25" max="25" width="20" style="36" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" style="36" customWidth="1"/>
-    <col min="27" max="27" width="21" style="36" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" style="36" customWidth="1"/>
-    <col min="29" max="29" width="21" style="36" customWidth="1"/>
-    <col min="30" max="32" width="13.85546875" style="36" customWidth="1"/>
-    <col min="33" max="33" width="38.5703125" style="36" customWidth="1"/>
-    <col min="34" max="34" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="19.85546875" style="36" customWidth="1"/>
-    <col min="37" max="37" width="26.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="25.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26" style="36" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="26" style="36" customWidth="1"/>
-    <col min="43" max="43" width="15.42578125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="99" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="99" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="99" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="99" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="99" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="99" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="99" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="99" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="99" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="99" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="99" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="99" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="99" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="99" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="99" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="99" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="99" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="99" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="99" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" style="99" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" style="99" customWidth="1"/>
+    <col min="22" max="23" width="17.7109375" style="99" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" style="99" customWidth="1"/>
+    <col min="25" max="25" width="20" style="99" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" style="99" customWidth="1"/>
+    <col min="27" max="27" width="21" style="99" customWidth="1"/>
+    <col min="28" max="28" width="19.5703125" style="99" customWidth="1"/>
+    <col min="29" max="29" width="21" style="99" customWidth="1"/>
+    <col min="30" max="32" width="13.85546875" style="99" customWidth="1"/>
+    <col min="33" max="33" width="38.5703125" style="99" customWidth="1"/>
+    <col min="34" max="34" width="19.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="19.85546875" style="99" customWidth="1"/>
+    <col min="37" max="37" width="26.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="25.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26" style="99" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="26" style="99" customWidth="1"/>
+    <col min="43" max="43" width="15.42578125" style="99" customWidth="1"/>
     <col min="44" max="44" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="29" bestFit="1" customWidth="1"/>
   </cols>
@@ -6274,25 +6250,25 @@
       <c r="D1" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="77" t="s">
         <v>789</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>823</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="76" t="s">
         <v>824</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="76" t="s">
         <v>825</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>826</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="76" t="s">
         <v>630</v>
       </c>
       <c r="L1" s="25" t="s">
@@ -6301,13 +6277,13 @@
       <c r="M1" s="25" t="s">
         <v>828</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="N1" s="78" t="s">
         <v>829</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="O1" s="78" t="s">
         <v>830</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="P1" s="77" t="s">
         <v>831</v>
       </c>
       <c r="Q1" s="25" t="s">
@@ -6322,13 +6298,13 @@
       <c r="T1" s="25" t="s">
         <v>835</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="U1" s="76" t="s">
         <v>478</v>
       </c>
-      <c r="V1" s="77" t="s">
+      <c r="V1" s="76" t="s">
         <v>836</v>
       </c>
-      <c r="W1" s="77" t="s">
+      <c r="W1" s="76" t="s">
         <v>837</v>
       </c>
       <c r="X1" s="25" t="s">
@@ -6358,7 +6334,7 @@
       <c r="AF1" s="25" t="s">
         <v>844</v>
       </c>
-      <c r="AG1" s="85" t="s">
+      <c r="AG1" s="84" t="s">
         <v>809</v>
       </c>
       <c r="AH1" s="25" t="s">
@@ -6391,21 +6367,18 @@
       <c r="AQ1" s="25" t="s">
         <v>854</v>
       </c>
-      <c r="AR1" s="78" t="s">
+      <c r="AR1" s="77" t="s">
         <v>855</v>
       </c>
-      <c r="AS1" s="78" t="s">
+      <c r="AS1" s="77" t="s">
         <v>856</v>
       </c>
-      <c r="AT1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:47" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:47" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>857</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -6417,134 +6390,132 @@
       <c r="E2" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="99" t="s">
         <v>646</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="88" t="s">
         <v>581</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="85" t="s">
         <v>859</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="99" t="s">
         <v>605</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="99" t="s">
         <v>332</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>860</v>
       </c>
-      <c r="N2" s="88" t="s">
+      <c r="N2" s="87" t="s">
         <v>861</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="87" t="s">
         <v>862</v>
       </c>
-      <c r="P2" s="81">
+      <c r="P2" s="80">
         <v>41389</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="99" t="s">
         <v>863</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="99" t="s">
         <v>864</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="99" t="s">
         <v>865</v>
       </c>
       <c r="T2" s="31" t="s">
         <v>866</v>
       </c>
-      <c r="U2" s="86" t="s">
+      <c r="U2" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="V2" s="86" t="s">
+      <c r="V2" s="85" t="s">
         <v>867</v>
       </c>
-      <c r="W2" s="86" t="s">
+      <c r="W2" s="85" t="s">
         <v>868</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="X2" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AB2" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="AD2" s="75">
+      <c r="AD2" s="74">
         <v>55</v>
       </c>
-      <c r="AE2" s="75">
+      <c r="AE2" s="74">
         <v>25</v>
       </c>
-      <c r="AF2" s="75">
+      <c r="AF2" s="74">
         <v>20</v>
       </c>
-      <c r="AG2" s="87" t="s">
+      <c r="AG2" s="86" t="s">
         <v>869</v>
       </c>
-      <c r="AH2" s="42" t="s">
+      <c r="AH2" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="AI2" s="36" t="s">
+      <c r="AI2" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="AJ2" s="36" t="s">
+      <c r="AJ2" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="AK2" s="75" t="s">
+      <c r="AK2" s="74" t="s">
         <v>871</v>
       </c>
-      <c r="AL2" s="75" t="s">
+      <c r="AL2" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="AM2" s="75" t="s">
+      <c r="AM2" s="74" t="s">
         <v>873</v>
       </c>
-      <c r="AN2" s="75" t="s">
+      <c r="AN2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="75" t="s">
+      <c r="AO2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="75" t="s">
+      <c r="AP2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AQ2" s="87"/>
+      <c r="AQ2" s="86"/>
       <c r="AR2" s="3" t="s">
         <v>620</v>
       </c>
       <c r="AS2" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AT2" s="20" t="s">
-        <v>1343</v>
-      </c>
+      <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
     </row>
-    <row r="3" spans="1:47" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:47" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>875</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -6556,125 +6527,122 @@
       <c r="E3" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="99" t="s">
         <v>646</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="88" t="s">
         <v>581</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="85"/>
+      <c r="J3" s="99" t="s">
         <v>605</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="99" t="s">
         <v>332</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="99" t="s">
         <v>877</v>
       </c>
-      <c r="N3" s="88" t="s">
+      <c r="N3" s="87" t="s">
         <v>861</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="87" t="s">
         <v>862</v>
       </c>
-      <c r="P3" s="81">
+      <c r="P3" s="80">
         <v>41389</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="99" t="s">
         <v>863</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="99" t="s">
         <v>863</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="99" t="s">
         <v>865</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="99" t="s">
         <v>878</v>
       </c>
-      <c r="U3" s="86" t="s">
+      <c r="U3" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="V3" s="86" t="s">
+      <c r="V3" s="85" t="s">
         <v>867</v>
       </c>
-      <c r="W3" s="86" t="s">
+      <c r="W3" s="85" t="s">
         <v>868</v>
       </c>
-      <c r="X3" s="36" t="s">
+      <c r="X3" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="Y3" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="Z3" s="36" t="s">
+      <c r="Z3" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AA3" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="AB3" s="36" t="s">
+      <c r="AB3" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AC3" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="AD3" s="75">
+      <c r="AD3" s="74">
         <v>55</v>
       </c>
-      <c r="AE3" s="75">
+      <c r="AE3" s="74">
         <v>25</v>
       </c>
-      <c r="AF3" s="75">
+      <c r="AF3" s="74">
         <v>20</v>
       </c>
-      <c r="AG3" s="87" t="s">
+      <c r="AG3" s="86" t="s">
         <v>869</v>
       </c>
-      <c r="AH3" s="42" t="s">
+      <c r="AH3" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="AI3" s="36" t="s">
+      <c r="AI3" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="AJ3" s="36" t="s">
+      <c r="AJ3" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="AK3" s="75" t="s">
+      <c r="AK3" s="74" t="s">
         <v>871</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AL3" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AM3" s="74" t="s">
         <v>873</v>
       </c>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AO3" s="75" t="s">
+      <c r="AO3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AP3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AQ3" s="87"/>
-      <c r="AT3" s="20" t="s">
-        <v>1343</v>
-      </c>
+      <c r="AQ3" s="86"/>
     </row>
-    <row r="4" spans="1:47" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:47" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="99" t="s">
         <v>717</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>879</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -6686,104 +6654,101 @@
       <c r="E4" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="99" t="s">
         <v>646</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="88" t="s">
         <v>581</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="75" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="74" t="s">
         <v>607</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="36" t="s">
+      <c r="K4" s="86"/>
+      <c r="L4" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="99" t="s">
         <v>881</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="81">
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="80">
         <v>41389</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="99" t="s">
         <v>863</v>
       </c>
-      <c r="R4" s="86"/>
-      <c r="S4" s="36" t="s">
+      <c r="R4" s="85"/>
+      <c r="S4" s="99" t="s">
         <v>865</v>
       </c>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="36" t="s">
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="99" t="s">
         <v>882</v>
       </c>
-      <c r="Z4" s="36" t="s">
+      <c r="Z4" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="AA4" s="36" t="s">
+      <c r="AA4" s="99" t="s">
         <v>883</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AB4" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AC4" s="99" t="s">
         <v>883</v>
       </c>
-      <c r="AD4" s="75">
+      <c r="AD4" s="74">
         <v>55</v>
       </c>
-      <c r="AE4" s="75">
+      <c r="AE4" s="74">
         <v>25</v>
       </c>
-      <c r="AF4" s="75">
+      <c r="AF4" s="74">
         <v>20</v>
       </c>
-      <c r="AG4" s="87" t="s">
+      <c r="AG4" s="86" t="s">
         <v>869</v>
       </c>
-      <c r="AH4" s="42" t="s">
+      <c r="AH4" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="AI4" s="36" t="s">
+      <c r="AI4" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="AJ4" s="36" t="s">
+      <c r="AJ4" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="AK4" s="75" t="s">
+      <c r="AK4" s="74" t="s">
         <v>871</v>
       </c>
-      <c r="AL4" s="75" t="s">
+      <c r="AL4" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="AM4" s="75" t="s">
+      <c r="AM4" s="74" t="s">
         <v>873</v>
       </c>
-      <c r="AN4" s="75" t="s">
+      <c r="AN4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AO4" s="75" t="s">
+      <c r="AO4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AP4" s="75" t="s">
+      <c r="AP4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AQ4" s="75" t="s">
+      <c r="AQ4" s="74" t="s">
         <v>884</v>
-      </c>
-      <c r="AT4" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -6798,24 +6763,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="74" customWidth="1"/>
     <col min="4" max="4" width="11" style="27" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="75" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="74" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -6837,15 +6800,12 @@
       <c r="G1" s="26" t="s">
         <v>888</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>889</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -6854,17 +6814,14 @@
       <c r="D2" s="27" t="s">
         <v>890</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>891</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2" s="74">
         <v>1</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>890</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -6879,73 +6836,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH2"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="75" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="75" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="75" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="75" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="23" style="75" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="75" customWidth="1"/>
-    <col min="13" max="13" width="15" style="75" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="75" customWidth="1"/>
-    <col min="15" max="15" width="15" style="75" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="75" customWidth="1"/>
-    <col min="17" max="17" width="15" style="75" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="75" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="75" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" style="75" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" style="75" customWidth="1"/>
-    <col min="22" max="22" width="20" style="75" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" style="75" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" style="75" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="75" customWidth="1"/>
-    <col min="26" max="28" width="7.42578125" style="75" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" style="75" customWidth="1"/>
-    <col min="30" max="30" width="17.85546875" style="75" customWidth="1"/>
-    <col min="31" max="31" width="31" style="75" customWidth="1"/>
-    <col min="32" max="32" width="23" style="75" customWidth="1"/>
-    <col min="33" max="33" width="30" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="74" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="74" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="74" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="23" style="74" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="74" customWidth="1"/>
+    <col min="13" max="13" width="15" style="74" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="74" customWidth="1"/>
+    <col min="15" max="15" width="15" style="74" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="74" customWidth="1"/>
+    <col min="17" max="17" width="15" style="74" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="74" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="74" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" style="74" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="74" customWidth="1"/>
+    <col min="22" max="22" width="20" style="74" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="74" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="74" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="74" customWidth="1"/>
+    <col min="26" max="28" width="7.42578125" style="74" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" style="74" customWidth="1"/>
+    <col min="30" max="30" width="17.85546875" style="74" customWidth="1"/>
+    <col min="31" max="31" width="31" style="74" customWidth="1"/>
+    <col min="32" max="32" width="23" style="74" customWidth="1"/>
+    <col min="33" max="33" width="30" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>892</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>893</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="90" t="s">
         <v>894</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="90" t="s">
         <v>895</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>896</v>
       </c>
       <c r="J1" s="29" t="s">
@@ -7020,15 +6977,12 @@
       <c r="AG1" s="29" t="s">
         <v>919</v>
       </c>
-      <c r="AH1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>920</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7037,10 +6991,10 @@
       <c r="D2" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>921</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>922</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -7049,37 +7003,37 @@
       <c r="H2" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="74" t="s">
         <v>925</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="74" t="s">
         <v>926</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="74" t="s">
         <v>927</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="M2" s="75">
+      <c r="M2" s="74">
         <v>0</v>
       </c>
-      <c r="N2" s="75">
+      <c r="N2" s="74">
         <v>1</v>
       </c>
-      <c r="O2" s="75">
+      <c r="O2" s="74">
         <v>1</v>
       </c>
-      <c r="P2" s="75">
+      <c r="P2" s="74">
         <v>2</v>
       </c>
-      <c r="Q2" s="75">
+      <c r="Q2" s="74">
         <v>2</v>
       </c>
-      <c r="R2" s="75">
+      <c r="R2" s="74">
         <v>3</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="S2" s="74" t="s">
         <v>718</v>
       </c>
       <c r="T2" s="30" t="s">
@@ -7091,7 +7045,7 @@
       <c r="V2" s="30" t="s">
         <v>602</v>
       </c>
-      <c r="W2" s="75">
+      <c r="W2" s="74">
         <v>0.4</v>
       </c>
       <c r="X2" s="30" t="s">
@@ -7100,40 +7054,37 @@
       <c r="Y2" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="Z2" s="75">
+      <c r="Z2" s="74">
         <v>0.6</v>
       </c>
-      <c r="AA2" s="75">
+      <c r="AA2" s="74">
         <v>0.8</v>
       </c>
-      <c r="AB2" s="75">
+      <c r="AB2" s="74">
         <v>1</v>
       </c>
-      <c r="AC2" s="75" t="s">
+      <c r="AC2" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="AD2" s="75" t="s">
+      <c r="AD2" s="74" t="s">
         <v>819</v>
       </c>
-      <c r="AE2" s="75" t="s">
+      <c r="AE2" s="74" t="s">
         <v>820</v>
       </c>
-      <c r="AF2" s="75" t="s">
+      <c r="AF2" s="74" t="s">
         <v>928</v>
       </c>
-      <c r="AG2" s="75" t="s">
+      <c r="AG2" s="74" t="s">
         <v>822</v>
       </c>
-      <c r="AH2" s="20" t="s">
-        <v>1343</v>
-      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="I3" s="90"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="I3" s="89"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -7149,14 +7100,14 @@
   </sheetPr>
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AL2"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="74" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="27" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="27" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="27" customWidth="1"/>
@@ -7165,10 +7116,10 @@
     <col min="9" max="9" width="18.7109375" style="27" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" style="27" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="75" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="75" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="74" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="74" customWidth="1"/>
     <col min="16" max="16" width="9" style="27" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" style="27" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" style="27" customWidth="1"/>
@@ -7178,7 +7129,7 @@
     <col min="22" max="23" width="13.140625" style="27" customWidth="1"/>
     <col min="24" max="25" width="9" style="27" customWidth="1"/>
     <col min="26" max="26" width="8" style="27" customWidth="1"/>
-    <col min="27" max="27" width="16" style="36" customWidth="1"/>
+    <col min="27" max="27" width="16" style="99" customWidth="1"/>
     <col min="28" max="28" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -7207,37 +7158,37 @@
       <c r="F1" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="93" t="s">
         <v>930</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="93" t="s">
         <v>931</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="93" t="s">
         <v>932</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>933</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="93" t="s">
         <v>934</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="78" t="s">
         <v>935</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="N1" s="78" t="s">
         <v>936</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="O1" s="78" t="s">
         <v>836</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="93" t="s">
         <v>937</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="42" t="s">
         <v>938</v>
       </c>
       <c r="R1" s="26" t="s">
@@ -7300,15 +7251,12 @@
       <c r="AK1" s="25" t="s">
         <v>853</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>950</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7329,13 +7277,13 @@
       <c r="K2" s="27" t="s">
         <v>952</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>871</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="74" t="s">
         <v>38</v>
       </c>
       <c r="O2" s="27" t="s">
@@ -7356,13 +7304,13 @@
       <c r="T2" s="27" t="s">
         <v>874</v>
       </c>
-      <c r="U2" s="75" t="s">
+      <c r="U2" s="74" t="s">
         <v>957</v>
       </c>
-      <c r="V2" s="75" t="s">
+      <c r="V2" s="74" t="s">
         <v>958</v>
       </c>
-      <c r="W2" s="75" t="s">
+      <c r="W2" s="74" t="s">
         <v>959</v>
       </c>
       <c r="X2" s="27" t="s">
@@ -7374,64 +7322,62 @@
       <c r="Z2" s="27" t="s">
         <v>960</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="99" t="s">
         <v>961</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="AD2" s="36" t="s">
+      <c r="AD2" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="AE2" s="36" t="s">
+      <c r="AE2" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="AF2" s="75" t="s">
+      <c r="AF2" s="74" t="s">
         <v>871</v>
       </c>
-      <c r="AG2" s="75" t="s">
+      <c r="AG2" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="AH2" s="75" t="s">
+      <c r="AH2" s="74" t="s">
         <v>873</v>
       </c>
-      <c r="AI2" s="75" t="s">
+      <c r="AI2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="75" t="s">
+      <c r="AJ2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="75" t="s">
+      <c r="AK2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="20" t="s">
-        <v>1343</v>
-      </c>
+      <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -7445,207 +7391,204 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="75" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="26" style="75" customWidth="1"/>
-    <col min="5" max="7" width="14.28515625" style="75" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="75" customWidth="1"/>
-    <col min="9" max="10" width="16.5703125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" style="75" customWidth="1"/>
-    <col min="12" max="13" width="31.5703125" style="75" customWidth="1"/>
-    <col min="14" max="14" width="34.85546875" style="75" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" style="75" customWidth="1"/>
-    <col min="16" max="16" width="37.42578125" style="75" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" style="75" customWidth="1"/>
-    <col min="18" max="18" width="27.5703125" style="75" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="75" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" style="75" customWidth="1"/>
-    <col min="21" max="21" width="26.140625" style="75" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" style="75" customWidth="1"/>
-    <col min="23" max="23" width="30.28515625" style="75" customWidth="1"/>
-    <col min="24" max="24" width="38.140625" style="75" customWidth="1"/>
-    <col min="25" max="25" width="39.140625" style="75" customWidth="1"/>
-    <col min="26" max="26" width="29.42578125" style="75" customWidth="1"/>
-    <col min="27" max="27" width="29.7109375" style="75" customWidth="1"/>
-    <col min="28" max="29" width="34.5703125" style="75" customWidth="1"/>
-    <col min="30" max="30" width="37.7109375" style="75" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="75" customWidth="1"/>
-    <col min="32" max="32" width="40.42578125" style="75" customWidth="1"/>
-    <col min="33" max="33" width="27" style="75" customWidth="1"/>
-    <col min="34" max="35" width="31.85546875" style="75" customWidth="1"/>
-    <col min="36" max="36" width="25.5703125" style="75" customWidth="1"/>
-    <col min="37" max="37" width="28.28515625" style="75" customWidth="1"/>
-    <col min="38" max="38" width="18.7109375" style="75" customWidth="1"/>
-    <col min="39" max="39" width="26.28515625" style="75" customWidth="1"/>
-    <col min="40" max="40" width="14.85546875" style="75" customWidth="1"/>
-    <col min="41" max="41" width="34.28515625" style="75" customWidth="1"/>
-    <col min="42" max="42" width="33.28515625" style="75" customWidth="1"/>
-    <col min="43" max="43" width="16.7109375" style="75" customWidth="1"/>
-    <col min="44" max="44" width="18.5703125" style="75" customWidth="1"/>
-    <col min="45" max="45" width="27" style="75" customWidth="1"/>
-    <col min="46" max="47" width="19.42578125" style="75" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="74" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="26" style="74" customWidth="1"/>
+    <col min="5" max="7" width="14.28515625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="74" customWidth="1"/>
+    <col min="9" max="10" width="16.5703125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" style="74" customWidth="1"/>
+    <col min="12" max="13" width="31.5703125" style="74" customWidth="1"/>
+    <col min="14" max="14" width="34.85546875" style="74" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" style="74" customWidth="1"/>
+    <col min="16" max="16" width="37.42578125" style="74" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" style="74" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="74" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" style="74" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" style="74" customWidth="1"/>
+    <col min="21" max="21" width="26.140625" style="74" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" style="74" customWidth="1"/>
+    <col min="23" max="23" width="30.28515625" style="74" customWidth="1"/>
+    <col min="24" max="24" width="38.140625" style="74" customWidth="1"/>
+    <col min="25" max="25" width="39.140625" style="74" customWidth="1"/>
+    <col min="26" max="26" width="29.42578125" style="74" customWidth="1"/>
+    <col min="27" max="27" width="29.7109375" style="74" customWidth="1"/>
+    <col min="28" max="29" width="34.5703125" style="74" customWidth="1"/>
+    <col min="30" max="30" width="37.7109375" style="74" customWidth="1"/>
+    <col min="31" max="31" width="35.7109375" style="74" customWidth="1"/>
+    <col min="32" max="32" width="40.42578125" style="74" customWidth="1"/>
+    <col min="33" max="33" width="27" style="74" customWidth="1"/>
+    <col min="34" max="35" width="31.85546875" style="74" customWidth="1"/>
+    <col min="36" max="36" width="25.5703125" style="74" customWidth="1"/>
+    <col min="37" max="37" width="28.28515625" style="74" customWidth="1"/>
+    <col min="38" max="38" width="18.7109375" style="74" customWidth="1"/>
+    <col min="39" max="39" width="26.28515625" style="74" customWidth="1"/>
+    <col min="40" max="40" width="14.85546875" style="74" customWidth="1"/>
+    <col min="41" max="41" width="34.28515625" style="74" customWidth="1"/>
+    <col min="42" max="42" width="33.28515625" style="74" customWidth="1"/>
+    <col min="43" max="43" width="16.7109375" style="74" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" style="74" customWidth="1"/>
+    <col min="45" max="45" width="27" style="74" customWidth="1"/>
+    <col min="46" max="47" width="19.42578125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:47" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="90" t="s">
         <v>962</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="90" t="s">
         <v>786</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="90" t="s">
         <v>963</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="73" t="s">
         <v>964</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="73" t="s">
         <v>965</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="73" t="s">
         <v>966</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="90" t="s">
         <v>967</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="90" t="s">
         <v>968</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="90" t="s">
         <v>969</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="N1" s="90" t="s">
         <v>970</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="O1" s="90" t="s">
         <v>971</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="90" t="s">
         <v>972</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>973</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="R1" s="90" t="s">
         <v>974</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="S1" s="90" t="s">
         <v>975</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="T1" s="90" t="s">
         <v>976</v>
       </c>
-      <c r="U1" s="91" t="s">
+      <c r="U1" s="90" t="s">
         <v>977</v>
       </c>
-      <c r="V1" s="91" t="s">
+      <c r="V1" s="90" t="s">
         <v>978</v>
       </c>
-      <c r="W1" s="91" t="s">
+      <c r="W1" s="90" t="s">
         <v>979</v>
       </c>
-      <c r="X1" s="91" t="s">
+      <c r="X1" s="90" t="s">
         <v>980</v>
       </c>
-      <c r="Y1" s="91" t="s">
+      <c r="Y1" s="90" t="s">
         <v>981</v>
       </c>
-      <c r="Z1" s="91" t="s">
+      <c r="Z1" s="90" t="s">
         <v>982</v>
       </c>
-      <c r="AA1" s="91" t="s">
+      <c r="AA1" s="90" t="s">
         <v>983</v>
       </c>
-      <c r="AB1" s="91" t="s">
+      <c r="AB1" s="90" t="s">
         <v>984</v>
       </c>
-      <c r="AC1" s="91" t="s">
+      <c r="AC1" s="90" t="s">
         <v>985</v>
       </c>
-      <c r="AD1" s="91" t="s">
+      <c r="AD1" s="90" t="s">
         <v>986</v>
       </c>
-      <c r="AE1" s="91" t="s">
+      <c r="AE1" s="90" t="s">
         <v>987</v>
       </c>
-      <c r="AF1" s="91" t="s">
+      <c r="AF1" s="90" t="s">
         <v>988</v>
       </c>
-      <c r="AG1" s="91" t="s">
+      <c r="AG1" s="90" t="s">
         <v>989</v>
       </c>
-      <c r="AH1" s="91" t="s">
+      <c r="AH1" s="90" t="s">
         <v>990</v>
       </c>
-      <c r="AI1" s="91" t="s">
+      <c r="AI1" s="90" t="s">
         <v>991</v>
       </c>
-      <c r="AJ1" s="91" t="s">
+      <c r="AJ1" s="90" t="s">
         <v>992</v>
       </c>
-      <c r="AK1" s="91" t="s">
+      <c r="AK1" s="90" t="s">
         <v>993</v>
       </c>
-      <c r="AL1" s="91" t="s">
+      <c r="AL1" s="90" t="s">
         <v>994</v>
       </c>
-      <c r="AM1" s="39" t="s">
+      <c r="AM1" s="38" t="s">
         <v>995</v>
       </c>
-      <c r="AN1" s="91" t="s">
+      <c r="AN1" s="90" t="s">
         <v>996</v>
       </c>
-      <c r="AO1" s="39" t="s">
+      <c r="AO1" s="38" t="s">
         <v>997</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AP1" s="38" t="s">
         <v>772</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AQ1" s="38" t="s">
         <v>998</v>
       </c>
-      <c r="AR1" s="39" t="s">
+      <c r="AR1" s="38" t="s">
         <v>999</v>
       </c>
-      <c r="AS1" s="74" t="s">
+      <c r="AS1" s="73" t="s">
         <v>1000</v>
       </c>
-      <c r="AT1" s="74" t="s">
+      <c r="AT1" s="73" t="s">
         <v>1001</v>
       </c>
-      <c r="AU1" s="74" t="s">
+      <c r="AU1" s="73" t="s">
         <v>1002</v>
       </c>
-      <c r="AV1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:48" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>1003</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7663,13 +7606,13 @@
       <c r="G2" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="74" t="s">
         <v>1005</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="74" t="s">
         <v>1006</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="74" t="s">
         <v>1007</v>
       </c>
       <c r="K2" s="1">
@@ -7756,45 +7699,42 @@
       <c r="AL2" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="AM2" s="75" t="s">
+      <c r="AM2" s="74" t="s">
         <v>1010</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="AO2" s="75" t="s">
+      <c r="AO2" s="74" t="s">
         <v>1012</v>
       </c>
-      <c r="AP2" s="75" t="s">
+      <c r="AP2" s="74" t="s">
         <v>1013</v>
       </c>
       <c r="AQ2" s="35">
         <v>1000000</v>
       </c>
-      <c r="AR2" s="75" t="s">
+      <c r="AR2" s="74" t="s">
         <v>1014</v>
       </c>
-      <c r="AS2" s="75">
+      <c r="AS2" s="74">
         <v>55</v>
       </c>
-      <c r="AT2" s="75">
+      <c r="AT2" s="74">
         <v>25</v>
       </c>
-      <c r="AU2" s="75">
+      <c r="AU2" s="74">
         <v>20</v>
       </c>
-      <c r="AV2" s="20" t="s">
-        <v>1343</v>
-      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="89"/>
+      <c r="AQ3" s="89"/>
+      <c r="AR3" s="89"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -7810,9 +7750,7 @@
   </sheetPr>
   <dimension ref="A1:CK8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1:AR8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8023,9 +7961,6 @@
       <c r="AQ1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AR1" s="6" t="s">
-        <v>1342</v>
-      </c>
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
       <c r="AU1" s="6"/>
@@ -8202,9 +8137,6 @@
       <c r="AQ2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -8313,9 +8245,6 @@
         <v>133</v>
       </c>
       <c r="AJ3" s="8"/>
-      <c r="AR3" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -8438,9 +8367,7 @@
       <c r="AQ4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AR4" s="3" t="s">
-        <v>1343</v>
-      </c>
+      <c r="AR4" s="9"/>
       <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
       <c r="AU4" s="9"/>
@@ -8570,9 +8497,6 @@
         <v>133</v>
       </c>
       <c r="AJ5" s="8"/>
-      <c r="AR5" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -8681,9 +8605,6 @@
         <v>133</v>
       </c>
       <c r="AJ6" s="8"/>
-      <c r="AR6" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -8792,9 +8713,6 @@
         <v>133</v>
       </c>
       <c r="AJ7" s="8"/>
-      <c r="AR7" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -8903,9 +8821,6 @@
         <v>133</v>
       </c>
       <c r="AJ8" s="8"/>
-      <c r="AR8" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -8921,8 +8836,8 @@
   </sheetPr>
   <dimension ref="A1:EK14"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1:AP2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8942,9 +8857,9 @@
     <col min="16" max="16" width="27.5703125" style="27" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" style="27" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="27" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="75" customWidth="1"/>
-    <col min="20" max="20" width="33.5703125" style="75" customWidth="1"/>
-    <col min="21" max="22" width="19.42578125" style="75" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" style="74" customWidth="1"/>
+    <col min="20" max="20" width="33.5703125" style="74" customWidth="1"/>
+    <col min="21" max="22" width="19.42578125" style="74" customWidth="1"/>
     <col min="23" max="23" width="14.140625" style="27" customWidth="1"/>
     <col min="24" max="24" width="10.140625" style="27" customWidth="1"/>
     <col min="25" max="25" width="23.5703125" style="27" customWidth="1"/>
@@ -8958,7 +8873,7 @@
     <col min="35" max="36" width="28.7109375" style="27" customWidth="1"/>
     <col min="37" max="37" width="21.85546875" style="27" customWidth="1"/>
     <col min="38" max="38" width="16" style="27" customWidth="1"/>
-    <col min="39" max="41" width="18.7109375" style="75" customWidth="1"/>
+    <col min="39" max="41" width="18.7109375" style="74" customWidth="1"/>
     <col min="42" max="42" width="24.140625" style="27" customWidth="1"/>
     <col min="43" max="43" width="9.42578125" style="27" customWidth="1"/>
     <col min="44" max="45" width="17.7109375" style="27" customWidth="1"/>
@@ -9060,125 +8975,122 @@
       <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="94" t="s">
         <v>470</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="94" t="s">
         <v>472</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>1015</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="94" t="s">
         <v>1016</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="94" t="s">
         <v>1017</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="94" t="s">
         <v>1018</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>947</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="94" t="s">
         <v>1019</v>
       </c>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="94" t="s">
         <v>1020</v>
       </c>
-      <c r="M1" s="95" t="s">
+      <c r="M1" s="94" t="s">
         <v>1021</v>
       </c>
       <c r="N1" s="26" t="s">
         <v>930</v>
       </c>
-      <c r="O1" s="96" t="s">
+      <c r="O1" s="95" t="s">
         <v>1022</v>
       </c>
       <c r="P1" s="26" t="s">
         <v>932</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="95" t="s">
         <v>934</v>
       </c>
-      <c r="R1" s="96" t="s">
+      <c r="R1" s="95" t="s">
         <v>1023</v>
       </c>
-      <c r="S1" s="78" t="s">
+      <c r="S1" s="77" t="s">
         <v>478</v>
       </c>
-      <c r="T1" s="97" t="s">
+      <c r="T1" s="96" t="s">
         <v>1024</v>
       </c>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="96" t="s">
         <v>836</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="96" t="s">
         <v>837</v>
       </c>
-      <c r="W1" s="96" t="s">
+      <c r="W1" s="95" t="s">
         <v>827</v>
       </c>
-      <c r="X1" s="96" t="s">
+      <c r="X1" s="95" t="s">
         <v>937</v>
       </c>
-      <c r="Y1" s="96" t="s">
+      <c r="Y1" s="95" t="s">
         <v>1025</v>
       </c>
-      <c r="Z1" s="96" t="s">
+      <c r="Z1" s="95" t="s">
         <v>1026</v>
       </c>
-      <c r="AA1" s="96" t="s">
+      <c r="AA1" s="95" t="s">
         <v>1027</v>
       </c>
-      <c r="AB1" s="96" t="s">
+      <c r="AB1" s="95" t="s">
         <v>1028</v>
       </c>
-      <c r="AC1" s="96" t="s">
+      <c r="AC1" s="95" t="s">
         <v>1029</v>
       </c>
-      <c r="AD1" s="96" t="s">
+      <c r="AD1" s="95" t="s">
         <v>1030</v>
       </c>
-      <c r="AE1" s="96" t="s">
+      <c r="AE1" s="95" t="s">
         <v>1031</v>
       </c>
-      <c r="AF1" s="96" t="s">
+      <c r="AF1" s="95" t="s">
         <v>1032</v>
       </c>
-      <c r="AG1" s="96" t="s">
+      <c r="AG1" s="95" t="s">
         <v>1033</v>
       </c>
-      <c r="AH1" s="96" t="s">
+      <c r="AH1" s="95" t="s">
         <v>1034</v>
       </c>
-      <c r="AI1" s="96" t="s">
+      <c r="AI1" s="95" t="s">
         <v>1035</v>
       </c>
-      <c r="AJ1" s="96" t="s">
+      <c r="AJ1" s="95" t="s">
         <v>1036</v>
       </c>
-      <c r="AK1" s="96" t="s">
+      <c r="AK1" s="95" t="s">
         <v>1037</v>
       </c>
-      <c r="AL1" s="96" t="s">
+      <c r="AL1" s="95" t="s">
         <v>1038</v>
       </c>
-      <c r="AM1" s="97" t="s">
+      <c r="AM1" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="AN1" s="97" t="s">
+      <c r="AN1" s="96" t="s">
         <v>935</v>
       </c>
-      <c r="AO1" s="97" t="s">
+      <c r="AO1" s="96" t="s">
         <v>936</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="2" spans="1:141" x14ac:dyDescent="0.2">
@@ -9197,34 +9109,34 @@
       <c r="E2" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="99" t="s">
         <v>1040</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="63" t="s">
         <v>858</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="62" t="s">
         <v>876</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="99" t="s">
         <v>1042</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="64" t="s">
         <v>860</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="62" t="s">
         <v>877</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="62" t="s">
         <v>620</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>1043</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="74" t="s">
         <v>1044</v>
       </c>
       <c r="P2" s="27" t="s">
@@ -9239,10 +9151,10 @@
       <c r="S2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="74" t="s">
         <v>615</v>
       </c>
-      <c r="W2" s="75" t="s">
+      <c r="W2" s="74" t="s">
         <v>332</v>
       </c>
       <c r="X2" s="27" t="s">
@@ -9290,48 +9202,45 @@
       <c r="AL2" s="31" t="s">
         <v>961</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="AN2" s="75" t="s">
+      <c r="AN2" s="74" t="s">
         <v>871</v>
       </c>
-      <c r="AO2" s="75" t="s">
+      <c r="AO2" s="74" t="s">
         <v>38</v>
-      </c>
-      <c r="AP2" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="3" spans="1:141" x14ac:dyDescent="0.2">
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="P3" s="92"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:141" x14ac:dyDescent="0.2">
-      <c r="C4" s="44"/>
-      <c r="T4" s="75" t="s">
+      <c r="C4" s="43"/>
+      <c r="T4" s="74" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="5" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:141" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="36"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="N5" s="27"/>
@@ -9458,39 +9367,39 @@
       <c r="EK5" s="27"/>
     </row>
     <row r="6" spans="1:141" x14ac:dyDescent="0.2">
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="36"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="99"/>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="75"/>
+      <c r="M6" s="74"/>
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
-      <c r="W6" s="75"/>
+      <c r="W6" s="74"/>
       <c r="AK6" s="31"/>
       <c r="AL6" s="31"/>
     </row>
     <row r="8" spans="1:141" x14ac:dyDescent="0.2">
-      <c r="R8" s="75"/>
+      <c r="R8" s="74"/>
       <c r="U8" s="30"/>
     </row>
     <row r="14" spans="1:141" x14ac:dyDescent="0.2">
-      <c r="C14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="36"/>
+      <c r="C14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="99"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
-      <c r="M14" s="75"/>
+      <c r="M14" s="74"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
-      <c r="W14" s="75"/>
+      <c r="W14" s="74"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
     </row>
@@ -9506,120 +9415,120 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EU2"/>
+  <dimension ref="A1:EU3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="18" style="36" customWidth="1"/>
-    <col min="10" max="10" width="40.5703125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="75" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" style="75" customWidth="1"/>
-    <col min="13" max="13" width="29" style="75" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" style="75" customWidth="1"/>
-    <col min="15" max="16" width="24.140625" style="75" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" style="75" customWidth="1"/>
-    <col min="18" max="19" width="17.7109375" style="75" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" style="75" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="75" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" style="75" customWidth="1"/>
-    <col min="23" max="24" width="19.28515625" style="75" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" style="75" customWidth="1"/>
-    <col min="26" max="26" width="35" style="75" customWidth="1"/>
-    <col min="27" max="27" width="18.140625" style="75" customWidth="1"/>
-    <col min="28" max="28" width="19" style="75" customWidth="1"/>
-    <col min="29" max="29" width="32.42578125" style="75" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" style="75" customWidth="1"/>
-    <col min="31" max="31" width="28.7109375" style="75" customWidth="1"/>
-    <col min="32" max="32" width="23.5703125" style="75" customWidth="1"/>
-    <col min="33" max="33" width="45.28515625" style="75" customWidth="1"/>
-    <col min="34" max="34" width="29.85546875" style="75" customWidth="1"/>
-    <col min="35" max="35" width="14.28515625" style="75" customWidth="1"/>
-    <col min="36" max="36" width="23" style="75" customWidth="1"/>
-    <col min="37" max="40" width="19.85546875" style="75" customWidth="1"/>
-    <col min="41" max="42" width="24.7109375" style="75" customWidth="1"/>
-    <col min="43" max="43" width="25" style="75" customWidth="1"/>
-    <col min="44" max="44" width="24.42578125" style="75" customWidth="1"/>
-    <col min="45" max="45" width="30.42578125" style="75" customWidth="1"/>
-    <col min="46" max="46" width="36" style="75" customWidth="1"/>
-    <col min="47" max="47" width="34.42578125" style="75" customWidth="1"/>
-    <col min="48" max="48" width="26.7109375" style="75" customWidth="1"/>
-    <col min="49" max="50" width="17.28515625" style="75" customWidth="1"/>
-    <col min="51" max="51" width="34.140625" style="75" customWidth="1"/>
-    <col min="52" max="52" width="28.42578125" style="75" customWidth="1"/>
-    <col min="53" max="53" width="24.7109375" style="75" customWidth="1"/>
-    <col min="54" max="54" width="30.28515625" style="75" customWidth="1"/>
-    <col min="55" max="55" width="17.5703125" style="75" customWidth="1"/>
-    <col min="56" max="56" width="20.28515625" style="75" customWidth="1"/>
-    <col min="57" max="57" width="12.140625" style="75" customWidth="1"/>
-    <col min="58" max="58" width="21.42578125" style="75" customWidth="1"/>
-    <col min="59" max="59" width="24.140625" style="75" customWidth="1"/>
-    <col min="60" max="60" width="16" style="75" customWidth="1"/>
-    <col min="61" max="61" width="14" style="75" customWidth="1"/>
-    <col min="62" max="62" width="16.7109375" style="75" customWidth="1"/>
-    <col min="63" max="63" width="10" style="75" customWidth="1"/>
-    <col min="64" max="64" width="8.5703125" style="75" customWidth="1"/>
-    <col min="65" max="65" width="19.140625" style="75" customWidth="1"/>
-    <col min="66" max="66" width="37.7109375" style="75" customWidth="1"/>
-    <col min="67" max="67" width="15.85546875" style="75" customWidth="1"/>
-    <col min="68" max="68" width="9.28515625" style="75" customWidth="1"/>
-    <col min="69" max="70" width="16.7109375" style="75" customWidth="1"/>
-    <col min="71" max="71" width="12.85546875" style="75" customWidth="1"/>
-    <col min="72" max="72" width="32.42578125" style="75" customWidth="1"/>
-    <col min="73" max="73" width="11.7109375" style="75" customWidth="1"/>
-    <col min="74" max="74" width="35" style="75" customWidth="1"/>
-    <col min="75" max="75" width="18.140625" style="75" customWidth="1"/>
-    <col min="76" max="76" width="15.7109375" style="75" customWidth="1"/>
-    <col min="77" max="77" width="24" style="75" customWidth="1"/>
-    <col min="78" max="78" width="11.5703125" style="75" customWidth="1"/>
-    <col min="79" max="79" width="8.28515625" style="75" customWidth="1"/>
-    <col min="80" max="80" width="16.5703125" style="75" customWidth="1"/>
-    <col min="81" max="81" width="32.85546875" style="75" customWidth="1"/>
-    <col min="82" max="82" width="18.7109375" style="75" customWidth="1"/>
-    <col min="83" max="83" width="18.28515625" style="75" customWidth="1"/>
-    <col min="84" max="84" width="10.42578125" style="75" customWidth="1"/>
-    <col min="85" max="85" width="9.7109375" style="75" customWidth="1"/>
-    <col min="86" max="86" width="12.7109375" style="75" customWidth="1"/>
-    <col min="87" max="87" width="11.7109375" style="75" customWidth="1"/>
-    <col min="88" max="88" width="24" style="75" customWidth="1"/>
-    <col min="89" max="89" width="43.7109375" style="75" customWidth="1"/>
-    <col min="90" max="90" width="44.85546875" style="75" customWidth="1"/>
-    <col min="91" max="91" width="30.140625" style="75" customWidth="1"/>
-    <col min="92" max="92" width="29.42578125" style="75" customWidth="1"/>
-    <col min="93" max="93" width="25.28515625" style="75" customWidth="1"/>
-    <col min="94" max="94" width="9.5703125" style="75" customWidth="1"/>
-    <col min="95" max="95" width="25.7109375" style="75" customWidth="1"/>
-    <col min="96" max="96" width="19.7109375" style="75" customWidth="1"/>
-    <col min="97" max="97" width="28.5703125" style="75" customWidth="1"/>
-    <col min="98" max="98" width="21.140625" style="75" customWidth="1"/>
-    <col min="99" max="99" width="14.5703125" style="75" customWidth="1"/>
-    <col min="100" max="100" width="20.5703125" style="75" customWidth="1"/>
-    <col min="101" max="101" width="18.28515625" style="75" customWidth="1"/>
-    <col min="102" max="102" width="18.85546875" style="75" customWidth="1"/>
-    <col min="103" max="103" width="35" style="75" customWidth="1"/>
-    <col min="104" max="104" width="20" style="75" customWidth="1"/>
-    <col min="105" max="105" width="32.42578125" style="75" customWidth="1"/>
-    <col min="106" max="106" width="21.5703125" style="75" customWidth="1"/>
-    <col min="107" max="107" width="13.5703125" style="75" customWidth="1"/>
-    <col min="108" max="108" width="26.28515625" style="75" customWidth="1"/>
-    <col min="109" max="109" width="19.140625" style="75" customWidth="1"/>
-    <col min="110" max="110" width="44" style="75" customWidth="1"/>
-    <col min="111" max="111" width="23.5703125" style="75" customWidth="1"/>
-    <col min="112" max="112" width="26.28515625" style="75" customWidth="1"/>
-    <col min="113" max="113" width="34.85546875" style="75" customWidth="1"/>
-    <col min="114" max="114" width="9.140625" style="75" customWidth="1"/>
-    <col min="115" max="115" width="15.85546875" style="75" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="99" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="99" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="99" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="99" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="99" customWidth="1"/>
+    <col min="9" max="9" width="18" style="99" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" style="99" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="74" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" style="74" customWidth="1"/>
+    <col min="13" max="13" width="29" style="74" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" style="74" customWidth="1"/>
+    <col min="15" max="16" width="24.140625" style="74" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="74" customWidth="1"/>
+    <col min="18" max="19" width="17.7109375" style="74" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="74" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" style="74" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" style="74" customWidth="1"/>
+    <col min="23" max="24" width="19.28515625" style="74" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" style="74" customWidth="1"/>
+    <col min="26" max="26" width="35" style="74" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" style="74" customWidth="1"/>
+    <col min="28" max="28" width="19" style="74" customWidth="1"/>
+    <col min="29" max="29" width="32.42578125" style="74" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" style="74" customWidth="1"/>
+    <col min="31" max="31" width="28.7109375" style="74" customWidth="1"/>
+    <col min="32" max="32" width="23.5703125" style="74" customWidth="1"/>
+    <col min="33" max="33" width="45.28515625" style="74" customWidth="1"/>
+    <col min="34" max="34" width="29.85546875" style="74" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" style="74" customWidth="1"/>
+    <col min="36" max="36" width="23" style="74" customWidth="1"/>
+    <col min="37" max="40" width="19.85546875" style="74" customWidth="1"/>
+    <col min="41" max="42" width="24.7109375" style="74" customWidth="1"/>
+    <col min="43" max="43" width="25" style="74" customWidth="1"/>
+    <col min="44" max="44" width="24.42578125" style="74" customWidth="1"/>
+    <col min="45" max="45" width="30.42578125" style="74" customWidth="1"/>
+    <col min="46" max="46" width="36" style="74" customWidth="1"/>
+    <col min="47" max="47" width="34.42578125" style="74" customWidth="1"/>
+    <col min="48" max="48" width="26.7109375" style="74" customWidth="1"/>
+    <col min="49" max="50" width="17.28515625" style="74" customWidth="1"/>
+    <col min="51" max="51" width="34.140625" style="74" customWidth="1"/>
+    <col min="52" max="52" width="28.42578125" style="74" customWidth="1"/>
+    <col min="53" max="53" width="24.7109375" style="74" customWidth="1"/>
+    <col min="54" max="54" width="30.28515625" style="74" customWidth="1"/>
+    <col min="55" max="55" width="17.5703125" style="74" customWidth="1"/>
+    <col min="56" max="56" width="20.28515625" style="74" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" style="74" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="74" customWidth="1"/>
+    <col min="59" max="59" width="24.140625" style="74" customWidth="1"/>
+    <col min="60" max="60" width="16" style="74" customWidth="1"/>
+    <col min="61" max="61" width="14" style="74" customWidth="1"/>
+    <col min="62" max="62" width="16.7109375" style="74" customWidth="1"/>
+    <col min="63" max="63" width="10" style="74" customWidth="1"/>
+    <col min="64" max="64" width="8.5703125" style="74" customWidth="1"/>
+    <col min="65" max="65" width="19.140625" style="74" customWidth="1"/>
+    <col min="66" max="66" width="37.7109375" style="74" customWidth="1"/>
+    <col min="67" max="67" width="15.85546875" style="74" customWidth="1"/>
+    <col min="68" max="68" width="9.28515625" style="74" customWidth="1"/>
+    <col min="69" max="70" width="16.7109375" style="74" customWidth="1"/>
+    <col min="71" max="71" width="12.85546875" style="74" customWidth="1"/>
+    <col min="72" max="72" width="32.42578125" style="74" customWidth="1"/>
+    <col min="73" max="73" width="11.7109375" style="74" customWidth="1"/>
+    <col min="74" max="74" width="35" style="74" customWidth="1"/>
+    <col min="75" max="75" width="18.140625" style="74" customWidth="1"/>
+    <col min="76" max="76" width="15.7109375" style="74" customWidth="1"/>
+    <col min="77" max="77" width="24" style="74" customWidth="1"/>
+    <col min="78" max="78" width="11.5703125" style="74" customWidth="1"/>
+    <col min="79" max="79" width="8.28515625" style="74" customWidth="1"/>
+    <col min="80" max="80" width="16.5703125" style="74" customWidth="1"/>
+    <col min="81" max="81" width="32.85546875" style="74" customWidth="1"/>
+    <col min="82" max="82" width="18.7109375" style="74" customWidth="1"/>
+    <col min="83" max="83" width="18.28515625" style="74" customWidth="1"/>
+    <col min="84" max="84" width="10.42578125" style="74" customWidth="1"/>
+    <col min="85" max="85" width="9.7109375" style="74" customWidth="1"/>
+    <col min="86" max="86" width="12.7109375" style="74" customWidth="1"/>
+    <col min="87" max="87" width="11.7109375" style="74" customWidth="1"/>
+    <col min="88" max="88" width="24" style="74" customWidth="1"/>
+    <col min="89" max="89" width="43.7109375" style="74" customWidth="1"/>
+    <col min="90" max="90" width="44.85546875" style="74" customWidth="1"/>
+    <col min="91" max="91" width="30.140625" style="74" customWidth="1"/>
+    <col min="92" max="92" width="29.42578125" style="74" customWidth="1"/>
+    <col min="93" max="93" width="25.28515625" style="74" customWidth="1"/>
+    <col min="94" max="94" width="9.5703125" style="74" customWidth="1"/>
+    <col min="95" max="95" width="25.7109375" style="74" customWidth="1"/>
+    <col min="96" max="96" width="19.7109375" style="74" customWidth="1"/>
+    <col min="97" max="97" width="28.5703125" style="74" customWidth="1"/>
+    <col min="98" max="98" width="21.140625" style="74" customWidth="1"/>
+    <col min="99" max="99" width="14.5703125" style="74" customWidth="1"/>
+    <col min="100" max="100" width="20.5703125" style="74" customWidth="1"/>
+    <col min="101" max="101" width="18.28515625" style="74" customWidth="1"/>
+    <col min="102" max="102" width="18.85546875" style="74" customWidth="1"/>
+    <col min="103" max="103" width="35" style="74" customWidth="1"/>
+    <col min="104" max="104" width="20" style="74" customWidth="1"/>
+    <col min="105" max="105" width="32.42578125" style="74" customWidth="1"/>
+    <col min="106" max="106" width="21.5703125" style="74" customWidth="1"/>
+    <col min="107" max="107" width="13.5703125" style="74" customWidth="1"/>
+    <col min="108" max="108" width="26.28515625" style="74" customWidth="1"/>
+    <col min="109" max="109" width="19.140625" style="74" customWidth="1"/>
+    <col min="110" max="110" width="44" style="74" customWidth="1"/>
+    <col min="111" max="111" width="23.5703125" style="74" customWidth="1"/>
+    <col min="112" max="112" width="26.28515625" style="74" customWidth="1"/>
+    <col min="113" max="113" width="34.85546875" style="74" customWidth="1"/>
+    <col min="114" max="114" width="9.140625" style="74" customWidth="1"/>
+    <col min="115" max="115" width="15.85546875" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -9641,20 +9550,17 @@
       <c r="F1" s="28" t="s">
         <v>823</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="98" t="s">
         <v>1050</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="98" t="s">
         <v>1051</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>1052</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="98" t="s">
         <v>1053</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>1342</v>
       </c>
       <c r="BL1" s="28"/>
       <c r="BM1" s="28"/>
@@ -9709,11 +9615,11 @@
       <c r="DJ1" s="28"/>
       <c r="DK1" s="28"/>
     </row>
-    <row r="2" spans="1:151" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:151" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>1054</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -9725,7 +9631,7 @@
       <c r="E2" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>646</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -9734,123 +9640,55 @@
       <c r="H2" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>1058</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>1343</v>
-      </c>
-      <c r="DL2" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="DM2" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="DN2" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="DO2" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="DP2" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="DQ2" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="DR2" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="DS2" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="DT2" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="DU2" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="DV2" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="DW2" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="DX2" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="DY2" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="DZ2" s="3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="EA2" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="EB2" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="EC2" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="ED2" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="EE2" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="EF2" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="EG2" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="EH2" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="EI2" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="EJ2" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="EK2" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="EL2" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="EM2" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="EN2" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="EO2" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="EP2" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="ER2" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="ES2" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="ET2" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="EU2" s="3" t="s">
-        <v>1095</v>
-      </c>
+      <c r="DL2" s="3"/>
+      <c r="DM2" s="3"/>
+      <c r="DN2" s="3"/>
+      <c r="DO2" s="3"/>
+      <c r="DP2" s="3"/>
+      <c r="DQ2" s="3"/>
+      <c r="DR2" s="3"/>
+      <c r="DS2" s="3"/>
+      <c r="DT2" s="3"/>
+      <c r="DU2" s="3"/>
+      <c r="DV2" s="3"/>
+      <c r="DW2" s="3"/>
+      <c r="DX2" s="3"/>
+      <c r="DY2" s="3"/>
+      <c r="DZ2" s="3"/>
+      <c r="EA2" s="3"/>
+      <c r="EB2" s="3"/>
+      <c r="EC2" s="3"/>
+      <c r="ED2" s="3"/>
+      <c r="EE2" s="3"/>
+      <c r="EF2" s="3"/>
+      <c r="EG2" s="3"/>
+      <c r="EH2" s="3"/>
+      <c r="EI2" s="3"/>
+      <c r="EJ2" s="3"/>
+      <c r="EK2" s="3"/>
+      <c r="EL2" s="3"/>
+      <c r="EM2" s="3"/>
+      <c r="EN2" s="3"/>
+      <c r="EO2" s="3"/>
+      <c r="EP2" s="3"/>
+      <c r="EQ2" s="3"/>
+      <c r="ER2" s="3"/>
+      <c r="ES2" s="3"/>
+      <c r="ET2" s="3"/>
+      <c r="EU2" s="3"/>
+    </row>
+    <row r="3" spans="1:151" x14ac:dyDescent="0.2">
+      <c r="C3" s="89"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="I3" s="97"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -9864,28 +9702,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="75" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="75" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="74" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="74" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="74" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -9898,37 +9736,34 @@
       <c r="D1" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>1097</v>
+      <c r="E1" s="98" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>1061</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>789</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>1342</v>
+        <v>1065</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>1102</v>
+      <c r="B2" s="74" t="s">
+        <v>1066</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>579</v>
@@ -9940,30 +9775,30 @@
         <v>1056</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G2" s="36" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G2" s="99" t="s">
         <v>605</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>1103</v>
-      </c>
-      <c r="J2" s="75" t="s">
+      <c r="I2" s="99" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J2" s="74" t="s">
         <v>612</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>1343</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="30"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C3" s="100"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -9979,39 +9814,40 @@
   </sheetPr>
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE2"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="35" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="75" customWidth="1"/>
-    <col min="6" max="6" width="22" style="75" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="75" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="75" customWidth="1"/>
-    <col min="9" max="9" width="17" style="75" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="75" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="75" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" style="75" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="75" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" style="75" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="75" customWidth="1"/>
-    <col min="16" max="16" width="22" style="75" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="75" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="75" customWidth="1"/>
-    <col min="19" max="21" width="12" style="75" customWidth="1"/>
-    <col min="22" max="22" width="18" style="75" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="75" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" style="75" customWidth="1"/>
-    <col min="25" max="25" width="22.42578125" style="75" customWidth="1"/>
-    <col min="26" max="26" width="24.28515625" style="75" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="35" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="22" style="74" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="74" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="17" style="74" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="74" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="74" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" style="74" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="74" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="74" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="74" customWidth="1"/>
+    <col min="16" max="16" width="22" style="74" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="74" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="74" customWidth="1"/>
+    <col min="19" max="21" width="12" style="74" customWidth="1"/>
+    <col min="22" max="22" width="18" style="74" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="74" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="74" customWidth="1"/>
+    <col min="25" max="25" width="26.42578125" style="74" customWidth="1"/>
+    <col min="26" max="26" width="27.28515625" style="74" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="74" customWidth="1"/>
     <col min="28" max="29" width="15.5703125" style="3" customWidth="1"/>
     <col min="30" max="30" width="16" style="3" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -10028,58 +9864,58 @@
         <v>472</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>1105</v>
+        <v>1069</v>
+      </c>
+      <c r="F1" s="102" t="s">
+        <v>1070</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>1106</v>
+        <v>1071</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>1107</v>
+        <v>1072</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>1108</v>
+        <v>1073</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>1109</v>
+        <v>1074</v>
       </c>
       <c r="K1" s="29" t="s">
         <v>728</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>1110</v>
-      </c>
-      <c r="M1" s="29" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M1" s="103" t="s">
         <v>788</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="25" t="s">
-        <v>1111</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>1112</v>
+      <c r="O1" s="78" t="s">
+        <v>1076</v>
+      </c>
+      <c r="P1" s="78" t="s">
+        <v>1077</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>1100</v>
-      </c>
-      <c r="R1" s="25" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R1" s="78" t="s">
         <v>192</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>1113</v>
+        <v>1078</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>1114</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>1115</v>
+        <v>1079</v>
+      </c>
+      <c r="U1" s="78" t="s">
+        <v>1080</v>
       </c>
       <c r="V1" s="25" t="s">
-        <v>1116</v>
+        <v>1081</v>
       </c>
       <c r="W1" s="25" t="s">
         <v>474</v>
@@ -10088,54 +9924,54 @@
         <v>12</v>
       </c>
       <c r="Y1" s="25" t="s">
-        <v>1117</v>
+        <v>1082</v>
       </c>
       <c r="Z1" s="25" t="s">
-        <v>1118</v>
+        <v>1083</v>
       </c>
       <c r="AA1" s="25" t="s">
         <v>213</v>
       </c>
       <c r="AB1" s="25" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AC1" s="25" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AD1" s="25" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>1342</v>
+        <v>1084</v>
+      </c>
+      <c r="AC1" s="78" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AD1" s="78" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1122</v>
+        <v>1088</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>579</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1123</v>
+        <v>1089</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>324</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>1124</v>
+        <v>1090</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>1125</v>
+        <v>1091</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>1126</v>
+        <v>1092</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>1126</v>
+        <v>1092</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>332</v>
@@ -10147,10 +9983,10 @@
         <v>330</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>1127</v>
+        <v>1093</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>1124</v>
+        <v>1090</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>338</v>
@@ -10159,22 +9995,22 @@
         <v>38</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>1128</v>
+        <v>1094</v>
       </c>
       <c r="R2" s="27">
         <v>4</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>1129</v>
+        <v>1095</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>1130</v>
+        <v>1096</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>1131</v>
+        <v>1097</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>1132</v>
+        <v>1098</v>
       </c>
       <c r="W2" s="27" t="s">
         <v>332</v>
@@ -10182,27 +10018,46 @@
       <c r="X2" s="27" t="s">
         <v>1040</v>
       </c>
-      <c r="Y2" s="75" t="s">
-        <v>1133</v>
+      <c r="Y2" s="74" t="s">
+        <v>1099</v>
       </c>
       <c r="Z2" s="27" t="s">
-        <v>1134</v>
+        <v>1100</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>1135</v>
+        <v>339</v>
       </c>
       <c r="AB2" s="27" t="s">
         <v>387</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>1136</v>
+        <v>1101</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>1343</v>
-      </c>
+        <v>1102</v>
+      </c>
+      <c r="AE2" s="27" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="101"/>
+      <c r="AE3" s="92"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="Q6" s="30"/>
@@ -10277,45 +10132,46 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="75" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="75" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="8" style="75" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="75" customWidth="1"/>
-    <col min="10" max="10" width="18" style="75" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="75" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="75" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="75" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="75" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="75" customWidth="1"/>
-    <col min="16" max="16" width="20" style="75" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="75" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" style="75" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="75" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" style="75" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" style="75" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="75" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="75" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="75" customWidth="1"/>
-    <col min="25" max="25" width="30" style="75" customWidth="1"/>
-    <col min="26" max="26" width="26.28515625" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="8" style="74" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="74" customWidth="1"/>
+    <col min="10" max="10" width="18" style="74" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="74" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="74" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="74" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="74" customWidth="1"/>
+    <col min="16" max="16" width="20" style="74" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="74" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" style="74" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" style="74" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="74" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" style="74" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="74" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="74" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="74" customWidth="1"/>
+    <col min="25" max="25" width="30" style="74" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" style="74" customWidth="1"/>
     <col min="27" max="27" width="15.5703125" style="3" customWidth="1"/>
     <col min="28" max="29" width="11.28515625" style="3" customWidth="1"/>
+    <col min="30" max="31" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -10326,12 +10182,12 @@
         <v>470</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>1138</v>
+        <v>1104</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="98" t="s">
         <v>810</v>
       </c>
       <c r="G1" s="28" t="s">
@@ -10341,78 +10197,81 @@
         <v>508</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>1139</v>
+        <v>1105</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>1140</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>1141</v>
+        <v>1106</v>
+      </c>
+      <c r="K1" s="104" t="s">
+        <v>1107</v>
       </c>
       <c r="L1" s="28" t="s">
         <v>499</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>1142</v>
+        <v>1108</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>1143</v>
+        <v>1109</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>1144</v>
-      </c>
-      <c r="P1" s="28" t="s">
+        <v>1110</v>
+      </c>
+      <c r="P1" s="104" t="s">
         <v>729</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>728</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="104" t="s">
         <v>788</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>1100</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>1145</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>1146</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>1147</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>1148</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>1149</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>1150</v>
+        <v>1064</v>
+      </c>
+      <c r="T1" s="104" t="s">
+        <v>1111</v>
+      </c>
+      <c r="U1" s="104" t="s">
+        <v>1112</v>
+      </c>
+      <c r="V1" s="104" t="s">
+        <v>1113</v>
+      </c>
+      <c r="W1" s="104" t="s">
+        <v>1114</v>
+      </c>
+      <c r="X1" s="104" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Y1" s="104" t="s">
+        <v>1116</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AA1" s="25" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AA1" s="76" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AB1" s="76" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AC1" s="76" t="s">
         <v>1119</v>
       </c>
-      <c r="AB1" s="25" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AC1" s="25" t="s">
-        <v>1153</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>1342</v>
+      <c r="AD1" s="25" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>1121</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:31" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>1154</v>
+      <c r="B2" s="74" t="s">
+        <v>1122</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>579</v>
@@ -10420,72 +10279,91 @@
       <c r="D2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>1040</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G2" s="75" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G2" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="47">
         <v>10000</v>
       </c>
-      <c r="I2" s="75" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J2" s="75" t="s">
-        <v>1132</v>
-      </c>
-      <c r="L2" s="75" t="s">
+      <c r="I2" s="74" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L2" s="74" t="s">
         <v>339</v>
       </c>
-      <c r="M2" s="75" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N2" s="75" t="s">
+      <c r="M2" s="74" t="s">
+        <v>592</v>
+      </c>
+      <c r="N2" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="O2" s="75" t="s">
-        <v>1158</v>
-      </c>
-      <c r="P2" s="75" t="s">
-        <v>1159</v>
-      </c>
-      <c r="Q2" s="75" t="s">
+      <c r="O2" s="74" t="s">
+        <v>1124</v>
+      </c>
+      <c r="P2" s="74" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q2" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="74" t="s">
+        <v>1093</v>
+      </c>
+      <c r="S2" s="74" t="s">
+        <v>1344</v>
+      </c>
+      <c r="T2" s="74" t="s">
+        <v>1126</v>
+      </c>
+      <c r="U2" s="74" t="s">
         <v>1127</v>
       </c>
-      <c r="S2" s="75" t="s">
-        <v>601</v>
-      </c>
-      <c r="T2" s="75" t="s">
-        <v>1160</v>
-      </c>
-      <c r="U2" s="75" t="s">
-        <v>1161</v>
-      </c>
-      <c r="V2" s="75" t="s">
-        <v>1162</v>
-      </c>
-      <c r="W2" s="75" t="s">
-        <v>1163</v>
-      </c>
-      <c r="X2" s="75" t="s">
+      <c r="V2" s="74" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W2" s="74" t="s">
+        <v>1129</v>
+      </c>
+      <c r="X2" s="74" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Y2" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="74" t="s">
         <v>1130</v>
       </c>
-      <c r="Y2" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="75" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>1343</v>
-      </c>
+      <c r="AD2" s="74" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AE2" s="74" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="Z3" s="89"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -10499,85 +10377,85 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:DJ2"/>
+  <dimension ref="A1:DI2"/>
   <sheetViews>
-    <sheetView topLeftCell="DC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DJ1" sqref="DJ1:DJ2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="75" customWidth="1"/>
-    <col min="4" max="4" width="20" style="75" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="75" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="75" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="75" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="75" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="75" customWidth="1"/>
-    <col min="14" max="16" width="19.5703125" style="75" customWidth="1"/>
-    <col min="17" max="19" width="22.140625" style="75" customWidth="1"/>
-    <col min="20" max="20" width="35.42578125" style="75" customWidth="1"/>
-    <col min="21" max="21" width="31.140625" style="75" customWidth="1"/>
-    <col min="22" max="22" width="25" style="75" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" style="75" customWidth="1"/>
-    <col min="24" max="25" width="24.7109375" style="75" customWidth="1"/>
-    <col min="26" max="26" width="20" style="75" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="75" customWidth="1"/>
-    <col min="28" max="28" width="19.42578125" style="75" customWidth="1"/>
-    <col min="29" max="29" width="32.85546875" style="75" customWidth="1"/>
-    <col min="30" max="30" width="28.5703125" style="75" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" style="75" customWidth="1"/>
-    <col min="32" max="32" width="29.42578125" style="75" customWidth="1"/>
-    <col min="33" max="33" width="34.140625" style="75" customWidth="1"/>
-    <col min="34" max="34" width="23" style="75" customWidth="1"/>
-    <col min="35" max="36" width="22.5703125" style="75" customWidth="1"/>
-    <col min="37" max="37" width="37.140625" style="75" customWidth="1"/>
-    <col min="38" max="38" width="17.85546875" style="75" customWidth="1"/>
-    <col min="39" max="39" width="16" style="75" customWidth="1"/>
-    <col min="40" max="40" width="18.42578125" style="75" customWidth="1"/>
-    <col min="41" max="42" width="17.42578125" style="75" customWidth="1"/>
-    <col min="43" max="43" width="18.7109375" style="75" customWidth="1"/>
-    <col min="44" max="44" width="13.42578125" style="75" customWidth="1"/>
-    <col min="45" max="45" width="17.85546875" style="75" customWidth="1"/>
-    <col min="46" max="46" width="25.85546875" style="75" customWidth="1"/>
-    <col min="47" max="47" width="24.140625" style="75" customWidth="1"/>
-    <col min="48" max="48" width="15.85546875" style="75" customWidth="1"/>
-    <col min="49" max="49" width="23.140625" style="75" customWidth="1"/>
-    <col min="50" max="50" width="19.5703125" style="75" customWidth="1"/>
-    <col min="51" max="51" width="15.85546875" style="75" customWidth="1"/>
-    <col min="52" max="52" width="13.7109375" style="75" customWidth="1"/>
-    <col min="53" max="53" width="21.140625" style="75" customWidth="1"/>
-    <col min="54" max="54" width="19.42578125" style="75" customWidth="1"/>
-    <col min="55" max="55" width="20.140625" style="75" customWidth="1"/>
-    <col min="56" max="56" width="21" style="75" customWidth="1"/>
-    <col min="57" max="57" width="23.85546875" style="75" customWidth="1"/>
-    <col min="58" max="58" width="20" style="75" customWidth="1"/>
-    <col min="59" max="59" width="20.140625" style="75" customWidth="1"/>
-    <col min="60" max="60" width="20.7109375" style="75" customWidth="1"/>
-    <col min="61" max="61" width="19.42578125" style="75" customWidth="1"/>
-    <col min="62" max="62" width="20.140625" style="75" customWidth="1"/>
-    <col min="63" max="63" width="20.42578125" style="75" customWidth="1"/>
-    <col min="64" max="65" width="20" style="75" customWidth="1"/>
-    <col min="66" max="66" width="20.7109375" style="75" customWidth="1"/>
-    <col min="67" max="67" width="37.7109375" style="75" customWidth="1"/>
-    <col min="68" max="68" width="35.5703125" style="75" customWidth="1"/>
-    <col min="69" max="69" width="13.5703125" style="75" customWidth="1"/>
-    <col min="70" max="70" width="22.7109375" style="75" customWidth="1"/>
-    <col min="71" max="71" width="21.42578125" style="75" customWidth="1"/>
-    <col min="72" max="72" width="35.85546875" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="20" style="74" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="74" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="74" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" style="74" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="74" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="74" customWidth="1"/>
+    <col min="14" max="16" width="19.5703125" style="74" customWidth="1"/>
+    <col min="17" max="19" width="22.140625" style="74" customWidth="1"/>
+    <col min="20" max="20" width="35.42578125" style="74" customWidth="1"/>
+    <col min="21" max="21" width="31.140625" style="74" customWidth="1"/>
+    <col min="22" max="22" width="25" style="74" customWidth="1"/>
+    <col min="23" max="23" width="25.85546875" style="74" customWidth="1"/>
+    <col min="24" max="25" width="24.7109375" style="74" customWidth="1"/>
+    <col min="26" max="26" width="20" style="74" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="74" customWidth="1"/>
+    <col min="28" max="28" width="19.42578125" style="74" customWidth="1"/>
+    <col min="29" max="29" width="32.85546875" style="74" customWidth="1"/>
+    <col min="30" max="30" width="28.5703125" style="74" customWidth="1"/>
+    <col min="31" max="31" width="22.5703125" style="74" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" style="74" customWidth="1"/>
+    <col min="33" max="33" width="34.140625" style="74" customWidth="1"/>
+    <col min="34" max="34" width="23" style="74" customWidth="1"/>
+    <col min="35" max="36" width="22.5703125" style="74" customWidth="1"/>
+    <col min="37" max="37" width="37.140625" style="74" customWidth="1"/>
+    <col min="38" max="38" width="17.85546875" style="74" customWidth="1"/>
+    <col min="39" max="39" width="16" style="74" customWidth="1"/>
+    <col min="40" max="40" width="18.42578125" style="74" customWidth="1"/>
+    <col min="41" max="42" width="17.42578125" style="74" customWidth="1"/>
+    <col min="43" max="43" width="18.7109375" style="74" customWidth="1"/>
+    <col min="44" max="44" width="13.42578125" style="74" customWidth="1"/>
+    <col min="45" max="45" width="17.85546875" style="74" customWidth="1"/>
+    <col min="46" max="46" width="25.85546875" style="74" customWidth="1"/>
+    <col min="47" max="47" width="24.140625" style="74" customWidth="1"/>
+    <col min="48" max="48" width="15.85546875" style="74" customWidth="1"/>
+    <col min="49" max="49" width="23.140625" style="74" customWidth="1"/>
+    <col min="50" max="50" width="19.5703125" style="74" customWidth="1"/>
+    <col min="51" max="51" width="15.85546875" style="74" customWidth="1"/>
+    <col min="52" max="52" width="13.7109375" style="74" customWidth="1"/>
+    <col min="53" max="53" width="21.140625" style="74" customWidth="1"/>
+    <col min="54" max="54" width="19.42578125" style="74" customWidth="1"/>
+    <col min="55" max="55" width="20.140625" style="74" customWidth="1"/>
+    <col min="56" max="56" width="21" style="74" customWidth="1"/>
+    <col min="57" max="57" width="23.85546875" style="74" customWidth="1"/>
+    <col min="58" max="58" width="20" style="74" customWidth="1"/>
+    <col min="59" max="59" width="20.140625" style="74" customWidth="1"/>
+    <col min="60" max="60" width="20.7109375" style="74" customWidth="1"/>
+    <col min="61" max="61" width="19.42578125" style="74" customWidth="1"/>
+    <col min="62" max="62" width="20.140625" style="74" customWidth="1"/>
+    <col min="63" max="63" width="20.42578125" style="74" customWidth="1"/>
+    <col min="64" max="65" width="20" style="74" customWidth="1"/>
+    <col min="66" max="66" width="20.7109375" style="74" customWidth="1"/>
+    <col min="67" max="67" width="37.7109375" style="74" customWidth="1"/>
+    <col min="68" max="68" width="35.5703125" style="74" customWidth="1"/>
+    <col min="69" max="69" width="13.5703125" style="74" customWidth="1"/>
+    <col min="70" max="70" width="22.7109375" style="74" customWidth="1"/>
+    <col min="71" max="71" width="21.42578125" style="74" customWidth="1"/>
+    <col min="72" max="72" width="35.85546875" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" s="49" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:113" s="48" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
@@ -10592,235 +10470,232 @@
       <c r="F1" s="25" t="s">
         <v>823</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>1136</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>1142</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>1143</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>1144</v>
+      </c>
+      <c r="U1" s="48" t="s">
+        <v>1145</v>
+      </c>
+      <c r="V1" s="48" t="s">
+        <v>1146</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>1147</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Z1" s="50" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA1" s="50" t="s">
+        <v>827</v>
+      </c>
+      <c r="AB1" s="50" t="s">
+        <v>809</v>
+      </c>
+      <c r="AC1" s="50" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AD1" s="50" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AE1" s="50" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AF1" s="50" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AH1" s="48" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AI1" s="48" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AJ1" s="48" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AK1" s="48" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AL1" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM1" s="25" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AN1" s="51" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AO1" s="51" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AP1" s="51" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AQ1" s="51" t="s">
+        <v>935</v>
+      </c>
+      <c r="AR1" s="50" t="s">
+        <v>936</v>
+      </c>
+      <c r="AS1" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AT1" s="50" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AU1" s="50" t="s">
         <v>1165</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="AV1" s="50" t="s">
         <v>1166</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="AW1" s="50" t="s">
         <v>1167</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="AX1" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="AY1" s="50" t="s">
+        <v>788</v>
+      </c>
+      <c r="AZ1" s="50" t="s">
         <v>1168</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="BA1" s="48" t="s">
         <v>1169</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="BB1" s="48" t="s">
         <v>1170</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="BC1" s="48" t="s">
+        <v>973</v>
+      </c>
+      <c r="BD1" s="48" t="s">
         <v>1171</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="BE1" s="48" t="s">
+        <v>974</v>
+      </c>
+      <c r="BF1" s="48" t="s">
         <v>1172</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="BG1" s="48" t="s">
         <v>1173</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="BH1" s="48" t="s">
         <v>1174</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="BI1" s="48" t="s">
         <v>1175</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="BJ1" s="48" t="s">
         <v>1176</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="BK1" s="48" t="s">
         <v>1177</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="BL1" s="48" t="s">
         <v>1178</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="BM1" s="48" t="s">
         <v>1179</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="BN1" s="48" t="s">
         <v>1180</v>
       </c>
-      <c r="W1" s="49" t="s">
+      <c r="BO1" s="48" t="s">
         <v>1181</v>
       </c>
-      <c r="X1" s="49" t="s">
+      <c r="BP1" s="48" t="s">
         <v>1182</v>
       </c>
-      <c r="Y1" s="49" t="s">
+      <c r="BQ1" s="48" t="s">
         <v>1183</v>
       </c>
-      <c r="Z1" s="51" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA1" s="51" t="s">
-        <v>827</v>
-      </c>
-      <c r="AB1" s="51" t="s">
-        <v>809</v>
-      </c>
-      <c r="AC1" s="51" t="s">
+      <c r="BR1" s="52" t="s">
         <v>1184</v>
       </c>
-      <c r="AD1" s="51" t="s">
+      <c r="BS1" s="48" t="s">
         <v>1185</v>
       </c>
-      <c r="AE1" s="51" t="s">
+      <c r="BT1" s="48" t="s">
         <v>1186</v>
       </c>
-      <c r="AF1" s="51" t="s">
+    </row>
+    <row r="2" spans="1:113" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="74" t="s">
         <v>1187</v>
-      </c>
-      <c r="AG1" s="49" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AH1" s="49" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AI1" s="49" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AJ1" s="49" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AK1" s="49" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AL1" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="AM1" s="25" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AN1" s="52" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AO1" s="52" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AP1" s="52" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AQ1" s="52" t="s">
-        <v>935</v>
-      </c>
-      <c r="AR1" s="51" t="s">
-        <v>936</v>
-      </c>
-      <c r="AS1" s="51" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AT1" s="51" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AU1" s="51" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV1" s="51" t="s">
-        <v>1200</v>
-      </c>
-      <c r="AW1" s="51" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AX1" s="51" t="s">
-        <v>728</v>
-      </c>
-      <c r="AY1" s="51" t="s">
-        <v>788</v>
-      </c>
-      <c r="AZ1" s="51" t="s">
-        <v>1202</v>
-      </c>
-      <c r="BA1" s="49" t="s">
-        <v>1203</v>
-      </c>
-      <c r="BB1" s="49" t="s">
-        <v>1204</v>
-      </c>
-      <c r="BC1" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="BD1" s="49" t="s">
-        <v>1205</v>
-      </c>
-      <c r="BE1" s="49" t="s">
-        <v>974</v>
-      </c>
-      <c r="BF1" s="49" t="s">
-        <v>1206</v>
-      </c>
-      <c r="BG1" s="49" t="s">
-        <v>1207</v>
-      </c>
-      <c r="BH1" s="49" t="s">
-        <v>1208</v>
-      </c>
-      <c r="BI1" s="49" t="s">
-        <v>1209</v>
-      </c>
-      <c r="BJ1" s="49" t="s">
-        <v>1210</v>
-      </c>
-      <c r="BK1" s="49" t="s">
-        <v>1211</v>
-      </c>
-      <c r="BL1" s="49" t="s">
-        <v>1212</v>
-      </c>
-      <c r="BM1" s="49" t="s">
-        <v>1213</v>
-      </c>
-      <c r="BN1" s="49" t="s">
-        <v>1214</v>
-      </c>
-      <c r="BO1" s="49" t="s">
-        <v>1215</v>
-      </c>
-      <c r="BP1" s="49" t="s">
-        <v>1216</v>
-      </c>
-      <c r="BQ1" s="49" t="s">
-        <v>1217</v>
-      </c>
-      <c r="BR1" s="53" t="s">
-        <v>1218</v>
-      </c>
-      <c r="BS1" s="49" t="s">
-        <v>1219</v>
-      </c>
-      <c r="BT1" s="49" t="s">
-        <v>1220</v>
-      </c>
-      <c r="DJ1" s="4" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:114" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>1221</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>582</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>646</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="75" t="s">
-        <v>1222</v>
-      </c>
-      <c r="I2" s="75" t="s">
-        <v>1223</v>
+      <c r="H2" s="74" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>1189</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>324</v>
@@ -10828,314 +10703,311 @@
       <c r="K2" s="33" t="s">
         <v>1005</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="74" t="s">
         <v>867</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>868</v>
       </c>
-      <c r="N2" s="75">
+      <c r="N2" s="74">
         <v>1778.1</v>
       </c>
-      <c r="O2" s="75">
+      <c r="O2" s="74">
         <v>808.2</v>
       </c>
-      <c r="P2" s="75">
+      <c r="P2" s="74">
         <v>646.6</v>
       </c>
-      <c r="Q2" s="75">
+      <c r="Q2" s="74">
         <v>55</v>
       </c>
-      <c r="R2" s="75">
+      <c r="R2" s="74">
         <v>25</v>
       </c>
-      <c r="S2" s="75">
+      <c r="S2" s="74">
         <v>20</v>
       </c>
-      <c r="T2" s="75">
+      <c r="T2" s="74">
         <v>25</v>
       </c>
-      <c r="U2" s="75">
+      <c r="U2" s="74">
         <v>45</v>
       </c>
-      <c r="V2" s="75">
+      <c r="V2" s="74">
         <v>55</v>
       </c>
-      <c r="W2" s="75">
+      <c r="W2" s="74">
         <v>25</v>
       </c>
-      <c r="X2" s="75">
+      <c r="X2" s="74">
         <v>25</v>
       </c>
-      <c r="Y2" s="75">
+      <c r="Y2" s="74">
         <v>20</v>
       </c>
-      <c r="Z2" s="75" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AA2" s="75" t="s">
+      <c r="Z2" s="74" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AA2" s="74" t="s">
         <v>332</v>
       </c>
       <c r="AB2" s="27" t="s">
         <v>1046</v>
       </c>
-      <c r="AC2" s="75" t="s">
+      <c r="AC2" s="74" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AD2" s="74" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AE2" s="74" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AF2" s="27" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AG2" s="74">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="74">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="74">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="74">
+        <v>20</v>
+      </c>
+      <c r="AK2" s="74">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="AM2" s="74" t="s">
+        <v>961</v>
+      </c>
+      <c r="AN2" s="74" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AO2" s="74" t="s">
+        <v>953</v>
+      </c>
+      <c r="AP2" s="74" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AQ2" s="74" t="s">
+        <v>871</v>
+      </c>
+      <c r="AR2" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS2" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="AT2" s="74" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AU2" s="74" t="s">
+        <v>820</v>
+      </c>
+      <c r="AV2" s="74" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AW2" s="74" t="s">
+        <v>822</v>
+      </c>
+      <c r="AX2" s="74" t="s">
+        <v>588</v>
+      </c>
+      <c r="AY2" s="74" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AZ2" s="74" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA2" s="74">
+        <v>22000000</v>
+      </c>
+      <c r="BB2" s="74">
+        <v>22000000</v>
+      </c>
+      <c r="BC2" s="74">
+        <v>22000000</v>
+      </c>
+      <c r="BD2" s="74">
+        <v>19995000</v>
+      </c>
+      <c r="BE2" s="74">
+        <v>2005000</v>
+      </c>
+      <c r="BF2" s="74">
+        <v>10000000</v>
+      </c>
+      <c r="BG2" s="74">
+        <v>10000000</v>
+      </c>
+      <c r="BH2" s="74">
+        <v>5500000</v>
+      </c>
+      <c r="BI2" s="74">
+        <v>5500000</v>
+      </c>
+      <c r="BJ2" s="74">
+        <v>1333.55</v>
+      </c>
+      <c r="BK2" s="74">
+        <v>808.22</v>
+      </c>
+      <c r="BL2" s="74">
+        <v>202.05</v>
+      </c>
+      <c r="BM2" s="74">
+        <v>161.63999999999999</v>
+      </c>
+      <c r="BN2" s="74">
+        <v>1778.08</v>
+      </c>
+      <c r="BO2" s="74">
+        <v>75</v>
+      </c>
+      <c r="BP2" s="74">
+        <v>2424.66</v>
+      </c>
+      <c r="BQ2" s="74">
+        <v>0.74074074099999998</v>
+      </c>
+      <c r="BR2" s="74">
+        <v>55</v>
+      </c>
+      <c r="BS2" s="74">
+        <v>55</v>
+      </c>
+      <c r="BT2" s="74">
+        <v>3232.07</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="CP2" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="CQ2" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="CR2" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="CS2" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="CU2" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="AD2" s="75" t="s">
+      <c r="CV2" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="AE2" s="75" t="s">
+      <c r="CW2" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="AF2" s="27" t="s">
+      <c r="CX2" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="AG2" s="75">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="75">
-        <v>25</v>
-      </c>
-      <c r="AI2" s="75">
-        <v>25</v>
-      </c>
-      <c r="AJ2" s="75">
-        <v>20</v>
-      </c>
-      <c r="AK2" s="75">
-        <v>55</v>
-      </c>
-      <c r="AL2" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="AM2" s="75" t="s">
-        <v>961</v>
-      </c>
-      <c r="AN2" s="75" t="s">
+      <c r="CY2" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="AO2" s="75" t="s">
-        <v>953</v>
-      </c>
-      <c r="AP2" s="75" t="s">
+      <c r="CZ2" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="AQ2" s="75" t="s">
-        <v>871</v>
-      </c>
-      <c r="AR2" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS2" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="AT2" s="75" t="s">
+      <c r="DA2" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="AU2" s="75" t="s">
-        <v>820</v>
-      </c>
-      <c r="AV2" s="75" t="s">
+      <c r="DB2" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="AW2" s="75" t="s">
-        <v>822</v>
-      </c>
-      <c r="AX2" s="75" t="s">
-        <v>588</v>
-      </c>
-      <c r="AY2" s="75" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AZ2" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="BA2" s="75">
-        <v>22000000</v>
-      </c>
-      <c r="BB2" s="75">
-        <v>22000000</v>
-      </c>
-      <c r="BC2" s="75">
-        <v>22000000</v>
-      </c>
-      <c r="BD2" s="75">
-        <v>19995000</v>
-      </c>
-      <c r="BE2" s="75">
-        <v>2005000</v>
-      </c>
-      <c r="BF2" s="75">
-        <v>10000000</v>
-      </c>
-      <c r="BG2" s="75">
-        <v>10000000</v>
-      </c>
-      <c r="BH2" s="75">
-        <v>5500000</v>
-      </c>
-      <c r="BI2" s="75">
-        <v>5500000</v>
-      </c>
-      <c r="BJ2" s="75">
-        <v>1333.55</v>
-      </c>
-      <c r="BK2" s="75">
-        <v>808.22</v>
-      </c>
-      <c r="BL2" s="75">
-        <v>202.05</v>
-      </c>
-      <c r="BM2" s="75">
-        <v>161.63999999999999</v>
-      </c>
-      <c r="BN2" s="75">
-        <v>1778.08</v>
-      </c>
-      <c r="BO2" s="75">
-        <v>75</v>
-      </c>
-      <c r="BP2" s="75">
-        <v>2424.66</v>
-      </c>
-      <c r="BQ2" s="75">
-        <v>0.74074074099999998</v>
-      </c>
-      <c r="BR2" s="75">
-        <v>55</v>
-      </c>
-      <c r="BS2" s="75">
-        <v>55</v>
-      </c>
-      <c r="BT2" s="75">
-        <v>3232.07</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="BX2" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="BY2" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="CA2" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="CB2" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="CC2" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="CF2" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="CG2" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="CH2" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="CI2" s="3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="CJ2" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="CK2" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="CL2" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="CM2" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="CN2" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="CP2" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="CQ2" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="CR2" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="CS2" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="CT2" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="CU2" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="CV2" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="CW2" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="CX2" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="CY2" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="CZ2" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="DA2" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="DB2" s="3" t="s">
-        <v>1093</v>
-      </c>
       <c r="DC2" s="3" t="s">
-        <v>1094</v>
+        <v>1233</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>1095</v>
+        <v>1234</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="DF2" s="3" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="DG2" s="3" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="DH2" s="3" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="DJ2" s="20" t="s">
-        <v>1343</v>
+        <v>1239</v>
       </c>
     </row>
   </sheetData>
@@ -11152,180 +11024,180 @@
   </sheetPr>
   <dimension ref="A1:GK5"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB1" sqref="BB1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="75" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="75" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="75" customWidth="1"/>
-    <col min="10" max="11" width="17.5703125" style="75" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="75" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" style="75" customWidth="1"/>
-    <col min="14" max="15" width="17.7109375" style="75" customWidth="1"/>
-    <col min="16" max="17" width="17.42578125" style="75" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" style="75" customWidth="1"/>
-    <col min="19" max="19" width="21" style="75" customWidth="1"/>
-    <col min="20" max="20" width="23.85546875" style="75" customWidth="1"/>
-    <col min="21" max="21" width="20" style="75" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" style="75" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" style="75" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="75" customWidth="1"/>
-    <col min="25" max="25" width="14" style="75" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" style="75" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" style="75" customWidth="1"/>
-    <col min="28" max="28" width="32.85546875" style="75" customWidth="1"/>
-    <col min="29" max="29" width="19.5703125" style="75" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" style="75" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="75" customWidth="1"/>
-    <col min="32" max="32" width="27.85546875" style="75" customWidth="1"/>
-    <col min="33" max="34" width="26.85546875" style="75" customWidth="1"/>
-    <col min="35" max="35" width="25.140625" style="75" customWidth="1"/>
-    <col min="36" max="36" width="23.85546875" style="75" customWidth="1"/>
-    <col min="37" max="37" width="18.42578125" style="75" customWidth="1"/>
-    <col min="38" max="39" width="17.42578125" style="75" customWidth="1"/>
-    <col min="40" max="40" width="19.85546875" style="75" customWidth="1"/>
-    <col min="41" max="42" width="18.85546875" style="75" customWidth="1"/>
-    <col min="43" max="43" width="25.140625" style="75" customWidth="1"/>
-    <col min="44" max="45" width="24.140625" style="75" customWidth="1"/>
-    <col min="46" max="46" width="16" style="75" customWidth="1"/>
-    <col min="47" max="47" width="17.85546875" style="75" customWidth="1"/>
-    <col min="48" max="48" width="24.140625" style="75" customWidth="1"/>
-    <col min="49" max="49" width="18" style="75" customWidth="1"/>
-    <col min="50" max="50" width="31.140625" style="75" customWidth="1"/>
-    <col min="51" max="51" width="30.7109375" style="75" customWidth="1"/>
-    <col min="52" max="52" width="18.140625" style="75" customWidth="1"/>
-    <col min="53" max="53" width="17.42578125" style="75" customWidth="1"/>
-    <col min="54" max="54" width="19.140625" style="75" customWidth="1"/>
-    <col min="55" max="55" width="19" style="75" customWidth="1"/>
-    <col min="56" max="56" width="10.140625" style="75" customWidth="1"/>
-    <col min="57" max="57" width="9.7109375" style="75" customWidth="1"/>
-    <col min="58" max="58" width="22.42578125" style="75" customWidth="1"/>
-    <col min="59" max="59" width="34.7109375" style="75" customWidth="1"/>
-    <col min="60" max="60" width="19.28515625" style="75" customWidth="1"/>
-    <col min="61" max="61" width="21.85546875" style="75" customWidth="1"/>
-    <col min="62" max="62" width="26.7109375" style="75" customWidth="1"/>
-    <col min="63" max="64" width="18.7109375" style="75" customWidth="1"/>
-    <col min="65" max="66" width="22.140625" style="75" customWidth="1"/>
-    <col min="67" max="68" width="24.42578125" style="75" customWidth="1"/>
-    <col min="69" max="69" width="14.28515625" style="75" customWidth="1"/>
-    <col min="70" max="71" width="28" style="75" customWidth="1"/>
-    <col min="72" max="72" width="17.7109375" style="75" customWidth="1"/>
-    <col min="73" max="73" width="32.7109375" style="75" customWidth="1"/>
-    <col min="74" max="75" width="18.85546875" style="75" customWidth="1"/>
-    <col min="76" max="77" width="16.42578125" style="75" customWidth="1"/>
-    <col min="78" max="79" width="22.85546875" style="75" customWidth="1"/>
-    <col min="80" max="80" width="20.5703125" style="75" customWidth="1"/>
-    <col min="81" max="81" width="20.28515625" style="75" customWidth="1"/>
-    <col min="82" max="82" width="21.42578125" style="75" customWidth="1"/>
-    <col min="83" max="83" width="25.140625" style="75" customWidth="1"/>
-    <col min="84" max="84" width="22.42578125" style="75" customWidth="1"/>
-    <col min="85" max="85" width="24.140625" style="75" customWidth="1"/>
-    <col min="86" max="86" width="28" style="75" customWidth="1"/>
-    <col min="87" max="87" width="27.140625" style="75" customWidth="1"/>
-    <col min="88" max="88" width="29" style="75" customWidth="1"/>
-    <col min="89" max="89" width="20.140625" style="75" customWidth="1"/>
-    <col min="90" max="91" width="24.140625" style="75" customWidth="1"/>
-    <col min="92" max="92" width="9.42578125" style="75" customWidth="1"/>
-    <col min="93" max="94" width="17.7109375" style="75" customWidth="1"/>
-    <col min="95" max="95" width="20.42578125" style="75" customWidth="1"/>
-    <col min="96" max="96" width="17.5703125" style="75" customWidth="1"/>
-    <col min="97" max="97" width="21.140625" style="75" customWidth="1"/>
-    <col min="98" max="99" width="19.28515625" style="75" customWidth="1"/>
-    <col min="100" max="100" width="19.7109375" style="75" customWidth="1"/>
-    <col min="101" max="101" width="35" style="75" customWidth="1"/>
-    <col min="102" max="102" width="18.140625" style="75" customWidth="1"/>
-    <col min="103" max="103" width="19" style="75" customWidth="1"/>
-    <col min="104" max="104" width="32.42578125" style="75" customWidth="1"/>
-    <col min="105" max="105" width="17.28515625" style="75" customWidth="1"/>
-    <col min="106" max="106" width="28.7109375" style="75" customWidth="1"/>
-    <col min="107" max="107" width="23.5703125" style="75" customWidth="1"/>
-    <col min="108" max="108" width="45.28515625" style="75" customWidth="1"/>
-    <col min="109" max="109" width="29.85546875" style="75" customWidth="1"/>
-    <col min="110" max="110" width="14.28515625" style="75" customWidth="1"/>
-    <col min="111" max="111" width="23" style="75" customWidth="1"/>
-    <col min="112" max="115" width="19.85546875" style="75" customWidth="1"/>
-    <col min="116" max="117" width="24.7109375" style="75" customWidth="1"/>
-    <col min="118" max="118" width="25" style="75" customWidth="1"/>
-    <col min="119" max="119" width="24.42578125" style="75" customWidth="1"/>
-    <col min="120" max="120" width="30.42578125" style="75" customWidth="1"/>
-    <col min="121" max="121" width="36" style="75" customWidth="1"/>
-    <col min="122" max="122" width="34.42578125" style="75" customWidth="1"/>
-    <col min="123" max="123" width="26.7109375" style="75" customWidth="1"/>
-    <col min="124" max="125" width="17.28515625" style="75" customWidth="1"/>
-    <col min="126" max="126" width="34.140625" style="75" customWidth="1"/>
-    <col min="127" max="127" width="28.42578125" style="75" customWidth="1"/>
-    <col min="128" max="128" width="24.7109375" style="75" customWidth="1"/>
-    <col min="129" max="129" width="30.28515625" style="75" customWidth="1"/>
-    <col min="130" max="130" width="17.5703125" style="75" customWidth="1"/>
-    <col min="131" max="131" width="20.28515625" style="75" customWidth="1"/>
-    <col min="132" max="132" width="12.140625" style="75" customWidth="1"/>
-    <col min="133" max="133" width="21.42578125" style="75" customWidth="1"/>
-    <col min="134" max="134" width="24.140625" style="75" customWidth="1"/>
-    <col min="135" max="135" width="16" style="75" customWidth="1"/>
-    <col min="136" max="136" width="14" style="75" customWidth="1"/>
-    <col min="137" max="137" width="16.7109375" style="75" customWidth="1"/>
-    <col min="138" max="138" width="10" style="75" customWidth="1"/>
-    <col min="139" max="139" width="8.5703125" style="75" customWidth="1"/>
-    <col min="140" max="140" width="19.140625" style="75" customWidth="1"/>
-    <col min="141" max="141" width="37.7109375" style="75" customWidth="1"/>
-    <col min="142" max="142" width="15.85546875" style="75" customWidth="1"/>
-    <col min="143" max="143" width="9.28515625" style="75" customWidth="1"/>
-    <col min="144" max="145" width="16.7109375" style="75" customWidth="1"/>
-    <col min="146" max="146" width="12.85546875" style="75" customWidth="1"/>
-    <col min="147" max="147" width="32.42578125" style="75" customWidth="1"/>
-    <col min="148" max="148" width="11.7109375" style="75" customWidth="1"/>
-    <col min="149" max="149" width="35" style="75" customWidth="1"/>
-    <col min="150" max="150" width="18.140625" style="75" customWidth="1"/>
-    <col min="151" max="151" width="15.7109375" style="75" customWidth="1"/>
-    <col min="152" max="152" width="24" style="75" customWidth="1"/>
-    <col min="153" max="153" width="11.5703125" style="75" customWidth="1"/>
-    <col min="154" max="154" width="8.28515625" style="75" customWidth="1"/>
-    <col min="155" max="155" width="16.5703125" style="75" customWidth="1"/>
-    <col min="156" max="156" width="32.85546875" style="75" customWidth="1"/>
-    <col min="157" max="157" width="18.7109375" style="75" customWidth="1"/>
-    <col min="158" max="158" width="18.28515625" style="75" customWidth="1"/>
-    <col min="159" max="159" width="10.42578125" style="75" customWidth="1"/>
-    <col min="160" max="160" width="9.7109375" style="75" customWidth="1"/>
-    <col min="161" max="161" width="12.7109375" style="75" customWidth="1"/>
-    <col min="162" max="162" width="11.7109375" style="75" customWidth="1"/>
-    <col min="163" max="163" width="24" style="75" customWidth="1"/>
-    <col min="164" max="164" width="43.7109375" style="75" customWidth="1"/>
-    <col min="165" max="165" width="44.85546875" style="75" customWidth="1"/>
-    <col min="166" max="166" width="30.140625" style="75" customWidth="1"/>
-    <col min="167" max="167" width="29.42578125" style="75" customWidth="1"/>
-    <col min="168" max="168" width="25.28515625" style="75" customWidth="1"/>
-    <col min="169" max="169" width="9.5703125" style="75" customWidth="1"/>
-    <col min="170" max="170" width="25.7109375" style="75" customWidth="1"/>
-    <col min="171" max="171" width="19.7109375" style="75" customWidth="1"/>
-    <col min="172" max="172" width="28.5703125" style="75" customWidth="1"/>
-    <col min="173" max="173" width="21.140625" style="75" customWidth="1"/>
-    <col min="174" max="174" width="14.5703125" style="75" customWidth="1"/>
-    <col min="175" max="175" width="20.5703125" style="75" customWidth="1"/>
-    <col min="176" max="176" width="18.28515625" style="75" customWidth="1"/>
-    <col min="177" max="177" width="18.85546875" style="75" customWidth="1"/>
-    <col min="178" max="178" width="35" style="75" customWidth="1"/>
-    <col min="179" max="179" width="20" style="75" customWidth="1"/>
-    <col min="180" max="180" width="32.42578125" style="75" customWidth="1"/>
-    <col min="181" max="181" width="21.5703125" style="75" customWidth="1"/>
-    <col min="182" max="182" width="13.5703125" style="75" customWidth="1"/>
-    <col min="183" max="183" width="26.28515625" style="75" customWidth="1"/>
-    <col min="184" max="184" width="19.140625" style="75" customWidth="1"/>
-    <col min="185" max="185" width="44" style="75" customWidth="1"/>
-    <col min="186" max="186" width="23.5703125" style="75" customWidth="1"/>
-    <col min="187" max="187" width="26.28515625" style="75" customWidth="1"/>
-    <col min="188" max="188" width="34.85546875" style="75" customWidth="1"/>
-    <col min="189" max="189" width="9.140625" style="75" customWidth="1"/>
-    <col min="190" max="190" width="15.85546875" style="75" customWidth="1"/>
-    <col min="191" max="193" width="9" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="74" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="74" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="74" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="74" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" style="74" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="74" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="74" customWidth="1"/>
+    <col min="14" max="15" width="17.7109375" style="74" customWidth="1"/>
+    <col min="16" max="17" width="17.42578125" style="74" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="74" customWidth="1"/>
+    <col min="19" max="19" width="21" style="74" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" style="74" customWidth="1"/>
+    <col min="21" max="21" width="20" style="74" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="74" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="74" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="74" customWidth="1"/>
+    <col min="25" max="25" width="14" style="74" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" style="74" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" style="74" customWidth="1"/>
+    <col min="28" max="28" width="32.85546875" style="74" customWidth="1"/>
+    <col min="29" max="29" width="19.5703125" style="74" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" style="74" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="74" customWidth="1"/>
+    <col min="32" max="32" width="27.85546875" style="74" customWidth="1"/>
+    <col min="33" max="34" width="26.85546875" style="74" customWidth="1"/>
+    <col min="35" max="35" width="25.140625" style="74" customWidth="1"/>
+    <col min="36" max="36" width="23.85546875" style="74" customWidth="1"/>
+    <col min="37" max="37" width="18.42578125" style="74" customWidth="1"/>
+    <col min="38" max="39" width="17.42578125" style="74" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" style="74" customWidth="1"/>
+    <col min="41" max="42" width="18.85546875" style="74" customWidth="1"/>
+    <col min="43" max="43" width="25.140625" style="74" customWidth="1"/>
+    <col min="44" max="45" width="24.140625" style="74" customWidth="1"/>
+    <col min="46" max="46" width="16" style="74" customWidth="1"/>
+    <col min="47" max="47" width="17.85546875" style="74" customWidth="1"/>
+    <col min="48" max="48" width="24.140625" style="74" customWidth="1"/>
+    <col min="49" max="49" width="18" style="74" customWidth="1"/>
+    <col min="50" max="50" width="31.140625" style="74" customWidth="1"/>
+    <col min="51" max="51" width="30.7109375" style="74" customWidth="1"/>
+    <col min="52" max="52" width="18.140625" style="74" customWidth="1"/>
+    <col min="53" max="53" width="17.42578125" style="74" customWidth="1"/>
+    <col min="54" max="54" width="19.140625" style="74" customWidth="1"/>
+    <col min="55" max="55" width="19" style="74" customWidth="1"/>
+    <col min="56" max="56" width="10.140625" style="74" customWidth="1"/>
+    <col min="57" max="57" width="9.7109375" style="74" customWidth="1"/>
+    <col min="58" max="58" width="22.42578125" style="74" customWidth="1"/>
+    <col min="59" max="59" width="34.7109375" style="74" customWidth="1"/>
+    <col min="60" max="60" width="19.28515625" style="74" customWidth="1"/>
+    <col min="61" max="61" width="21.85546875" style="74" customWidth="1"/>
+    <col min="62" max="62" width="26.7109375" style="74" customWidth="1"/>
+    <col min="63" max="64" width="18.7109375" style="74" customWidth="1"/>
+    <col min="65" max="66" width="22.140625" style="74" customWidth="1"/>
+    <col min="67" max="68" width="24.42578125" style="74" customWidth="1"/>
+    <col min="69" max="69" width="14.28515625" style="74" customWidth="1"/>
+    <col min="70" max="71" width="28" style="74" customWidth="1"/>
+    <col min="72" max="72" width="17.7109375" style="74" customWidth="1"/>
+    <col min="73" max="73" width="32.7109375" style="74" customWidth="1"/>
+    <col min="74" max="75" width="18.85546875" style="74" customWidth="1"/>
+    <col min="76" max="77" width="16.42578125" style="74" customWidth="1"/>
+    <col min="78" max="79" width="22.85546875" style="74" customWidth="1"/>
+    <col min="80" max="80" width="20.5703125" style="74" customWidth="1"/>
+    <col min="81" max="81" width="20.28515625" style="74" customWidth="1"/>
+    <col min="82" max="82" width="21.42578125" style="74" customWidth="1"/>
+    <col min="83" max="83" width="25.140625" style="74" customWidth="1"/>
+    <col min="84" max="84" width="22.42578125" style="74" customWidth="1"/>
+    <col min="85" max="85" width="24.140625" style="74" customWidth="1"/>
+    <col min="86" max="86" width="28" style="74" customWidth="1"/>
+    <col min="87" max="87" width="27.140625" style="74" customWidth="1"/>
+    <col min="88" max="88" width="29" style="74" customWidth="1"/>
+    <col min="89" max="89" width="20.140625" style="74" customWidth="1"/>
+    <col min="90" max="91" width="24.140625" style="74" customWidth="1"/>
+    <col min="92" max="92" width="9.42578125" style="74" customWidth="1"/>
+    <col min="93" max="94" width="17.7109375" style="74" customWidth="1"/>
+    <col min="95" max="95" width="20.42578125" style="74" customWidth="1"/>
+    <col min="96" max="96" width="17.5703125" style="74" customWidth="1"/>
+    <col min="97" max="97" width="21.140625" style="74" customWidth="1"/>
+    <col min="98" max="99" width="19.28515625" style="74" customWidth="1"/>
+    <col min="100" max="100" width="19.7109375" style="74" customWidth="1"/>
+    <col min="101" max="101" width="35" style="74" customWidth="1"/>
+    <col min="102" max="102" width="18.140625" style="74" customWidth="1"/>
+    <col min="103" max="103" width="19" style="74" customWidth="1"/>
+    <col min="104" max="104" width="32.42578125" style="74" customWidth="1"/>
+    <col min="105" max="105" width="17.28515625" style="74" customWidth="1"/>
+    <col min="106" max="106" width="28.7109375" style="74" customWidth="1"/>
+    <col min="107" max="107" width="23.5703125" style="74" customWidth="1"/>
+    <col min="108" max="108" width="45.28515625" style="74" customWidth="1"/>
+    <col min="109" max="109" width="29.85546875" style="74" customWidth="1"/>
+    <col min="110" max="110" width="14.28515625" style="74" customWidth="1"/>
+    <col min="111" max="111" width="23" style="74" customWidth="1"/>
+    <col min="112" max="115" width="19.85546875" style="74" customWidth="1"/>
+    <col min="116" max="117" width="24.7109375" style="74" customWidth="1"/>
+    <col min="118" max="118" width="25" style="74" customWidth="1"/>
+    <col min="119" max="119" width="24.42578125" style="74" customWidth="1"/>
+    <col min="120" max="120" width="30.42578125" style="74" customWidth="1"/>
+    <col min="121" max="121" width="36" style="74" customWidth="1"/>
+    <col min="122" max="122" width="34.42578125" style="74" customWidth="1"/>
+    <col min="123" max="123" width="26.7109375" style="74" customWidth="1"/>
+    <col min="124" max="125" width="17.28515625" style="74" customWidth="1"/>
+    <col min="126" max="126" width="34.140625" style="74" customWidth="1"/>
+    <col min="127" max="127" width="28.42578125" style="74" customWidth="1"/>
+    <col min="128" max="128" width="24.7109375" style="74" customWidth="1"/>
+    <col min="129" max="129" width="30.28515625" style="74" customWidth="1"/>
+    <col min="130" max="130" width="17.5703125" style="74" customWidth="1"/>
+    <col min="131" max="131" width="20.28515625" style="74" customWidth="1"/>
+    <col min="132" max="132" width="12.140625" style="74" customWidth="1"/>
+    <col min="133" max="133" width="21.42578125" style="74" customWidth="1"/>
+    <col min="134" max="134" width="24.140625" style="74" customWidth="1"/>
+    <col min="135" max="135" width="16" style="74" customWidth="1"/>
+    <col min="136" max="136" width="14" style="74" customWidth="1"/>
+    <col min="137" max="137" width="16.7109375" style="74" customWidth="1"/>
+    <col min="138" max="138" width="10" style="74" customWidth="1"/>
+    <col min="139" max="139" width="8.5703125" style="74" customWidth="1"/>
+    <col min="140" max="140" width="19.140625" style="74" customWidth="1"/>
+    <col min="141" max="141" width="37.7109375" style="74" customWidth="1"/>
+    <col min="142" max="142" width="15.85546875" style="74" customWidth="1"/>
+    <col min="143" max="143" width="9.28515625" style="74" customWidth="1"/>
+    <col min="144" max="145" width="16.7109375" style="74" customWidth="1"/>
+    <col min="146" max="146" width="12.85546875" style="74" customWidth="1"/>
+    <col min="147" max="147" width="32.42578125" style="74" customWidth="1"/>
+    <col min="148" max="148" width="11.7109375" style="74" customWidth="1"/>
+    <col min="149" max="149" width="35" style="74" customWidth="1"/>
+    <col min="150" max="150" width="18.140625" style="74" customWidth="1"/>
+    <col min="151" max="151" width="15.7109375" style="74" customWidth="1"/>
+    <col min="152" max="152" width="24" style="74" customWidth="1"/>
+    <col min="153" max="153" width="11.5703125" style="74" customWidth="1"/>
+    <col min="154" max="154" width="8.28515625" style="74" customWidth="1"/>
+    <col min="155" max="155" width="16.5703125" style="74" customWidth="1"/>
+    <col min="156" max="156" width="32.85546875" style="74" customWidth="1"/>
+    <col min="157" max="157" width="18.7109375" style="74" customWidth="1"/>
+    <col min="158" max="158" width="18.28515625" style="74" customWidth="1"/>
+    <col min="159" max="159" width="10.42578125" style="74" customWidth="1"/>
+    <col min="160" max="160" width="9.7109375" style="74" customWidth="1"/>
+    <col min="161" max="161" width="12.7109375" style="74" customWidth="1"/>
+    <col min="162" max="162" width="11.7109375" style="74" customWidth="1"/>
+    <col min="163" max="163" width="24" style="74" customWidth="1"/>
+    <col min="164" max="164" width="43.7109375" style="74" customWidth="1"/>
+    <col min="165" max="165" width="44.85546875" style="74" customWidth="1"/>
+    <col min="166" max="166" width="30.140625" style="74" customWidth="1"/>
+    <col min="167" max="167" width="29.42578125" style="74" customWidth="1"/>
+    <col min="168" max="168" width="25.28515625" style="74" customWidth="1"/>
+    <col min="169" max="169" width="9.5703125" style="74" customWidth="1"/>
+    <col min="170" max="170" width="25.7109375" style="74" customWidth="1"/>
+    <col min="171" max="171" width="19.7109375" style="74" customWidth="1"/>
+    <col min="172" max="172" width="28.5703125" style="74" customWidth="1"/>
+    <col min="173" max="173" width="21.140625" style="74" customWidth="1"/>
+    <col min="174" max="174" width="14.5703125" style="74" customWidth="1"/>
+    <col min="175" max="175" width="20.5703125" style="74" customWidth="1"/>
+    <col min="176" max="176" width="18.28515625" style="74" customWidth="1"/>
+    <col min="177" max="177" width="18.85546875" style="74" customWidth="1"/>
+    <col min="178" max="178" width="35" style="74" customWidth="1"/>
+    <col min="179" max="179" width="20" style="74" customWidth="1"/>
+    <col min="180" max="180" width="32.42578125" style="74" customWidth="1"/>
+    <col min="181" max="181" width="21.5703125" style="74" customWidth="1"/>
+    <col min="182" max="182" width="13.5703125" style="74" customWidth="1"/>
+    <col min="183" max="183" width="26.28515625" style="74" customWidth="1"/>
+    <col min="184" max="184" width="19.140625" style="74" customWidth="1"/>
+    <col min="185" max="185" width="44" style="74" customWidth="1"/>
+    <col min="186" max="186" width="23.5703125" style="74" customWidth="1"/>
+    <col min="187" max="187" width="26.28515625" style="74" customWidth="1"/>
+    <col min="188" max="188" width="34.85546875" style="74" customWidth="1"/>
+    <col min="189" max="189" width="9.140625" style="74" customWidth="1"/>
+    <col min="190" max="190" width="15.85546875" style="74" customWidth="1"/>
+    <col min="191" max="193" width="9" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:193" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -11342,19 +11214,19 @@
         <v>472</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>789</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>1101</v>
+        <v>1065</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>1001</v>
@@ -11366,7 +11238,7 @@
         <v>478</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>836</v>
@@ -11375,43 +11247,43 @@
         <v>837</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>1195</v>
+        <v>1161</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>1196</v>
+        <v>1162</v>
       </c>
       <c r="R1" s="28" t="s">
         <v>973</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>1205</v>
+        <v>1171</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>974</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>1206</v>
+        <v>1172</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>1207</v>
+        <v>1173</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>1208</v>
+        <v>1174</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>1209</v>
+        <v>1175</v>
       </c>
       <c r="Y1" s="25" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="Z1" s="25" t="s">
         <v>823</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="AB1" s="25" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="AC1" s="25" t="s">
         <v>728</v>
@@ -11423,70 +11295,67 @@
         <v>827</v>
       </c>
       <c r="AF1" s="25" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="AG1" s="25" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="AH1" s="25" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="AI1" s="25" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="AJ1" s="25" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="AK1" s="25" t="s">
-        <v>1194</v>
+        <v>1160</v>
       </c>
       <c r="AL1" s="25" t="s">
-        <v>1195</v>
+        <v>1161</v>
       </c>
       <c r="AM1" s="25" t="s">
-        <v>1196</v>
+        <v>1162</v>
       </c>
       <c r="AN1" s="25" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="AO1" s="25" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="AP1" s="25" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="AQ1" s="25" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="AR1" s="25" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="AS1" s="25" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="AT1" s="25" t="s">
-        <v>1193</v>
+        <v>1159</v>
       </c>
       <c r="AU1" s="25" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="AV1" s="25" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="AW1" s="25" t="s">
-        <v>1200</v>
+        <v>1166</v>
       </c>
       <c r="AX1" s="25" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="AY1" s="25" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="AZ1" s="25" t="s">
-        <v>1257</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>1342</v>
+        <v>1259</v>
       </c>
       <c r="BF1" s="28"/>
       <c r="BG1" s="28"/>
@@ -11554,11 +11423,11 @@
       <c r="GH1" s="28"/>
     </row>
     <row r="2" spans="1:193" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>1258</v>
+      <c r="B2" s="74" t="s">
+        <v>1260</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>579</v>
@@ -11566,174 +11435,171 @@
       <c r="D2" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="74">
         <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="75">
+      <c r="G2" s="99"/>
+      <c r="H2" s="74">
         <v>1808.22</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="99">
         <v>55</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="99">
         <v>25</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="99">
         <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="99" t="s">
         <v>1005</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="99" t="s">
         <v>867</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="99" t="s">
         <v>868</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="99" t="s">
         <v>953</v>
       </c>
-      <c r="Q2" s="36" t="s">
-        <v>1230</v>
-      </c>
-      <c r="R2" s="75">
+      <c r="Q2" s="99" t="s">
+        <v>1196</v>
+      </c>
+      <c r="R2" s="74">
         <v>28000000</v>
       </c>
-      <c r="S2" s="75">
+      <c r="S2" s="74">
         <v>27000000</v>
       </c>
-      <c r="T2" s="75">
+      <c r="T2" s="74">
         <v>1000000</v>
       </c>
-      <c r="U2" s="75">
+      <c r="U2" s="74">
         <v>27000000</v>
       </c>
-      <c r="V2" s="75">
+      <c r="V2" s="74">
         <v>27000000</v>
       </c>
-      <c r="W2" s="75">
+      <c r="W2" s="74">
         <v>14850000</v>
       </c>
-      <c r="X2" s="75">
+      <c r="X2" s="74">
         <v>14850000</v>
       </c>
-      <c r="Y2" s="75" t="s">
-        <v>1259</v>
-      </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Y2" s="74" t="s">
+        <v>1261</v>
+      </c>
+      <c r="Z2" s="99" t="s">
         <v>646</v>
       </c>
-      <c r="AA2" s="75" t="s">
+      <c r="AA2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="75">
+      <c r="AB2" s="74">
         <v>20</v>
       </c>
-      <c r="AC2" s="75" t="s">
+      <c r="AC2" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="AD2" s="75" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AE2" s="75" t="s">
+      <c r="AD2" s="74" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AE2" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="AF2" s="75" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AG2" s="75" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AH2" s="75" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AI2" s="75" t="s">
+      <c r="AF2" s="74" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AG2" s="74" t="s">
         <v>1262</v>
       </c>
-      <c r="AJ2" s="75" t="s">
+      <c r="AH2" s="74" t="s">
         <v>1263</v>
       </c>
-      <c r="AK2" s="36" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AL2" s="75" t="s">
+      <c r="AI2" s="74" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AJ2" s="74" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AK2" s="99" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AL2" s="74" t="s">
         <v>953</v>
       </c>
-      <c r="AM2" s="75" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AN2" s="75" t="s">
+      <c r="AM2" s="74" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AN2" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="AO2" s="75" t="s">
+      <c r="AO2" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="AP2" s="75" t="s">
+      <c r="AP2" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="AQ2" s="75" t="s">
+      <c r="AQ2" s="74" t="s">
         <v>871</v>
       </c>
-      <c r="AR2" s="75" t="s">
+      <c r="AR2" s="74" t="s">
         <v>871</v>
       </c>
-      <c r="AS2" s="75" t="s">
+      <c r="AS2" s="74" t="s">
         <v>871</v>
       </c>
-      <c r="AT2" s="75" t="s">
+      <c r="AT2" s="74" t="s">
         <v>961</v>
       </c>
-      <c r="AU2" s="75" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AV2" s="75" t="s">
+      <c r="AU2" s="74" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AV2" s="74" t="s">
         <v>820</v>
       </c>
-      <c r="AW2" s="75" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AY2" s="75" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AZ2" s="75" t="s">
+      <c r="AW2" s="74" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AY2" s="74" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AZ2" s="74" t="s">
         <v>822</v>
-      </c>
-      <c r="BA2" s="20" t="s">
-        <v>1343</v>
       </c>
       <c r="BV2" s="35"/>
       <c r="BW2" s="35"/>
-      <c r="CF2" s="54"/>
-      <c r="CG2" s="42"/>
-      <c r="GI2" s="75">
+      <c r="CF2" s="53"/>
+      <c r="CG2" s="41"/>
+      <c r="GI2" s="74">
         <v>14300000</v>
       </c>
-      <c r="GJ2" s="75">
+      <c r="GJ2" s="74">
         <v>14300000</v>
       </c>
-      <c r="GK2" s="75">
+      <c r="GK2" s="74">
         <v>14300000</v>
       </c>
     </row>
     <row r="3" spans="1:193" x14ac:dyDescent="0.2">
       <c r="C3" s="30"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
       <c r="BV3" s="35"/>
       <c r="BW3" s="35"/>
-      <c r="CF3" s="54"/>
-      <c r="CG3" s="42"/>
+      <c r="CF3" s="53"/>
+      <c r="CG3" s="41"/>
     </row>
     <row r="4" spans="1:193" x14ac:dyDescent="0.2">
-      <c r="BO4" s="55"/>
-      <c r="BP4" s="55"/>
+      <c r="BO4" s="54"/>
+      <c r="BP4" s="54"/>
       <c r="BR4" s="30"/>
       <c r="BS4" s="30"/>
       <c r="BT4" s="30"/>
@@ -11742,8 +11608,8 @@
       <c r="BW4" s="30"/>
     </row>
     <row r="5" spans="1:193" x14ac:dyDescent="0.2">
-      <c r="BO5" s="55"/>
-      <c r="BP5" s="55"/>
+      <c r="BO5" s="54"/>
+      <c r="BP5" s="54"/>
       <c r="BR5" s="30"/>
       <c r="BS5" s="30"/>
       <c r="BT5" s="30"/>
@@ -11763,66 +11629,66 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1:AZ2"/>
+    <sheetView topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="75" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="75" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="75" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="75" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="75" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="75" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="75" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="75" customWidth="1"/>
-    <col min="14" max="14" width="20" style="75" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="75" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="75" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" style="75" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="75" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" style="75" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="75" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" style="75" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="75" customWidth="1"/>
-    <col min="23" max="23" width="16.140625" style="75" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" style="75" customWidth="1"/>
-    <col min="25" max="25" width="18" style="75" customWidth="1"/>
-    <col min="26" max="26" width="17.7109375" style="75" customWidth="1"/>
-    <col min="27" max="27" width="15.28515625" style="75" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" style="75" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" style="75" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="75" customWidth="1"/>
-    <col min="31" max="31" width="12" style="75" customWidth="1"/>
-    <col min="32" max="32" width="50.85546875" style="75" customWidth="1"/>
-    <col min="33" max="33" width="26.42578125" style="75" customWidth="1"/>
-    <col min="34" max="34" width="31" style="75" customWidth="1"/>
-    <col min="35" max="35" width="21.140625" style="75" customWidth="1"/>
-    <col min="36" max="36" width="19.42578125" style="75" customWidth="1"/>
-    <col min="37" max="37" width="20.140625" style="75" customWidth="1"/>
-    <col min="38" max="38" width="21" style="75" customWidth="1"/>
-    <col min="39" max="39" width="23.85546875" style="75" customWidth="1"/>
-    <col min="40" max="40" width="20" style="75" customWidth="1"/>
-    <col min="41" max="41" width="20.140625" style="75" customWidth="1"/>
-    <col min="42" max="42" width="20.7109375" style="75" customWidth="1"/>
-    <col min="43" max="43" width="19.42578125" style="75" customWidth="1"/>
-    <col min="44" max="44" width="24" style="75" customWidth="1"/>
-    <col min="45" max="46" width="17.5703125" style="75" customWidth="1"/>
-    <col min="47" max="47" width="29.28515625" style="75" customWidth="1"/>
-    <col min="48" max="48" width="13.42578125" style="75" customWidth="1"/>
-    <col min="49" max="49" width="12.42578125" style="75" customWidth="1"/>
-    <col min="50" max="51" width="21" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="74" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="74" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="74" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="74" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="74" customWidth="1"/>
+    <col min="14" max="14" width="20" style="74" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="74" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="74" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="74" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="74" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="74" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="74" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="74" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="74" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" style="74" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" style="74" customWidth="1"/>
+    <col min="25" max="25" width="18" style="74" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" style="74" customWidth="1"/>
+    <col min="27" max="27" width="15.28515625" style="74" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="74" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" style="74" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" style="74" customWidth="1"/>
+    <col min="31" max="31" width="12" style="74" customWidth="1"/>
+    <col min="32" max="32" width="50.85546875" style="74" customWidth="1"/>
+    <col min="33" max="33" width="26.42578125" style="74" customWidth="1"/>
+    <col min="34" max="34" width="31" style="74" customWidth="1"/>
+    <col min="35" max="35" width="21.140625" style="74" customWidth="1"/>
+    <col min="36" max="36" width="19.42578125" style="74" customWidth="1"/>
+    <col min="37" max="37" width="20.140625" style="74" customWidth="1"/>
+    <col min="38" max="38" width="21" style="74" customWidth="1"/>
+    <col min="39" max="39" width="23.85546875" style="74" customWidth="1"/>
+    <col min="40" max="40" width="20" style="74" customWidth="1"/>
+    <col min="41" max="41" width="20.140625" style="74" customWidth="1"/>
+    <col min="42" max="42" width="20.7109375" style="74" customWidth="1"/>
+    <col min="43" max="43" width="19.42578125" style="74" customWidth="1"/>
+    <col min="44" max="44" width="24" style="74" customWidth="1"/>
+    <col min="45" max="46" width="17.5703125" style="74" customWidth="1"/>
+    <col min="47" max="47" width="29.28515625" style="74" customWidth="1"/>
+    <col min="48" max="48" width="13.42578125" style="74" customWidth="1"/>
+    <col min="49" max="49" width="12.42578125" style="74" customWidth="1"/>
+    <col min="50" max="51" width="21" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -11836,28 +11702,28 @@
         <v>472</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>949</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K1" s="56" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K1" s="55" t="s">
         <v>812</v>
       </c>
-      <c r="L1" s="56" t="s">
-        <v>1271</v>
+      <c r="L1" s="55" t="s">
+        <v>1273</v>
       </c>
       <c r="M1" s="25" t="s">
         <v>789</v>
@@ -11881,34 +11747,34 @@
         <v>192</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>1111</v>
+        <v>1076</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>1101</v>
+        <v>1065</v>
       </c>
       <c r="V1" s="25" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="W1" s="25" t="s">
         <v>829</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="Y1" s="25" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="Z1" s="25" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="AB1" s="25" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="AC1" s="25" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="AD1" s="25" t="s">
         <v>628</v>
@@ -11917,75 +11783,72 @@
         <v>242</v>
       </c>
       <c r="AF1" s="25" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="AG1" s="25" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="AH1" s="25" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="AI1" s="25" t="s">
-        <v>1203</v>
+        <v>1169</v>
       </c>
       <c r="AJ1" s="25" t="s">
-        <v>1204</v>
+        <v>1170</v>
       </c>
       <c r="AK1" s="25" t="s">
         <v>973</v>
       </c>
       <c r="AL1" s="25" t="s">
-        <v>1205</v>
+        <v>1171</v>
       </c>
       <c r="AM1" s="25" t="s">
         <v>974</v>
       </c>
       <c r="AN1" s="25" t="s">
-        <v>1206</v>
+        <v>1172</v>
       </c>
       <c r="AO1" s="25" t="s">
-        <v>1207</v>
+        <v>1173</v>
       </c>
       <c r="AP1" s="25" t="s">
-        <v>1208</v>
+        <v>1174</v>
       </c>
       <c r="AQ1" s="25" t="s">
-        <v>1209</v>
-      </c>
-      <c r="AR1" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AR1" s="38" t="s">
         <v>1000</v>
       </c>
-      <c r="AS1" s="39" t="s">
+      <c r="AS1" s="38" t="s">
         <v>1001</v>
       </c>
-      <c r="AT1" s="39" t="s">
+      <c r="AT1" s="38" t="s">
         <v>1002</v>
       </c>
-      <c r="AU1" s="39" t="s">
+      <c r="AU1" s="38" t="s">
         <v>964</v>
       </c>
-      <c r="AV1" s="39" t="s">
+      <c r="AV1" s="38" t="s">
         <v>965</v>
       </c>
-      <c r="AW1" s="39" t="s">
+      <c r="AW1" s="38" t="s">
         <v>966</v>
       </c>
       <c r="AX1" s="25" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="AY1" s="25" t="s">
         <v>839</v>
       </c>
-      <c r="AZ1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>1283</v>
+      <c r="B2" s="74" t="s">
+        <v>1285</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>579</v>
@@ -11996,101 +11859,98 @@
       <c r="F2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="74" t="s">
         <v>646</v>
       </c>
-      <c r="L2" s="75" t="s">
-        <v>1284</v>
+      <c r="L2" s="74" t="s">
+        <v>1286</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="N2" s="75" t="s">
-        <v>1159</v>
-      </c>
-      <c r="O2" s="75" t="s">
+      <c r="N2" s="74" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O2" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="P2" s="75" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Q2" s="75" t="s">
-        <v>1124</v>
-      </c>
-      <c r="R2" s="75" t="s">
+      <c r="P2" s="74" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Q2" s="74" t="s">
+        <v>1090</v>
+      </c>
+      <c r="R2" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="S2" s="75">
+      <c r="S2" s="74">
         <v>116</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="74" t="s">
         <v>338</v>
       </c>
       <c r="AA2" s="30">
         <v>43353</v>
       </c>
-      <c r="AF2" s="75" t="s">
-        <v>1285</v>
-      </c>
-      <c r="AG2" s="75" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AH2" s="75">
+      <c r="AF2" s="74" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AG2" s="74" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AH2" s="74">
         <v>1000000</v>
       </c>
-      <c r="AI2" s="75">
+      <c r="AI2" s="74">
         <v>27000000</v>
       </c>
-      <c r="AJ2" s="75">
+      <c r="AJ2" s="74">
         <v>27000000</v>
       </c>
-      <c r="AK2" s="75">
+      <c r="AK2" s="74">
         <v>28000000</v>
       </c>
-      <c r="AL2" s="75">
+      <c r="AL2" s="74">
         <v>27001446.579999998</v>
       </c>
-      <c r="AM2" s="75">
+      <c r="AM2" s="74">
         <v>998553.42</v>
       </c>
-      <c r="AN2" s="75">
+      <c r="AN2" s="74">
         <v>27000000</v>
       </c>
-      <c r="AO2" s="75">
+      <c r="AO2" s="74">
         <v>27001446.579999998</v>
       </c>
-      <c r="AP2" s="75">
+      <c r="AP2" s="74">
         <v>14851328.23</v>
       </c>
-      <c r="AQ2" s="75">
+      <c r="AQ2" s="74">
         <v>14851328.23</v>
       </c>
-      <c r="AR2" s="75">
+      <c r="AR2" s="74">
         <v>55</v>
       </c>
-      <c r="AS2" s="75">
+      <c r="AS2" s="74">
         <v>25</v>
       </c>
-      <c r="AT2" s="75">
+      <c r="AT2" s="74">
         <v>20</v>
       </c>
-      <c r="AU2" s="75" t="s">
+      <c r="AU2" s="74" t="s">
         <v>1005</v>
       </c>
-      <c r="AV2" s="75" t="s">
+      <c r="AV2" s="74" t="s">
         <v>867</v>
       </c>
-      <c r="AW2" s="75" t="s">
+      <c r="AW2" s="74" t="s">
         <v>868</v>
       </c>
-      <c r="AX2" s="75" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AY2" s="75" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AZ2" s="20" t="s">
-        <v>1343</v>
+      <c r="AX2" s="74" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AY2" s="74" t="s">
+        <v>1263</v>
       </c>
     </row>
   </sheetData>
@@ -12107,73 +11967,70 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="36" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="42.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" style="36" customWidth="1"/>
-    <col min="11" max="11" width="38.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.42578125" style="36" customWidth="1"/>
-    <col min="14" max="14" width="42.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" style="36" customWidth="1"/>
-    <col min="16" max="16" width="34.5703125" style="36" customWidth="1"/>
-    <col min="17" max="17" width="33.28515625" style="36" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="99" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="99" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="42.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" style="99" customWidth="1"/>
+    <col min="11" max="11" width="38.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" style="99" customWidth="1"/>
+    <col min="14" max="14" width="42.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" style="99" customWidth="1"/>
+    <col min="16" max="16" width="34.5703125" style="99" customWidth="1"/>
+    <col min="17" max="17" width="33.28515625" style="99" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E1" s="83" t="s">
+      <c r="C1" s="82" t="s">
         <v>1289</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="D1" s="82" t="s">
         <v>1290</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="E1" s="82" t="s">
         <v>1291</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="F1" s="82" t="s">
         <v>1292</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="G1" s="82" t="s">
         <v>1293</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="H1" s="82" t="s">
         <v>1294</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="I1" s="82" t="s">
         <v>1295</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="J1" s="82" t="s">
         <v>1296</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="K1" s="83" t="s">
         <v>1297</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>1342</v>
+      <c r="L1" s="83" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M1" s="83" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12181,42 +12038,40 @@
         <v>48</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>1300</v>
+        <v>1301</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>1302</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>1301</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>1299</v>
-      </c>
       <c r="I2" s="31" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="M2" s="31"/>
-      <c r="N2" s="20" t="s">
-        <v>1343</v>
-      </c>
+      <c r="N2" s="31"/>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
@@ -12228,42 +12083,40 @@
         <v>467</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D3" s="61" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>1308</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>1304</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>1305</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>1306</v>
-      </c>
       <c r="L3" s="31" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="M3" s="31"/>
-      <c r="N3" s="20" t="s">
-        <v>1343</v>
-      </c>
+      <c r="N3" s="31"/>
       <c r="O3" s="31"/>
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
@@ -12288,10 +12141,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12317,190 +12170,181 @@
     <col min="19" max="19" width="12.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E1" s="68" t="s">
+      <c r="C1" s="66" t="s">
         <v>1311</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>1312</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>1313</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="F1" s="67" t="s">
         <v>1314</v>
       </c>
-      <c r="I1" s="58" t="s">
-        <v>1287</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K1" s="58" t="s">
+      <c r="G1" s="67" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I1" s="57" t="s">
         <v>1289</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>1290</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="K1" s="57" t="s">
         <v>1291</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>1292</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>1293</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="N1" s="57" t="s">
         <v>1294</v>
       </c>
-      <c r="Q1" s="59" t="s">
-        <v>1315</v>
-      </c>
-      <c r="R1" s="59" t="s">
-        <v>1316</v>
-      </c>
-      <c r="S1" s="59" t="s">
+      <c r="O1" s="57" t="s">
+        <v>1295</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Q1" s="58" t="s">
         <v>1317</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>1342</v>
+      <c r="R1" s="58" t="s">
+        <v>1318</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>1319</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>1320</v>
+        <v>1321</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>1322</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>1323</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>1324</v>
+        <v>1325</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>1326</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>1330</v>
+      </c>
+      <c r="N2" s="59" t="s">
         <v>1326</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>1327</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>1328</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>1324</v>
-      </c>
       <c r="O2" s="31" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>1333</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>1339</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>1340</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>1326</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>1341</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>1343</v>
+      </c>
+      <c r="R3" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>1322</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>1323</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>1323</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>1324</v>
-      </c>
-      <c r="J3" s="31" t="s">
+      <c r="S3" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>1337</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>1338</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>1324</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>1340</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>1341</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>1332</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>1333</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -12517,9 +12361,7 @@
   </sheetPr>
   <dimension ref="A1:CR9"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2:AR9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12737,9 +12579,7 @@
       <c r="AQ1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="6" t="s">
-        <v>1342</v>
-      </c>
+      <c r="AR1" s="6"/>
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
       <c r="AU1" s="6"/>
@@ -12923,9 +12763,6 @@
       <c r="AQ2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -13057,9 +12894,6 @@
       <c r="AQ3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AR3" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -13191,9 +13025,7 @@
       <c r="AQ4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AR4" s="3" t="s">
-        <v>1343</v>
-      </c>
+      <c r="AR4" s="9"/>
       <c r="AS4" s="9"/>
       <c r="AU4" s="9"/>
       <c r="AV4" s="9"/>
@@ -13351,9 +13183,6 @@
       <c r="AQ5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="AR5" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -13485,9 +13314,6 @@
       <c r="AQ6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AR6" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -13619,9 +13445,6 @@
       <c r="AQ7" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AR7" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="8" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -13753,9 +13576,6 @@
       <c r="AQ8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="AR8" s="3" t="s">
-        <v>1343</v>
-      </c>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -13886,9 +13706,6 @@
       </c>
       <c r="AQ9" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -13903,10 +13720,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EG2"/>
+  <dimension ref="A1:EF2"/>
   <sheetViews>
-    <sheetView topLeftCell="EB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EG1" sqref="EG1:EG2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14044,7 +13861,7 @@
     <col min="136" max="136" width="28" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:136" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -14453,11 +14270,8 @@
       <c r="EF1" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="EG1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -14497,7 +14311,7 @@
       <c r="M2" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="68" t="s">
         <v>63</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -14551,7 +14365,7 @@
       <c r="AE2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" s="70" t="s">
+      <c r="AF2" s="69" t="s">
         <v>336</v>
       </c>
       <c r="AG2" s="9" t="s">
@@ -14861,9 +14675,6 @@
       </c>
       <c r="EF2" s="20" t="s">
         <v>411</v>
-      </c>
-      <c r="EG2" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -14878,38 +14689,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z2"/>
-    </sheetView>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="75" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="7" style="75" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="75" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="75" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="75" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="75" customWidth="1"/>
-    <col min="11" max="11" width="37.7109375" style="75" customWidth="1"/>
-    <col min="12" max="14" width="12.28515625" style="75" customWidth="1"/>
-    <col min="15" max="15" width="48.85546875" style="75" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="75" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" style="75" customWidth="1"/>
-    <col min="18" max="20" width="17.5703125" style="75" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" style="75" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="75" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" style="75" customWidth="1"/>
-    <col min="24" max="24" width="19.140625" style="75" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" style="75" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="74" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="7" style="74" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="74" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="74" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="74" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="74" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="74" customWidth="1"/>
+    <col min="11" max="11" width="37.7109375" style="74" customWidth="1"/>
+    <col min="12" max="14" width="12.28515625" style="74" customWidth="1"/>
+    <col min="15" max="15" width="48.85546875" style="74" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="74" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="74" customWidth="1"/>
+    <col min="18" max="20" width="17.5703125" style="74" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" style="74" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="74" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" style="74" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" style="74" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -14985,165 +14794,156 @@
       <c r="Y1" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="75">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="74">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>435</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>437</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>438</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="74" t="s">
         <v>440</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="74">
         <v>22</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="74" t="s">
         <v>443</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="74" t="s">
         <v>444</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="74" t="s">
         <v>446</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="74" t="s">
         <v>447</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="74" t="s">
         <v>448</v>
       </c>
-      <c r="Q2" s="75" t="s">
+      <c r="Q2" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="74" t="s">
         <v>450</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="S2" s="74" t="s">
         <v>451</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="74" t="s">
         <v>452</v>
       </c>
-      <c r="U2" s="75" t="s">
+      <c r="U2" s="74" t="s">
         <v>453</v>
       </c>
-      <c r="V2" s="75" t="s">
+      <c r="V2" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="X2" s="75" t="s">
+      <c r="X2" s="74" t="s">
         <v>455</v>
       </c>
-      <c r="Y2" s="75" t="s">
+      <c r="Y2" s="74" t="s">
         <v>456</v>
       </c>
-      <c r="Z2" s="20" t="s">
-        <v>1343</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="75">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="74">
         <v>2</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>457</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>437</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="74" t="s">
         <v>438</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="74" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="74">
         <v>22</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="74" t="s">
         <v>443</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="74" t="s">
         <v>444</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="74" t="s">
         <v>446</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="74" t="s">
         <v>447</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="74" t="s">
         <v>448</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="74" t="s">
         <v>450</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="74" t="s">
         <v>451</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="74" t="s">
         <v>452</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="74" t="s">
         <v>453</v>
       </c>
       <c r="V3" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="74" t="s">
         <v>459</v>
       </c>
-      <c r="X3" s="75" t="s">
+      <c r="X3" s="74" t="s">
         <v>455</v>
       </c>
-      <c r="Y3" s="75" t="s">
+      <c r="Y3" s="74" t="s">
         <v>456</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -15158,22 +14958,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -15189,48 +14989,39 @@
       <c r="E1" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="79">
         <v>41389</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>466</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>1343</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="74" t="s">
         <v>465</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="79">
         <v>41389</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="74" t="s">
         <v>466</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -15245,10 +15036,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:DG2"/>
+  <dimension ref="A1:DF2"/>
   <sheetViews>
-    <sheetView topLeftCell="CY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DG1" sqref="DG1:DG2"/>
+    <sheetView topLeftCell="BA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15338,7 +15129,7 @@
     <col min="108" max="108" width="15.85546875" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:110" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -15351,16 +15142,16 @@
       <c r="D1" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>471</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>473</v>
       </c>
       <c r="I1" s="26" t="s">
@@ -15663,17 +15454,14 @@
       <c r="DD1" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="DE1" s="62" t="s">
+      <c r="DE1" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="DF1" s="62" t="s">
+      <c r="DF1" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="DG1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:111" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:110" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>48</v>
       </c>
@@ -15911,9 +15699,6 @@
       </c>
       <c r="DF2" t="s">
         <v>625</v>
-      </c>
-      <c r="DG2" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -15928,35 +15713,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="75" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="75" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="75" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="75" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="75" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="75" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="75" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="75" customWidth="1"/>
-    <col min="14" max="14" width="18" style="75" customWidth="1"/>
-    <col min="15" max="17" width="15" style="75" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="75" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" style="75" customWidth="1"/>
-    <col min="20" max="21" width="15.28515625" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="74" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="74" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="74" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="74" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="74" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="74" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="74" customWidth="1"/>
+    <col min="14" max="14" width="18" style="74" customWidth="1"/>
+    <col min="15" max="17" width="15" style="74" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="74" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" style="74" customWidth="1"/>
+    <col min="20" max="21" width="15.28515625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -16020,21 +15805,18 @@
       <c r="U1" s="25" t="s">
         <v>641</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:21" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>642</v>
       </c>
-      <c r="C2" s="75">
+      <c r="C2" s="74">
         <v>730</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>643</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -16043,13 +15825,13 @@
       <c r="F2" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="74" t="s">
         <v>644</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="74" t="s">
         <v>620</v>
       </c>
       <c r="J2" s="35" t="s">
@@ -16067,31 +15849,28 @@
       <c r="N2" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="74" t="s">
         <v>646</v>
       </c>
-      <c r="P2" s="36"/>
+      <c r="P2" s="99"/>
       <c r="S2" s="32" t="s">
         <v>647</v>
       </c>
       <c r="T2" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="V2" s="20" t="s">
-        <v>1343</v>
-      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>649</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="74">
         <v>91</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>650</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -16100,16 +15879,16 @@
       <c r="F3" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="74" t="s">
         <v>651</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="74" t="s">
         <v>621</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="74" t="s">
         <v>332</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -16124,7 +15903,7 @@
       <c r="N3" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="74" t="s">
         <v>646</v>
       </c>
       <c r="S3" s="32" t="s">
@@ -16133,11 +15912,8 @@
       <c r="T3" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="74" t="s">
         <v>653</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -16152,42 +15928,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB1" sqref="BB1:BB2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="75" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" style="75" customWidth="1"/>
-    <col min="6" max="9" width="16" style="75" customWidth="1"/>
-    <col min="10" max="11" width="19.7109375" style="75" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="75" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="75" customWidth="1"/>
-    <col min="14" max="15" width="20.28515625" style="75" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="75" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="75" customWidth="1"/>
-    <col min="18" max="19" width="21.7109375" style="75" customWidth="1"/>
-    <col min="20" max="21" width="21.42578125" style="75" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="75" customWidth="1"/>
-    <col min="23" max="26" width="19.5703125" style="75" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" style="75" customWidth="1"/>
-    <col min="28" max="29" width="18.5703125" style="75" customWidth="1"/>
-    <col min="30" max="33" width="19.28515625" style="75" customWidth="1"/>
-    <col min="34" max="35" width="18.28515625" style="75" customWidth="1"/>
-    <col min="36" max="39" width="20.5703125" style="75" customWidth="1"/>
-    <col min="40" max="43" width="22.5703125" style="75" customWidth="1"/>
-    <col min="44" max="44" width="28.85546875" style="75" customWidth="1"/>
-    <col min="45" max="45" width="23.85546875" style="75" customWidth="1"/>
-    <col min="46" max="49" width="21.42578125" style="75" customWidth="1"/>
-    <col min="50" max="53" width="21.7109375" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="74" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" style="74" customWidth="1"/>
+    <col min="6" max="9" width="16" style="74" customWidth="1"/>
+    <col min="10" max="11" width="19.7109375" style="74" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="74" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="74" customWidth="1"/>
+    <col min="14" max="15" width="20.28515625" style="74" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="74" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="74" customWidth="1"/>
+    <col min="18" max="19" width="21.7109375" style="74" customWidth="1"/>
+    <col min="20" max="21" width="21.42578125" style="74" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="74" customWidth="1"/>
+    <col min="23" max="26" width="19.5703125" style="74" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" style="74" customWidth="1"/>
+    <col min="28" max="29" width="18.5703125" style="74" customWidth="1"/>
+    <col min="30" max="33" width="19.28515625" style="74" customWidth="1"/>
+    <col min="34" max="35" width="18.28515625" style="74" customWidth="1"/>
+    <col min="36" max="39" width="20.5703125" style="74" customWidth="1"/>
+    <col min="40" max="43" width="22.5703125" style="74" customWidth="1"/>
+    <col min="44" max="44" width="28.85546875" style="74" customWidth="1"/>
+    <col min="45" max="45" width="23.85546875" style="74" customWidth="1"/>
+    <col min="46" max="49" width="21.42578125" style="74" customWidth="1"/>
+    <col min="50" max="53" width="21.7109375" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -16347,15 +16123,12 @@
       <c r="BA1" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="BB1" s="4" t="s">
-        <v>1342</v>
-      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>642</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -16385,41 +16158,41 @@
       <c r="R2" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="U2" s="75" t="s">
+      <c r="U2" s="74" t="s">
         <v>710</v>
       </c>
-      <c r="V2" s="75" t="s">
+      <c r="V2" s="74" t="s">
         <v>711</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="W2" s="99" t="s">
         <v>605</v>
       </c>
       <c r="X2" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="AA2" s="75" t="s">
+      <c r="Y2" s="99"/>
+      <c r="AA2" s="74" t="s">
         <v>602</v>
       </c>
       <c r="AB2" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="AD2" s="75" t="s">
+      <c r="AD2" s="74" t="s">
         <v>712</v>
       </c>
-      <c r="AE2" s="75" t="s">
+      <c r="AE2" s="74" t="s">
         <v>713</v>
       </c>
-      <c r="AF2" s="75" t="s">
+      <c r="AF2" s="74" t="s">
         <v>714</v>
       </c>
       <c r="AJ2" s="3" t="s">
@@ -16443,33 +16216,30 @@
       <c r="AS2" s="31" t="s">
         <v>598</v>
       </c>
-      <c r="AT2" s="75" t="s">
+      <c r="AT2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="AU2" s="75" t="s">
+      <c r="AU2" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="AV2" s="75" t="s">
+      <c r="AV2" s="74" t="s">
         <v>717</v>
       </c>
-      <c r="AX2" s="75" t="s">
+      <c r="AX2" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="AY2" s="75" t="s">
+      <c r="AY2" s="74" t="s">
         <v>717</v>
       </c>
-      <c r="AZ2" s="75" t="s">
+      <c r="AZ2" s="74" t="s">
         <v>718</v>
       </c>
-      <c r="BB2" s="20" t="s">
-        <v>1343</v>
-      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A3" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>649</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -16499,46 +16269,46 @@
       <c r="R3" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="74" t="s">
         <v>710</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="74" t="s">
         <v>711</v>
       </c>
-      <c r="W3" s="36" t="s">
+      <c r="W3" s="99" t="s">
         <v>605</v>
       </c>
       <c r="X3" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="Y3" s="99" t="s">
         <v>607</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="74" t="s">
         <v>602</v>
       </c>
       <c r="AB3" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AC3" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="AD3" s="75" t="s">
+      <c r="AD3" s="74" t="s">
         <v>712</v>
       </c>
-      <c r="AE3" s="75" t="s">
+      <c r="AE3" s="74" t="s">
         <v>713</v>
       </c>
-      <c r="AF3" s="75" t="s">
+      <c r="AF3" s="74" t="s">
         <v>714</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="74" t="s">
         <v>719</v>
       </c>
       <c r="AJ3" s="3" t="s">
@@ -16565,26 +16335,23 @@
       <c r="AS3" s="31" t="s">
         <v>598</v>
       </c>
-      <c r="AT3" s="75" t="s">
+      <c r="AT3" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="AU3" s="75" t="s">
+      <c r="AU3" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="74" t="s">
         <v>717</v>
       </c>
-      <c r="AX3" s="75" t="s">
+      <c r="AX3" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="AY3" s="75" t="s">
+      <c r="AY3" s="74" t="s">
         <v>717</v>
       </c>
-      <c r="AZ3" s="75" t="s">
+      <c r="AZ3" s="74" t="s">
         <v>718</v>
-      </c>
-      <c r="BB3" s="20" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ08_ComprehensiveDeal.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ08_ComprehensiveDeal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2430" yWindow="8370" windowWidth="24510" windowHeight="6555" tabRatio="600" firstSheet="16" activeTab="19" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3810" yWindow="3630" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="24" activeTab="26" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -354,7 +354,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -433,7 +432,6 @@
     <xf numFmtId="49" fontId="9" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -466,6 +464,19 @@
     <xf numFmtId="49" fontId="7" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="15" fontId="8" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,25 +1435,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="29.140625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.5703125" customWidth="1" style="75" min="3" max="3"/>
-    <col width="16.140625" customWidth="1" style="75" min="4" max="4"/>
-    <col width="14.140625" customWidth="1" style="75" min="5" max="5"/>
-    <col width="12.28515625" customWidth="1" style="75" min="6" max="6"/>
-    <col width="22.7109375" customWidth="1" style="75" min="7" max="7"/>
-    <col width="15.140625" customWidth="1" style="75" min="8" max="8"/>
-    <col width="16.28515625" customWidth="1" style="75" min="9" max="9"/>
-    <col width="20.42578125" customWidth="1" style="75" min="10" max="10"/>
-    <col width="21" customWidth="1" style="75" min="11" max="11"/>
-    <col width="14.5703125" customWidth="1" style="75" min="12" max="12"/>
-    <col width="17.42578125" customWidth="1" style="75" min="13" max="13"/>
-    <col width="16.42578125" customWidth="1" style="75" min="14" max="14"/>
-    <col width="20" customWidth="1" style="75" min="15" max="15"/>
-    <col width="19.5703125" customWidth="1" style="75" min="16" max="16"/>
-    <col width="20.5703125" customWidth="1" style="75" min="17" max="17"/>
-    <col width="28.7109375" customWidth="1" style="75" min="18" max="18"/>
-    <col width="23.28515625" customWidth="1" style="75" min="19" max="19"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="29.140625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="105" min="3" max="3"/>
+    <col width="16.140625" customWidth="1" style="105" min="4" max="4"/>
+    <col width="14.140625" customWidth="1" style="105" min="5" max="5"/>
+    <col width="12.28515625" customWidth="1" style="105" min="6" max="6"/>
+    <col width="22.7109375" customWidth="1" style="105" min="7" max="7"/>
+    <col width="15.140625" customWidth="1" style="105" min="8" max="8"/>
+    <col width="16.28515625" customWidth="1" style="105" min="9" max="9"/>
+    <col width="20.42578125" customWidth="1" style="105" min="10" max="10"/>
+    <col width="21" customWidth="1" style="105" min="11" max="11"/>
+    <col width="14.5703125" customWidth="1" style="105" min="12" max="12"/>
+    <col width="17.42578125" customWidth="1" style="105" min="13" max="13"/>
+    <col width="16.42578125" customWidth="1" style="105" min="14" max="14"/>
+    <col width="20" customWidth="1" style="105" min="15" max="15"/>
+    <col width="19.5703125" customWidth="1" style="105" min="16" max="16"/>
+    <col width="20.5703125" customWidth="1" style="105" min="17" max="17"/>
+    <col width="28.7109375" customWidth="1" style="105" min="18" max="18"/>
+    <col width="23.28515625" customWidth="1" style="105" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -1543,12 +1554,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ08_ComprehensiveDeal</t>
         </is>
@@ -1578,30 +1589,30 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="H2" s="75" t="inlineStr">
+      <c r="H2" s="105" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="I2" s="75" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>BLOGGS</t>
         </is>
       </c>
-      <c r="J2" s="75" t="inlineStr">
+      <c r="J2" s="105" t="inlineStr">
         <is>
           <t>Bloggs,  John</t>
         </is>
       </c>
-      <c r="K2" s="75" t="inlineStr">
+      <c r="K2" s="105" t="inlineStr">
         <is>
           <t>Melbourne, VIC,Australia</t>
         </is>
       </c>
-      <c r="L2" s="75" t="n">
+      <c r="L2" s="105" t="n">
         <v>3.5</v>
       </c>
-      <c r="M2" s="75" t="inlineStr">
+      <c r="M2" s="105" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
@@ -1611,27 +1622,27 @@
           <t>9,397.26</t>
         </is>
       </c>
-      <c r="O2" s="75" t="inlineStr">
+      <c r="O2" s="105" t="inlineStr">
         <is>
           <t>DDA1</t>
         </is>
       </c>
-      <c r="P2" s="75" t="inlineStr">
+      <c r="P2" s="105" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="Q2" s="75" t="inlineStr">
+      <c r="Q2" s="105" t="inlineStr">
         <is>
           <t>21-Mar-2019</t>
         </is>
       </c>
-      <c r="R2" s="75" t="inlineStr">
+      <c r="R2" s="105" t="inlineStr">
         <is>
           <t>Ticking Fee payment for Scenario 8</t>
         </is>
       </c>
-      <c r="S2" s="75" t="n">
+      <c r="S2" s="105" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1656,25 +1667,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="29.140625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.5703125" customWidth="1" style="75" min="3" max="3"/>
-    <col width="16.140625" customWidth="1" style="75" min="4" max="4"/>
-    <col width="14.140625" customWidth="1" style="75" min="5" max="5"/>
-    <col width="12.28515625" customWidth="1" style="75" min="6" max="6"/>
-    <col width="22.7109375" customWidth="1" style="75" min="7" max="7"/>
-    <col width="15.140625" customWidth="1" style="75" min="8" max="8"/>
-    <col width="16.28515625" customWidth="1" style="75" min="9" max="9"/>
-    <col width="20.42578125" customWidth="1" style="75" min="10" max="10"/>
-    <col width="21" customWidth="1" style="75" min="11" max="11"/>
-    <col width="14.5703125" customWidth="1" style="75" min="12" max="12"/>
-    <col width="17.42578125" customWidth="1" style="75" min="13" max="13"/>
-    <col width="16.42578125" customWidth="1" style="75" min="14" max="14"/>
-    <col width="20" customWidth="1" style="75" min="15" max="15"/>
-    <col width="19.5703125" customWidth="1" style="75" min="16" max="16"/>
-    <col width="20.5703125" customWidth="1" style="75" min="17" max="17"/>
-    <col width="28.7109375" customWidth="1" style="75" min="18" max="18"/>
-    <col width="23.28515625" customWidth="1" style="75" min="19" max="19"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="29.140625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="105" min="3" max="3"/>
+    <col width="16.140625" customWidth="1" style="105" min="4" max="4"/>
+    <col width="14.140625" customWidth="1" style="105" min="5" max="5"/>
+    <col width="12.28515625" customWidth="1" style="105" min="6" max="6"/>
+    <col width="22.7109375" customWidth="1" style="105" min="7" max="7"/>
+    <col width="15.140625" customWidth="1" style="105" min="8" max="8"/>
+    <col width="16.28515625" customWidth="1" style="105" min="9" max="9"/>
+    <col width="20.42578125" customWidth="1" style="105" min="10" max="10"/>
+    <col width="21" customWidth="1" style="105" min="11" max="11"/>
+    <col width="14.5703125" customWidth="1" style="105" min="12" max="12"/>
+    <col width="17.42578125" customWidth="1" style="105" min="13" max="13"/>
+    <col width="16.42578125" customWidth="1" style="105" min="14" max="14"/>
+    <col width="20" customWidth="1" style="105" min="15" max="15"/>
+    <col width="19.5703125" customWidth="1" style="105" min="16" max="16"/>
+    <col width="20.5703125" customWidth="1" style="105" min="17" max="17"/>
+    <col width="28.7109375" customWidth="1" style="105" min="18" max="18"/>
+    <col width="23.28515625" customWidth="1" style="105" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -1780,12 +1791,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ08_ComprehensiveDeal</t>
         </is>
@@ -1815,30 +1826,30 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="H2" s="75" t="inlineStr">
+      <c r="H2" s="105" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="I2" s="75" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>BLOGGS</t>
         </is>
       </c>
-      <c r="J2" s="75" t="inlineStr">
+      <c r="J2" s="105" t="inlineStr">
         <is>
           <t>Bloggs,  John</t>
         </is>
       </c>
-      <c r="K2" s="75" t="inlineStr">
+      <c r="K2" s="105" t="inlineStr">
         <is>
           <t>Melbourne, VIC,Australia</t>
         </is>
       </c>
-      <c r="L2" s="75" t="n">
+      <c r="L2" s="105" t="n">
         <v>3.5</v>
       </c>
-      <c r="M2" s="75" t="inlineStr">
+      <c r="M2" s="105" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
@@ -1848,27 +1859,27 @@
           <t>9,397.26</t>
         </is>
       </c>
-      <c r="O2" s="75" t="inlineStr">
+      <c r="O2" s="105" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="P2" s="75" t="inlineStr">
+      <c r="P2" s="105" t="inlineStr">
         <is>
           <t>DDAAUD1-0521</t>
         </is>
       </c>
-      <c r="Q2" s="75" t="inlineStr">
+      <c r="Q2" s="105" t="inlineStr">
         <is>
           <t>21-Mar-2019</t>
         </is>
       </c>
-      <c r="R2" s="75" t="inlineStr">
+      <c r="R2" s="105" t="inlineStr">
         <is>
           <t>Ticking Fee payment for Scenario 8</t>
         </is>
       </c>
-      <c r="S2" s="75" t="n">
+      <c r="S2" s="105" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1893,18 +1904,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="29.140625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.5703125" customWidth="1" style="75" min="3" max="3"/>
-    <col width="22.28515625" customWidth="1" style="75" min="4" max="4"/>
-    <col width="19.42578125" customWidth="1" style="75" min="5" max="5"/>
-    <col width="23.5703125" customWidth="1" style="75" min="6" max="6"/>
-    <col width="24.140625" customWidth="1" style="75" min="7" max="7"/>
-    <col width="20.140625" customWidth="1" style="75" min="8" max="8"/>
-    <col width="17.85546875" customWidth="1" style="75" min="9" max="9"/>
-    <col width="24.5703125" customWidth="1" style="75" min="10" max="10"/>
-    <col width="20.5703125" customWidth="1" style="75" min="11" max="11"/>
-    <col width="21" customWidth="1" style="75" min="12" max="12"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="29.140625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="105" min="3" max="3"/>
+    <col width="22.28515625" customWidth="1" style="105" min="4" max="4"/>
+    <col width="19.42578125" customWidth="1" style="105" min="5" max="5"/>
+    <col width="23.5703125" customWidth="1" style="105" min="6" max="6"/>
+    <col width="24.140625" customWidth="1" style="105" min="7" max="7"/>
+    <col width="20.140625" customWidth="1" style="105" min="8" max="8"/>
+    <col width="17.85546875" customWidth="1" style="105" min="9" max="9"/>
+    <col width="24.5703125" customWidth="1" style="105" min="10" max="10"/>
+    <col width="20.5703125" customWidth="1" style="105" min="11" max="11"/>
+    <col width="21" customWidth="1" style="105" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -1970,12 +1981,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ08_ComprehensiveDeal</t>
         </is>
@@ -1990,22 +2001,22 @@
           <t>Amortize</t>
         </is>
       </c>
-      <c r="E2" s="75" t="inlineStr">
+      <c r="E2" s="105" t="inlineStr">
         <is>
           <t>10,000.00</t>
         </is>
       </c>
-      <c r="F2" s="75" t="inlineStr">
+      <c r="F2" s="105" t="inlineStr">
         <is>
           <t>3 Days</t>
         </is>
       </c>
-      <c r="G2" s="75" t="inlineStr">
+      <c r="G2" s="105" t="inlineStr">
         <is>
           <t>06-Jul-2018</t>
         </is>
       </c>
-      <c r="H2" s="75" t="n">
+      <c r="H2" s="105" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="32" t="inlineStr">
@@ -2013,17 +2024,17 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="J2" s="36" t="inlineStr">
+      <c r="J2" s="98" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="K2" s="36" t="inlineStr">
+      <c r="K2" s="98" t="inlineStr">
         <is>
           <t>BG_COL</t>
         </is>
       </c>
-      <c r="L2" s="36" t="n">
+      <c r="L2" s="98" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2042,302 +2053,302 @@
   </sheetPr>
   <dimension ref="A1:AU18"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="28.85546875" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.5703125" customWidth="1" style="75" min="3" max="3"/>
-    <col width="22.85546875" customWidth="1" style="75" min="4" max="4"/>
-    <col width="21.5703125" customWidth="1" style="75" min="5" max="5"/>
-    <col width="15.5703125" customWidth="1" style="75" min="6" max="7"/>
-    <col width="20.5703125" customWidth="1" style="75" min="8" max="9"/>
-    <col width="14.140625" customWidth="1" style="75" min="10" max="10"/>
-    <col width="20.85546875" customWidth="1" style="75" min="11" max="11"/>
-    <col width="22.5703125" customWidth="1" style="75" min="12" max="12"/>
-    <col width="7.42578125" customWidth="1" style="75" min="13" max="13"/>
-    <col width="15.7109375" customWidth="1" style="75" min="14" max="14"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="75" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" style="75" min="16" max="16"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" style="75" min="17" max="17"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="75" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" style="75" min="19" max="19"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" style="75" min="20" max="20"/>
-    <col width="26.7109375" bestFit="1" customWidth="1" style="75" min="21" max="21"/>
-    <col width="40.85546875" customWidth="1" style="75" min="22" max="22"/>
-    <col width="17.28515625" customWidth="1" style="75" min="23" max="23"/>
-    <col width="14.5703125" customWidth="1" style="75" min="24" max="24"/>
-    <col width="17.28515625" bestFit="1" customWidth="1" style="75" min="25" max="25"/>
-    <col width="8.42578125" customWidth="1" style="75" min="26" max="26"/>
-    <col width="9.42578125" customWidth="1" style="75" min="27" max="27"/>
-    <col width="11" customWidth="1" style="75" min="28" max="28"/>
-    <col width="19.140625" customWidth="1" style="75" min="29" max="29"/>
-    <col width="6.140625" customWidth="1" style="75" min="30" max="30"/>
-    <col width="11.28515625" customWidth="1" style="75" min="31" max="31"/>
-    <col width="16.140625" customWidth="1" style="75" min="32" max="32"/>
-    <col width="20.28515625" customWidth="1" style="75" min="33" max="33"/>
-    <col width="17.85546875" customWidth="1" style="75" min="34" max="34"/>
-    <col width="11" customWidth="1" style="75" min="35" max="35"/>
-    <col width="19" customWidth="1" style="75" min="36" max="36"/>
-    <col width="25.5703125" customWidth="1" style="75" min="37" max="37"/>
-    <col width="10.5703125" customWidth="1" style="75" min="38" max="38"/>
-    <col width="25.5703125" bestFit="1" customWidth="1" style="75" min="39" max="39"/>
-    <col width="19.5703125" customWidth="1" style="75" min="40" max="40"/>
-    <col width="20" customWidth="1" style="75" min="41" max="41"/>
-    <col width="15.85546875" customWidth="1" style="75" min="42" max="42"/>
-    <col width="9.140625" customWidth="1" style="75" min="43" max="43"/>
-    <col width="16.140625" customWidth="1" style="75" min="44" max="44"/>
-    <col width="8" customWidth="1" style="75" min="45" max="45"/>
-    <col width="9.140625" customWidth="1" style="36" min="46" max="46"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="28.85546875" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="105" min="3" max="3"/>
+    <col width="22.85546875" customWidth="1" style="105" min="4" max="4"/>
+    <col width="21.5703125" customWidth="1" style="105" min="5" max="5"/>
+    <col width="15.5703125" customWidth="1" style="105" min="6" max="7"/>
+    <col width="20.5703125" customWidth="1" style="105" min="8" max="9"/>
+    <col width="14.140625" customWidth="1" style="105" min="10" max="10"/>
+    <col width="20.85546875" customWidth="1" style="105" min="11" max="11"/>
+    <col width="22.5703125" customWidth="1" style="105" min="12" max="12"/>
+    <col width="7.42578125" customWidth="1" style="105" min="13" max="13"/>
+    <col width="15.7109375" customWidth="1" style="105" min="14" max="14"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="105" min="15" max="15"/>
+    <col width="21" bestFit="1" customWidth="1" style="105" min="16" max="16"/>
+    <col width="24.28515625" bestFit="1" customWidth="1" style="105" min="17" max="17"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="105" min="18" max="18"/>
+    <col width="21" bestFit="1" customWidth="1" style="105" min="19" max="19"/>
+    <col width="24.28515625" bestFit="1" customWidth="1" style="105" min="20" max="20"/>
+    <col width="31" bestFit="1" customWidth="1" style="105" min="21" max="21"/>
+    <col width="40.85546875" customWidth="1" style="105" min="22" max="22"/>
+    <col width="17.28515625" customWidth="1" style="105" min="23" max="23"/>
+    <col width="14.5703125" customWidth="1" style="105" min="24" max="24"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" style="105" min="25" max="25"/>
+    <col width="8.42578125" customWidth="1" style="105" min="26" max="26"/>
+    <col width="9.42578125" customWidth="1" style="105" min="27" max="27"/>
+    <col width="11" customWidth="1" style="105" min="28" max="28"/>
+    <col width="19.140625" customWidth="1" style="105" min="29" max="29"/>
+    <col width="6.140625" customWidth="1" style="105" min="30" max="30"/>
+    <col width="11.28515625" customWidth="1" style="105" min="31" max="31"/>
+    <col width="16.140625" customWidth="1" style="105" min="32" max="32"/>
+    <col width="20.28515625" customWidth="1" style="105" min="33" max="33"/>
+    <col width="17.85546875" customWidth="1" style="105" min="34" max="34"/>
+    <col width="11" customWidth="1" style="105" min="35" max="35"/>
+    <col width="19" customWidth="1" style="105" min="36" max="36"/>
+    <col width="25.5703125" customWidth="1" style="105" min="37" max="37"/>
+    <col width="10.5703125" customWidth="1" style="105" min="38" max="38"/>
+    <col width="25.5703125" bestFit="1" customWidth="1" style="105" min="39" max="39"/>
+    <col width="19.5703125" customWidth="1" style="105" min="40" max="40"/>
+    <col width="20" customWidth="1" style="105" min="41" max="41"/>
+    <col width="15.85546875" customWidth="1" style="105" min="42" max="42"/>
+    <col width="9.140625" customWidth="1" style="105" min="43" max="43"/>
+    <col width="16.140625" customWidth="1" style="105" min="44" max="44"/>
+    <col width="8" customWidth="1" style="105" min="45" max="45"/>
+    <col width="9.140625" customWidth="1" style="98" min="46" max="46"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="37">
-      <c r="A1" s="38" t="inlineStr">
+    <row r="1" customFormat="1" s="36">
+      <c r="A1" s="37" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="38" t="inlineStr">
+      <c r="B1" s="37" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="38" t="inlineStr">
+      <c r="C1" s="37" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="38" t="inlineStr">
+      <c r="D1" s="37" t="inlineStr">
         <is>
           <t>Term_Facility_1</t>
         </is>
       </c>
-      <c r="E1" s="38" t="inlineStr">
+      <c r="E1" s="37" t="inlineStr">
         <is>
           <t>Term_Facility_2</t>
         </is>
       </c>
-      <c r="F1" s="38" t="inlineStr">
+      <c r="F1" s="37" t="inlineStr">
         <is>
           <t>Facility_Amount_1</t>
         </is>
       </c>
-      <c r="G1" s="38" t="inlineStr">
+      <c r="G1" s="37" t="inlineStr">
         <is>
           <t>Facility_Amount_2</t>
         </is>
       </c>
-      <c r="H1" s="38" t="inlineStr">
+      <c r="H1" s="37" t="inlineStr">
         <is>
           <t>Percentage_Multiplier_1</t>
         </is>
       </c>
-      <c r="I1" s="38" t="inlineStr">
+      <c r="I1" s="37" t="inlineStr">
         <is>
           <t>Percentage_Multiplier_2</t>
         </is>
       </c>
-      <c r="J1" s="76" t="inlineStr">
+      <c r="J1" s="74" t="inlineStr">
         <is>
           <t>Deal_ClosingCmt</t>
         </is>
       </c>
-      <c r="K1" s="76" t="inlineStr">
+      <c r="K1" s="74" t="inlineStr">
         <is>
           <t>HostBank_AvailableShare</t>
         </is>
       </c>
-      <c r="L1" s="37" t="inlineStr">
+      <c r="L1" s="36" t="inlineStr">
         <is>
           <t>CircleSelection_Transaction</t>
         </is>
       </c>
-      <c r="M1" s="37" t="inlineStr">
+      <c r="M1" s="36" t="inlineStr">
         <is>
           <t>Buy_Sell</t>
         </is>
       </c>
-      <c r="N1" s="37" t="inlineStr">
+      <c r="N1" s="36" t="inlineStr">
         <is>
           <t>LenderShare_Type</t>
         </is>
       </c>
-      <c r="O1" s="71" t="inlineStr">
+      <c r="O1" s="70" t="inlineStr">
         <is>
           <t>Buyer_Lender</t>
         </is>
       </c>
-      <c r="P1" s="71" t="inlineStr">
+      <c r="P1" s="70" t="inlineStr">
         <is>
           <t>Buyer_Location</t>
         </is>
       </c>
-      <c r="Q1" s="71" t="inlineStr">
+      <c r="Q1" s="70" t="inlineStr">
         <is>
           <t>Buyer_ContactName</t>
         </is>
       </c>
-      <c r="R1" s="71" t="inlineStr">
+      <c r="R1" s="70" t="inlineStr">
         <is>
           <t>Buyer_Lender_2</t>
         </is>
       </c>
-      <c r="S1" s="71" t="inlineStr">
+      <c r="S1" s="70" t="inlineStr">
         <is>
           <t>Buyer_Location_2</t>
         </is>
       </c>
-      <c r="T1" s="71" t="inlineStr">
+      <c r="T1" s="70" t="inlineStr">
         <is>
           <t>Buyer_ContactName_2</t>
         </is>
       </c>
-      <c r="U1" s="71" t="inlineStr">
+      <c r="U1" s="70" t="inlineStr">
         <is>
           <t>Seller_LegalEntity</t>
         </is>
       </c>
-      <c r="V1" s="71" t="inlineStr">
+      <c r="V1" s="70" t="inlineStr">
         <is>
           <t>Seller_Location</t>
         </is>
       </c>
-      <c r="W1" s="71" t="inlineStr">
+      <c r="W1" s="70" t="inlineStr">
         <is>
           <t>Seller_Riskbook</t>
         </is>
       </c>
-      <c r="X1" s="73" t="inlineStr">
+      <c r="X1" s="72" t="inlineStr">
         <is>
           <t>Riskbook_Description</t>
         </is>
       </c>
-      <c r="Y1" s="74" t="inlineStr">
+      <c r="Y1" s="73" t="inlineStr">
         <is>
           <t>Seller_ContactName</t>
         </is>
       </c>
-      <c r="Z1" s="37" t="inlineStr">
+      <c r="Z1" s="36" t="inlineStr">
         <is>
           <t>Transaction_Type</t>
         </is>
       </c>
-      <c r="AA1" s="37" t="inlineStr">
+      <c r="AA1" s="36" t="inlineStr">
         <is>
           <t>AssigFeeDecision</t>
         </is>
       </c>
-      <c r="AB1" s="37" t="inlineStr">
+      <c r="AB1" s="36" t="inlineStr">
         <is>
           <t>PctofDeal</t>
         </is>
       </c>
-      <c r="AC1" s="37" t="inlineStr">
+      <c r="AC1" s="36" t="inlineStr">
         <is>
           <t>PctofDeal2</t>
         </is>
       </c>
-      <c r="AD1" s="37" t="inlineStr">
+      <c r="AD1" s="36" t="inlineStr">
         <is>
           <t>Sell_Amount</t>
         </is>
       </c>
-      <c r="AE1" s="37" t="inlineStr">
+      <c r="AE1" s="36" t="inlineStr">
         <is>
           <t>Int_Fee</t>
         </is>
       </c>
-      <c r="AF1" s="37" t="inlineStr">
+      <c r="AF1" s="36" t="inlineStr">
         <is>
           <t>PaidBy</t>
         </is>
       </c>
-      <c r="AG1" s="37" t="inlineStr">
+      <c r="AG1" s="36" t="inlineStr">
         <is>
           <t>BuySell_Price</t>
         </is>
       </c>
-      <c r="AH1" s="72" t="inlineStr">
+      <c r="AH1" s="71" t="inlineStr">
         <is>
           <t>ExpectedCloseDate</t>
         </is>
       </c>
-      <c r="AI1" s="72" t="inlineStr">
+      <c r="AI1" s="71" t="inlineStr">
         <is>
           <t>Assignment_CircledDate</t>
         </is>
       </c>
-      <c r="AJ1" s="37" t="inlineStr">
+      <c r="AJ1" s="36" t="inlineStr">
         <is>
           <t>WIPTransaction_Type</t>
         </is>
       </c>
-      <c r="AK1" s="37" t="inlineStr">
+      <c r="AK1" s="36" t="inlineStr">
         <is>
           <t>Lender_Host</t>
         </is>
       </c>
-      <c r="AL1" s="37" t="inlineStr">
+      <c r="AL1" s="36" t="inlineStr">
         <is>
           <t>CircleTransaction_Type</t>
         </is>
       </c>
-      <c r="AM1" s="37" t="inlineStr">
+      <c r="AM1" s="36" t="inlineStr">
         <is>
           <t>QualifiedBuyerCheckbox_Label</t>
         </is>
       </c>
-      <c r="AN1" s="73" t="inlineStr">
+      <c r="AN1" s="72" t="inlineStr">
         <is>
           <t>Contr_Gross</t>
         </is>
       </c>
-      <c r="AO1" s="73" t="inlineStr">
+      <c r="AO1" s="72" t="inlineStr">
         <is>
           <t>HB_RemainingShare</t>
         </is>
       </c>
-      <c r="AP1" s="74" t="inlineStr">
+      <c r="AP1" s="73" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AQ1" s="74" t="inlineStr">
+      <c r="AQ1" s="73" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="AR1" s="74" t="inlineStr">
+      <c r="AR1" s="73" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="AS1" s="73" t="inlineStr">
+      <c r="AS1" s="72" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="AT1" s="73" t="inlineStr">
+      <c r="AT1" s="72" t="inlineStr">
         <is>
           <t>New_Loan_Alias</t>
         </is>
       </c>
-      <c r="AU1" s="39" t="inlineStr">
+      <c r="AU1" s="38" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="75">
-      <c r="A2" s="40" t="inlineStr">
+    <row r="2" customFormat="1" s="105">
+      <c r="A2" s="39" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_SDS_CRE01_SecondarySale</t>
         </is>
@@ -2367,107 +2378,107 @@
           <t>22,000,000.00</t>
         </is>
       </c>
-      <c r="H2" s="75" t="n">
+      <c r="H2" s="105" t="n">
         <v>0.25</v>
       </c>
-      <c r="I2" s="75" t="n">
+      <c r="I2" s="105" t="n">
         <v>0.2</v>
       </c>
-      <c r="L2" s="75" t="inlineStr">
+      <c r="L2" s="105" t="inlineStr">
         <is>
           <t>New External</t>
         </is>
       </c>
-      <c r="M2" s="75" t="inlineStr">
+      <c r="M2" s="105" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="N2" s="75" t="inlineStr">
+      <c r="N2" s="105" t="inlineStr">
         <is>
           <t>Assignment</t>
         </is>
       </c>
-      <c r="O2" s="75" t="inlineStr">
+      <c r="O2" s="105" t="inlineStr">
         <is>
           <t>LEDNSHORT14157</t>
         </is>
       </c>
-      <c r="P2" s="75" t="inlineStr">
+      <c r="P2" s="105" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="Q2" s="75" t="inlineStr">
+      <c r="Q2" s="105" t="inlineStr">
         <is>
           <t>Hijara,  Darlon</t>
         </is>
       </c>
-      <c r="R2" s="75" t="inlineStr">
+      <c r="R2" s="105" t="inlineStr">
         <is>
           <t>LEDNSHORT46153</t>
         </is>
       </c>
-      <c r="S2" s="75" t="inlineStr">
+      <c r="S2" s="105" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="T2" s="75" t="inlineStr">
+      <c r="T2" s="105" t="inlineStr">
         <is>
           <t>Hijaratwo,  DarlonJeremiah</t>
         </is>
       </c>
-      <c r="U2" s="75" t="inlineStr">
+      <c r="U2" s="105" t="inlineStr">
         <is>
           <t>COMMONWEALTHBANKOFAUSTCB001</t>
         </is>
       </c>
-      <c r="V2" s="75" t="inlineStr">
+      <c r="V2" s="105" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="W2" s="75" t="inlineStr">
+      <c r="W2" s="105" t="inlineStr">
         <is>
           <t>BP_CML</t>
         </is>
       </c>
-      <c r="X2" s="41" t="inlineStr">
+      <c r="X2" s="40" t="inlineStr">
         <is>
           <t>Corporate Lending (Loan Mkts &amp; Funds Financing)</t>
         </is>
       </c>
-      <c r="Z2" s="75" t="inlineStr">
+      <c r="Z2" s="105" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="AA2" s="75" t="inlineStr">
+      <c r="AA2" s="105" t="inlineStr">
         <is>
           <t>Paid By The Buyer</t>
         </is>
       </c>
-      <c r="AB2" s="75" t="n">
+      <c r="AB2" s="105" t="n">
         <v>25</v>
       </c>
-      <c r="AC2" s="75" t="n">
+      <c r="AC2" s="105" t="n">
         <v>20</v>
       </c>
-      <c r="AD2" s="75" t="n">
+      <c r="AD2" s="105" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" s="75" t="inlineStr">
+      <c r="AE2" s="105" t="inlineStr">
         <is>
           <t>Actual\Settlement Date</t>
         </is>
       </c>
-      <c r="AF2" s="75" t="inlineStr">
+      <c r="AF2" s="105" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="AG2" s="75" t="n">
+      <c r="AG2" s="105" t="n">
         <v>100</v>
       </c>
       <c r="AH2" s="3" t="inlineStr">
@@ -2480,36 +2491,39 @@
           <t>02-Jun-2020</t>
         </is>
       </c>
-      <c r="AJ2" s="75" t="inlineStr">
+      <c r="AJ2" s="105" t="inlineStr">
         <is>
           <t>Circles</t>
         </is>
       </c>
-      <c r="AK2" s="75" t="inlineStr">
+      <c r="AK2" s="105" t="inlineStr">
         <is>
           <t>Host Bank</t>
         </is>
       </c>
-      <c r="AL2" s="75" t="inlineStr">
+      <c r="AL2" s="105" t="inlineStr">
         <is>
           <t>Assignment</t>
         </is>
       </c>
-      <c r="AM2" s="75" t="inlineStr">
+      <c r="AM2" s="105" t="inlineStr">
         <is>
           <t>Qualified Buyer For Circle</t>
         </is>
       </c>
-      <c r="AT2" s="75" t="inlineStr">
+      <c r="AT2" s="105" t="inlineStr">
         <is>
           <t>IEEBRW764210297</t>
         </is>
       </c>
-      <c r="AU2" s="75" t="inlineStr">
+      <c r="AU2" s="105" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="88" t="n"/>
     </row>
     <row r="17">
       <c r="AT17" s="35" t="n"/>
@@ -2538,47 +2552,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.7109375" customWidth="1" style="75" min="1" max="1"/>
-    <col width="32" bestFit="1" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.5703125" bestFit="1" customWidth="1" style="75" min="3" max="3"/>
-    <col width="36.28515625" bestFit="1" customWidth="1" style="75" min="4" max="4"/>
-    <col width="12.28515625" bestFit="1" customWidth="1" style="75" min="5" max="5"/>
-    <col width="28" bestFit="1" customWidth="1" style="75" min="6" max="6"/>
-    <col width="24" bestFit="1" customWidth="1" style="75" min="7" max="7"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" style="75" min="8" max="8"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" style="75" min="9" max="9"/>
-    <col width="15.5703125" bestFit="1" customWidth="1" style="75" min="10" max="10"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="75" min="11" max="11"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" style="75" min="12" max="12"/>
-    <col width="21.5703125" bestFit="1" customWidth="1" style="75" min="13" max="13"/>
-    <col width="7.7109375" customWidth="1" style="75" min="14" max="14"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" style="75" min="15" max="15"/>
-    <col width="7.7109375" customWidth="1" style="75" min="16" max="16"/>
-    <col width="7.7109375" customWidth="1" style="36" min="17" max="17"/>
+    <col width="7.7109375" customWidth="1" style="105" min="1" max="1"/>
+    <col width="32" bestFit="1" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" bestFit="1" customWidth="1" style="105" min="3" max="3"/>
+    <col width="36.28515625" bestFit="1" customWidth="1" style="105" min="4" max="4"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" style="105" min="5" max="5"/>
+    <col width="28" bestFit="1" customWidth="1" style="105" min="6" max="6"/>
+    <col width="24" bestFit="1" customWidth="1" style="105" min="7" max="7"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="105" min="8" max="8"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="105" min="9" max="9"/>
+    <col width="15.5703125" bestFit="1" customWidth="1" style="105" min="10" max="10"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="105" min="11" max="11"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" style="105" min="12" max="12"/>
+    <col width="21.5703125" bestFit="1" customWidth="1" style="105" min="13" max="13"/>
+    <col width="7.7109375" customWidth="1" style="105" min="14" max="14"/>
+    <col width="18.7109375" bestFit="1" customWidth="1" style="105" min="15" max="15"/>
+    <col width="7.7109375" customWidth="1" style="105" min="16" max="16"/>
+    <col width="7.7109375" customWidth="1" style="98" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="28">
-      <c r="A1" s="39" t="inlineStr">
+      <c r="A1" s="38" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="39" t="inlineStr">
+      <c r="B1" s="38" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="39" t="inlineStr">
+      <c r="C1" s="38" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="39" t="inlineStr">
+      <c r="D1" s="38" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="E1" s="85" t="inlineStr">
+      <c r="E1" s="83" t="inlineStr">
         <is>
           <t>Effective_Date</t>
         </is>
@@ -2593,7 +2607,7 @@
           <t>Portfolio</t>
         </is>
       </c>
-      <c r="H1" s="77" t="inlineStr">
+      <c r="H1" s="75" t="inlineStr">
         <is>
           <t>Expiry_Date</t>
         </is>
@@ -2636,12 +2650,12 @@
       <c r="P1" s="25" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_PTRF_CRE01_PortfolioTransfer</t>
         </is>
@@ -2661,12 +2675,12 @@
           <t>26-Jul-2018</t>
         </is>
       </c>
-      <c r="F2" s="75" t="inlineStr">
+      <c r="F2" s="105" t="inlineStr">
         <is>
           <t>DM_CFS-CFS General Warehouses</t>
         </is>
       </c>
-      <c r="G2" s="75" t="inlineStr">
+      <c r="G2" s="105" t="inlineStr">
         <is>
           <t>Available for Sale - Australia</t>
         </is>
@@ -2676,22 +2690,22 @@
           <t>30-Jul-2018</t>
         </is>
       </c>
-      <c r="I2" s="75" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="J2" s="75" t="inlineStr">
+      <c r="J2" s="105" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="K2" s="75" t="inlineStr">
+      <c r="K2" s="105" t="inlineStr">
         <is>
           <t>Portfolio Transfer</t>
         </is>
       </c>
-      <c r="L2" s="75" t="inlineStr">
+      <c r="L2" s="105" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
@@ -2701,15 +2715,15 @@
           <t>S8REV14092020171233</t>
         </is>
       </c>
-      <c r="N2" s="75" t="inlineStr">
+      <c r="N2" s="105" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="O2" s="75" t="n">
+      <c r="O2" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="75" t="n"/>
+      <c r="Q2" s="105" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2726,49 +2740,49 @@
   </sheetPr>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="36" min="1" max="1"/>
-    <col width="35.7109375" customWidth="1" style="36" min="2" max="2"/>
-    <col width="22.5703125" customWidth="1" style="36" min="3" max="3"/>
-    <col width="22.85546875" customWidth="1" style="36" min="4" max="4"/>
-    <col width="18.42578125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="15.28515625" customWidth="1" style="36" min="6" max="6"/>
-    <col width="22.85546875" customWidth="1" style="36" min="7" max="7"/>
-    <col width="22.7109375" customWidth="1" style="36" min="8" max="8"/>
-    <col width="14.7109375" customWidth="1" style="36" min="9" max="9"/>
-    <col width="16.28515625" customWidth="1" style="36" min="10" max="10"/>
-    <col width="14.28515625" customWidth="1" style="36" min="11" max="11"/>
-    <col width="12.5703125" customWidth="1" style="36" min="12" max="12"/>
-    <col width="20.7109375" customWidth="1" style="36" min="13" max="13"/>
-    <col width="16.140625" customWidth="1" style="36" min="14" max="14"/>
-    <col width="16.28515625" customWidth="1" style="36" min="15" max="15"/>
-    <col width="16.5703125" customWidth="1" style="36" min="16" max="16"/>
-    <col width="21.140625" customWidth="1" style="36" min="17" max="17"/>
-    <col width="20.140625" customWidth="1" style="36" min="18" max="18"/>
-    <col width="18.28515625" customWidth="1" style="36" min="19" max="19"/>
-    <col width="23.140625" customWidth="1" style="36" min="20" max="20"/>
-    <col width="18.7109375" customWidth="1" style="36" min="21" max="21"/>
-    <col width="17.7109375" customWidth="1" style="36" min="22" max="23"/>
-    <col width="19.5703125" customWidth="1" style="36" min="24" max="24"/>
-    <col width="20" customWidth="1" style="36" min="25" max="25"/>
-    <col width="19.5703125" customWidth="1" style="36" min="26" max="26"/>
-    <col width="21" customWidth="1" style="36" min="27" max="27"/>
-    <col width="19.5703125" customWidth="1" style="36" min="28" max="28"/>
-    <col width="21" customWidth="1" style="36" min="29" max="29"/>
-    <col width="13.85546875" customWidth="1" style="36" min="30" max="32"/>
-    <col width="38.5703125" customWidth="1" style="36" min="33" max="33"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" style="36" min="34" max="34"/>
-    <col width="19.85546875" customWidth="1" style="36" min="35" max="36"/>
-    <col width="26.5703125" bestFit="1" customWidth="1" style="36" min="37" max="37"/>
-    <col width="25.5703125" bestFit="1" customWidth="1" style="36" min="38" max="39"/>
-    <col width="26" bestFit="1" customWidth="1" style="36" min="40" max="40"/>
-    <col width="26" customWidth="1" style="36" min="41" max="42"/>
-    <col width="15.42578125" customWidth="1" style="36" min="43" max="43"/>
+    <col width="5.5703125" customWidth="1" style="98" min="1" max="1"/>
+    <col width="35.7109375" customWidth="1" style="98" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="98" min="3" max="3"/>
+    <col width="22.85546875" customWidth="1" style="98" min="4" max="4"/>
+    <col width="18.42578125" customWidth="1" style="98" min="5" max="5"/>
+    <col width="15.28515625" customWidth="1" style="98" min="6" max="6"/>
+    <col width="22.85546875" customWidth="1" style="98" min="7" max="7"/>
+    <col width="22.7109375" customWidth="1" style="98" min="8" max="8"/>
+    <col width="14.7109375" customWidth="1" style="98" min="9" max="9"/>
+    <col width="16.28515625" customWidth="1" style="98" min="10" max="10"/>
+    <col width="14.28515625" customWidth="1" style="98" min="11" max="11"/>
+    <col width="12.5703125" customWidth="1" style="98" min="12" max="12"/>
+    <col width="20.7109375" customWidth="1" style="98" min="13" max="13"/>
+    <col width="16.140625" customWidth="1" style="98" min="14" max="14"/>
+    <col width="16.28515625" customWidth="1" style="98" min="15" max="15"/>
+    <col width="16.5703125" customWidth="1" style="98" min="16" max="16"/>
+    <col width="21.140625" customWidth="1" style="98" min="17" max="17"/>
+    <col width="20.140625" customWidth="1" style="98" min="18" max="18"/>
+    <col width="18.28515625" customWidth="1" style="98" min="19" max="19"/>
+    <col width="23.140625" customWidth="1" style="98" min="20" max="20"/>
+    <col width="18.7109375" customWidth="1" style="98" min="21" max="21"/>
+    <col width="17.7109375" customWidth="1" style="98" min="22" max="23"/>
+    <col width="19.5703125" customWidth="1" style="98" min="24" max="24"/>
+    <col width="20" customWidth="1" style="98" min="25" max="25"/>
+    <col width="19.5703125" customWidth="1" style="98" min="26" max="26"/>
+    <col width="21" customWidth="1" style="98" min="27" max="27"/>
+    <col width="19.5703125" customWidth="1" style="98" min="28" max="28"/>
+    <col width="21" customWidth="1" style="98" min="29" max="29"/>
+    <col width="13.85546875" customWidth="1" style="98" min="30" max="32"/>
+    <col width="38.5703125" customWidth="1" style="98" min="33" max="33"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" style="98" min="34" max="34"/>
+    <col width="19.85546875" customWidth="1" style="98" min="35" max="36"/>
+    <col width="26.5703125" bestFit="1" customWidth="1" style="98" min="37" max="37"/>
+    <col width="25.5703125" bestFit="1" customWidth="1" style="98" min="38" max="39"/>
+    <col width="26" bestFit="1" customWidth="1" style="98" min="40" max="40"/>
+    <col width="26" customWidth="1" style="98" min="41" max="42"/>
+    <col width="15.42578125" customWidth="1" style="98" min="43" max="43"/>
     <col width="23.42578125" bestFit="1" customWidth="1" min="44" max="44"/>
     <col width="29" bestFit="1" customWidth="1" min="45" max="45"/>
   </cols>
@@ -2794,7 +2808,7 @@
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="78" t="inlineStr">
+      <c r="E1" s="76" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
@@ -2804,7 +2818,7 @@
           <t>Outstanding_Type</t>
         </is>
       </c>
-      <c r="G1" s="77" t="inlineStr">
+      <c r="G1" s="75" t="inlineStr">
         <is>
           <t>Loan_FacilityName</t>
         </is>
@@ -2814,7 +2828,7 @@
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="I1" s="77" t="inlineStr">
+      <c r="I1" s="75" t="inlineStr">
         <is>
           <t>Calendar</t>
         </is>
@@ -2824,7 +2838,7 @@
           <t>Loan_PricingOption</t>
         </is>
       </c>
-      <c r="K1" s="77" t="inlineStr">
+      <c r="K1" s="75" t="inlineStr">
         <is>
           <t>Facility_Currency</t>
         </is>
@@ -2839,17 +2853,17 @@
           <t>Loan_RequestedAmount</t>
         </is>
       </c>
-      <c r="N1" s="79" t="inlineStr">
+      <c r="N1" s="77" t="inlineStr">
         <is>
           <t>Loan_EffectiveDate</t>
         </is>
       </c>
-      <c r="O1" s="79" t="inlineStr">
+      <c r="O1" s="77" t="inlineStr">
         <is>
           <t>Loan_MaturityDate</t>
         </is>
       </c>
-      <c r="P1" s="78" t="inlineStr">
+      <c r="P1" s="76" t="inlineStr">
         <is>
           <t>Loan_RepricingDate</t>
         </is>
@@ -2874,17 +2888,17 @@
           <t>BaseRate_Description</t>
         </is>
       </c>
-      <c r="U1" s="77" t="inlineStr">
+      <c r="U1" s="75" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="V1" s="77" t="inlineStr">
+      <c r="V1" s="75" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="W1" s="77" t="inlineStr">
+      <c r="W1" s="75" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
@@ -2934,7 +2948,7 @@
           <t>LenderSharePc3</t>
         </is>
       </c>
-      <c r="AG1" s="85" t="inlineStr">
+      <c r="AG1" s="83" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
@@ -2989,24 +3003,24 @@
           <t>CurrencyExchange</t>
         </is>
       </c>
-      <c r="AR1" s="78" t="inlineStr">
+      <c r="AR1" s="76" t="inlineStr">
         <is>
           <t>Facility_CurrentAvailToDraw</t>
         </is>
       </c>
-      <c r="AS1" s="78" t="inlineStr">
+      <c r="AS1" s="76" t="inlineStr">
         <is>
           <t>Facility_CurrentGlobalOutstandings</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="36">
-      <c r="A2" s="36" t="inlineStr">
+    <row r="2" customFormat="1" s="98">
+      <c r="A2" s="98" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_DRAW_CRE09_TermLoanDrawdown</t>
         </is>
@@ -3026,12 +3040,12 @@
           <t>60000003</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="98" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="G2" s="89" t="inlineStr">
+      <c r="G2" s="87" t="inlineStr">
         <is>
           <t>S8TERM14092020165659</t>
         </is>
@@ -3041,22 +3055,22 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="I2" s="86" t="inlineStr">
+      <c r="I2" s="84" t="inlineStr">
         <is>
           <t>Sydney, Australia</t>
         </is>
       </c>
-      <c r="J2" s="36" t="inlineStr">
+      <c r="J2" s="98" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="K2" s="86" t="inlineStr">
+      <c r="K2" s="84" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="L2" s="36" t="inlineStr">
+      <c r="L2" s="98" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -3066,30 +3080,30 @@
           <t>20,000,000.00</t>
         </is>
       </c>
-      <c r="N2" s="88" t="inlineStr">
+      <c r="N2" s="86" t="inlineStr">
         <is>
           <t>16-Oct-2018</t>
         </is>
       </c>
-      <c r="O2" s="88" t="inlineStr">
+      <c r="O2" s="86" t="inlineStr">
         <is>
           <t>18-Apr-2020</t>
         </is>
       </c>
-      <c r="P2" s="81" t="n">
+      <c r="P2" s="79" t="n">
         <v>41389</v>
       </c>
-      <c r="Q2" s="36" t="inlineStr">
+      <c r="Q2" s="98" t="inlineStr">
         <is>
           <t>2 Days</t>
         </is>
       </c>
-      <c r="R2" s="36" t="inlineStr">
+      <c r="R2" s="98" t="inlineStr">
         <is>
           <t>Daily</t>
         </is>
       </c>
-      <c r="S2" s="36" t="inlineStr">
+      <c r="S2" s="98" t="inlineStr">
         <is>
           <t>to the actual due date</t>
         </is>
@@ -3099,111 +3113,111 @@
           <t>Base Rate changed to 2.03%</t>
         </is>
       </c>
-      <c r="U2" s="86" t="inlineStr">
+      <c r="U2" s="84" t="inlineStr">
         <is>
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="V2" s="86" t="inlineStr">
+      <c r="V2" s="84" t="inlineStr">
         <is>
           <t>BDOLEND44119</t>
         </is>
       </c>
-      <c r="W2" s="86" t="inlineStr">
+      <c r="W2" s="84" t="inlineStr">
         <is>
           <t>BPILEND28140</t>
         </is>
       </c>
-      <c r="X2" s="36" t="inlineStr">
+      <c r="X2" s="98" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="Y2" s="36" t="inlineStr">
+      <c r="Y2" s="98" t="inlineStr">
         <is>
           <t>DDAAUD1-0521</t>
         </is>
       </c>
-      <c r="Z2" s="36" t="inlineStr">
+      <c r="Z2" s="98" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="AA2" s="36" t="inlineStr">
+      <c r="AA2" s="98" t="inlineStr">
         <is>
           <t>DDA1</t>
         </is>
       </c>
-      <c r="AB2" s="36" t="inlineStr">
+      <c r="AB2" s="98" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="AC2" s="36" t="inlineStr">
+      <c r="AC2" s="98" t="inlineStr">
         <is>
           <t>DDA1</t>
         </is>
       </c>
-      <c r="AD2" s="75" t="n">
+      <c r="AD2" s="105" t="n">
         <v>55</v>
       </c>
-      <c r="AE2" s="75" t="n">
+      <c r="AE2" s="105" t="n">
         <v>25</v>
       </c>
-      <c r="AF2" s="75" t="n">
+      <c r="AF2" s="105" t="n">
         <v>20</v>
       </c>
-      <c r="AG2" s="87" t="inlineStr">
+      <c r="AG2" s="85" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/012689</t>
         </is>
       </c>
-      <c r="AH2" s="42" t="inlineStr">
+      <c r="AH2" s="41" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="AI2" s="36" t="inlineStr">
+      <c r="AI2" s="98" t="inlineStr">
         <is>
           <t>darlonhijara@abc.com</t>
         </is>
       </c>
-      <c r="AJ2" s="36" t="inlineStr">
+      <c r="AJ2" s="98" t="inlineStr">
         <is>
           <t>darlonhijara@abc.com</t>
         </is>
       </c>
-      <c r="AK2" s="75" t="inlineStr">
+      <c r="AK2" s="105" t="inlineStr">
         <is>
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="AL2" s="75" t="inlineStr">
+      <c r="AL2" s="105" t="inlineStr">
         <is>
           <t>Darlon Hijara</t>
         </is>
       </c>
-      <c r="AM2" s="75" t="inlineStr">
+      <c r="AM2" s="105" t="inlineStr">
         <is>
           <t>DarlonJeremiah Hijaratwo</t>
         </is>
       </c>
-      <c r="AN2" s="75" t="inlineStr">
+      <c r="AN2" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AO2" s="75" t="inlineStr">
+      <c r="AO2" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AP2" s="75" t="inlineStr">
+      <c r="AP2" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AQ2" s="87" t="n"/>
+      <c r="AQ2" s="85" t="n"/>
       <c r="AR2" s="3" t="inlineStr">
         <is>
           <t>27,000,000.00</t>
@@ -3217,13 +3231,13 @@
       <c r="AT2" s="3" t="n"/>
       <c r="AU2" s="3" t="n"/>
     </row>
-    <row r="3" customFormat="1" s="36">
-      <c r="A3" s="36" t="inlineStr">
+    <row r="3" customFormat="1" s="98">
+      <c r="A3" s="98" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="75" t="inlineStr">
+      <c r="B3" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_DRAW_CRE11_TermLoanDrawdown</t>
         </is>
@@ -3243,12 +3257,12 @@
           <t>60000006</t>
         </is>
       </c>
-      <c r="F3" s="36" t="inlineStr">
+      <c r="F3" s="98" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="G3" s="89" t="inlineStr">
+      <c r="G3" s="87" t="inlineStr">
         <is>
           <t>S8TERM14092020165659</t>
         </is>
@@ -3258,173 +3272,173 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="I3" s="86" t="n"/>
-      <c r="J3" s="36" t="inlineStr">
+      <c r="I3" s="84" t="n"/>
+      <c r="J3" s="98" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="K3" s="86" t="inlineStr">
+      <c r="K3" s="84" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="L3" s="36" t="inlineStr">
+      <c r="L3" s="98" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="M3" s="36" t="inlineStr">
+      <c r="M3" s="98" t="inlineStr">
         <is>
           <t>7,000,000.00</t>
         </is>
       </c>
-      <c r="N3" s="88" t="inlineStr">
+      <c r="N3" s="86" t="inlineStr">
         <is>
           <t>16-Oct-2018</t>
         </is>
       </c>
-      <c r="O3" s="88" t="inlineStr">
+      <c r="O3" s="86" t="inlineStr">
         <is>
           <t>18-Apr-2020</t>
         </is>
       </c>
-      <c r="P3" s="81" t="n">
+      <c r="P3" s="79" t="n">
         <v>41389</v>
       </c>
-      <c r="Q3" s="36" t="inlineStr">
+      <c r="Q3" s="98" t="inlineStr">
         <is>
           <t>2 Days</t>
         </is>
       </c>
-      <c r="R3" s="36" t="inlineStr">
+      <c r="R3" s="98" t="inlineStr">
         <is>
           <t>2 Days</t>
         </is>
       </c>
-      <c r="S3" s="36" t="inlineStr">
+      <c r="S3" s="98" t="inlineStr">
         <is>
           <t>to the actual due date</t>
         </is>
       </c>
-      <c r="T3" s="36" t="inlineStr">
+      <c r="T3" s="98" t="inlineStr">
         <is>
           <t>Base Rate changed to 2.25%</t>
         </is>
       </c>
-      <c r="U3" s="86" t="inlineStr">
+      <c r="U3" s="84" t="inlineStr">
         <is>
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="V3" s="86" t="inlineStr">
+      <c r="V3" s="84" t="inlineStr">
         <is>
           <t>BDOLEND44119</t>
         </is>
       </c>
-      <c r="W3" s="86" t="inlineStr">
+      <c r="W3" s="84" t="inlineStr">
         <is>
           <t>BPILEND28140</t>
         </is>
       </c>
-      <c r="X3" s="36" t="inlineStr">
+      <c r="X3" s="98" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="Y3" s="36" t="inlineStr">
+      <c r="Y3" s="98" t="inlineStr">
         <is>
           <t>DDAAUD1-0521</t>
         </is>
       </c>
-      <c r="Z3" s="36" t="inlineStr">
+      <c r="Z3" s="98" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="AA3" s="36" t="inlineStr">
+      <c r="AA3" s="98" t="inlineStr">
         <is>
           <t>DDA1</t>
         </is>
       </c>
-      <c r="AB3" s="36" t="inlineStr">
+      <c r="AB3" s="98" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="AC3" s="36" t="inlineStr">
+      <c r="AC3" s="98" t="inlineStr">
         <is>
           <t>DDA1</t>
         </is>
       </c>
-      <c r="AD3" s="75" t="n">
+      <c r="AD3" s="105" t="n">
         <v>55</v>
       </c>
-      <c r="AE3" s="75" t="n">
+      <c r="AE3" s="105" t="n">
         <v>25</v>
       </c>
-      <c r="AF3" s="75" t="n">
+      <c r="AF3" s="105" t="n">
         <v>20</v>
       </c>
-      <c r="AG3" s="87" t="inlineStr">
+      <c r="AG3" s="85" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/012689</t>
         </is>
       </c>
-      <c r="AH3" s="42" t="inlineStr">
+      <c r="AH3" s="41" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="AI3" s="36" t="inlineStr">
+      <c r="AI3" s="98" t="inlineStr">
         <is>
           <t>darlonhijara@abc.com</t>
         </is>
       </c>
-      <c r="AJ3" s="36" t="inlineStr">
+      <c r="AJ3" s="98" t="inlineStr">
         <is>
           <t>darlonhijara@abc.com</t>
         </is>
       </c>
-      <c r="AK3" s="75" t="inlineStr">
+      <c r="AK3" s="105" t="inlineStr">
         <is>
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="AL3" s="75" t="inlineStr">
+      <c r="AL3" s="105" t="inlineStr">
         <is>
           <t>Darlon Hijara</t>
         </is>
       </c>
-      <c r="AM3" s="75" t="inlineStr">
+      <c r="AM3" s="105" t="inlineStr">
         <is>
           <t>DarlonJeremiah Hijaratwo</t>
         </is>
       </c>
-      <c r="AN3" s="75" t="inlineStr">
+      <c r="AN3" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AO3" s="75" t="inlineStr">
+      <c r="AO3" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AP3" s="75" t="inlineStr">
+      <c r="AP3" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AQ3" s="87" t="n"/>
+      <c r="AQ3" s="85" t="n"/>
     </row>
-    <row r="4" customFormat="1" s="36">
-      <c r="A4" s="36" t="inlineStr">
+    <row r="4" customFormat="1" s="98">
+      <c r="A4" s="98" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="75" t="inlineStr">
+      <c r="B4" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_DRAW_CRE10_RevolverDrawdown</t>
         </is>
@@ -3444,12 +3458,12 @@
           <t>60000011</t>
         </is>
       </c>
-      <c r="F4" s="36" t="inlineStr">
+      <c r="F4" s="98" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="G4" s="89" t="inlineStr">
+      <c r="G4" s="87" t="inlineStr">
         <is>
           <t>S8TERM14092020165659</t>
         </is>
@@ -3459,133 +3473,133 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="I4" s="86" t="n"/>
-      <c r="J4" s="75" t="inlineStr">
+      <c r="I4" s="84" t="n"/>
+      <c r="J4" s="105" t="inlineStr">
         <is>
           <t>USD LIBOR Option</t>
         </is>
       </c>
-      <c r="K4" s="87" t="n"/>
-      <c r="L4" s="36" t="inlineStr">
+      <c r="K4" s="85" t="n"/>
+      <c r="L4" s="98" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="M4" s="36" t="inlineStr">
+      <c r="M4" s="98" t="inlineStr">
         <is>
           <t>15,000,000.00</t>
         </is>
       </c>
-      <c r="N4" s="86" t="n"/>
-      <c r="O4" s="86" t="n"/>
-      <c r="P4" s="81" t="n">
+      <c r="N4" s="84" t="n"/>
+      <c r="O4" s="84" t="n"/>
+      <c r="P4" s="79" t="n">
         <v>41389</v>
       </c>
-      <c r="Q4" s="36" t="inlineStr">
+      <c r="Q4" s="98" t="inlineStr">
         <is>
           <t>2 Days</t>
         </is>
       </c>
-      <c r="R4" s="86" t="n"/>
-      <c r="S4" s="36" t="inlineStr">
+      <c r="R4" s="84" t="n"/>
+      <c r="S4" s="98" t="inlineStr">
         <is>
           <t>to the actual due date</t>
         </is>
       </c>
-      <c r="T4" s="86" t="n"/>
-      <c r="U4" s="86" t="n"/>
-      <c r="V4" s="86" t="n"/>
-      <c r="W4" s="86" t="n"/>
-      <c r="X4" s="36" t="inlineStr">
+      <c r="T4" s="84" t="n"/>
+      <c r="U4" s="84" t="n"/>
+      <c r="V4" s="84" t="n"/>
+      <c r="W4" s="84" t="n"/>
+      <c r="X4" s="98" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="Y4" s="36" t="inlineStr">
+      <c r="Y4" s="98" t="inlineStr">
         <is>
           <t>DDA3</t>
         </is>
       </c>
-      <c r="Z4" s="36" t="inlineStr">
+      <c r="Z4" s="98" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="AA4" s="36" t="inlineStr">
+      <c r="AA4" s="98" t="inlineStr">
         <is>
           <t>DDA2</t>
         </is>
       </c>
-      <c r="AB4" s="36" t="inlineStr">
+      <c r="AB4" s="98" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="AC4" s="36" t="inlineStr">
+      <c r="AC4" s="98" t="inlineStr">
         <is>
           <t>DDA2</t>
         </is>
       </c>
-      <c r="AD4" s="75" t="n">
+      <c r="AD4" s="105" t="n">
         <v>55</v>
       </c>
-      <c r="AE4" s="75" t="n">
+      <c r="AE4" s="105" t="n">
         <v>25</v>
       </c>
-      <c r="AF4" s="75" t="n">
+      <c r="AF4" s="105" t="n">
         <v>20</v>
       </c>
-      <c r="AG4" s="87" t="inlineStr">
+      <c r="AG4" s="85" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/012689</t>
         </is>
       </c>
-      <c r="AH4" s="42" t="inlineStr">
+      <c r="AH4" s="41" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="AI4" s="36" t="inlineStr">
+      <c r="AI4" s="98" t="inlineStr">
         <is>
           <t>darlonhijara@abc.com</t>
         </is>
       </c>
-      <c r="AJ4" s="36" t="inlineStr">
+      <c r="AJ4" s="98" t="inlineStr">
         <is>
           <t>darlonhijara@abc.com</t>
         </is>
       </c>
-      <c r="AK4" s="75" t="inlineStr">
+      <c r="AK4" s="105" t="inlineStr">
         <is>
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="AL4" s="75" t="inlineStr">
+      <c r="AL4" s="105" t="inlineStr">
         <is>
           <t>Darlon Hijara</t>
         </is>
       </c>
-      <c r="AM4" s="75" t="inlineStr">
+      <c r="AM4" s="105" t="inlineStr">
         <is>
           <t>DarlonJeremiah Hijaratwo</t>
         </is>
       </c>
-      <c r="AN4" s="75" t="inlineStr">
+      <c r="AN4" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AO4" s="75" t="inlineStr">
+      <c r="AO4" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AP4" s="75" t="inlineStr">
+      <c r="AP4" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AQ4" s="75" t="inlineStr">
+      <c r="AQ4" s="105" t="inlineStr">
         <is>
           <t>AUD to USD</t>
         </is>
@@ -3612,12 +3626,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="38.5703125" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.5703125" customWidth="1" style="75" min="3" max="3"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="38.5703125" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="105" min="3" max="3"/>
     <col width="11" customWidth="1" style="27" min="4" max="4"/>
-    <col width="17.28515625" customWidth="1" style="75" min="5" max="5"/>
-    <col width="12.42578125" customWidth="1" style="75" min="6" max="6"/>
+    <col width="17.28515625" customWidth="1" style="105" min="5" max="5"/>
+    <col width="12.42578125" customWidth="1" style="105" min="6" max="6"/>
     <col width="18.42578125" customWidth="1" style="27" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -3659,12 +3673,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_AMD_DLCH01_DealChangeTransaction</t>
         </is>
@@ -3679,12 +3693,12 @@
           <t>07-Aug-2018</t>
         </is>
       </c>
-      <c r="E2" s="75" t="inlineStr">
+      <c r="E2" s="105" t="inlineStr">
         <is>
           <t>LVR</t>
         </is>
       </c>
-      <c r="F2" s="75" t="n">
+      <c r="F2" s="105" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="27" t="inlineStr">
@@ -3714,81 +3728,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="41.28515625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.5703125" customWidth="1" style="75" min="3" max="3"/>
-    <col width="21.5703125" customWidth="1" style="75" min="4" max="4"/>
-    <col width="11.85546875" customWidth="1" style="75" min="5" max="5"/>
-    <col width="17.85546875" customWidth="1" style="75" min="6" max="6"/>
-    <col width="24.28515625" customWidth="1" style="75" min="7" max="7"/>
-    <col width="23.5703125" customWidth="1" style="75" min="8" max="8"/>
-    <col width="21.7109375" customWidth="1" style="75" min="9" max="9"/>
-    <col width="26.42578125" customWidth="1" style="75" min="10" max="10"/>
-    <col width="23" customWidth="1" style="75" min="11" max="11"/>
-    <col width="19.28515625" customWidth="1" style="75" min="12" max="12"/>
-    <col width="15" customWidth="1" style="75" min="13" max="13"/>
-    <col width="15.28515625" customWidth="1" style="75" min="14" max="14"/>
-    <col width="15" customWidth="1" style="75" min="15" max="15"/>
-    <col width="15.28515625" customWidth="1" style="75" min="16" max="16"/>
-    <col width="15" customWidth="1" style="75" min="17" max="17"/>
-    <col width="15.28515625" customWidth="1" style="75" min="18" max="18"/>
-    <col width="14.7109375" customWidth="1" style="75" min="19" max="19"/>
-    <col width="26.7109375" customWidth="1" style="75" min="20" max="20"/>
-    <col width="12.140625" customWidth="1" style="75" min="21" max="21"/>
-    <col width="20" customWidth="1" style="75" min="22" max="22"/>
-    <col width="7.42578125" customWidth="1" style="75" min="23" max="23"/>
-    <col width="12.140625" customWidth="1" style="75" min="24" max="24"/>
-    <col width="15.140625" customWidth="1" style="75" min="25" max="25"/>
-    <col width="7.42578125" customWidth="1" style="75" min="26" max="28"/>
-    <col width="8.7109375" customWidth="1" style="75" min="29" max="29"/>
-    <col width="17.85546875" customWidth="1" style="75" min="30" max="30"/>
-    <col width="31" customWidth="1" style="75" min="31" max="31"/>
-    <col width="23" customWidth="1" style="75" min="32" max="32"/>
-    <col width="30" customWidth="1" style="75" min="33" max="33"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="41.28515625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="105" min="3" max="3"/>
+    <col width="21.5703125" customWidth="1" style="105" min="4" max="4"/>
+    <col width="11.85546875" customWidth="1" style="105" min="5" max="5"/>
+    <col width="17.85546875" customWidth="1" style="105" min="6" max="6"/>
+    <col width="24.28515625" customWidth="1" style="105" min="7" max="7"/>
+    <col width="23.5703125" customWidth="1" style="105" min="8" max="8"/>
+    <col width="21.7109375" customWidth="1" style="105" min="9" max="9"/>
+    <col width="26.42578125" customWidth="1" style="105" min="10" max="10"/>
+    <col width="23" customWidth="1" style="105" min="11" max="11"/>
+    <col width="19.28515625" customWidth="1" style="105" min="12" max="12"/>
+    <col width="15" customWidth="1" style="105" min="13" max="13"/>
+    <col width="15.28515625" customWidth="1" style="105" min="14" max="14"/>
+    <col width="15" customWidth="1" style="105" min="15" max="15"/>
+    <col width="15.28515625" customWidth="1" style="105" min="16" max="16"/>
+    <col width="15" customWidth="1" style="105" min="17" max="17"/>
+    <col width="15.28515625" customWidth="1" style="105" min="18" max="18"/>
+    <col width="14.7109375" customWidth="1" style="105" min="19" max="19"/>
+    <col width="26.7109375" customWidth="1" style="105" min="20" max="20"/>
+    <col width="12.140625" customWidth="1" style="105" min="21" max="21"/>
+    <col width="20" customWidth="1" style="105" min="22" max="22"/>
+    <col width="7.42578125" customWidth="1" style="105" min="23" max="23"/>
+    <col width="12.140625" customWidth="1" style="105" min="24" max="24"/>
+    <col width="15.140625" customWidth="1" style="105" min="25" max="25"/>
+    <col width="7.42578125" customWidth="1" style="105" min="26" max="28"/>
+    <col width="8.7109375" customWidth="1" style="105" min="29" max="29"/>
+    <col width="17.85546875" customWidth="1" style="105" min="30" max="30"/>
+    <col width="31" customWidth="1" style="105" min="31" max="31"/>
+    <col width="23" customWidth="1" style="105" min="32" max="32"/>
+    <col width="30" customWidth="1" style="105" min="33" max="33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
-      <c r="A1" s="39" t="inlineStr">
+      <c r="A1" s="38" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="39" t="inlineStr">
+      <c r="B1" s="38" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="39" t="inlineStr">
+      <c r="C1" s="38" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="39" t="inlineStr">
+      <c r="D1" s="38" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="39" t="inlineStr">
+      <c r="E1" s="38" t="inlineStr">
         <is>
           <t>Pricing_Status</t>
         </is>
       </c>
-      <c r="F1" s="39" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>TransactionNo_Prefix</t>
         </is>
       </c>
-      <c r="G1" s="91" t="inlineStr">
+      <c r="G1" s="89" t="inlineStr">
         <is>
           <t>PricingChange_TransactionNo</t>
         </is>
       </c>
-      <c r="H1" s="91" t="inlineStr">
+      <c r="H1" s="89" t="inlineStr">
         <is>
           <t>PricingChange_EffectiveDate</t>
         </is>
       </c>
-      <c r="I1" s="39" t="inlineStr">
+      <c r="I1" s="38" t="inlineStr">
         <is>
           <t>PricingChange_Desc</t>
         </is>
@@ -3915,12 +3929,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_AMD_AMCH06_PricingChangeTransaction</t>
         </is>
@@ -3935,12 +3949,12 @@
           <t>S8REV14092020171233</t>
         </is>
       </c>
-      <c r="E2" s="75" t="inlineStr">
+      <c r="E2" s="105" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="F2" s="75" t="inlineStr">
+      <c r="F2" s="105" t="inlineStr">
         <is>
           <t>TRN</t>
         </is>
@@ -3955,45 +3969,45 @@
           <t>24-Apr-2013</t>
         </is>
       </c>
-      <c r="I2" s="75" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>Change Matrix value to LR</t>
         </is>
       </c>
-      <c r="J2" s="75" t="inlineStr">
+      <c r="J2" s="105" t="inlineStr">
         <is>
           <t>Matrix</t>
         </is>
       </c>
-      <c r="K2" s="75" t="inlineStr">
+      <c r="K2" s="105" t="inlineStr">
         <is>
           <t>Financial Ratio</t>
         </is>
       </c>
-      <c r="L2" s="75" t="inlineStr">
+      <c r="L2" s="105" t="inlineStr">
         <is>
           <t>Leverage Ratio (LR)</t>
         </is>
       </c>
-      <c r="M2" s="75" t="n">
+      <c r="M2" s="105" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="75" t="n">
+      <c r="N2" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="75" t="n">
+      <c r="O2" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="75" t="n">
+      <c r="P2" s="105" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" s="75" t="n">
+      <c r="Q2" s="105" t="n">
         <v>2</v>
       </c>
-      <c r="R2" s="75" t="n">
+      <c r="R2" s="105" t="n">
         <v>3</v>
       </c>
-      <c r="S2" s="75" t="inlineStr">
+      <c r="S2" s="105" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -4013,7 +4027,7 @@
           <t>Actual/365</t>
         </is>
       </c>
-      <c r="W2" s="75" t="n">
+      <c r="W2" s="105" t="n">
         <v>0.4</v>
       </c>
       <c r="X2" s="30" t="inlineStr">
@@ -4026,47 +4040,47 @@
           <t>USD LIBOR Option</t>
         </is>
       </c>
-      <c r="Z2" s="75" t="n">
+      <c r="Z2" s="105" t="n">
         <v>0.6</v>
       </c>
-      <c r="AA2" s="75" t="n">
+      <c r="AA2" s="105" t="n">
         <v>0.8</v>
       </c>
-      <c r="AB2" s="75" t="n">
+      <c r="AB2" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="AC2" s="75" t="inlineStr">
+      <c r="AC2" s="105" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="AD2" s="75" t="inlineStr">
+      <c r="AD2" s="105" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="AE2" s="75" t="inlineStr">
+      <c r="AE2" s="105" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="AF2" s="75" t="inlineStr">
+      <c r="AF2" s="105" t="inlineStr">
         <is>
           <t>Pricing Change Transaction</t>
         </is>
       </c>
-      <c r="AG2" s="75" t="inlineStr">
+      <c r="AG2" s="105" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="90" t="n"/>
-      <c r="D3" s="90" t="n"/>
-      <c r="E3" s="90" t="n"/>
-      <c r="F3" s="90" t="n"/>
-      <c r="I3" s="90" t="n"/>
+      <c r="C3" s="88" t="n"/>
+      <c r="D3" s="88" t="n"/>
+      <c r="E3" s="88" t="n"/>
+      <c r="F3" s="88" t="n"/>
+      <c r="I3" s="88" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4089,8 +4103,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="27.28515625" customWidth="1" style="75" min="2" max="2"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="27.28515625" customWidth="1" style="105" min="2" max="2"/>
     <col width="22.5703125" customWidth="1" style="27" min="3" max="3"/>
     <col width="20.140625" customWidth="1" style="27" min="4" max="4"/>
     <col width="21.5703125" customWidth="1" style="27" min="5" max="5"/>
@@ -4099,10 +4113,10 @@
     <col width="18.7109375" customWidth="1" style="27" min="9" max="9"/>
     <col width="24.28515625" customWidth="1" style="27" min="10" max="10"/>
     <col width="12.42578125" customWidth="1" style="27" min="11" max="11"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="75" min="12" max="12"/>
-    <col width="18.7109375" customWidth="1" style="75" min="13" max="13"/>
-    <col width="13.42578125" bestFit="1" customWidth="1" style="75" min="14" max="14"/>
-    <col width="17.7109375" customWidth="1" style="75" min="15" max="15"/>
+    <col width="17.85546875" bestFit="1" customWidth="1" style="105" min="12" max="12"/>
+    <col width="18.7109375" customWidth="1" style="105" min="13" max="13"/>
+    <col width="13.42578125" bestFit="1" customWidth="1" style="105" min="14" max="14"/>
+    <col width="17.7109375" customWidth="1" style="105" min="15" max="15"/>
     <col width="9" customWidth="1" style="27" min="16" max="16"/>
     <col width="17.42578125" customWidth="1" style="27" min="17" max="17"/>
     <col width="13.7109375" customWidth="1" style="27" min="18" max="18"/>
@@ -4112,7 +4126,7 @@
     <col width="13.140625" customWidth="1" style="27" min="22" max="23"/>
     <col width="9" customWidth="1" style="27" min="24" max="25"/>
     <col width="8" customWidth="1" style="27" min="26" max="26"/>
-    <col width="16" customWidth="1" style="36" min="27" max="27"/>
+    <col width="16" customWidth="1" style="98" min="27" max="27"/>
     <col width="17.42578125" bestFit="1" customWidth="1" min="28" max="28"/>
     <col width="19.85546875" bestFit="1" customWidth="1" min="29" max="29"/>
     <col width="19.7109375" bestFit="1" customWidth="1" min="30" max="31"/>
@@ -4153,17 +4167,17 @@
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="G1" s="94" t="inlineStr">
+      <c r="G1" s="92" t="inlineStr">
         <is>
           <t>Repricing_Type</t>
         </is>
       </c>
-      <c r="H1" s="94" t="inlineStr">
+      <c r="H1" s="92" t="inlineStr">
         <is>
           <t>Repricing_Date</t>
         </is>
       </c>
-      <c r="I1" s="94" t="inlineStr">
+      <c r="I1" s="92" t="inlineStr">
         <is>
           <t>Repricing_Add_Option</t>
         </is>
@@ -4173,37 +4187,37 @@
           <t>Repricing_Add_Option_Setup</t>
         </is>
       </c>
-      <c r="K1" s="94" t="inlineStr">
+      <c r="K1" s="92" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="L1" s="79" t="inlineStr">
+      <c r="L1" s="77" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
       </c>
-      <c r="M1" s="79" t="inlineStr">
+      <c r="M1" s="77" t="inlineStr">
         <is>
           <t>Notice_ContactPerson</t>
         </is>
       </c>
-      <c r="N1" s="79" t="inlineStr">
+      <c r="N1" s="77" t="inlineStr">
         <is>
           <t>Notice_Method</t>
         </is>
       </c>
-      <c r="O1" s="79" t="inlineStr">
+      <c r="O1" s="77" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="P1" s="94" t="inlineStr">
+      <c r="P1" s="92" t="inlineStr">
         <is>
           <t>Base_Rate</t>
         </is>
       </c>
-      <c r="Q1" s="43" t="inlineStr">
+      <c r="Q1" s="42" t="inlineStr">
         <is>
           <t>Repricing_Frequency</t>
         </is>
@@ -4310,12 +4324,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_RPR_COMP03_ LoanSplit</t>
         </is>
@@ -4350,17 +4364,17 @@
           <t>BBSW - Bid</t>
         </is>
       </c>
-      <c r="L2" s="42" t="inlineStr">
+      <c r="L2" s="41" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="M2" s="75" t="inlineStr">
+      <c r="M2" s="105" t="inlineStr">
         <is>
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="N2" s="75" t="inlineStr">
+      <c r="N2" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
@@ -4395,17 +4409,17 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="U2" s="75" t="inlineStr">
+      <c r="U2" s="105" t="inlineStr">
         <is>
           <t>15000000.00</t>
         </is>
       </c>
-      <c r="V2" s="75" t="inlineStr">
+      <c r="V2" s="105" t="inlineStr">
         <is>
           <t>10000000.00</t>
         </is>
       </c>
-      <c r="W2" s="75" t="inlineStr">
+      <c r="W2" s="105" t="inlineStr">
         <is>
           <t>5000000.00</t>
         </is>
@@ -4425,7 +4439,7 @@
           <t>Released</t>
         </is>
       </c>
-      <c r="AA2" s="36" t="inlineStr">
+      <c r="AA2" s="98" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
@@ -4435,47 +4449,47 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="AC2" s="42" t="inlineStr">
+      <c r="AC2" s="41" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="AD2" s="36" t="inlineStr">
+      <c r="AD2" s="98" t="inlineStr">
         <is>
           <t>darlonhijara@abc.com</t>
         </is>
       </c>
-      <c r="AE2" s="36" t="inlineStr">
+      <c r="AE2" s="98" t="inlineStr">
         <is>
           <t>darlonhijara@abc.com</t>
         </is>
       </c>
-      <c r="AF2" s="75" t="inlineStr">
+      <c r="AF2" s="105" t="inlineStr">
         <is>
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="AG2" s="75" t="inlineStr">
+      <c r="AG2" s="105" t="inlineStr">
         <is>
           <t>Darlon Hijara</t>
         </is>
       </c>
-      <c r="AH2" s="75" t="inlineStr">
+      <c r="AH2" s="105" t="inlineStr">
         <is>
           <t>DarlonJeremiah Hijaratwo</t>
         </is>
       </c>
-      <c r="AI2" s="75" t="inlineStr">
+      <c r="AI2" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AJ2" s="75" t="inlineStr">
+      <c r="AJ2" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AK2" s="75" t="inlineStr">
+      <c r="AK2" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
@@ -4483,26 +4497,26 @@
       <c r="AL2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="D3" s="92" t="n"/>
-      <c r="E3" s="92" t="n"/>
-      <c r="F3" s="92" t="n"/>
-      <c r="J3" s="92" t="n"/>
-      <c r="Q3" s="92" t="n"/>
-      <c r="T3" s="92" t="n"/>
-      <c r="V3" s="92" t="n"/>
-      <c r="W3" s="92" t="n"/>
-      <c r="X3" s="92" t="n"/>
-      <c r="Y3" s="92" t="n"/>
-      <c r="Z3" s="92" t="n"/>
-      <c r="AC3" s="93" t="n"/>
-      <c r="AD3" s="93" t="n"/>
-      <c r="AE3" s="93" t="n"/>
-      <c r="AF3" s="93" t="n"/>
-      <c r="AG3" s="93" t="n"/>
-      <c r="AH3" s="93" t="n"/>
-      <c r="AI3" s="93" t="n"/>
-      <c r="AJ3" s="93" t="n"/>
-      <c r="AK3" s="93" t="n"/>
+      <c r="D3" s="90" t="n"/>
+      <c r="E3" s="90" t="n"/>
+      <c r="F3" s="90" t="n"/>
+      <c r="J3" s="90" t="n"/>
+      <c r="Q3" s="90" t="n"/>
+      <c r="T3" s="90" t="n"/>
+      <c r="V3" s="90" t="n"/>
+      <c r="W3" s="90" t="n"/>
+      <c r="X3" s="90" t="n"/>
+      <c r="Y3" s="90" t="n"/>
+      <c r="Z3" s="90" t="n"/>
+      <c r="AC3" s="91" t="n"/>
+      <c r="AD3" s="91" t="n"/>
+      <c r="AE3" s="91" t="n"/>
+      <c r="AF3" s="91" t="n"/>
+      <c r="AG3" s="91" t="n"/>
+      <c r="AH3" s="91" t="n"/>
+      <c r="AI3" s="91" t="n"/>
+      <c r="AJ3" s="91" t="n"/>
+      <c r="AK3" s="91" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4525,292 +4539,292 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="75" min="1" max="1"/>
-    <col width="48.7109375" customWidth="1" style="75" min="2" max="2"/>
-    <col width="25.28515625" customWidth="1" style="75" min="3" max="3"/>
-    <col width="26" customWidth="1" style="75" min="4" max="4"/>
-    <col width="14.28515625" customWidth="1" style="75" min="5" max="7"/>
-    <col width="33.5703125" customWidth="1" style="75" min="8" max="8"/>
-    <col width="16.5703125" customWidth="1" style="75" min="9" max="10"/>
-    <col width="26.7109375" customWidth="1" style="75" min="11" max="11"/>
-    <col width="31.5703125" customWidth="1" style="75" min="12" max="13"/>
-    <col width="34.85546875" customWidth="1" style="75" min="14" max="14"/>
-    <col width="32.7109375" customWidth="1" style="75" min="15" max="15"/>
-    <col width="37.42578125" customWidth="1" style="75" min="16" max="16"/>
-    <col width="22.7109375" customWidth="1" style="75" min="17" max="17"/>
-    <col width="27.5703125" customWidth="1" style="75" min="18" max="18"/>
-    <col width="24.7109375" customWidth="1" style="75" min="19" max="19"/>
-    <col width="26.7109375" customWidth="1" style="75" min="20" max="20"/>
-    <col width="26.140625" customWidth="1" style="75" min="21" max="21"/>
-    <col width="19.140625" customWidth="1" style="75" min="22" max="22"/>
-    <col width="30.28515625" customWidth="1" style="75" min="23" max="23"/>
-    <col width="38.140625" customWidth="1" style="75" min="24" max="24"/>
-    <col width="39.140625" customWidth="1" style="75" min="25" max="25"/>
-    <col width="29.42578125" customWidth="1" style="75" min="26" max="26"/>
-    <col width="29.7109375" customWidth="1" style="75" min="27" max="27"/>
-    <col width="34.5703125" customWidth="1" style="75" min="28" max="29"/>
-    <col width="37.7109375" customWidth="1" style="75" min="30" max="30"/>
-    <col width="35.7109375" customWidth="1" style="75" min="31" max="31"/>
-    <col width="40.42578125" customWidth="1" style="75" min="32" max="32"/>
-    <col width="27" customWidth="1" style="75" min="33" max="33"/>
-    <col width="31.85546875" customWidth="1" style="75" min="34" max="35"/>
-    <col width="25.5703125" customWidth="1" style="75" min="36" max="36"/>
-    <col width="28.28515625" customWidth="1" style="75" min="37" max="37"/>
-    <col width="18.7109375" customWidth="1" style="75" min="38" max="38"/>
-    <col width="26.28515625" customWidth="1" style="75" min="39" max="39"/>
-    <col width="14.85546875" customWidth="1" style="75" min="40" max="40"/>
-    <col width="34.28515625" customWidth="1" style="75" min="41" max="41"/>
-    <col width="33.28515625" customWidth="1" style="75" min="42" max="42"/>
-    <col width="16.7109375" customWidth="1" style="75" min="43" max="43"/>
-    <col width="18.5703125" customWidth="1" style="75" min="44" max="44"/>
-    <col width="27" customWidth="1" style="75" min="45" max="45"/>
-    <col width="19.42578125" customWidth="1" style="75" min="46" max="47"/>
+    <col width="6.140625" customWidth="1" style="105" min="1" max="1"/>
+    <col width="48.7109375" customWidth="1" style="105" min="2" max="2"/>
+    <col width="25.28515625" customWidth="1" style="105" min="3" max="3"/>
+    <col width="26" customWidth="1" style="105" min="4" max="4"/>
+    <col width="14.28515625" customWidth="1" style="105" min="5" max="7"/>
+    <col width="33.5703125" customWidth="1" style="105" min="8" max="8"/>
+    <col width="16.5703125" customWidth="1" style="105" min="9" max="10"/>
+    <col width="26.7109375" customWidth="1" style="105" min="11" max="11"/>
+    <col width="31.5703125" customWidth="1" style="105" min="12" max="13"/>
+    <col width="34.85546875" customWidth="1" style="105" min="14" max="14"/>
+    <col width="32.7109375" customWidth="1" style="105" min="15" max="15"/>
+    <col width="37.42578125" customWidth="1" style="105" min="16" max="16"/>
+    <col width="22.7109375" customWidth="1" style="105" min="17" max="17"/>
+    <col width="27.5703125" customWidth="1" style="105" min="18" max="18"/>
+    <col width="24.7109375" customWidth="1" style="105" min="19" max="19"/>
+    <col width="26.7109375" customWidth="1" style="105" min="20" max="20"/>
+    <col width="26.140625" customWidth="1" style="105" min="21" max="21"/>
+    <col width="19.140625" customWidth="1" style="105" min="22" max="22"/>
+    <col width="30.28515625" customWidth="1" style="105" min="23" max="23"/>
+    <col width="38.140625" customWidth="1" style="105" min="24" max="24"/>
+    <col width="39.140625" customWidth="1" style="105" min="25" max="25"/>
+    <col width="29.42578125" customWidth="1" style="105" min="26" max="26"/>
+    <col width="29.7109375" customWidth="1" style="105" min="27" max="27"/>
+    <col width="34.5703125" customWidth="1" style="105" min="28" max="29"/>
+    <col width="37.7109375" customWidth="1" style="105" min="30" max="30"/>
+    <col width="35.7109375" customWidth="1" style="105" min="31" max="31"/>
+    <col width="40.42578125" customWidth="1" style="105" min="32" max="32"/>
+    <col width="27" customWidth="1" style="105" min="33" max="33"/>
+    <col width="31.85546875" customWidth="1" style="105" min="34" max="35"/>
+    <col width="25.5703125" customWidth="1" style="105" min="36" max="36"/>
+    <col width="28.28515625" customWidth="1" style="105" min="37" max="37"/>
+    <col width="18.7109375" customWidth="1" style="105" min="38" max="38"/>
+    <col width="26.28515625" customWidth="1" style="105" min="39" max="39"/>
+    <col width="14.85546875" customWidth="1" style="105" min="40" max="40"/>
+    <col width="34.28515625" customWidth="1" style="105" min="41" max="41"/>
+    <col width="33.28515625" customWidth="1" style="105" min="42" max="42"/>
+    <col width="16.7109375" customWidth="1" style="105" min="43" max="43"/>
+    <col width="18.5703125" customWidth="1" style="105" min="44" max="44"/>
+    <col width="27" customWidth="1" style="105" min="45" max="45"/>
+    <col width="19.42578125" customWidth="1" style="105" min="46" max="47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
-      <c r="A1" s="39" t="inlineStr">
+      <c r="A1" s="38" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="39" t="inlineStr">
+      <c r="B1" s="38" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="39" t="inlineStr">
+      <c r="C1" s="38" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="39" t="inlineStr">
+      <c r="D1" s="38" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="91" t="inlineStr">
+      <c r="E1" s="89" t="inlineStr">
         <is>
           <t>Current_Cmt</t>
         </is>
       </c>
-      <c r="F1" s="91" t="inlineStr">
+      <c r="F1" s="89" t="inlineStr">
         <is>
           <t>Contr_Gross</t>
         </is>
       </c>
-      <c r="G1" s="91" t="inlineStr">
+      <c r="G1" s="89" t="inlineStr">
         <is>
           <t>Net_Cmt</t>
         </is>
       </c>
-      <c r="H1" s="74" t="inlineStr">
+      <c r="H1" s="73" t="inlineStr">
         <is>
           <t>HostBank_Lender</t>
         </is>
       </c>
-      <c r="I1" s="74" t="inlineStr">
+      <c r="I1" s="73" t="inlineStr">
         <is>
           <t>Lender1</t>
         </is>
       </c>
-      <c r="J1" s="74" t="inlineStr">
+      <c r="J1" s="73" t="inlineStr">
         <is>
           <t>Lender2</t>
         </is>
       </c>
-      <c r="K1" s="91" t="inlineStr">
+      <c r="K1" s="89" t="inlineStr">
         <is>
           <t>Original_UIHBActualAmount</t>
         </is>
       </c>
-      <c r="L1" s="91" t="inlineStr">
+      <c r="L1" s="89" t="inlineStr">
         <is>
           <t>Original_UILender1ActualAmount</t>
         </is>
       </c>
-      <c r="M1" s="91" t="inlineStr">
+      <c r="M1" s="89" t="inlineStr">
         <is>
           <t>Original_UILender2ActualAmount</t>
         </is>
       </c>
-      <c r="N1" s="91" t="inlineStr">
+      <c r="N1" s="89" t="inlineStr">
         <is>
           <t>Orig_PrimariesAssignees_ActualTotal</t>
         </is>
       </c>
-      <c r="O1" s="91" t="inlineStr">
+      <c r="O1" s="89" t="inlineStr">
         <is>
           <t>Original_UIHBSharesActualAmount</t>
         </is>
       </c>
-      <c r="P1" s="91" t="inlineStr">
+      <c r="P1" s="89" t="inlineStr">
         <is>
           <t>Orig_HostBankShares_ActualNetAllTotal</t>
         </is>
       </c>
-      <c r="Q1" s="91" t="inlineStr">
+      <c r="Q1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacilityCurrentCmt</t>
         </is>
       </c>
-      <c r="R1" s="91" t="inlineStr">
+      <c r="R1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacilityAvailableToDraw</t>
         </is>
       </c>
-      <c r="S1" s="91" t="inlineStr">
+      <c r="S1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacilityHBContrGross</t>
         </is>
       </c>
-      <c r="T1" s="91" t="inlineStr">
+      <c r="T1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacilityHBOutstandings</t>
         </is>
       </c>
-      <c r="U1" s="91" t="inlineStr">
+      <c r="U1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacilityHBAvailToDraw</t>
         </is>
       </c>
-      <c r="V1" s="91" t="inlineStr">
+      <c r="V1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacilityNetCmt</t>
         </is>
       </c>
-      <c r="W1" s="91" t="inlineStr">
+      <c r="W1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetFundableCmt</t>
         </is>
       </c>
-      <c r="X1" s="91" t="inlineStr">
+      <c r="X1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetOutstandings_Funded</t>
         </is>
       </c>
-      <c r="Y1" s="91" t="inlineStr">
+      <c r="Y1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetAvailToDraw_Fundable</t>
         </is>
       </c>
-      <c r="Z1" s="91" t="inlineStr">
+      <c r="Z1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacilityHBNetAvailToDraw</t>
         </is>
       </c>
-      <c r="AA1" s="91" t="inlineStr">
+      <c r="AA1" s="89" t="inlineStr">
         <is>
           <t>Original_UIFacHBActualAmount</t>
         </is>
       </c>
-      <c r="AB1" s="91" t="inlineStr">
+      <c r="AB1" s="89" t="inlineStr">
         <is>
           <t>Original_UIFacLender1ActualAmount</t>
         </is>
       </c>
-      <c r="AC1" s="91" t="inlineStr">
+      <c r="AC1" s="89" t="inlineStr">
         <is>
           <t>Original_UIFacLender2ActualAmount</t>
         </is>
       </c>
-      <c r="AD1" s="91" t="inlineStr">
+      <c r="AD1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacPrimariesAssignees_ActualTotal</t>
         </is>
       </c>
-      <c r="AE1" s="91" t="inlineStr">
+      <c r="AE1" s="89" t="inlineStr">
         <is>
           <t>Original_UIFacHBSharesActualAmount</t>
         </is>
       </c>
-      <c r="AF1" s="91" t="inlineStr">
+      <c r="AF1" s="89" t="inlineStr">
         <is>
           <t>Orig_FacHostBankShares_ActualNetAllTotal</t>
         </is>
       </c>
-      <c r="AG1" s="91" t="inlineStr">
+      <c r="AG1" s="89" t="inlineStr">
         <is>
           <t>Computed_HBActualAmount</t>
         </is>
       </c>
-      <c r="AH1" s="91" t="inlineStr">
+      <c r="AH1" s="89" t="inlineStr">
         <is>
           <t>Computed_Lender1ActualAmount</t>
         </is>
       </c>
-      <c r="AI1" s="91" t="inlineStr">
+      <c r="AI1" s="89" t="inlineStr">
         <is>
           <t>Computed_Lender2ActualAmount</t>
         </is>
       </c>
-      <c r="AJ1" s="91" t="inlineStr">
+      <c r="AJ1" s="89" t="inlineStr">
         <is>
           <t>HBShares_UIActualAmount</t>
         </is>
       </c>
-      <c r="AK1" s="91" t="inlineStr">
+      <c r="AK1" s="89" t="inlineStr">
         <is>
           <t>Updated_UIFaciltyCurrentCmt</t>
         </is>
       </c>
-      <c r="AL1" s="91" t="inlineStr">
+      <c r="AL1" s="89" t="inlineStr">
         <is>
           <t>AMD_EffectiveDate</t>
         </is>
       </c>
-      <c r="AM1" s="39" t="inlineStr">
+      <c r="AM1" s="38" t="inlineStr">
         <is>
           <t>AmendmentNumber_Prefix</t>
         </is>
       </c>
-      <c r="AN1" s="91" t="inlineStr">
+      <c r="AN1" s="89" t="inlineStr">
         <is>
           <t>AmendmentNo</t>
         </is>
       </c>
-      <c r="AO1" s="39" t="inlineStr">
+      <c r="AO1" s="38" t="inlineStr">
         <is>
           <t>AMD_Comment</t>
         </is>
       </c>
-      <c r="AP1" s="39" t="inlineStr">
+      <c r="AP1" s="38" t="inlineStr">
         <is>
           <t>Transaction_Type</t>
         </is>
       </c>
-      <c r="AQ1" s="39" t="inlineStr">
+      <c r="AQ1" s="38" t="inlineStr">
         <is>
           <t>Increase_Amount</t>
         </is>
       </c>
-      <c r="AR1" s="39" t="inlineStr">
+      <c r="AR1" s="38" t="inlineStr">
         <is>
           <t>AmortSched_Status</t>
         </is>
       </c>
-      <c r="AS1" s="74" t="inlineStr">
+      <c r="AS1" s="73" t="inlineStr">
         <is>
           <t>HostBankLender_Percentage</t>
         </is>
       </c>
-      <c r="AT1" s="74" t="inlineStr">
+      <c r="AT1" s="73" t="inlineStr">
         <is>
           <t>Lender1_Percentage</t>
         </is>
       </c>
-      <c r="AU1" s="74" t="inlineStr">
+      <c r="AU1" s="73" t="inlineStr">
         <is>
           <t>Lender2_Percentage</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="75">
+    <row r="2" customFormat="1" s="105">
       <c r="A2" s="32" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_AMD_AMCH03_UnscheduledFacilityIncrease</t>
         </is>
@@ -4840,17 +4854,17 @@
           <t>26,950,000.00</t>
         </is>
       </c>
-      <c r="H2" s="75" t="inlineStr">
+      <c r="H2" s="105" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK AU-DBU</t>
         </is>
       </c>
-      <c r="I2" s="75" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>LENDSHORT13116</t>
         </is>
       </c>
-      <c r="J2" s="75" t="inlineStr">
+      <c r="J2" s="105" t="inlineStr">
         <is>
           <t>LENDSHORT31129</t>
         </is>
@@ -4945,7 +4959,7 @@
           <t>25-Apr-2013</t>
         </is>
       </c>
-      <c r="AM2" s="75" t="inlineStr">
+      <c r="AM2" s="105" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -4955,12 +4969,12 @@
           <t>82235</t>
         </is>
       </c>
-      <c r="AO2" s="75" t="inlineStr">
+      <c r="AO2" s="105" t="inlineStr">
         <is>
           <t>Create Unscheduled Facility Increase</t>
         </is>
       </c>
-      <c r="AP2" s="75" t="inlineStr">
+      <c r="AP2" s="105" t="inlineStr">
         <is>
           <t>Unscheduled Commitment Increase</t>
         </is>
@@ -4968,29 +4982,29 @@
       <c r="AQ2" s="35" t="n">
         <v>1000000</v>
       </c>
-      <c r="AR2" s="75" t="inlineStr">
+      <c r="AR2" s="105" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="AS2" s="75" t="n">
+      <c r="AS2" s="105" t="n">
         <v>55</v>
       </c>
-      <c r="AT2" s="75" t="n">
+      <c r="AT2" s="105" t="n">
         <v>25</v>
       </c>
-      <c r="AU2" s="75" t="n">
+      <c r="AU2" s="105" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="90" t="n"/>
-      <c r="D3" s="90" t="n"/>
-      <c r="AM3" s="90" t="n"/>
-      <c r="AO3" s="90" t="n"/>
-      <c r="AP3" s="90" t="n"/>
-      <c r="AQ3" s="90" t="n"/>
-      <c r="AR3" s="90" t="n"/>
+      <c r="C3" s="88" t="n"/>
+      <c r="D3" s="88" t="n"/>
+      <c r="AM3" s="88" t="n"/>
+      <c r="AO3" s="88" t="n"/>
+      <c r="AP3" s="88" t="n"/>
+      <c r="AQ3" s="88" t="n"/>
+      <c r="AR3" s="88" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6684,8 +6698,8 @@
   </sheetPr>
   <dimension ref="A1:EK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -6705,9 +6719,9 @@
     <col width="27.5703125" customWidth="1" style="27" min="16" max="16"/>
     <col width="14.28515625" customWidth="1" style="27" min="17" max="17"/>
     <col width="21.140625" customWidth="1" style="27" min="18" max="18"/>
-    <col width="20.5703125" customWidth="1" style="75" min="19" max="19"/>
-    <col width="33.5703125" customWidth="1" style="75" min="20" max="20"/>
-    <col width="19.42578125" customWidth="1" style="75" min="21" max="22"/>
+    <col width="20.5703125" customWidth="1" style="105" min="19" max="19"/>
+    <col width="33.5703125" customWidth="1" style="105" min="20" max="20"/>
+    <col width="19.42578125" customWidth="1" style="105" min="21" max="22"/>
     <col width="14.140625" customWidth="1" style="27" min="23" max="23"/>
     <col width="10.140625" customWidth="1" style="27" min="24" max="24"/>
     <col width="23.5703125" customWidth="1" style="27" min="25" max="25"/>
@@ -6721,7 +6735,7 @@
     <col width="28.7109375" customWidth="1" style="27" min="35" max="36"/>
     <col width="21.85546875" customWidth="1" style="27" min="37" max="37"/>
     <col width="16" customWidth="1" style="27" min="38" max="38"/>
-    <col width="18.7109375" customWidth="1" style="75" min="39" max="41"/>
+    <col width="18.7109375" customWidth="1" style="105" min="39" max="41"/>
     <col width="24.140625" customWidth="1" style="27" min="42" max="42"/>
     <col width="9.42578125" customWidth="1" style="27" min="43" max="43"/>
     <col width="17.7109375" customWidth="1" style="27" min="44" max="45"/>
@@ -6827,7 +6841,7 @@
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="95" t="inlineStr">
+      <c r="C1" s="93" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
@@ -6837,7 +6851,7 @@
           <t>OutstandingSelect_Type</t>
         </is>
       </c>
-      <c r="E1" s="95" t="inlineStr">
+      <c r="E1" s="93" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
@@ -6847,17 +6861,17 @@
           <t>Branch</t>
         </is>
       </c>
-      <c r="G1" s="95" t="inlineStr">
+      <c r="G1" s="93" t="inlineStr">
         <is>
           <t>Alias_Loan1</t>
         </is>
       </c>
-      <c r="H1" s="95" t="inlineStr">
+      <c r="H1" s="93" t="inlineStr">
         <is>
           <t>Alias_Loan2</t>
         </is>
       </c>
-      <c r="I1" s="95" t="inlineStr">
+      <c r="I1" s="93" t="inlineStr">
         <is>
           <t>Alias_LoanMerge</t>
         </is>
@@ -6867,17 +6881,17 @@
           <t>Status</t>
         </is>
       </c>
-      <c r="K1" s="95" t="inlineStr">
+      <c r="K1" s="93" t="inlineStr">
         <is>
           <t>Outstandings_Loan1</t>
         </is>
       </c>
-      <c r="L1" s="95" t="inlineStr">
+      <c r="L1" s="93" t="inlineStr">
         <is>
           <t>Outstandings_Loan2</t>
         </is>
       </c>
-      <c r="M1" s="95" t="inlineStr">
+      <c r="M1" s="93" t="inlineStr">
         <is>
           <t>LoanMerge_Amount</t>
         </is>
@@ -6887,7 +6901,7 @@
           <t>Repricing_Type</t>
         </is>
       </c>
-      <c r="O1" s="96" t="inlineStr">
+      <c r="O1" s="94" t="inlineStr">
         <is>
           <t>RepricingDate_Loan1</t>
         </is>
@@ -6897,127 +6911,127 @@
           <t>Repricing_Add_Option</t>
         </is>
       </c>
-      <c r="Q1" s="96" t="inlineStr">
+      <c r="Q1" s="94" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="R1" s="96" t="inlineStr">
+      <c r="R1" s="94" t="inlineStr">
         <is>
           <t>ShortName</t>
         </is>
       </c>
-      <c r="S1" s="78" t="inlineStr">
+      <c r="S1" s="76" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="T1" s="97" t="inlineStr">
+      <c r="T1" s="95" t="inlineStr">
         <is>
           <t>Legal_Entity</t>
         </is>
       </c>
-      <c r="U1" s="97" t="inlineStr">
+      <c r="U1" s="95" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="V1" s="97" t="inlineStr">
+      <c r="V1" s="95" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
       </c>
-      <c r="W1" s="96" t="inlineStr">
+      <c r="W1" s="94" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="X1" s="96" t="inlineStr">
+      <c r="X1" s="94" t="inlineStr">
         <is>
           <t>Base_Rate</t>
         </is>
       </c>
-      <c r="Y1" s="96" t="inlineStr">
+      <c r="Y1" s="94" t="inlineStr">
         <is>
           <t>GLEntriesPercentageAmt</t>
         </is>
       </c>
-      <c r="Z1" s="96" t="inlineStr">
+      <c r="Z1" s="94" t="inlineStr">
         <is>
           <t>Loan1_Outstanding_AfterMerge</t>
         </is>
       </c>
-      <c r="AA1" s="96" t="inlineStr">
+      <c r="AA1" s="94" t="inlineStr">
         <is>
           <t>Loan2_Outstanding_AfterMerge</t>
         </is>
       </c>
-      <c r="AB1" s="96" t="inlineStr">
+      <c r="AB1" s="94" t="inlineStr">
         <is>
           <t>LegalEntity_ExpectedAmount</t>
         </is>
       </c>
-      <c r="AC1" s="96" t="inlineStr">
+      <c r="AC1" s="94" t="inlineStr">
         <is>
           <t>Lender1_ExpectedAmount</t>
         </is>
       </c>
-      <c r="AD1" s="96" t="inlineStr">
+      <c r="AD1" s="94" t="inlineStr">
         <is>
           <t>Lender2_ExpectedAmount</t>
         </is>
       </c>
-      <c r="AE1" s="96" t="inlineStr">
+      <c r="AE1" s="94" t="inlineStr">
         <is>
           <t>Facility_HostBankContrGross_Percentage</t>
         </is>
       </c>
-      <c r="AF1" s="96" t="inlineStr">
+      <c r="AF1" s="94" t="inlineStr">
         <is>
           <t>Facility_HostBankOutstandings_Percentage</t>
         </is>
       </c>
-      <c r="AG1" s="96" t="inlineStr">
+      <c r="AG1" s="94" t="inlineStr">
         <is>
           <t>Facility_HostBankAvailToDraw_Percentage</t>
         </is>
       </c>
-      <c r="AH1" s="96" t="inlineStr">
+      <c r="AH1" s="94" t="inlineStr">
         <is>
           <t>LenderShareHost_Percentage</t>
         </is>
       </c>
-      <c r="AI1" s="96" t="inlineStr">
+      <c r="AI1" s="94" t="inlineStr">
         <is>
           <t>Lender1ShareHost_Percentage</t>
         </is>
       </c>
-      <c r="AJ1" s="96" t="inlineStr">
+      <c r="AJ1" s="94" t="inlineStr">
         <is>
           <t>Lender2ShareHost_Percentage</t>
         </is>
       </c>
-      <c r="AK1" s="96" t="inlineStr">
+      <c r="AK1" s="94" t="inlineStr">
         <is>
           <t>Customer_Legal_Name</t>
         </is>
       </c>
-      <c r="AL1" s="96" t="inlineStr">
+      <c r="AL1" s="94" t="inlineStr">
         <is>
           <t>NoticeStatus</t>
         </is>
       </c>
-      <c r="AM1" s="97" t="inlineStr">
+      <c r="AM1" s="95" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
       </c>
-      <c r="AN1" s="97" t="inlineStr">
+      <c r="AN1" s="95" t="inlineStr">
         <is>
           <t>Notice_ContactPerson</t>
         </is>
       </c>
-      <c r="AO1" s="97" t="inlineStr">
+      <c r="AO1" s="95" t="inlineStr">
         <is>
           <t>Notice_Method</t>
         </is>
@@ -7049,17 +7063,17 @@
           <t>S8TERM14092020165659</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="98" t="inlineStr">
         <is>
           <t>CB001</t>
         </is>
       </c>
-      <c r="G2" s="64" t="inlineStr">
+      <c r="G2" s="63" t="inlineStr">
         <is>
           <t>60000003</t>
         </is>
       </c>
-      <c r="H2" s="63" t="inlineStr">
+      <c r="H2" s="62" t="inlineStr">
         <is>
           <t>60000006</t>
         </is>
@@ -7069,22 +7083,22 @@
           <t>60000039</t>
         </is>
       </c>
-      <c r="J2" s="36" t="inlineStr">
+      <c r="J2" s="98" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="K2" s="65" t="inlineStr">
+      <c r="K2" s="64" t="inlineStr">
         <is>
           <t>20,000,000.00</t>
         </is>
       </c>
-      <c r="L2" s="63" t="inlineStr">
+      <c r="L2" s="62" t="inlineStr">
         <is>
           <t>7,000,000.00</t>
         </is>
       </c>
-      <c r="M2" s="63" t="inlineStr">
+      <c r="M2" s="62" t="inlineStr">
         <is>
           <t>27,000,000.00</t>
         </is>
@@ -7094,7 +7108,7 @@
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="O2" s="75" t="inlineStr">
+      <c r="O2" s="105" t="inlineStr">
         <is>
           <t>16-Aug-2018</t>
         </is>
@@ -7119,12 +7133,12 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="T2" s="75" t="inlineStr">
+      <c r="T2" s="105" t="inlineStr">
         <is>
           <t>COMMONWEALTHBANKOFAUSTCB001</t>
         </is>
       </c>
-      <c r="W2" s="75" t="inlineStr">
+      <c r="W2" s="105" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -7204,53 +7218,53 @@
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="AM2" s="42" t="inlineStr">
+      <c r="AM2" s="41" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="AN2" s="75" t="inlineStr">
+      <c r="AN2" s="105" t="inlineStr">
         <is>
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="AO2" s="75" t="inlineStr">
+      <c r="AO2" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="92" t="n"/>
-      <c r="D3" s="92" t="n"/>
-      <c r="E3" s="92" t="n"/>
-      <c r="G3" s="92" t="n"/>
-      <c r="H3" s="92" t="n"/>
-      <c r="I3" s="92" t="n"/>
-      <c r="K3" s="92" t="n"/>
-      <c r="L3" s="92" t="n"/>
-      <c r="M3" s="92" t="n"/>
-      <c r="N3" s="92" t="n"/>
-      <c r="P3" s="92" t="n"/>
+      <c r="C3" s="90" t="n"/>
+      <c r="D3" s="90" t="n"/>
+      <c r="E3" s="90" t="n"/>
+      <c r="G3" s="90" t="n"/>
+      <c r="H3" s="90" t="n"/>
+      <c r="I3" s="90" t="n"/>
+      <c r="K3" s="90" t="n"/>
+      <c r="L3" s="90" t="n"/>
+      <c r="M3" s="90" t="n"/>
+      <c r="N3" s="90" t="n"/>
+      <c r="P3" s="90" t="n"/>
     </row>
     <row r="4">
-      <c r="C4" s="44" t="n"/>
-      <c r="T4" s="75" t="inlineStr">
+      <c r="C4" s="43" t="n"/>
+      <c r="T4" s="105" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK AU-DBU</t>
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="75">
+    <row r="5" customFormat="1" s="105">
       <c r="A5" s="27" t="n"/>
       <c r="B5" s="27" t="n"/>
-      <c r="C5" s="36" t="n"/>
+      <c r="C5" s="98" t="n"/>
       <c r="D5" s="27" t="n"/>
-      <c r="E5" s="36" t="n"/>
-      <c r="F5" s="36" t="n"/>
-      <c r="G5" s="36" t="n"/>
-      <c r="H5" s="36" t="n"/>
-      <c r="J5" s="36" t="n"/>
+      <c r="E5" s="98" t="n"/>
+      <c r="F5" s="98" t="n"/>
+      <c r="G5" s="98" t="n"/>
+      <c r="H5" s="98" t="n"/>
+      <c r="J5" s="98" t="n"/>
       <c r="K5" s="33" t="n"/>
       <c r="L5" s="33" t="n"/>
       <c r="N5" s="27" t="n"/>
@@ -7377,39 +7391,39 @@
       <c r="EK5" s="27" t="n"/>
     </row>
     <row r="6">
-      <c r="E6" s="36" t="n"/>
-      <c r="F6" s="36" t="n"/>
-      <c r="G6" s="36" t="n"/>
-      <c r="H6" s="36" t="n"/>
-      <c r="I6" s="75" t="n"/>
-      <c r="J6" s="36" t="n"/>
+      <c r="E6" s="98" t="n"/>
+      <c r="F6" s="98" t="n"/>
+      <c r="G6" s="98" t="n"/>
+      <c r="H6" s="98" t="n"/>
+      <c r="I6" s="105" t="n"/>
+      <c r="J6" s="98" t="n"/>
       <c r="K6" s="33" t="n"/>
       <c r="L6" s="33" t="n"/>
-      <c r="M6" s="75" t="n"/>
+      <c r="M6" s="105" t="n"/>
       <c r="T6" s="27" t="n"/>
       <c r="U6" s="27" t="n"/>
-      <c r="W6" s="75" t="n"/>
+      <c r="W6" s="105" t="n"/>
       <c r="AK6" s="31" t="n"/>
       <c r="AL6" s="31" t="n"/>
     </row>
     <row r="8">
-      <c r="R8" s="75" t="n"/>
+      <c r="R8" s="105" t="n"/>
       <c r="U8" s="30" t="n"/>
     </row>
     <row r="14">
-      <c r="C14" s="36" t="n"/>
-      <c r="E14" s="36" t="n"/>
-      <c r="F14" s="36" t="n"/>
-      <c r="G14" s="36" t="n"/>
-      <c r="H14" s="36" t="n"/>
-      <c r="I14" s="75" t="n"/>
-      <c r="J14" s="36" t="n"/>
+      <c r="C14" s="98" t="n"/>
+      <c r="E14" s="98" t="n"/>
+      <c r="F14" s="98" t="n"/>
+      <c r="G14" s="98" t="n"/>
+      <c r="H14" s="98" t="n"/>
+      <c r="I14" s="105" t="n"/>
+      <c r="J14" s="98" t="n"/>
       <c r="K14" s="33" t="n"/>
       <c r="L14" s="33" t="n"/>
-      <c r="M14" s="75" t="n"/>
+      <c r="M14" s="105" t="n"/>
       <c r="T14" s="27" t="n"/>
       <c r="U14" s="27" t="n"/>
-      <c r="W14" s="75" t="n"/>
+      <c r="W14" s="105" t="n"/>
       <c r="AK14" s="31" t="n"/>
       <c r="AL14" s="31" t="n"/>
     </row>
@@ -7426,120 +7440,120 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU2"/>
+  <dimension ref="A1:EU3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="75" min="1" max="1"/>
-    <col width="41.42578125" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.5703125" customWidth="1" style="75" min="3" max="3"/>
-    <col width="21.5703125" customWidth="1" style="36" min="4" max="4"/>
-    <col width="17.7109375" customWidth="1" style="36" min="5" max="5"/>
-    <col width="17.5703125" customWidth="1" style="36" min="6" max="6"/>
-    <col width="28.5703125" customWidth="1" style="36" min="7" max="7"/>
-    <col width="26.140625" customWidth="1" style="36" min="8" max="8"/>
-    <col width="18" customWidth="1" style="36" min="9" max="9"/>
-    <col width="40.5703125" customWidth="1" style="36" min="10" max="10"/>
-    <col width="23.42578125" customWidth="1" style="75" min="11" max="11"/>
-    <col width="27.140625" customWidth="1" style="75" min="12" max="12"/>
-    <col width="29" customWidth="1" style="75" min="13" max="13"/>
-    <col width="20.140625" customWidth="1" style="75" min="14" max="14"/>
-    <col width="24.140625" customWidth="1" style="75" min="15" max="16"/>
-    <col width="9.42578125" customWidth="1" style="75" min="17" max="17"/>
-    <col width="17.7109375" customWidth="1" style="75" min="18" max="19"/>
-    <col width="20.42578125" customWidth="1" style="75" min="20" max="20"/>
-    <col width="17.5703125" customWidth="1" style="75" min="21" max="21"/>
-    <col width="21.140625" customWidth="1" style="75" min="22" max="22"/>
-    <col width="19.28515625" customWidth="1" style="75" min="23" max="24"/>
-    <col width="19.7109375" customWidth="1" style="75" min="25" max="25"/>
-    <col width="35" customWidth="1" style="75" min="26" max="26"/>
-    <col width="18.140625" customWidth="1" style="75" min="27" max="27"/>
-    <col width="19" customWidth="1" style="75" min="28" max="28"/>
-    <col width="32.42578125" customWidth="1" style="75" min="29" max="29"/>
-    <col width="17.28515625" customWidth="1" style="75" min="30" max="30"/>
-    <col width="28.7109375" customWidth="1" style="75" min="31" max="31"/>
-    <col width="23.5703125" customWidth="1" style="75" min="32" max="32"/>
-    <col width="45.28515625" customWidth="1" style="75" min="33" max="33"/>
-    <col width="29.85546875" customWidth="1" style="75" min="34" max="34"/>
-    <col width="14.28515625" customWidth="1" style="75" min="35" max="35"/>
-    <col width="23" customWidth="1" style="75" min="36" max="36"/>
-    <col width="19.85546875" customWidth="1" style="75" min="37" max="40"/>
-    <col width="24.7109375" customWidth="1" style="75" min="41" max="42"/>
-    <col width="25" customWidth="1" style="75" min="43" max="43"/>
-    <col width="24.42578125" customWidth="1" style="75" min="44" max="44"/>
-    <col width="30.42578125" customWidth="1" style="75" min="45" max="45"/>
-    <col width="36" customWidth="1" style="75" min="46" max="46"/>
-    <col width="34.42578125" customWidth="1" style="75" min="47" max="47"/>
-    <col width="26.7109375" customWidth="1" style="75" min="48" max="48"/>
-    <col width="17.28515625" customWidth="1" style="75" min="49" max="50"/>
-    <col width="34.140625" customWidth="1" style="75" min="51" max="51"/>
-    <col width="28.42578125" customWidth="1" style="75" min="52" max="52"/>
-    <col width="24.7109375" customWidth="1" style="75" min="53" max="53"/>
-    <col width="30.28515625" customWidth="1" style="75" min="54" max="54"/>
-    <col width="17.5703125" customWidth="1" style="75" min="55" max="55"/>
-    <col width="20.28515625" customWidth="1" style="75" min="56" max="56"/>
-    <col width="12.140625" customWidth="1" style="75" min="57" max="57"/>
-    <col width="21.42578125" customWidth="1" style="75" min="58" max="58"/>
-    <col width="24.140625" customWidth="1" style="75" min="59" max="59"/>
-    <col width="16" customWidth="1" style="75" min="60" max="60"/>
-    <col width="14" customWidth="1" style="75" min="61" max="61"/>
-    <col width="16.7109375" customWidth="1" style="75" min="62" max="62"/>
-    <col width="10" customWidth="1" style="75" min="63" max="63"/>
-    <col width="8.5703125" customWidth="1" style="75" min="64" max="64"/>
-    <col width="19.140625" customWidth="1" style="75" min="65" max="65"/>
-    <col width="37.7109375" customWidth="1" style="75" min="66" max="66"/>
-    <col width="15.85546875" customWidth="1" style="75" min="67" max="67"/>
-    <col width="9.28515625" customWidth="1" style="75" min="68" max="68"/>
-    <col width="16.7109375" customWidth="1" style="75" min="69" max="70"/>
-    <col width="12.85546875" customWidth="1" style="75" min="71" max="71"/>
-    <col width="32.42578125" customWidth="1" style="75" min="72" max="72"/>
-    <col width="11.7109375" customWidth="1" style="75" min="73" max="73"/>
-    <col width="35" customWidth="1" style="75" min="74" max="74"/>
-    <col width="18.140625" customWidth="1" style="75" min="75" max="75"/>
-    <col width="15.7109375" customWidth="1" style="75" min="76" max="76"/>
-    <col width="24" customWidth="1" style="75" min="77" max="77"/>
-    <col width="11.5703125" customWidth="1" style="75" min="78" max="78"/>
-    <col width="8.28515625" customWidth="1" style="75" min="79" max="79"/>
-    <col width="16.5703125" customWidth="1" style="75" min="80" max="80"/>
-    <col width="32.85546875" customWidth="1" style="75" min="81" max="81"/>
-    <col width="18.7109375" customWidth="1" style="75" min="82" max="82"/>
-    <col width="18.28515625" customWidth="1" style="75" min="83" max="83"/>
-    <col width="10.42578125" customWidth="1" style="75" min="84" max="84"/>
-    <col width="9.7109375" customWidth="1" style="75" min="85" max="85"/>
-    <col width="12.7109375" customWidth="1" style="75" min="86" max="86"/>
-    <col width="11.7109375" customWidth="1" style="75" min="87" max="87"/>
-    <col width="24" customWidth="1" style="75" min="88" max="88"/>
-    <col width="43.7109375" customWidth="1" style="75" min="89" max="89"/>
-    <col width="44.85546875" customWidth="1" style="75" min="90" max="90"/>
-    <col width="30.140625" customWidth="1" style="75" min="91" max="91"/>
-    <col width="29.42578125" customWidth="1" style="75" min="92" max="92"/>
-    <col width="25.28515625" customWidth="1" style="75" min="93" max="93"/>
-    <col width="9.5703125" customWidth="1" style="75" min="94" max="94"/>
-    <col width="25.7109375" customWidth="1" style="75" min="95" max="95"/>
-    <col width="19.7109375" customWidth="1" style="75" min="96" max="96"/>
-    <col width="28.5703125" customWidth="1" style="75" min="97" max="97"/>
-    <col width="21.140625" customWidth="1" style="75" min="98" max="98"/>
-    <col width="14.5703125" customWidth="1" style="75" min="99" max="99"/>
-    <col width="20.5703125" customWidth="1" style="75" min="100" max="100"/>
-    <col width="18.28515625" customWidth="1" style="75" min="101" max="101"/>
-    <col width="18.85546875" customWidth="1" style="75" min="102" max="102"/>
-    <col width="35" customWidth="1" style="75" min="103" max="103"/>
-    <col width="20" customWidth="1" style="75" min="104" max="104"/>
-    <col width="32.42578125" customWidth="1" style="75" min="105" max="105"/>
-    <col width="21.5703125" customWidth="1" style="75" min="106" max="106"/>
-    <col width="13.5703125" customWidth="1" style="75" min="107" max="107"/>
-    <col width="26.28515625" customWidth="1" style="75" min="108" max="108"/>
-    <col width="19.140625" customWidth="1" style="75" min="109" max="109"/>
-    <col width="44" customWidth="1" style="75" min="110" max="110"/>
-    <col width="23.5703125" customWidth="1" style="75" min="111" max="111"/>
-    <col width="26.28515625" customWidth="1" style="75" min="112" max="112"/>
-    <col width="34.85546875" customWidth="1" style="75" min="113" max="113"/>
-    <col width="9.140625" customWidth="1" style="75" min="114" max="114"/>
-    <col width="15.85546875" customWidth="1" style="75" min="115" max="115"/>
+    <col width="6.140625" customWidth="1" style="105" min="1" max="1"/>
+    <col width="41.42578125" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="105" min="3" max="3"/>
+    <col width="21.5703125" customWidth="1" style="98" min="4" max="4"/>
+    <col width="17.7109375" customWidth="1" style="98" min="5" max="5"/>
+    <col width="17.5703125" customWidth="1" style="98" min="6" max="6"/>
+    <col width="28.5703125" customWidth="1" style="98" min="7" max="7"/>
+    <col width="26.140625" customWidth="1" style="98" min="8" max="8"/>
+    <col width="18" customWidth="1" style="98" min="9" max="9"/>
+    <col width="40.5703125" customWidth="1" style="98" min="10" max="10"/>
+    <col width="23.42578125" customWidth="1" style="105" min="11" max="11"/>
+    <col width="27.140625" customWidth="1" style="105" min="12" max="12"/>
+    <col width="29" customWidth="1" style="105" min="13" max="13"/>
+    <col width="20.140625" customWidth="1" style="105" min="14" max="14"/>
+    <col width="24.140625" customWidth="1" style="105" min="15" max="16"/>
+    <col width="9.42578125" customWidth="1" style="105" min="17" max="17"/>
+    <col width="17.7109375" customWidth="1" style="105" min="18" max="19"/>
+    <col width="20.42578125" customWidth="1" style="105" min="20" max="20"/>
+    <col width="17.5703125" customWidth="1" style="105" min="21" max="21"/>
+    <col width="21.140625" customWidth="1" style="105" min="22" max="22"/>
+    <col width="19.28515625" customWidth="1" style="105" min="23" max="24"/>
+    <col width="19.7109375" customWidth="1" style="105" min="25" max="25"/>
+    <col width="35" customWidth="1" style="105" min="26" max="26"/>
+    <col width="18.140625" customWidth="1" style="105" min="27" max="27"/>
+    <col width="19" customWidth="1" style="105" min="28" max="28"/>
+    <col width="32.42578125" customWidth="1" style="105" min="29" max="29"/>
+    <col width="17.28515625" customWidth="1" style="105" min="30" max="30"/>
+    <col width="28.7109375" customWidth="1" style="105" min="31" max="31"/>
+    <col width="23.5703125" customWidth="1" style="105" min="32" max="32"/>
+    <col width="45.28515625" customWidth="1" style="105" min="33" max="33"/>
+    <col width="29.85546875" customWidth="1" style="105" min="34" max="34"/>
+    <col width="14.28515625" customWidth="1" style="105" min="35" max="35"/>
+    <col width="23" customWidth="1" style="105" min="36" max="36"/>
+    <col width="19.85546875" customWidth="1" style="105" min="37" max="40"/>
+    <col width="24.7109375" customWidth="1" style="105" min="41" max="42"/>
+    <col width="25" customWidth="1" style="105" min="43" max="43"/>
+    <col width="24.42578125" customWidth="1" style="105" min="44" max="44"/>
+    <col width="30.42578125" customWidth="1" style="105" min="45" max="45"/>
+    <col width="36" customWidth="1" style="105" min="46" max="46"/>
+    <col width="34.42578125" customWidth="1" style="105" min="47" max="47"/>
+    <col width="26.7109375" customWidth="1" style="105" min="48" max="48"/>
+    <col width="17.28515625" customWidth="1" style="105" min="49" max="50"/>
+    <col width="34.140625" customWidth="1" style="105" min="51" max="51"/>
+    <col width="28.42578125" customWidth="1" style="105" min="52" max="52"/>
+    <col width="24.7109375" customWidth="1" style="105" min="53" max="53"/>
+    <col width="30.28515625" customWidth="1" style="105" min="54" max="54"/>
+    <col width="17.5703125" customWidth="1" style="105" min="55" max="55"/>
+    <col width="20.28515625" customWidth="1" style="105" min="56" max="56"/>
+    <col width="12.140625" customWidth="1" style="105" min="57" max="57"/>
+    <col width="21.42578125" customWidth="1" style="105" min="58" max="58"/>
+    <col width="24.140625" customWidth="1" style="105" min="59" max="59"/>
+    <col width="16" customWidth="1" style="105" min="60" max="60"/>
+    <col width="14" customWidth="1" style="105" min="61" max="61"/>
+    <col width="16.7109375" customWidth="1" style="105" min="62" max="62"/>
+    <col width="10" customWidth="1" style="105" min="63" max="63"/>
+    <col width="8.5703125" customWidth="1" style="105" min="64" max="64"/>
+    <col width="19.140625" customWidth="1" style="105" min="65" max="65"/>
+    <col width="37.7109375" customWidth="1" style="105" min="66" max="66"/>
+    <col width="15.85546875" customWidth="1" style="105" min="67" max="67"/>
+    <col width="9.28515625" customWidth="1" style="105" min="68" max="68"/>
+    <col width="16.7109375" customWidth="1" style="105" min="69" max="70"/>
+    <col width="12.85546875" customWidth="1" style="105" min="71" max="71"/>
+    <col width="32.42578125" customWidth="1" style="105" min="72" max="72"/>
+    <col width="11.7109375" customWidth="1" style="105" min="73" max="73"/>
+    <col width="35" customWidth="1" style="105" min="74" max="74"/>
+    <col width="18.140625" customWidth="1" style="105" min="75" max="75"/>
+    <col width="15.7109375" customWidth="1" style="105" min="76" max="76"/>
+    <col width="24" customWidth="1" style="105" min="77" max="77"/>
+    <col width="11.5703125" customWidth="1" style="105" min="78" max="78"/>
+    <col width="8.28515625" customWidth="1" style="105" min="79" max="79"/>
+    <col width="16.5703125" customWidth="1" style="105" min="80" max="80"/>
+    <col width="32.85546875" customWidth="1" style="105" min="81" max="81"/>
+    <col width="18.7109375" customWidth="1" style="105" min="82" max="82"/>
+    <col width="18.28515625" customWidth="1" style="105" min="83" max="83"/>
+    <col width="10.42578125" customWidth="1" style="105" min="84" max="84"/>
+    <col width="9.7109375" customWidth="1" style="105" min="85" max="85"/>
+    <col width="12.7109375" customWidth="1" style="105" min="86" max="86"/>
+    <col width="11.7109375" customWidth="1" style="105" min="87" max="87"/>
+    <col width="24" customWidth="1" style="105" min="88" max="88"/>
+    <col width="43.7109375" customWidth="1" style="105" min="89" max="89"/>
+    <col width="44.85546875" customWidth="1" style="105" min="90" max="90"/>
+    <col width="30.140625" customWidth="1" style="105" min="91" max="91"/>
+    <col width="29.42578125" customWidth="1" style="105" min="92" max="92"/>
+    <col width="25.28515625" customWidth="1" style="105" min="93" max="93"/>
+    <col width="9.5703125" customWidth="1" style="105" min="94" max="94"/>
+    <col width="25.7109375" customWidth="1" style="105" min="95" max="95"/>
+    <col width="19.7109375" customWidth="1" style="105" min="96" max="96"/>
+    <col width="28.5703125" customWidth="1" style="105" min="97" max="97"/>
+    <col width="21.140625" customWidth="1" style="105" min="98" max="98"/>
+    <col width="14.5703125" customWidth="1" style="105" min="99" max="99"/>
+    <col width="20.5703125" customWidth="1" style="105" min="100" max="100"/>
+    <col width="18.28515625" customWidth="1" style="105" min="101" max="101"/>
+    <col width="18.85546875" customWidth="1" style="105" min="102" max="102"/>
+    <col width="35" customWidth="1" style="105" min="103" max="103"/>
+    <col width="20" customWidth="1" style="105" min="104" max="104"/>
+    <col width="32.42578125" customWidth="1" style="105" min="105" max="105"/>
+    <col width="21.5703125" customWidth="1" style="105" min="106" max="106"/>
+    <col width="13.5703125" customWidth="1" style="105" min="107" max="107"/>
+    <col width="26.28515625" customWidth="1" style="105" min="108" max="108"/>
+    <col width="19.140625" customWidth="1" style="105" min="109" max="109"/>
+    <col width="44" customWidth="1" style="105" min="110" max="110"/>
+    <col width="23.5703125" customWidth="1" style="105" min="111" max="111"/>
+    <col width="26.28515625" customWidth="1" style="105" min="112" max="112"/>
+    <col width="34.85546875" customWidth="1" style="105" min="113" max="113"/>
+    <col width="9.140625" customWidth="1" style="105" min="114" max="114"/>
+    <col width="15.85546875" customWidth="1" style="105" min="115" max="115"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -7573,12 +7587,12 @@
           <t>Outstanding_Type</t>
         </is>
       </c>
-      <c r="G1" s="28" t="inlineStr">
+      <c r="G1" s="97" t="inlineStr">
         <is>
           <t>LoanCapitalization_FromDate</t>
         </is>
       </c>
-      <c r="H1" s="28" t="inlineStr">
+      <c r="H1" s="97" t="inlineStr">
         <is>
           <t>LoanCapitalization_ToDate</t>
         </is>
@@ -7588,7 +7602,7 @@
           <t>PercentofPayment</t>
         </is>
       </c>
-      <c r="J1" s="28" t="inlineStr">
+      <c r="J1" s="97" t="inlineStr">
         <is>
           <t>CapitalizeFromToLoan_Value</t>
         </is>
@@ -7646,13 +7660,13 @@
       <c r="DJ1" s="28" t="n"/>
       <c r="DK1" s="28" t="n"/>
     </row>
-    <row r="2" customFormat="1" s="75">
-      <c r="A2" s="75" t="inlineStr">
+    <row r="2" customFormat="1" s="105">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_INT_CAP02_InterestCapitalisationRule</t>
         </is>
@@ -7672,211 +7686,74 @@
           <t>60000027</t>
         </is>
       </c>
-      <c r="F2" s="75" t="inlineStr">
+      <c r="F2" s="105" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>19-Mar-2019</t>
+          <t>29-Apr-2013</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>17-Jun-2019</t>
-        </is>
-      </c>
-      <c r="I2" s="45" t="inlineStr">
+          <t>28-Jul-2013</t>
+        </is>
+      </c>
+      <c r="I2" s="44" t="inlineStr">
         <is>
           <t>75.0000%</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>USD LIBOR Option Loan (60000327)</t>
-        </is>
-      </c>
-      <c r="DL2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019143011</t>
-        </is>
-      </c>
-      <c r="DM2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019143117</t>
-        </is>
-      </c>
-      <c r="DN2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019143239</t>
-        </is>
-      </c>
-      <c r="DO2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019143411</t>
-        </is>
-      </c>
-      <c r="DP2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019144308</t>
-        </is>
-      </c>
-      <c r="DQ2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019160947</t>
-        </is>
-      </c>
-      <c r="DR2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019181957</t>
-        </is>
-      </c>
-      <c r="DS2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019195845</t>
-        </is>
-      </c>
-      <c r="DT2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV27022019174646</t>
-        </is>
-      </c>
-      <c r="DU2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019122739</t>
-        </is>
-      </c>
-      <c r="DV2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019150609</t>
-        </is>
-      </c>
-      <c r="DW2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019153510</t>
-        </is>
-      </c>
-      <c r="DX2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019161525</t>
-        </is>
-      </c>
-      <c r="DY2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019170350</t>
-        </is>
-      </c>
-      <c r="DZ2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019184401</t>
-        </is>
-      </c>
-      <c r="EA2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019200201</t>
-        </is>
-      </c>
-      <c r="EB2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV04032019180112</t>
-        </is>
-      </c>
-      <c r="EC2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV04032019192213</t>
-        </is>
-      </c>
-      <c r="ED2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV05032019111858</t>
-        </is>
-      </c>
-      <c r="EE2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV06032019114349</t>
-        </is>
-      </c>
-      <c r="EF2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV12032019152455</t>
-        </is>
-      </c>
-      <c r="EG2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV12032019164626</t>
-        </is>
-      </c>
-      <c r="EH2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV04042019174149</t>
-        </is>
-      </c>
-      <c r="EI2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV11042019131924</t>
-        </is>
-      </c>
-      <c r="EJ2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV11042019153410</t>
-        </is>
-      </c>
-      <c r="EK2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV11042019163654</t>
-        </is>
-      </c>
-      <c r="EL2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV23042019114648</t>
-        </is>
-      </c>
-      <c r="EM2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV23042019121525</t>
-        </is>
-      </c>
-      <c r="EN2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV23042019124404</t>
-        </is>
-      </c>
-      <c r="EO2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV23042019140042</t>
-        </is>
-      </c>
-      <c r="EP2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV23042019145311</t>
-        </is>
-      </c>
-      <c r="EQ2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV09052019185256</t>
-        </is>
-      </c>
-      <c r="ER2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV27052019140929</t>
-        </is>
-      </c>
-      <c r="ES2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28052019191407</t>
-        </is>
-      </c>
-      <c r="ET2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV29052019185429</t>
-        </is>
-      </c>
-      <c r="EU2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV30052019143829</t>
-        </is>
-      </c>
+          <t>USD LIBOR Option Loan (60000027)</t>
+        </is>
+      </c>
+      <c r="DL2" s="3" t="n"/>
+      <c r="DM2" s="3" t="n"/>
+      <c r="DN2" s="3" t="n"/>
+      <c r="DO2" s="3" t="n"/>
+      <c r="DP2" s="3" t="n"/>
+      <c r="DQ2" s="3" t="n"/>
+      <c r="DR2" s="3" t="n"/>
+      <c r="DS2" s="3" t="n"/>
+      <c r="DT2" s="3" t="n"/>
+      <c r="DU2" s="3" t="n"/>
+      <c r="DV2" s="3" t="n"/>
+      <c r="DW2" s="3" t="n"/>
+      <c r="DX2" s="3" t="n"/>
+      <c r="DY2" s="3" t="n"/>
+      <c r="DZ2" s="3" t="n"/>
+      <c r="EA2" s="3" t="n"/>
+      <c r="EB2" s="3" t="n"/>
+      <c r="EC2" s="3" t="n"/>
+      <c r="ED2" s="3" t="n"/>
+      <c r="EE2" s="3" t="n"/>
+      <c r="EF2" s="3" t="n"/>
+      <c r="EG2" s="3" t="n"/>
+      <c r="EH2" s="3" t="n"/>
+      <c r="EI2" s="3" t="n"/>
+      <c r="EJ2" s="3" t="n"/>
+      <c r="EK2" s="3" t="n"/>
+      <c r="EL2" s="3" t="n"/>
+      <c r="EM2" s="3" t="n"/>
+      <c r="EN2" s="3" t="n"/>
+      <c r="EO2" s="3" t="n"/>
+      <c r="EP2" s="3" t="n"/>
+      <c r="EQ2" s="3" t="n"/>
+      <c r="ER2" s="3" t="n"/>
+      <c r="ES2" s="3" t="n"/>
+      <c r="ET2" s="3" t="n"/>
+      <c r="EU2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="88" t="n"/>
+      <c r="D3" s="96" t="n"/>
+      <c r="E3" s="96" t="n"/>
+      <c r="F3" s="96" t="n"/>
+      <c r="I3" s="96" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -7894,22 +7771,22 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="38.140625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.5703125" customWidth="1" style="75" min="3" max="3"/>
-    <col width="22.85546875" customWidth="1" style="75" min="4" max="4"/>
-    <col width="20.42578125" customWidth="1" style="75" min="5" max="5"/>
-    <col width="18.140625" customWidth="1" style="75" min="6" max="6"/>
-    <col width="11.5703125" customWidth="1" style="75" min="7" max="7"/>
-    <col width="18.42578125" customWidth="1" style="75" min="8" max="8"/>
-    <col width="23.7109375" customWidth="1" style="75" min="9" max="9"/>
-    <col width="8.42578125" customWidth="1" style="75" min="10" max="10"/>
-    <col width="8.28515625" customWidth="1" style="75" min="11" max="11"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="38.140625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="105" min="3" max="3"/>
+    <col width="22.85546875" customWidth="1" style="105" min="4" max="4"/>
+    <col width="20.42578125" customWidth="1" style="105" min="5" max="5"/>
+    <col width="18.140625" customWidth="1" style="105" min="6" max="6"/>
+    <col width="11.5703125" customWidth="1" style="105" min="7" max="7"/>
+    <col width="18.42578125" customWidth="1" style="105" min="8" max="8"/>
+    <col width="23.7109375" customWidth="1" style="105" min="9" max="9"/>
+    <col width="8.42578125" customWidth="1" style="105" min="10" max="10"/>
+    <col width="8.28515625" customWidth="1" style="105" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -7933,12 +7810,12 @@
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="28" t="inlineStr">
+      <c r="E1" s="97" t="inlineStr">
         <is>
           <t>Capitalization_FromDate</t>
         </is>
       </c>
-      <c r="F1" s="28" t="inlineStr">
+      <c r="F1" s="97" t="inlineStr">
         <is>
           <t>Capitalization_ToDate</t>
         </is>
@@ -7970,12 +7847,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_FEE_CAP03_CapitalizeOngoingFeeRule</t>
         </is>
@@ -7992,15 +7869,15 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>19-Mar-2019</t>
+          <t>29-Apr-2013</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>21-Mar-2019</t>
-        </is>
-      </c>
-      <c r="G2" s="36" t="inlineStr">
+          <t>01-May-2013</t>
+        </is>
+      </c>
+      <c r="G2" s="98" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
@@ -8010,23 +7887,26 @@
           <t>60000039</t>
         </is>
       </c>
-      <c r="I2" s="36" t="inlineStr">
+      <c r="I2" s="98" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="J2" s="75" t="inlineStr">
+      <c r="J2" s="105" t="inlineStr">
         <is>
           <t>Line Fee</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="30" t="n"/>
-      <c r="E3" s="36" t="n"/>
-      <c r="F3" s="36" t="n"/>
-      <c r="G3" s="36" t="n"/>
-      <c r="H3" s="36" t="n"/>
+      <c r="C3" s="99" t="n"/>
+      <c r="D3" s="88" t="n"/>
+      <c r="E3" s="98" t="n"/>
+      <c r="F3" s="98" t="n"/>
+      <c r="G3" s="96" t="n"/>
+      <c r="H3" s="96" t="n"/>
+      <c r="I3" s="88" t="n"/>
+      <c r="J3" s="88" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -8041,41 +7921,42 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="35" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.28515625" customWidth="1" style="75" min="3" max="3"/>
-    <col width="21.5703125" customWidth="1" style="75" min="4" max="4"/>
-    <col width="19.5703125" customWidth="1" style="75" min="5" max="5"/>
-    <col width="22" customWidth="1" style="75" min="6" max="6"/>
-    <col width="15.85546875" customWidth="1" style="75" min="7" max="7"/>
-    <col width="11.140625" customWidth="1" style="75" min="8" max="8"/>
-    <col width="17" customWidth="1" style="75" min="9" max="9"/>
-    <col width="11.7109375" customWidth="1" style="75" min="10" max="10"/>
-    <col width="19.5703125" customWidth="1" style="75" min="11" max="11"/>
-    <col width="33.28515625" customWidth="1" style="75" min="12" max="12"/>
-    <col width="15.85546875" customWidth="1" style="75" min="13" max="13"/>
-    <col width="21.5703125" customWidth="1" style="75" min="14" max="14"/>
-    <col width="14.7109375" customWidth="1" style="75" min="15" max="15"/>
-    <col width="22" customWidth="1" style="75" min="16" max="16"/>
-    <col width="14.42578125" customWidth="1" style="75" min="17" max="17"/>
-    <col width="13.85546875" customWidth="1" style="75" min="18" max="18"/>
-    <col width="12" customWidth="1" style="75" min="19" max="21"/>
-    <col width="18" customWidth="1" style="75" min="22" max="22"/>
-    <col width="12.28515625" customWidth="1" style="75" min="23" max="23"/>
-    <col width="11.140625" customWidth="1" style="75" min="24" max="24"/>
-    <col width="22.42578125" customWidth="1" style="75" min="25" max="25"/>
-    <col width="24.28515625" customWidth="1" style="75" min="26" max="26"/>
-    <col width="12.28515625" customWidth="1" style="75" min="27" max="27"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="35" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.28515625" customWidth="1" style="105" min="3" max="3"/>
+    <col width="21.5703125" customWidth="1" style="105" min="4" max="4"/>
+    <col width="19.5703125" customWidth="1" style="105" min="5" max="5"/>
+    <col width="22" customWidth="1" style="105" min="6" max="6"/>
+    <col width="15.85546875" customWidth="1" style="105" min="7" max="7"/>
+    <col width="11.140625" customWidth="1" style="105" min="8" max="8"/>
+    <col width="17" customWidth="1" style="105" min="9" max="9"/>
+    <col width="11.7109375" customWidth="1" style="105" min="10" max="10"/>
+    <col width="19.5703125" customWidth="1" style="105" min="11" max="11"/>
+    <col width="33.28515625" customWidth="1" style="105" min="12" max="12"/>
+    <col width="15.85546875" customWidth="1" style="105" min="13" max="13"/>
+    <col width="21.5703125" customWidth="1" style="105" min="14" max="14"/>
+    <col width="14.7109375" customWidth="1" style="105" min="15" max="15"/>
+    <col width="22" customWidth="1" style="105" min="16" max="16"/>
+    <col width="14.42578125" customWidth="1" style="105" min="17" max="17"/>
+    <col width="13.85546875" customWidth="1" style="105" min="18" max="18"/>
+    <col width="12" customWidth="1" style="105" min="19" max="21"/>
+    <col width="18" customWidth="1" style="105" min="22" max="22"/>
+    <col width="12.28515625" customWidth="1" style="105" min="23" max="23"/>
+    <col width="11.140625" customWidth="1" style="105" min="24" max="24"/>
+    <col width="26.42578125" customWidth="1" style="105" min="25" max="25"/>
+    <col width="27.28515625" customWidth="1" style="105" min="26" max="26"/>
+    <col width="12.28515625" customWidth="1" style="105" min="27" max="27"/>
     <col width="15.5703125" customWidth="1" style="3" min="28" max="29"/>
     <col width="16" customWidth="1" style="3" min="30" max="30"/>
+    <col width="16" bestFit="1" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -8104,7 +7985,7 @@
           <t>Borrower1_ShortName</t>
         </is>
       </c>
-      <c r="F1" s="28" t="inlineStr">
+      <c r="F1" s="101" t="inlineStr">
         <is>
           <t>Deal_BorrowerLegalName</t>
         </is>
@@ -8139,22 +8020,22 @@
           <t>Borrower1_RTGSRemittanceDescription</t>
         </is>
       </c>
-      <c r="M1" s="29" t="inlineStr">
+      <c r="M1" s="102" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="77" t="inlineStr">
         <is>
           <t>LIQCustomer_ShortName</t>
         </is>
       </c>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="O1" s="77" t="inlineStr">
         <is>
           <t>Borrower_Profile</t>
         </is>
       </c>
-      <c r="P1" s="25" t="inlineStr">
+      <c r="P1" s="77" t="inlineStr">
         <is>
           <t>UpfronFee_NoticeMethod</t>
         </is>
@@ -8164,7 +8045,7 @@
           <t>Fee_Type</t>
         </is>
       </c>
-      <c r="R1" s="25" t="inlineStr">
+      <c r="R1" s="77" t="inlineStr">
         <is>
           <t>LIQCustomer_ID</t>
         </is>
@@ -8179,7 +8060,7 @@
           <t>GL_Account_2</t>
         </is>
       </c>
-      <c r="U1" s="25" t="inlineStr">
+      <c r="U1" s="77" t="inlineStr">
         <is>
           <t>GL_Account_3</t>
         </is>
@@ -8219,19 +8100,24 @@
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="AC1" s="25" t="inlineStr">
+      <c r="AC1" s="77" t="inlineStr">
         <is>
           <t>GL_Account_Debit</t>
         </is>
       </c>
-      <c r="AD1" s="25" t="inlineStr">
+      <c r="AD1" s="77" t="inlineStr">
         <is>
           <t>GL_Account_Credit</t>
+        </is>
+      </c>
+      <c r="AE1" s="25" t="inlineStr">
+        <is>
+          <t>Fee_Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="inlineStr">
+      <c r="A2" s="45" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8263,7 +8149,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>AFE000000000214</t>
+          <t>AFE000000000001</t>
         </is>
       </c>
       <c r="H2" s="27" t="inlineStr">
@@ -8349,7 +8235,7 @@
           <t>CB001</t>
         </is>
       </c>
-      <c r="Y2" s="75" t="inlineStr">
+      <c r="Y2" s="105" t="inlineStr">
         <is>
           <t>Fees Held Awaiting Dispos.</t>
         </is>
@@ -8361,7 +8247,7 @@
       </c>
       <c r="AA2" s="27" t="inlineStr">
         <is>
-          <t>012689</t>
+          <t>BG_COL</t>
         </is>
       </c>
       <c r="AB2" s="27" t="inlineStr">
@@ -8379,6 +8265,30 @@
           <t>FEESFHADPAY</t>
         </is>
       </c>
+      <c r="AE2" s="27" t="inlineStr">
+        <is>
+          <t>Scenario 8 Testting</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="88" t="n"/>
+      <c r="E3" s="88" t="n"/>
+      <c r="G3" s="88" t="n"/>
+      <c r="H3" s="88" t="n"/>
+      <c r="I3" s="88" t="n"/>
+      <c r="J3" s="88" t="n"/>
+      <c r="K3" s="88" t="n"/>
+      <c r="L3" s="88" t="n"/>
+      <c r="Q3" s="88" t="n"/>
+      <c r="V3" s="88" t="n"/>
+      <c r="W3" s="88" t="n"/>
+      <c r="X3" s="88" t="n"/>
+      <c r="Y3" s="88" t="n"/>
+      <c r="Z3" s="88" t="n"/>
+      <c r="AA3" s="88" t="n"/>
+      <c r="AB3" s="100" t="n"/>
+      <c r="AE3" s="91" t="n"/>
     </row>
     <row r="6">
       <c r="Q6" s="30" t="n"/>
@@ -8454,42 +8364,43 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="44.28515625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="20.85546875" customWidth="1" style="75" min="3" max="3"/>
-    <col width="16.140625" customWidth="1" style="75" min="4" max="4"/>
-    <col width="11.140625" customWidth="1" style="75" min="5" max="5"/>
-    <col width="12.28515625" customWidth="1" style="75" min="6" max="6"/>
-    <col width="8" customWidth="1" style="75" min="7" max="7"/>
-    <col width="17.5703125" customWidth="1" style="75" min="8" max="8"/>
-    <col width="23.7109375" customWidth="1" style="75" min="9" max="9"/>
-    <col width="18" customWidth="1" style="75" min="10" max="10"/>
-    <col width="9.7109375" customWidth="1" style="75" min="11" max="11"/>
-    <col width="15.85546875" customWidth="1" style="75" min="12" max="12"/>
-    <col width="19.140625" customWidth="1" style="75" min="13" max="13"/>
-    <col width="21.7109375" customWidth="1" style="75" min="14" max="14"/>
-    <col width="14.7109375" customWidth="1" style="75" min="15" max="15"/>
-    <col width="20" customWidth="1" style="75" min="16" max="16"/>
-    <col width="19.5703125" customWidth="1" style="75" min="17" max="17"/>
-    <col width="15.85546875" customWidth="1" style="75" min="18" max="18"/>
-    <col width="24.7109375" customWidth="1" style="75" min="19" max="19"/>
-    <col width="21.42578125" customWidth="1" style="75" min="20" max="20"/>
-    <col width="20.85546875" customWidth="1" style="75" min="21" max="21"/>
-    <col width="7.28515625" customWidth="1" style="75" min="22" max="22"/>
-    <col width="14.28515625" customWidth="1" style="75" min="23" max="23"/>
-    <col width="14.5703125" customWidth="1" style="75" min="24" max="24"/>
-    <col width="30" customWidth="1" style="75" min="25" max="25"/>
-    <col width="26.28515625" customWidth="1" style="75" min="26" max="26"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="44.28515625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="20.85546875" customWidth="1" style="105" min="3" max="3"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="105" min="4" max="4"/>
+    <col width="11.140625" customWidth="1" style="105" min="5" max="5"/>
+    <col width="12.28515625" customWidth="1" style="105" min="6" max="6"/>
+    <col width="8" customWidth="1" style="105" min="7" max="7"/>
+    <col width="17.5703125" customWidth="1" style="105" min="8" max="8"/>
+    <col width="23.7109375" customWidth="1" style="105" min="9" max="9"/>
+    <col width="18" customWidth="1" style="105" min="10" max="10"/>
+    <col width="9.7109375" customWidth="1" style="105" min="11" max="11"/>
+    <col width="15.85546875" customWidth="1" style="105" min="12" max="12"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" style="105" min="13" max="13"/>
+    <col width="21.7109375" customWidth="1" style="105" min="14" max="14"/>
+    <col width="14.7109375" customWidth="1" style="105" min="15" max="15"/>
+    <col width="20" customWidth="1" style="105" min="16" max="16"/>
+    <col width="19.5703125" customWidth="1" style="105" min="17" max="17"/>
+    <col width="15.85546875" customWidth="1" style="105" min="18" max="18"/>
+    <col width="24.7109375" customWidth="1" style="105" min="19" max="19"/>
+    <col width="21.42578125" customWidth="1" style="105" min="20" max="20"/>
+    <col width="20.85546875" customWidth="1" style="105" min="21" max="21"/>
+    <col width="7.28515625" customWidth="1" style="105" min="22" max="22"/>
+    <col width="14.28515625" customWidth="1" style="105" min="23" max="23"/>
+    <col width="14.5703125" customWidth="1" style="105" min="24" max="24"/>
+    <col width="30" customWidth="1" style="105" min="25" max="25"/>
+    <col width="26.28515625" customWidth="1" style="105" min="26" max="26"/>
     <col width="15.5703125" customWidth="1" style="3" min="27" max="27"/>
     <col width="11.28515625" customWidth="1" style="3" min="28" max="29"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" min="30" max="31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -8518,7 +8429,7 @@
           <t>Branch_Code</t>
         </is>
       </c>
-      <c r="F1" s="28" t="inlineStr">
+      <c r="F1" s="97" t="inlineStr">
         <is>
           <t>Effective_Date</t>
         </is>
@@ -8543,7 +8454,7 @@
           <t>Proc_Area</t>
         </is>
       </c>
-      <c r="K1" s="28" t="inlineStr">
+      <c r="K1" s="103" t="inlineStr">
         <is>
           <t>Security_ID</t>
         </is>
@@ -8568,7 +8479,7 @@
           <t>GL_ShortName</t>
         </is>
       </c>
-      <c r="P1" s="28" t="inlineStr">
+      <c r="P1" s="103" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
@@ -8578,7 +8489,7 @@
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="R1" s="28" t="inlineStr">
+      <c r="R1" s="103" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
@@ -8588,32 +8499,32 @@
           <t>Fee_Type</t>
         </is>
       </c>
-      <c r="T1" s="28" t="inlineStr">
+      <c r="T1" s="103" t="inlineStr">
         <is>
           <t>CustomRI_Method</t>
         </is>
       </c>
-      <c r="U1" s="28" t="inlineStr">
+      <c r="U1" s="103" t="inlineStr">
         <is>
           <t>RI_Method</t>
         </is>
       </c>
-      <c r="V1" s="28" t="inlineStr">
+      <c r="V1" s="103" t="inlineStr">
         <is>
           <t>Method</t>
         </is>
       </c>
-      <c r="W1" s="28" t="inlineStr">
+      <c r="W1" s="103" t="inlineStr">
         <is>
           <t>SPAP_GLAccount</t>
         </is>
       </c>
-      <c r="X1" s="28" t="inlineStr">
+      <c r="X1" s="103" t="inlineStr">
         <is>
           <t>FHAD_GLAccount</t>
         </is>
       </c>
-      <c r="Y1" s="28" t="inlineStr">
+      <c r="Y1" s="103" t="inlineStr">
         <is>
           <t>UpfrontFeePayment_NoticeMethod</t>
         </is>
@@ -8623,29 +8534,39 @@
           <t>UpfrontFeePayment_Comment</t>
         </is>
       </c>
-      <c r="AA1" s="25" t="inlineStr">
+      <c r="AA1" s="75" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="AB1" s="25" t="inlineStr">
+      <c r="AB1" s="75" t="inlineStr">
         <is>
           <t>GL_Account1</t>
         </is>
       </c>
-      <c r="AC1" s="25" t="inlineStr">
+      <c r="AC1" s="75" t="inlineStr">
         <is>
           <t>GL_Account2</t>
         </is>
       </c>
+      <c r="AD1" s="25" t="inlineStr">
+        <is>
+          <t>GL_Account_ShortName1</t>
+        </is>
+      </c>
+      <c r="AE1" s="25" t="inlineStr">
+        <is>
+          <t>GL_Account_ShortName2</t>
+        </is>
+      </c>
     </row>
-    <row r="2" customFormat="1" s="75">
-      <c r="A2" s="47" t="inlineStr">
+    <row r="2" customFormat="1" s="105">
+      <c r="A2" s="46" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_MAN_CSH01_ManualCashflowForFeePayment</t>
         </is>
@@ -8660,109 +8581,135 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="E2" s="75" t="inlineStr">
+      <c r="E2" s="105" t="inlineStr">
         <is>
           <t>CB001</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>07-Dec-2018</t>
-        </is>
-      </c>
-      <c r="G2" s="75" t="inlineStr">
+          <t>29-Apr-2013</t>
+        </is>
+      </c>
+      <c r="G2" s="105" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="H2" s="48" t="n">
+      <c r="H2" s="47" t="n">
         <v>10000</v>
       </c>
-      <c r="I2" s="75" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>Testing on Manual Cashflow</t>
         </is>
       </c>
-      <c r="J2" s="75" t="inlineStr">
+      <c r="J2" s="105" t="inlineStr">
         <is>
           <t>Non-Agency Australia</t>
         </is>
       </c>
-      <c r="L2" s="75" t="inlineStr">
+      <c r="L2" s="105" t="inlineStr">
         <is>
           <t>BG_COL</t>
         </is>
       </c>
-      <c r="M2" s="75" t="inlineStr">
-        <is>
-          <t>LENDING</t>
-        </is>
-      </c>
-      <c r="N2" s="75" t="inlineStr">
+      <c r="M2" s="105" t="inlineStr">
+        <is>
+          <t>BUSINESS VERIFICATION</t>
+        </is>
+      </c>
+      <c r="N2" s="105" t="inlineStr">
         <is>
           <t>BLOGGS</t>
         </is>
       </c>
-      <c r="O2" s="75" t="inlineStr">
+      <c r="O2" s="105" t="inlineStr">
         <is>
           <t>Special Acc't Pay.</t>
         </is>
       </c>
-      <c r="P2" s="75" t="inlineStr">
+      <c r="P2" s="105" t="inlineStr">
         <is>
           <t>DDAAUD1-3733</t>
         </is>
       </c>
-      <c r="Q2" s="75" t="inlineStr">
+      <c r="Q2" s="105" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="R2" s="75" t="inlineStr">
+      <c r="R2" s="105" t="inlineStr">
         <is>
           <t>DOIT</t>
         </is>
       </c>
-      <c r="S2" s="75" t="inlineStr">
-        <is>
-          <t>Establishment / Extension Fee</t>
-        </is>
-      </c>
-      <c r="T2" s="75" t="inlineStr">
+      <c r="S2" s="105" t="inlineStr">
+        <is>
+          <t>Establishment/Extension Fee</t>
+        </is>
+      </c>
+      <c r="T2" s="105" t="inlineStr">
         <is>
           <t>Special Accounts Payable</t>
         </is>
       </c>
-      <c r="U2" s="75" t="inlineStr">
+      <c r="U2" s="105" t="inlineStr">
         <is>
           <t>Demand Deposit Account</t>
         </is>
       </c>
-      <c r="V2" s="75" t="inlineStr">
+      <c r="V2" s="105" t="inlineStr">
         <is>
           <t>SPAP</t>
         </is>
       </c>
-      <c r="W2" s="75" t="inlineStr">
+      <c r="W2" s="105" t="inlineStr">
         <is>
           <t>28098000000</t>
         </is>
       </c>
-      <c r="X2" s="75" t="inlineStr">
+      <c r="X2" s="105" t="inlineStr">
         <is>
           <t>22021001838</t>
         </is>
       </c>
-      <c r="Y2" s="75" t="inlineStr">
+      <c r="Y2" s="105" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="Z2" s="75" t="inlineStr">
+      <c r="Z2" s="105" t="inlineStr">
         <is>
           <t>Testing Manual Cashflow</t>
         </is>
       </c>
+      <c r="AD2" s="105" t="inlineStr">
+        <is>
+          <t>Demand Deposit Account</t>
+        </is>
+      </c>
+      <c r="AE2" s="105" t="inlineStr">
+        <is>
+          <t>Special Acc't Pay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="88" t="n"/>
+      <c r="D3" s="88" t="n"/>
+      <c r="E3" s="88" t="n"/>
+      <c r="G3" s="88" t="n"/>
+      <c r="H3" s="88" t="n"/>
+      <c r="I3" s="88" t="n"/>
+      <c r="J3" s="88" t="n"/>
+      <c r="L3" s="88" t="n"/>
+      <c r="M3" s="88" t="n"/>
+      <c r="N3" s="88" t="n"/>
+      <c r="O3" s="88" t="n"/>
+      <c r="Q3" s="88" t="n"/>
+      <c r="S3" s="88" t="n"/>
+      <c r="Z3" s="88" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -8777,87 +8724,96 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI2"/>
+  <dimension ref="A1:DI4"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="BX1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CC2" sqref="CA2:CC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="47.140625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="20.85546875" customWidth="1" style="75" min="3" max="3"/>
-    <col width="20" customWidth="1" style="75" min="4" max="4"/>
-    <col width="16.140625" customWidth="1" style="75" min="5" max="5"/>
-    <col width="15.28515625" customWidth="1" style="75" min="6" max="6"/>
-    <col width="16.28515625" customWidth="1" style="75" min="7" max="7"/>
-    <col width="31.42578125" customWidth="1" style="75" min="8" max="8"/>
-    <col width="11.85546875" customWidth="1" style="75" min="9" max="9"/>
-    <col width="13.28515625" customWidth="1" style="75" min="10" max="10"/>
-    <col width="29.28515625" customWidth="1" style="75" min="11" max="11"/>
-    <col width="13.42578125" customWidth="1" style="75" min="12" max="12"/>
-    <col width="13.28515625" customWidth="1" style="75" min="13" max="13"/>
-    <col width="19.5703125" customWidth="1" style="75" min="14" max="16"/>
-    <col width="22.140625" customWidth="1" style="75" min="17" max="19"/>
-    <col width="35.42578125" customWidth="1" style="75" min="20" max="20"/>
-    <col width="31.140625" customWidth="1" style="75" min="21" max="21"/>
-    <col width="25" customWidth="1" style="75" min="22" max="22"/>
-    <col width="25.85546875" customWidth="1" style="75" min="23" max="23"/>
-    <col width="24.7109375" customWidth="1" style="75" min="24" max="25"/>
-    <col width="20" customWidth="1" style="75" min="26" max="26"/>
-    <col width="12.5703125" customWidth="1" style="75" min="27" max="27"/>
-    <col width="19.42578125" customWidth="1" style="75" min="28" max="28"/>
-    <col width="32.85546875" customWidth="1" style="75" min="29" max="29"/>
-    <col width="28.5703125" customWidth="1" style="75" min="30" max="30"/>
-    <col width="22.5703125" customWidth="1" style="75" min="31" max="31"/>
-    <col width="29.42578125" customWidth="1" style="75" min="32" max="32"/>
-    <col width="34.140625" customWidth="1" style="75" min="33" max="33"/>
-    <col width="23" customWidth="1" style="75" min="34" max="34"/>
-    <col width="22.5703125" customWidth="1" style="75" min="35" max="36"/>
-    <col width="37.140625" customWidth="1" style="75" min="37" max="37"/>
-    <col width="17.85546875" customWidth="1" style="75" min="38" max="38"/>
-    <col width="16" customWidth="1" style="75" min="39" max="39"/>
-    <col width="18.42578125" customWidth="1" style="75" min="40" max="40"/>
-    <col width="17.42578125" customWidth="1" style="75" min="41" max="42"/>
-    <col width="18.7109375" customWidth="1" style="75" min="43" max="43"/>
-    <col width="13.42578125" customWidth="1" style="75" min="44" max="44"/>
-    <col width="17.85546875" customWidth="1" style="75" min="45" max="45"/>
-    <col width="25.85546875" customWidth="1" style="75" min="46" max="46"/>
-    <col width="24.140625" customWidth="1" style="75" min="47" max="47"/>
-    <col width="15.85546875" customWidth="1" style="75" min="48" max="48"/>
-    <col width="23.140625" customWidth="1" style="75" min="49" max="49"/>
-    <col width="19.5703125" customWidth="1" style="75" min="50" max="50"/>
-    <col width="15.85546875" customWidth="1" style="75" min="51" max="51"/>
-    <col width="13.7109375" customWidth="1" style="75" min="52" max="52"/>
-    <col width="21.140625" customWidth="1" style="75" min="53" max="53"/>
-    <col width="19.42578125" customWidth="1" style="75" min="54" max="54"/>
-    <col width="20.140625" customWidth="1" style="75" min="55" max="55"/>
-    <col width="21" customWidth="1" style="75" min="56" max="56"/>
-    <col width="23.85546875" customWidth="1" style="75" min="57" max="57"/>
-    <col width="20" customWidth="1" style="75" min="58" max="58"/>
-    <col width="20.140625" customWidth="1" style="75" min="59" max="59"/>
-    <col width="20.7109375" customWidth="1" style="75" min="60" max="60"/>
-    <col width="19.42578125" customWidth="1" style="75" min="61" max="61"/>
-    <col width="20.140625" customWidth="1" style="75" min="62" max="62"/>
-    <col width="20.42578125" customWidth="1" style="75" min="63" max="63"/>
-    <col width="20" customWidth="1" style="75" min="64" max="65"/>
-    <col width="20.7109375" customWidth="1" style="75" min="66" max="66"/>
-    <col width="37.7109375" customWidth="1" style="75" min="67" max="67"/>
-    <col width="35.5703125" customWidth="1" style="75" min="68" max="68"/>
-    <col width="13.5703125" customWidth="1" style="75" min="69" max="69"/>
-    <col width="22.7109375" customWidth="1" style="75" min="70" max="70"/>
-    <col width="21.42578125" customWidth="1" style="75" min="71" max="71"/>
-    <col width="35.85546875" customWidth="1" style="75" min="72" max="72"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="47.140625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" bestFit="1" customWidth="1" style="105" min="3" max="3"/>
+    <col width="20" customWidth="1" style="105" min="4" max="4"/>
+    <col width="9.140625" bestFit="1" customWidth="1" style="105" min="5" max="5"/>
+    <col width="15.28515625" customWidth="1" style="105" min="6" max="6"/>
+    <col width="16.28515625" customWidth="1" style="105" min="7" max="7"/>
+    <col width="31.42578125" customWidth="1" style="105" min="8" max="8"/>
+    <col width="11.85546875" customWidth="1" style="105" min="9" max="9"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="105" min="10" max="10"/>
+    <col width="31" bestFit="1" customWidth="1" style="105" min="11" max="11"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="105" min="12" max="13"/>
+    <col width="19.5703125" customWidth="1" style="105" min="14" max="16"/>
+    <col width="22.140625" customWidth="1" style="105" min="17" max="19"/>
+    <col width="35.42578125" customWidth="1" style="105" min="20" max="20"/>
+    <col width="31.140625" customWidth="1" style="105" min="21" max="21"/>
+    <col width="25" customWidth="1" style="105" min="22" max="22"/>
+    <col width="25.85546875" customWidth="1" style="105" min="23" max="23"/>
+    <col width="24.7109375" customWidth="1" style="105" min="24" max="25"/>
+    <col width="20" customWidth="1" style="105" min="26" max="26"/>
+    <col width="12.5703125" customWidth="1" style="105" min="27" max="27"/>
+    <col width="19.42578125" customWidth="1" style="105" min="28" max="28"/>
+    <col width="32.85546875" customWidth="1" style="105" min="29" max="29"/>
+    <col width="28.5703125" customWidth="1" style="105" min="30" max="30"/>
+    <col width="22.5703125" customWidth="1" style="105" min="31" max="31"/>
+    <col width="29.42578125" customWidth="1" style="105" min="32" max="32"/>
+    <col width="34.140625" customWidth="1" style="105" min="33" max="33"/>
+    <col width="23" customWidth="1" style="105" min="34" max="34"/>
+    <col width="22.5703125" customWidth="1" style="105" min="35" max="36"/>
+    <col width="37.140625" customWidth="1" style="105" min="37" max="37"/>
+    <col width="17.85546875" customWidth="1" style="105" min="38" max="38"/>
+    <col width="16" customWidth="1" style="105" min="39" max="39"/>
+    <col width="18.42578125" customWidth="1" style="105" min="40" max="40"/>
+    <col width="17.42578125" customWidth="1" style="105" min="41" max="42"/>
+    <col width="18.7109375" customWidth="1" style="105" min="43" max="43"/>
+    <col width="13.42578125" customWidth="1" style="105" min="44" max="44"/>
+    <col width="17.85546875" customWidth="1" style="105" min="45" max="45"/>
+    <col width="25.85546875" customWidth="1" style="105" min="46" max="46"/>
+    <col width="24.140625" customWidth="1" style="105" min="47" max="47"/>
+    <col width="15.85546875" customWidth="1" style="105" min="48" max="48"/>
+    <col width="23.140625" customWidth="1" style="105" min="49" max="49"/>
+    <col width="19.5703125" customWidth="1" style="105" min="50" max="50"/>
+    <col width="15.85546875" customWidth="1" style="105" min="51" max="51"/>
+    <col width="13.7109375" customWidth="1" style="105" min="52" max="52"/>
+    <col width="21.140625" customWidth="1" style="105" min="53" max="53"/>
+    <col width="19.42578125" customWidth="1" style="105" min="54" max="54"/>
+    <col width="20.140625" customWidth="1" style="105" min="55" max="55"/>
+    <col width="21" customWidth="1" style="105" min="56" max="56"/>
+    <col width="23.85546875" customWidth="1" style="105" min="57" max="57"/>
+    <col width="20" customWidth="1" style="105" min="58" max="58"/>
+    <col width="20.140625" customWidth="1" style="105" min="59" max="59"/>
+    <col width="20.7109375" customWidth="1" style="105" min="60" max="60"/>
+    <col width="19.42578125" customWidth="1" style="105" min="61" max="61"/>
+    <col width="20.140625" customWidth="1" style="105" min="62" max="62"/>
+    <col width="20.42578125" customWidth="1" style="105" min="63" max="63"/>
+    <col width="20" customWidth="1" style="105" min="64" max="65"/>
+    <col width="20.7109375" customWidth="1" style="105" min="66" max="66"/>
+    <col width="37.7109375" customWidth="1" style="105" min="67" max="67"/>
+    <col width="35.5703125" customWidth="1" style="105" min="68" max="68"/>
+    <col width="13.5703125" customWidth="1" style="105" min="69" max="69"/>
+    <col width="22.7109375" customWidth="1" style="105" min="70" max="70"/>
+    <col width="21.42578125" customWidth="1" style="105" min="71" max="71"/>
+    <col width="35.85546875" customWidth="1" style="105" min="72" max="72"/>
+    <col width="24.140625" bestFit="1" customWidth="1" min="73" max="74"/>
+    <col width="25.140625" bestFit="1" customWidth="1" min="75" max="75"/>
+    <col width="24.140625" bestFit="1" customWidth="1" min="76" max="77"/>
+    <col width="26.140625" bestFit="1" customWidth="1" min="78" max="78"/>
+    <col width="17.85546875" bestFit="1" customWidth="1" min="79" max="79"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" min="80" max="81"/>
+    <col width="21" bestFit="1" customWidth="1" min="82" max="83"/>
+    <col width="20.5703125" bestFit="1" customWidth="1" min="84" max="85"/>
+    <col width="30.85546875" bestFit="1" customWidth="1" min="86" max="86"/>
+    <col width="36.28515625" bestFit="1" customWidth="1" min="87" max="87"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="49" thickBot="1">
-      <c r="A1" s="49" t="inlineStr">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="48" thickBot="1">
+      <c r="A1" s="48" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="49" t="inlineStr">
+      <c r="B1" s="48" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
@@ -8882,162 +8838,162 @@
           <t>Outstanding_Type</t>
         </is>
       </c>
-      <c r="G1" s="49" t="inlineStr">
+      <c r="G1" s="48" t="inlineStr">
         <is>
           <t>Loan_CycleNumber</t>
         </is>
       </c>
-      <c r="H1" s="49" t="inlineStr">
+      <c r="H1" s="104" t="inlineStr">
         <is>
           <t>Computed_LoanIntProjectedCycleDue</t>
         </is>
       </c>
-      <c r="I1" s="49" t="inlineStr">
+      <c r="I1" s="48" t="inlineStr">
         <is>
           <t>Pro_Rate</t>
         </is>
       </c>
-      <c r="J1" s="49" t="inlineStr">
+      <c r="J1" s="48" t="inlineStr">
         <is>
           <t>Loan_Borrower</t>
         </is>
       </c>
-      <c r="K1" s="50" t="inlineStr">
+      <c r="K1" s="49" t="inlineStr">
         <is>
           <t>Lender_Name1</t>
         </is>
       </c>
-      <c r="L1" s="50" t="inlineStr">
+      <c r="L1" s="49" t="inlineStr">
         <is>
           <t>Lender_Name2</t>
         </is>
       </c>
-      <c r="M1" s="50" t="inlineStr">
+      <c r="M1" s="49" t="inlineStr">
         <is>
           <t>Lender_Name3</t>
         </is>
       </c>
-      <c r="N1" s="50" t="inlineStr">
+      <c r="N1" s="106" t="inlineStr">
         <is>
           <t>Lender_ShareAmount1</t>
         </is>
       </c>
-      <c r="O1" s="50" t="inlineStr">
+      <c r="O1" s="106" t="inlineStr">
         <is>
           <t>Lender_ShareAmount2</t>
         </is>
       </c>
-      <c r="P1" s="50" t="inlineStr">
+      <c r="P1" s="106" t="inlineStr">
         <is>
           <t>Lender_ShareAmount3</t>
         </is>
       </c>
-      <c r="Q1" s="50" t="inlineStr">
+      <c r="Q1" s="49" t="inlineStr">
         <is>
           <t>Lender_SharePercentage1</t>
         </is>
       </c>
-      <c r="R1" s="50" t="inlineStr">
+      <c r="R1" s="49" t="inlineStr">
         <is>
           <t>Lender_SharePercentage2</t>
         </is>
       </c>
-      <c r="S1" s="50" t="inlineStr">
+      <c r="S1" s="49" t="inlineStr">
         <is>
           <t>Lender_SharePercentage3</t>
         </is>
       </c>
-      <c r="T1" s="49" t="inlineStr">
+      <c r="T1" s="48" t="inlineStr">
         <is>
           <t>IncompleteCashfromBorrower_Percentage</t>
         </is>
       </c>
-      <c r="U1" s="49" t="inlineStr">
+      <c r="U1" s="48" t="inlineStr">
         <is>
           <t>IncompleteCashtoLender_Percentage</t>
         </is>
       </c>
-      <c r="V1" s="49" t="inlineStr">
+      <c r="V1" s="48" t="inlineStr">
         <is>
           <t>HostBankCashNet_Percentage</t>
         </is>
       </c>
-      <c r="W1" s="49" t="inlineStr">
+      <c r="W1" s="48" t="inlineStr">
         <is>
           <t>CashflowBorrower_Percentage</t>
         </is>
       </c>
-      <c r="X1" s="49" t="inlineStr">
+      <c r="X1" s="48" t="inlineStr">
         <is>
           <t>CashflowLender1_Percentage</t>
         </is>
       </c>
-      <c r="Y1" s="49" t="inlineStr">
+      <c r="Y1" s="48" t="inlineStr">
         <is>
           <t>CashflowLender2_Percentage</t>
         </is>
       </c>
-      <c r="Z1" s="51" t="inlineStr">
+      <c r="Z1" s="50" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="AA1" s="51" t="inlineStr">
+      <c r="AA1" s="50" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="AB1" s="51" t="inlineStr">
+      <c r="AB1" s="50" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="AC1" s="51" t="inlineStr">
+      <c r="AC1" s="50" t="inlineStr">
         <is>
           <t>IncompleteCashfromBorrower_Amount</t>
         </is>
       </c>
-      <c r="AD1" s="51" t="inlineStr">
+      <c r="AD1" s="50" t="inlineStr">
         <is>
           <t>IncompleteCashtoLender_Amount</t>
         </is>
       </c>
-      <c r="AE1" s="51" t="inlineStr">
+      <c r="AE1" s="50" t="inlineStr">
         <is>
           <t>HostBankCashNet_Amount</t>
         </is>
       </c>
-      <c r="AF1" s="51" t="inlineStr">
+      <c r="AF1" s="50" t="inlineStr">
         <is>
           <t>AccruedInterestRecord_ShortName</t>
         </is>
       </c>
-      <c r="AG1" s="49" t="inlineStr">
+      <c r="AG1" s="48" t="inlineStr">
         <is>
           <t>HostBankDebit_LoanAmount_Percentage</t>
         </is>
       </c>
-      <c r="AH1" s="49" t="inlineStr">
+      <c r="AH1" s="48" t="inlineStr">
         <is>
           <t>BorrowerDebit_Percentage</t>
         </is>
       </c>
-      <c r="AI1" s="49" t="inlineStr">
+      <c r="AI1" s="48" t="inlineStr">
         <is>
           <t>Lender1Credit_Percentage</t>
         </is>
       </c>
-      <c r="AJ1" s="49" t="inlineStr">
+      <c r="AJ1" s="48" t="inlineStr">
         <is>
           <t>Lender2Credit_Percentage</t>
         </is>
       </c>
-      <c r="AK1" s="49" t="inlineStr">
+      <c r="AK1" s="48" t="inlineStr">
         <is>
           <t>HostBankCredit_AccruedInterest_Percentage</t>
         </is>
       </c>
-      <c r="AL1" s="51" t="inlineStr">
+      <c r="AL1" s="50" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
@@ -9047,179 +9003,254 @@
           <t>IntentNoticeStatus</t>
         </is>
       </c>
-      <c r="AN1" s="52" t="inlineStr">
+      <c r="AN1" s="51" t="inlineStr">
         <is>
           <t>Borrower_LegalName</t>
         </is>
       </c>
-      <c r="AO1" s="52" t="inlineStr">
+      <c r="AO1" s="51" t="inlineStr">
         <is>
           <t>Lender1_LegalName</t>
         </is>
       </c>
-      <c r="AP1" s="52" t="inlineStr">
+      <c r="AP1" s="51" t="inlineStr">
         <is>
           <t>Lender2_LegalName</t>
         </is>
       </c>
-      <c r="AQ1" s="52" t="inlineStr">
+      <c r="AQ1" s="51" t="inlineStr">
         <is>
           <t>Notice_ContactPerson</t>
         </is>
       </c>
-      <c r="AR1" s="51" t="inlineStr">
+      <c r="AR1" s="50" t="inlineStr">
         <is>
           <t>Notice_Method</t>
         </is>
       </c>
-      <c r="AS1" s="51" t="inlineStr">
+      <c r="AS1" s="50" t="inlineStr">
         <is>
           <t>Notice_ContactEmail</t>
         </is>
       </c>
-      <c r="AT1" s="51" t="inlineStr">
+      <c r="AT1" s="50" t="inlineStr">
         <is>
           <t>WIP_TransactionTypePayments</t>
         </is>
       </c>
-      <c r="AU1" s="51" t="inlineStr">
+      <c r="AU1" s="50" t="inlineStr">
         <is>
           <t>WIP_AwaitingApprovalStatus</t>
         </is>
       </c>
-      <c r="AV1" s="51" t="inlineStr">
+      <c r="AV1" s="50" t="inlineStr">
         <is>
           <t>WIP_PaymentType</t>
         </is>
       </c>
-      <c r="AW1" s="51" t="inlineStr">
+      <c r="AW1" s="50" t="inlineStr">
         <is>
           <t>WIP_AwaitingReleaseStatus</t>
         </is>
       </c>
-      <c r="AX1" s="51" t="inlineStr">
+      <c r="AX1" s="50" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AY1" s="51" t="inlineStr">
+      <c r="AY1" s="50" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="AZ1" s="51" t="inlineStr">
+      <c r="AZ1" s="50" t="inlineStr">
         <is>
           <t>Loan_Currency1</t>
         </is>
       </c>
-      <c r="BA1" s="49" t="inlineStr">
+      <c r="BA1" s="104" t="inlineStr">
         <is>
           <t>Orig_FacilityProposedcmt</t>
         </is>
       </c>
-      <c r="BB1" s="49" t="inlineStr">
+      <c r="BB1" s="104" t="inlineStr">
         <is>
           <t>Orig_FacilityClosingCmt</t>
         </is>
       </c>
-      <c r="BC1" s="49" t="inlineStr">
+      <c r="BC1" s="104" t="inlineStr">
         <is>
           <t>Orig_FacilityCurrentCmt</t>
         </is>
       </c>
-      <c r="BD1" s="49" t="inlineStr">
+      <c r="BD1" s="104" t="inlineStr">
         <is>
           <t>Orig_FacilityOutstandings</t>
         </is>
       </c>
-      <c r="BE1" s="49" t="inlineStr">
+      <c r="BE1" s="104" t="inlineStr">
         <is>
           <t>Orig_FacilityAvailableToDraw</t>
         </is>
       </c>
-      <c r="BF1" s="49" t="inlineStr">
+      <c r="BF1" s="104" t="inlineStr">
         <is>
           <t>Orig_LoanGlobalOriginal</t>
         </is>
       </c>
-      <c r="BG1" s="49" t="inlineStr">
+      <c r="BG1" s="104" t="inlineStr">
         <is>
           <t>Orig_LoanGlobalCurrent</t>
         </is>
       </c>
-      <c r="BH1" s="49" t="inlineStr">
+      <c r="BH1" s="104" t="inlineStr">
         <is>
           <t>Orig_LoanHostBankGross</t>
         </is>
       </c>
-      <c r="BI1" s="49" t="inlineStr">
+      <c r="BI1" s="104" t="inlineStr">
         <is>
           <t>Orig_LoanHostBankNet</t>
         </is>
       </c>
-      <c r="BJ1" s="49" t="inlineStr">
+      <c r="BJ1" s="107" t="inlineStr">
         <is>
           <t>HostBankDebit_Amount</t>
         </is>
       </c>
-      <c r="BK1" s="49" t="inlineStr">
+      <c r="BK1" s="107" t="inlineStr">
         <is>
           <t>BorrowerDebit_Amount</t>
         </is>
       </c>
-      <c r="BL1" s="49" t="inlineStr">
+      <c r="BL1" s="107" t="inlineStr">
         <is>
           <t>Lender1Credit_Amount</t>
         </is>
       </c>
-      <c r="BM1" s="49" t="inlineStr">
+      <c r="BM1" s="107" t="inlineStr">
         <is>
           <t>Lender2Credit_Amount</t>
         </is>
       </c>
-      <c r="BN1" s="49" t="inlineStr">
+      <c r="BN1" s="107" t="inlineStr">
         <is>
           <t>HostBankCredit_Amount</t>
         </is>
       </c>
-      <c r="BO1" s="49" t="inlineStr">
+      <c r="BO1" s="48" t="inlineStr">
         <is>
           <t>CurrentAmount_ExpectedIncreasePercentage</t>
         </is>
       </c>
-      <c r="BP1" s="49" t="inlineStr">
+      <c r="BP1" s="48" t="inlineStr">
         <is>
           <t>Computed_IncreasedCurrentAmountinUSD</t>
         </is>
       </c>
-      <c r="BQ1" s="49" t="inlineStr">
+      <c r="BQ1" s="48" t="inlineStr">
         <is>
           <t>FXrate_fromAPI</t>
         </is>
       </c>
-      <c r="BR1" s="53" t="inlineStr">
+      <c r="BR1" s="52" t="inlineStr">
         <is>
           <t>HostBankGross_Percentage</t>
         </is>
       </c>
-      <c r="BS1" s="49" t="inlineStr">
+      <c r="BS1" s="48" t="inlineStr">
         <is>
           <t>HostBankNet_Percentage</t>
         </is>
       </c>
-      <c r="BT1" s="49" t="inlineStr">
+      <c r="BT1" s="104" t="inlineStr">
         <is>
           <t>Computed_IncreasedCurrentAmountinAUD</t>
         </is>
       </c>
+      <c r="BU1" s="48" t="inlineStr">
+        <is>
+          <t>Lender1_IntenNoticeContact</t>
+        </is>
+      </c>
+      <c r="BV1" s="48" t="inlineStr">
+        <is>
+          <t>Lender2_IntenNoticeContact</t>
+        </is>
+      </c>
+      <c r="BW1" s="48" t="inlineStr">
+        <is>
+          <t>Borrower_IntenNoticeContact</t>
+        </is>
+      </c>
+      <c r="BX1" s="48" t="inlineStr">
+        <is>
+          <t>Lender1_IntentNoticeMethod</t>
+        </is>
+      </c>
+      <c r="BY1" s="48" t="inlineStr">
+        <is>
+          <t>Lender2_IntentNoticeMethod</t>
+        </is>
+      </c>
+      <c r="BZ1" s="48" t="inlineStr">
+        <is>
+          <t>Borrower_IntentNoticeMethod</t>
+        </is>
+      </c>
+      <c r="CA1" s="48" t="inlineStr">
+        <is>
+          <t>Borrower_ContactEmail</t>
+        </is>
+      </c>
+      <c r="CB1" s="48" t="inlineStr">
+        <is>
+          <t>Lender1_ContactEmail</t>
+        </is>
+      </c>
+      <c r="CC1" s="48" t="inlineStr">
+        <is>
+          <t>Lender2_ContactEmail</t>
+        </is>
+      </c>
+      <c r="CD1" s="48" t="inlineStr">
+        <is>
+          <t>Remittance2_Description</t>
+        </is>
+      </c>
+      <c r="CE1" s="48" t="inlineStr">
+        <is>
+          <t>Remittance3_Description</t>
+        </is>
+      </c>
+      <c r="CF1" s="48" t="inlineStr">
+        <is>
+          <t>Remittance2_Instruction</t>
+        </is>
+      </c>
+      <c r="CG1" s="48" t="inlineStr">
+        <is>
+          <t>Remittance3_Instruction</t>
+        </is>
+      </c>
+      <c r="CH1" s="48" t="inlineStr">
+        <is>
+          <t>Computed_IncreasedCurrentAmount</t>
+        </is>
+      </c>
+      <c r="CI1" s="48" t="inlineStr">
+        <is>
+          <t>HostBank_Name</t>
+        </is>
+      </c>
     </row>
-    <row r="2" customFormat="1" s="75">
-      <c r="A2" s="75" t="inlineStr">
+    <row r="2" customFormat="1" s="105">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_INT_CAP03_InterestPaymentForCapitalizeInterest</t>
         </is>
@@ -9229,7 +9260,7 @@
           <t>S8SYN_14092020161649</t>
         </is>
       </c>
-      <c r="D2" s="75" t="inlineStr">
+      <c r="D2" s="105" t="inlineStr">
         <is>
           <t>S8REV14092020171233</t>
         </is>
@@ -9239,22 +9270,22 @@
           <t>60000027</t>
         </is>
       </c>
-      <c r="F2" s="75" t="inlineStr">
+      <c r="F2" s="105" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="G2" s="75" t="inlineStr">
+      <c r="G2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H2" s="75" t="inlineStr">
+      <c r="H2" s="105" t="inlineStr">
         <is>
           <t>3232.88</t>
         </is>
       </c>
-      <c r="I2" s="75" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>Projected Due</t>
         </is>
@@ -9264,447 +9295,407 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="K2" s="33" t="inlineStr">
+      <c r="K2" s="105" t="inlineStr">
+        <is>
+          <t>COMMONWEALTHBANKOFAUSTCB001</t>
+        </is>
+      </c>
+      <c r="L2" s="105" t="inlineStr">
+        <is>
+          <t>LEDNSHORT14157</t>
+        </is>
+      </c>
+      <c r="M2" s="105" t="inlineStr">
+        <is>
+          <t>LEDNSHORT46153</t>
+        </is>
+      </c>
+      <c r="N2" s="105" t="inlineStr">
+        <is>
+          <t>1778.08</t>
+        </is>
+      </c>
+      <c r="O2" s="105" t="inlineStr">
+        <is>
+          <t>808.22</t>
+        </is>
+      </c>
+      <c r="P2" s="105" t="inlineStr">
+        <is>
+          <t>646.58</t>
+        </is>
+      </c>
+      <c r="Q2" s="105" t="n">
+        <v>55</v>
+      </c>
+      <c r="R2" s="105" t="n">
+        <v>25</v>
+      </c>
+      <c r="S2" s="105" t="n">
+        <v>20</v>
+      </c>
+      <c r="T2" s="105" t="n">
+        <v>25</v>
+      </c>
+      <c r="U2" s="105" t="n">
+        <v>45</v>
+      </c>
+      <c r="V2" s="105" t="n">
+        <v>55</v>
+      </c>
+      <c r="W2" s="105" t="n">
+        <v>25</v>
+      </c>
+      <c r="X2" s="105" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="105" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="105" t="inlineStr">
+        <is>
+          <t>DDA3</t>
+        </is>
+      </c>
+      <c r="AA2" s="105" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="AB2" s="27" t="inlineStr">
+        <is>
+          <t>Principal Loan Account</t>
+        </is>
+      </c>
+      <c r="AC2" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">808.22  </t>
+        </is>
+      </c>
+      <c r="AD2" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">363.69  </t>
+        </is>
+      </c>
+      <c r="AE2" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">444.53  </t>
+        </is>
+      </c>
+      <c r="AF2" s="27" t="inlineStr">
+        <is>
+          <t>Accrued Interest Rec.</t>
+        </is>
+      </c>
+      <c r="AG2" s="105" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="105" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="105" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="105" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK2" s="105" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="105" t="inlineStr">
+        <is>
+          <t>john.blogg@abc.com</t>
+        </is>
+      </c>
+      <c r="AM2" s="105" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="AN2" s="105" t="inlineStr">
+        <is>
+          <t>CUSTLEGAL59123</t>
+        </is>
+      </c>
+      <c r="AO2" s="105" t="inlineStr">
+        <is>
+          <t>LENDLEGAL14157</t>
+        </is>
+      </c>
+      <c r="AP2" s="105" t="inlineStr">
+        <is>
+          <t>LENDLEGAL46153</t>
+        </is>
+      </c>
+      <c r="AQ2" s="105" t="inlineStr">
+        <is>
+          <t>John Bloggs</t>
+        </is>
+      </c>
+      <c r="AR2" s="105" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="AS2" s="105" t="inlineStr">
+        <is>
+          <t>john.blogg@abc.com</t>
+        </is>
+      </c>
+      <c r="AT2" s="105" t="inlineStr">
+        <is>
+          <t>Payments</t>
+        </is>
+      </c>
+      <c r="AU2" s="105" t="inlineStr">
+        <is>
+          <t>Awaiting Approval</t>
+        </is>
+      </c>
+      <c r="AV2" s="105" t="inlineStr">
+        <is>
+          <t>Interest Payment</t>
+        </is>
+      </c>
+      <c r="AW2" s="105" t="inlineStr">
+        <is>
+          <t>Awaiting Release</t>
+        </is>
+      </c>
+      <c r="AX2" s="105" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="AY2" s="105" t="inlineStr">
+        <is>
+          <t>DOIT</t>
+        </is>
+      </c>
+      <c r="AZ2" s="105" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="BA2" s="105" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="BB2" s="105" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="BC2" s="105" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="BD2" s="105" t="n">
+        <v>19995000</v>
+      </c>
+      <c r="BE2" s="105" t="n">
+        <v>2005000</v>
+      </c>
+      <c r="BF2" s="105" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="BG2" s="105" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="BH2" s="105" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="BI2" s="105" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="BJ2" s="105" t="n">
+        <v>1333.55</v>
+      </c>
+      <c r="BK2" s="105" t="n">
+        <v>808.22</v>
+      </c>
+      <c r="BL2" s="105" t="n">
+        <v>202.05</v>
+      </c>
+      <c r="BM2" s="105" t="n">
+        <v>161.64</v>
+      </c>
+      <c r="BN2" s="105" t="n">
+        <v>1778.08</v>
+      </c>
+      <c r="BO2" s="105" t="n">
+        <v>75</v>
+      </c>
+      <c r="BP2" s="105" t="n">
+        <v>2424.66</v>
+      </c>
+      <c r="BQ2" s="105" t="n">
+        <v>0.750187547</v>
+      </c>
+      <c r="BR2" s="105" t="n">
+        <v>55</v>
+      </c>
+      <c r="BS2" s="105" t="n">
+        <v>55</v>
+      </c>
+      <c r="BT2" s="105" t="n">
+        <v>3232.07</v>
+      </c>
+      <c r="BU2" s="105" t="inlineStr">
+        <is>
+          <t>Darlon Hijara</t>
+        </is>
+      </c>
+      <c r="BV2" s="105" t="inlineStr">
+        <is>
+          <t>DarlonJeremiah Hijaratwo</t>
+        </is>
+      </c>
+      <c r="BW2" s="105" t="inlineStr">
+        <is>
+          <t>John Bloggs</t>
+        </is>
+      </c>
+      <c r="BX2" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="BY2" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="BZ2" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="CA2" s="41" t="inlineStr">
+        <is>
+          <t>john.blogg@abc.com</t>
+        </is>
+      </c>
+      <c r="CB2" s="98" t="inlineStr">
+        <is>
+          <t>darlonhijara@abc.com</t>
+        </is>
+      </c>
+      <c r="CC2" s="98" t="inlineStr">
+        <is>
+          <t>darlonhijara@abc.com</t>
+        </is>
+      </c>
+      <c r="CD2" s="3" t="inlineStr">
+        <is>
+          <t>DDA2</t>
+        </is>
+      </c>
+      <c r="CE2" s="3" t="inlineStr">
+        <is>
+          <t>DDA2</t>
+        </is>
+      </c>
+      <c r="CF2" s="3" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="CG2" s="3" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="CH2" s="3" t="n">
+        <v>2424.66</v>
+      </c>
+      <c r="CI2" s="3" t="inlineStr">
+        <is>
+          <t>COMMONWEALTHBANKOFAUSTCB001</t>
+        </is>
+      </c>
+      <c r="CJ2" s="3" t="n"/>
+      <c r="CK2" s="3" t="n"/>
+      <c r="CL2" s="3" t="n"/>
+      <c r="CM2" s="3" t="n"/>
+      <c r="CN2" s="3" t="n"/>
+      <c r="CO2" s="3" t="n"/>
+      <c r="CP2" s="3" t="n"/>
+      <c r="CQ2" s="3" t="n"/>
+      <c r="CR2" s="3" t="n"/>
+      <c r="CS2" s="3" t="n"/>
+      <c r="CT2" s="3" t="n"/>
+      <c r="CU2" s="3" t="n"/>
+      <c r="CV2" s="3" t="n"/>
+      <c r="CW2" s="3" t="n"/>
+      <c r="CX2" s="3" t="n"/>
+      <c r="CY2" s="3" t="n"/>
+      <c r="CZ2" s="3" t="n"/>
+      <c r="DA2" s="3" t="n"/>
+      <c r="DB2" s="3" t="n"/>
+      <c r="DC2" s="3" t="n"/>
+      <c r="DD2" s="3" t="n"/>
+      <c r="DE2" s="3" t="n"/>
+      <c r="DF2" s="3" t="n"/>
+      <c r="DG2" s="3" t="n"/>
+      <c r="DH2" s="3" t="n"/>
+      <c r="DI2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="88" t="n"/>
+      <c r="D3" s="88" t="n"/>
+      <c r="E3" s="88" t="n"/>
+      <c r="F3" s="88" t="n"/>
+      <c r="G3" s="88" t="n"/>
+      <c r="I3" s="88" t="n"/>
+      <c r="K3" s="88" t="inlineStr">
+        <is>
+          <t>COMMONWEALTHBANKOFAUSTCB001</t>
+        </is>
+      </c>
+      <c r="L3" s="88" t="inlineStr">
+        <is>
+          <t>LEDNSHORT14157</t>
+        </is>
+      </c>
+      <c r="M3" s="88" t="inlineStr">
+        <is>
+          <t>LEDNSHORT46153</t>
+        </is>
+      </c>
+      <c r="Q3" s="88" t="n"/>
+      <c r="R3" s="88" t="n"/>
+      <c r="S3" s="88" t="n"/>
+      <c r="AT3" s="108" t="n"/>
+      <c r="AU3" s="108" t="n"/>
+      <c r="AV3" s="108" t="n"/>
+      <c r="AW3" s="108" t="n"/>
+      <c r="AX3" s="108" t="n"/>
+      <c r="AY3" s="108" t="n"/>
+      <c r="BO3" s="88" t="n"/>
+      <c r="BP3" s="88" t="n"/>
+      <c r="BQ3" s="88" t="n"/>
+      <c r="BR3" s="88" t="n"/>
+      <c r="BS3" s="88" t="n"/>
+      <c r="BU3" s="88" t="n"/>
+      <c r="BV3" s="88" t="n"/>
+      <c r="BW3" s="88" t="n"/>
+    </row>
+    <row r="4">
+      <c r="K4" s="33" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK AU-DBU</t>
         </is>
       </c>
-      <c r="L2" s="75" t="inlineStr">
+      <c r="L4" s="105" t="inlineStr">
         <is>
           <t>BDOLEND44119</t>
         </is>
       </c>
-      <c r="M2" s="75" t="inlineStr">
+      <c r="M4" s="105" t="inlineStr">
         <is>
           <t>BPILEND28140</t>
         </is>
       </c>
-      <c r="N2" s="75" t="n">
-        <v>1778.1</v>
-      </c>
-      <c r="O2" s="75" t="n">
-        <v>808.2</v>
-      </c>
-      <c r="P2" s="75" t="n">
-        <v>646.6</v>
-      </c>
-      <c r="Q2" s="75" t="n">
-        <v>55</v>
-      </c>
-      <c r="R2" s="75" t="n">
-        <v>25</v>
-      </c>
-      <c r="S2" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" s="75" t="n">
-        <v>25</v>
-      </c>
-      <c r="U2" s="75" t="n">
-        <v>45</v>
-      </c>
-      <c r="V2" s="75" t="n">
-        <v>55</v>
-      </c>
-      <c r="W2" s="75" t="n">
-        <v>25</v>
-      </c>
-      <c r="X2" s="75" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="75" t="inlineStr">
-        <is>
-          <t>IMT1</t>
-        </is>
-      </c>
-      <c r="AA2" s="75" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="AB2" s="27" t="inlineStr">
-        <is>
-          <t>Principal Loan Account</t>
-        </is>
-      </c>
-      <c r="AC2" s="75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">808.22  </t>
-        </is>
-      </c>
-      <c r="AD2" s="75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">363.69  </t>
-        </is>
-      </c>
-      <c r="AE2" s="75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">444.53  </t>
-        </is>
-      </c>
-      <c r="AF2" s="27" t="inlineStr">
-        <is>
-          <t>Accrued Interest Rec.</t>
-        </is>
-      </c>
-      <c r="AG2" s="75" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="75" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI2" s="75" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ2" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK2" s="75" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL2" s="75" t="inlineStr">
-        <is>
-          <t>john.blogg@abc.com</t>
-        </is>
-      </c>
-      <c r="AM2" s="75" t="inlineStr">
-        <is>
-          <t>Awaiting release</t>
-        </is>
-      </c>
-      <c r="AN2" s="75" t="inlineStr">
-        <is>
-          <t>IDTBRW21134</t>
-        </is>
-      </c>
-      <c r="AO2" s="75" t="inlineStr">
-        <is>
-          <t>BDOLEND44121</t>
-        </is>
-      </c>
-      <c r="AP2" s="75" t="inlineStr">
-        <is>
-          <t>BPILEND28142</t>
-        </is>
-      </c>
-      <c r="AQ2" s="75" t="inlineStr">
-        <is>
-          <t>John Bloggs</t>
-        </is>
-      </c>
-      <c r="AR2" s="75" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="AS2" s="75" t="inlineStr">
-        <is>
-          <t>john.blogg@abc.com</t>
-        </is>
-      </c>
-      <c r="AT2" s="75" t="inlineStr">
-        <is>
-          <t>Payments</t>
-        </is>
-      </c>
-      <c r="AU2" s="75" t="inlineStr">
-        <is>
-          <t>Awaiting Approval</t>
-        </is>
-      </c>
-      <c r="AV2" s="75" t="inlineStr">
-        <is>
-          <t>Interest Payment</t>
-        </is>
-      </c>
-      <c r="AW2" s="75" t="inlineStr">
-        <is>
-          <t>Awaiting Release</t>
-        </is>
-      </c>
-      <c r="AX2" s="75" t="inlineStr">
-        <is>
-          <t>IMT</t>
-        </is>
-      </c>
-      <c r="AY2" s="75" t="inlineStr">
-        <is>
-          <t>DOIT</t>
-        </is>
-      </c>
-      <c r="AZ2" s="75" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="BA2" s="75" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="BB2" s="75" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="BC2" s="75" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="BD2" s="75" t="n">
-        <v>19995000</v>
-      </c>
-      <c r="BE2" s="75" t="n">
-        <v>2005000</v>
-      </c>
-      <c r="BF2" s="75" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="BG2" s="75" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="BH2" s="75" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="BI2" s="75" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="BJ2" s="75" t="n">
-        <v>1333.55</v>
-      </c>
-      <c r="BK2" s="75" t="n">
-        <v>808.22</v>
-      </c>
-      <c r="BL2" s="75" t="n">
-        <v>202.05</v>
-      </c>
-      <c r="BM2" s="75" t="n">
-        <v>161.64</v>
-      </c>
-      <c r="BN2" s="75" t="n">
-        <v>1778.08</v>
-      </c>
-      <c r="BO2" s="75" t="n">
-        <v>75</v>
-      </c>
-      <c r="BP2" s="75" t="n">
-        <v>2424.66</v>
-      </c>
-      <c r="BQ2" s="75" t="n">
-        <v>0.740740741</v>
-      </c>
-      <c r="BR2" s="75" t="n">
-        <v>55</v>
-      </c>
-      <c r="BS2" s="75" t="n">
-        <v>55</v>
-      </c>
-      <c r="BT2" s="75" t="n">
-        <v>3232.07</v>
-      </c>
-      <c r="BU2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019143011</t>
-        </is>
-      </c>
-      <c r="BV2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019143117</t>
-        </is>
-      </c>
-      <c r="BW2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019143239</t>
-        </is>
-      </c>
-      <c r="BX2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019143411</t>
-        </is>
-      </c>
-      <c r="BY2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019144308</t>
-        </is>
-      </c>
-      <c r="BZ2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019160947</t>
-        </is>
-      </c>
-      <c r="CA2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019181957</t>
-        </is>
-      </c>
-      <c r="CB2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV26022019195845</t>
-        </is>
-      </c>
-      <c r="CC2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV27022019174646</t>
-        </is>
-      </c>
-      <c r="CD2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019122739</t>
-        </is>
-      </c>
-      <c r="CE2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019150609</t>
-        </is>
-      </c>
-      <c r="CF2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019153510</t>
-        </is>
-      </c>
-      <c r="CG2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019161525</t>
-        </is>
-      </c>
-      <c r="CH2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019170350</t>
-        </is>
-      </c>
-      <c r="CI2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019184401</t>
-        </is>
-      </c>
-      <c r="CJ2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28022019200201</t>
-        </is>
-      </c>
-      <c r="CK2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV04032019180112</t>
-        </is>
-      </c>
-      <c r="CL2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV04032019192213</t>
-        </is>
-      </c>
-      <c r="CM2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV05032019111858</t>
-        </is>
-      </c>
-      <c r="CN2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV06032019114349</t>
-        </is>
-      </c>
-      <c r="CO2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV12032019152455</t>
-        </is>
-      </c>
-      <c r="CP2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV12032019164626</t>
-        </is>
-      </c>
-      <c r="CQ2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV04042019174149</t>
-        </is>
-      </c>
-      <c r="CR2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV11042019131924</t>
-        </is>
-      </c>
-      <c r="CS2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV11042019153410</t>
-        </is>
-      </c>
-      <c r="CT2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV11042019163654</t>
-        </is>
-      </c>
-      <c r="CU2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV23042019114648</t>
-        </is>
-      </c>
-      <c r="CV2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV23042019121525</t>
-        </is>
-      </c>
-      <c r="CW2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV23042019124404</t>
-        </is>
-      </c>
-      <c r="CX2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV23042019140042</t>
-        </is>
-      </c>
-      <c r="CY2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV23042019145311</t>
-        </is>
-      </c>
-      <c r="CZ2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV09052019185256</t>
-        </is>
-      </c>
-      <c r="DA2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV27052019140929</t>
-        </is>
-      </c>
-      <c r="DB2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV28052019191407</t>
-        </is>
-      </c>
-      <c r="DC2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV29052019185429</t>
-        </is>
-      </c>
-      <c r="DD2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV30052019143829</t>
-        </is>
-      </c>
-      <c r="DE2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV06062019183347</t>
-        </is>
-      </c>
-      <c r="DF2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV06062019192716</t>
-        </is>
-      </c>
-      <c r="DG2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV07062019095520</t>
-        </is>
-      </c>
-      <c r="DH2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV07062019104743</t>
-        </is>
-      </c>
-      <c r="DI2" s="3" t="inlineStr">
-        <is>
-          <t>S8REV14102019180342</t>
-        </is>
-      </c>
+      <c r="BU4" s="105" t="n"/>
+      <c r="BV4" s="105" t="n"/>
+      <c r="BW4" s="105" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -9721,180 +9712,180 @@
   </sheetPr>
   <dimension ref="A1:GK5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="49.140625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="22.5703125" customWidth="1" style="75" min="3" max="3"/>
-    <col width="22.85546875" customWidth="1" style="75" min="4" max="4"/>
-    <col width="23.7109375" customWidth="1" style="75" min="5" max="5"/>
-    <col width="18.42578125" customWidth="1" style="75" min="6" max="6"/>
-    <col width="8.28515625" customWidth="1" style="75" min="7" max="7"/>
-    <col width="18.5703125" customWidth="1" style="75" min="8" max="8"/>
-    <col width="22.85546875" customWidth="1" style="75" min="9" max="9"/>
-    <col width="17.5703125" customWidth="1" style="75" min="10" max="11"/>
-    <col width="18.7109375" customWidth="1" style="75" min="12" max="12"/>
-    <col width="26.7109375" customWidth="1" style="75" min="13" max="13"/>
-    <col width="17.7109375" customWidth="1" style="75" min="14" max="15"/>
-    <col width="17.42578125" customWidth="1" style="75" min="16" max="17"/>
-    <col width="20.140625" customWidth="1" style="75" min="18" max="18"/>
-    <col width="21" customWidth="1" style="75" min="19" max="19"/>
-    <col width="23.85546875" customWidth="1" style="75" min="20" max="20"/>
-    <col width="20" customWidth="1" style="75" min="21" max="21"/>
-    <col width="20.140625" customWidth="1" style="75" min="22" max="22"/>
-    <col width="20.7109375" customWidth="1" style="75" min="23" max="23"/>
-    <col width="19.42578125" customWidth="1" style="75" min="24" max="24"/>
-    <col width="14" customWidth="1" style="75" min="25" max="25"/>
-    <col width="15.28515625" customWidth="1" style="75" min="26" max="26"/>
-    <col width="12.42578125" customWidth="1" style="75" min="27" max="27"/>
-    <col width="32.85546875" customWidth="1" style="75" min="28" max="28"/>
-    <col width="19.5703125" customWidth="1" style="75" min="29" max="29"/>
-    <col width="15.85546875" customWidth="1" style="75" min="30" max="30"/>
-    <col width="12.5703125" customWidth="1" style="75" min="31" max="31"/>
-    <col width="27.85546875" customWidth="1" style="75" min="32" max="32"/>
-    <col width="26.85546875" customWidth="1" style="75" min="33" max="34"/>
-    <col width="25.140625" customWidth="1" style="75" min="35" max="35"/>
-    <col width="23.85546875" customWidth="1" style="75" min="36" max="36"/>
-    <col width="18.42578125" customWidth="1" style="75" min="37" max="37"/>
-    <col width="17.42578125" customWidth="1" style="75" min="38" max="39"/>
-    <col width="19.85546875" customWidth="1" style="75" min="40" max="40"/>
-    <col width="18.85546875" customWidth="1" style="75" min="41" max="42"/>
-    <col width="25.140625" customWidth="1" style="75" min="43" max="43"/>
-    <col width="24.140625" customWidth="1" style="75" min="44" max="45"/>
-    <col width="16" customWidth="1" style="75" min="46" max="46"/>
-    <col width="17.85546875" customWidth="1" style="75" min="47" max="47"/>
-    <col width="24.140625" customWidth="1" style="75" min="48" max="48"/>
-    <col width="18" customWidth="1" style="75" min="49" max="49"/>
-    <col width="31.140625" customWidth="1" style="75" min="50" max="50"/>
-    <col width="30.7109375" customWidth="1" style="75" min="51" max="51"/>
-    <col width="18.140625" customWidth="1" style="75" min="52" max="52"/>
-    <col width="17.42578125" customWidth="1" style="75" min="53" max="53"/>
-    <col width="19.140625" customWidth="1" style="75" min="54" max="54"/>
-    <col width="19" customWidth="1" style="75" min="55" max="55"/>
-    <col width="10.140625" customWidth="1" style="75" min="56" max="56"/>
-    <col width="9.7109375" customWidth="1" style="75" min="57" max="57"/>
-    <col width="22.42578125" customWidth="1" style="75" min="58" max="58"/>
-    <col width="34.7109375" customWidth="1" style="75" min="59" max="59"/>
-    <col width="19.28515625" customWidth="1" style="75" min="60" max="60"/>
-    <col width="21.85546875" customWidth="1" style="75" min="61" max="61"/>
-    <col width="26.7109375" customWidth="1" style="75" min="62" max="62"/>
-    <col width="18.7109375" customWidth="1" style="75" min="63" max="64"/>
-    <col width="22.140625" customWidth="1" style="75" min="65" max="66"/>
-    <col width="24.42578125" customWidth="1" style="75" min="67" max="68"/>
-    <col width="14.28515625" customWidth="1" style="75" min="69" max="69"/>
-    <col width="28" customWidth="1" style="75" min="70" max="71"/>
-    <col width="17.7109375" customWidth="1" style="75" min="72" max="72"/>
-    <col width="32.7109375" customWidth="1" style="75" min="73" max="73"/>
-    <col width="18.85546875" customWidth="1" style="75" min="74" max="75"/>
-    <col width="16.42578125" customWidth="1" style="75" min="76" max="77"/>
-    <col width="22.85546875" customWidth="1" style="75" min="78" max="79"/>
-    <col width="20.5703125" customWidth="1" style="75" min="80" max="80"/>
-    <col width="20.28515625" customWidth="1" style="75" min="81" max="81"/>
-    <col width="21.42578125" customWidth="1" style="75" min="82" max="82"/>
-    <col width="25.140625" customWidth="1" style="75" min="83" max="83"/>
-    <col width="22.42578125" customWidth="1" style="75" min="84" max="84"/>
-    <col width="24.140625" customWidth="1" style="75" min="85" max="85"/>
-    <col width="28" customWidth="1" style="75" min="86" max="86"/>
-    <col width="27.140625" customWidth="1" style="75" min="87" max="87"/>
-    <col width="29" customWidth="1" style="75" min="88" max="88"/>
-    <col width="20.140625" customWidth="1" style="75" min="89" max="89"/>
-    <col width="24.140625" customWidth="1" style="75" min="90" max="91"/>
-    <col width="9.42578125" customWidth="1" style="75" min="92" max="92"/>
-    <col width="17.7109375" customWidth="1" style="75" min="93" max="94"/>
-    <col width="20.42578125" customWidth="1" style="75" min="95" max="95"/>
-    <col width="17.5703125" customWidth="1" style="75" min="96" max="96"/>
-    <col width="21.140625" customWidth="1" style="75" min="97" max="97"/>
-    <col width="19.28515625" customWidth="1" style="75" min="98" max="99"/>
-    <col width="19.7109375" customWidth="1" style="75" min="100" max="100"/>
-    <col width="35" customWidth="1" style="75" min="101" max="101"/>
-    <col width="18.140625" customWidth="1" style="75" min="102" max="102"/>
-    <col width="19" customWidth="1" style="75" min="103" max="103"/>
-    <col width="32.42578125" customWidth="1" style="75" min="104" max="104"/>
-    <col width="17.28515625" customWidth="1" style="75" min="105" max="105"/>
-    <col width="28.7109375" customWidth="1" style="75" min="106" max="106"/>
-    <col width="23.5703125" customWidth="1" style="75" min="107" max="107"/>
-    <col width="45.28515625" customWidth="1" style="75" min="108" max="108"/>
-    <col width="29.85546875" customWidth="1" style="75" min="109" max="109"/>
-    <col width="14.28515625" customWidth="1" style="75" min="110" max="110"/>
-    <col width="23" customWidth="1" style="75" min="111" max="111"/>
-    <col width="19.85546875" customWidth="1" style="75" min="112" max="115"/>
-    <col width="24.7109375" customWidth="1" style="75" min="116" max="117"/>
-    <col width="25" customWidth="1" style="75" min="118" max="118"/>
-    <col width="24.42578125" customWidth="1" style="75" min="119" max="119"/>
-    <col width="30.42578125" customWidth="1" style="75" min="120" max="120"/>
-    <col width="36" customWidth="1" style="75" min="121" max="121"/>
-    <col width="34.42578125" customWidth="1" style="75" min="122" max="122"/>
-    <col width="26.7109375" customWidth="1" style="75" min="123" max="123"/>
-    <col width="17.28515625" customWidth="1" style="75" min="124" max="125"/>
-    <col width="34.140625" customWidth="1" style="75" min="126" max="126"/>
-    <col width="28.42578125" customWidth="1" style="75" min="127" max="127"/>
-    <col width="24.7109375" customWidth="1" style="75" min="128" max="128"/>
-    <col width="30.28515625" customWidth="1" style="75" min="129" max="129"/>
-    <col width="17.5703125" customWidth="1" style="75" min="130" max="130"/>
-    <col width="20.28515625" customWidth="1" style="75" min="131" max="131"/>
-    <col width="12.140625" customWidth="1" style="75" min="132" max="132"/>
-    <col width="21.42578125" customWidth="1" style="75" min="133" max="133"/>
-    <col width="24.140625" customWidth="1" style="75" min="134" max="134"/>
-    <col width="16" customWidth="1" style="75" min="135" max="135"/>
-    <col width="14" customWidth="1" style="75" min="136" max="136"/>
-    <col width="16.7109375" customWidth="1" style="75" min="137" max="137"/>
-    <col width="10" customWidth="1" style="75" min="138" max="138"/>
-    <col width="8.5703125" customWidth="1" style="75" min="139" max="139"/>
-    <col width="19.140625" customWidth="1" style="75" min="140" max="140"/>
-    <col width="37.7109375" customWidth="1" style="75" min="141" max="141"/>
-    <col width="15.85546875" customWidth="1" style="75" min="142" max="142"/>
-    <col width="9.28515625" customWidth="1" style="75" min="143" max="143"/>
-    <col width="16.7109375" customWidth="1" style="75" min="144" max="145"/>
-    <col width="12.85546875" customWidth="1" style="75" min="146" max="146"/>
-    <col width="32.42578125" customWidth="1" style="75" min="147" max="147"/>
-    <col width="11.7109375" customWidth="1" style="75" min="148" max="148"/>
-    <col width="35" customWidth="1" style="75" min="149" max="149"/>
-    <col width="18.140625" customWidth="1" style="75" min="150" max="150"/>
-    <col width="15.7109375" customWidth="1" style="75" min="151" max="151"/>
-    <col width="24" customWidth="1" style="75" min="152" max="152"/>
-    <col width="11.5703125" customWidth="1" style="75" min="153" max="153"/>
-    <col width="8.28515625" customWidth="1" style="75" min="154" max="154"/>
-    <col width="16.5703125" customWidth="1" style="75" min="155" max="155"/>
-    <col width="32.85546875" customWidth="1" style="75" min="156" max="156"/>
-    <col width="18.7109375" customWidth="1" style="75" min="157" max="157"/>
-    <col width="18.28515625" customWidth="1" style="75" min="158" max="158"/>
-    <col width="10.42578125" customWidth="1" style="75" min="159" max="159"/>
-    <col width="9.7109375" customWidth="1" style="75" min="160" max="160"/>
-    <col width="12.7109375" customWidth="1" style="75" min="161" max="161"/>
-    <col width="11.7109375" customWidth="1" style="75" min="162" max="162"/>
-    <col width="24" customWidth="1" style="75" min="163" max="163"/>
-    <col width="43.7109375" customWidth="1" style="75" min="164" max="164"/>
-    <col width="44.85546875" customWidth="1" style="75" min="165" max="165"/>
-    <col width="30.140625" customWidth="1" style="75" min="166" max="166"/>
-    <col width="29.42578125" customWidth="1" style="75" min="167" max="167"/>
-    <col width="25.28515625" customWidth="1" style="75" min="168" max="168"/>
-    <col width="9.5703125" customWidth="1" style="75" min="169" max="169"/>
-    <col width="25.7109375" customWidth="1" style="75" min="170" max="170"/>
-    <col width="19.7109375" customWidth="1" style="75" min="171" max="171"/>
-    <col width="28.5703125" customWidth="1" style="75" min="172" max="172"/>
-    <col width="21.140625" customWidth="1" style="75" min="173" max="173"/>
-    <col width="14.5703125" customWidth="1" style="75" min="174" max="174"/>
-    <col width="20.5703125" customWidth="1" style="75" min="175" max="175"/>
-    <col width="18.28515625" customWidth="1" style="75" min="176" max="176"/>
-    <col width="18.85546875" customWidth="1" style="75" min="177" max="177"/>
-    <col width="35" customWidth="1" style="75" min="178" max="178"/>
-    <col width="20" customWidth="1" style="75" min="179" max="179"/>
-    <col width="32.42578125" customWidth="1" style="75" min="180" max="180"/>
-    <col width="21.5703125" customWidth="1" style="75" min="181" max="181"/>
-    <col width="13.5703125" customWidth="1" style="75" min="182" max="182"/>
-    <col width="26.28515625" customWidth="1" style="75" min="183" max="183"/>
-    <col width="19.140625" customWidth="1" style="75" min="184" max="184"/>
-    <col width="44" customWidth="1" style="75" min="185" max="185"/>
-    <col width="23.5703125" customWidth="1" style="75" min="186" max="186"/>
-    <col width="26.28515625" customWidth="1" style="75" min="187" max="187"/>
-    <col width="34.85546875" customWidth="1" style="75" min="188" max="188"/>
-    <col width="9.140625" customWidth="1" style="75" min="189" max="189"/>
-    <col width="15.85546875" customWidth="1" style="75" min="190" max="190"/>
-    <col width="9" customWidth="1" style="75" min="191" max="193"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="49.140625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" customWidth="1" style="105" min="3" max="3"/>
+    <col width="22.85546875" customWidth="1" style="105" min="4" max="4"/>
+    <col width="23.7109375" customWidth="1" style="105" min="5" max="5"/>
+    <col width="18.42578125" customWidth="1" style="105" min="6" max="6"/>
+    <col width="8.28515625" customWidth="1" style="105" min="7" max="7"/>
+    <col width="18.5703125" customWidth="1" style="105" min="8" max="8"/>
+    <col width="22.85546875" customWidth="1" style="105" min="9" max="9"/>
+    <col width="17.5703125" customWidth="1" style="105" min="10" max="11"/>
+    <col width="18.7109375" customWidth="1" style="105" min="12" max="12"/>
+    <col width="26.7109375" customWidth="1" style="105" min="13" max="13"/>
+    <col width="17.7109375" customWidth="1" style="105" min="14" max="15"/>
+    <col width="17.42578125" customWidth="1" style="105" min="16" max="17"/>
+    <col width="20.140625" customWidth="1" style="105" min="18" max="18"/>
+    <col width="21" customWidth="1" style="105" min="19" max="19"/>
+    <col width="23.85546875" customWidth="1" style="105" min="20" max="20"/>
+    <col width="20" customWidth="1" style="105" min="21" max="21"/>
+    <col width="20.140625" customWidth="1" style="105" min="22" max="22"/>
+    <col width="20.7109375" customWidth="1" style="105" min="23" max="23"/>
+    <col width="19.42578125" customWidth="1" style="105" min="24" max="24"/>
+    <col width="20.42578125" customWidth="1" style="105" min="25" max="25"/>
+    <col width="15.28515625" customWidth="1" style="105" min="26" max="26"/>
+    <col width="12.42578125" customWidth="1" style="105" min="27" max="27"/>
+    <col width="32.85546875" customWidth="1" style="105" min="28" max="28"/>
+    <col width="19.5703125" customWidth="1" style="105" min="29" max="29"/>
+    <col width="15.85546875" customWidth="1" style="105" min="30" max="30"/>
+    <col width="12.5703125" customWidth="1" style="105" min="31" max="31"/>
+    <col width="27.85546875" customWidth="1" style="105" min="32" max="32"/>
+    <col width="26.85546875" customWidth="1" style="105" min="33" max="34"/>
+    <col width="25.140625" customWidth="1" style="105" min="35" max="35"/>
+    <col width="23.85546875" customWidth="1" style="105" min="36" max="36"/>
+    <col width="18.42578125" customWidth="1" style="105" min="37" max="37"/>
+    <col width="17.42578125" customWidth="1" style="105" min="38" max="39"/>
+    <col width="19.85546875" customWidth="1" style="105" min="40" max="40"/>
+    <col width="18.85546875" customWidth="1" style="105" min="41" max="42"/>
+    <col width="25.140625" customWidth="1" style="105" min="43" max="43"/>
+    <col width="24.140625" customWidth="1" style="105" min="44" max="45"/>
+    <col width="16" customWidth="1" style="105" min="46" max="46"/>
+    <col width="17.85546875" customWidth="1" style="105" min="47" max="47"/>
+    <col width="24.140625" customWidth="1" style="105" min="48" max="48"/>
+    <col width="18" customWidth="1" style="105" min="49" max="49"/>
+    <col width="31.140625" customWidth="1" style="105" min="50" max="50"/>
+    <col width="30.7109375" customWidth="1" style="105" min="51" max="51"/>
+    <col width="18.140625" customWidth="1" style="105" min="52" max="52"/>
+    <col width="17.42578125" customWidth="1" style="105" min="53" max="53"/>
+    <col width="19.140625" customWidth="1" style="105" min="54" max="54"/>
+    <col width="19" customWidth="1" style="105" min="55" max="55"/>
+    <col width="10.140625" customWidth="1" style="105" min="56" max="56"/>
+    <col width="9.7109375" customWidth="1" style="105" min="57" max="57"/>
+    <col width="22.42578125" customWidth="1" style="105" min="58" max="58"/>
+    <col width="34.7109375" customWidth="1" style="105" min="59" max="59"/>
+    <col width="19.28515625" customWidth="1" style="105" min="60" max="60"/>
+    <col width="21.85546875" customWidth="1" style="105" min="61" max="61"/>
+    <col width="26.7109375" customWidth="1" style="105" min="62" max="62"/>
+    <col width="18.7109375" customWidth="1" style="105" min="63" max="64"/>
+    <col width="22.140625" customWidth="1" style="105" min="65" max="66"/>
+    <col width="24.42578125" customWidth="1" style="105" min="67" max="68"/>
+    <col width="14.28515625" customWidth="1" style="105" min="69" max="69"/>
+    <col width="28" customWidth="1" style="105" min="70" max="71"/>
+    <col width="17.7109375" customWidth="1" style="105" min="72" max="72"/>
+    <col width="32.7109375" customWidth="1" style="105" min="73" max="73"/>
+    <col width="18.85546875" customWidth="1" style="105" min="74" max="75"/>
+    <col width="16.42578125" customWidth="1" style="105" min="76" max="77"/>
+    <col width="22.85546875" customWidth="1" style="105" min="78" max="79"/>
+    <col width="20.5703125" customWidth="1" style="105" min="80" max="80"/>
+    <col width="20.28515625" customWidth="1" style="105" min="81" max="81"/>
+    <col width="21.42578125" customWidth="1" style="105" min="82" max="82"/>
+    <col width="25.140625" customWidth="1" style="105" min="83" max="83"/>
+    <col width="22.42578125" customWidth="1" style="105" min="84" max="84"/>
+    <col width="24.140625" customWidth="1" style="105" min="85" max="85"/>
+    <col width="28" customWidth="1" style="105" min="86" max="86"/>
+    <col width="27.140625" customWidth="1" style="105" min="87" max="87"/>
+    <col width="29" customWidth="1" style="105" min="88" max="88"/>
+    <col width="20.140625" customWidth="1" style="105" min="89" max="89"/>
+    <col width="24.140625" customWidth="1" style="105" min="90" max="91"/>
+    <col width="9.42578125" customWidth="1" style="105" min="92" max="92"/>
+    <col width="17.7109375" customWidth="1" style="105" min="93" max="94"/>
+    <col width="20.42578125" customWidth="1" style="105" min="95" max="95"/>
+    <col width="17.5703125" customWidth="1" style="105" min="96" max="96"/>
+    <col width="21.140625" customWidth="1" style="105" min="97" max="97"/>
+    <col width="19.28515625" customWidth="1" style="105" min="98" max="99"/>
+    <col width="19.7109375" customWidth="1" style="105" min="100" max="100"/>
+    <col width="35" customWidth="1" style="105" min="101" max="101"/>
+    <col width="18.140625" customWidth="1" style="105" min="102" max="102"/>
+    <col width="19" customWidth="1" style="105" min="103" max="103"/>
+    <col width="32.42578125" customWidth="1" style="105" min="104" max="104"/>
+    <col width="17.28515625" customWidth="1" style="105" min="105" max="105"/>
+    <col width="28.7109375" customWidth="1" style="105" min="106" max="106"/>
+    <col width="23.5703125" customWidth="1" style="105" min="107" max="107"/>
+    <col width="45.28515625" customWidth="1" style="105" min="108" max="108"/>
+    <col width="29.85546875" customWidth="1" style="105" min="109" max="109"/>
+    <col width="14.28515625" customWidth="1" style="105" min="110" max="110"/>
+    <col width="23" customWidth="1" style="105" min="111" max="111"/>
+    <col width="19.85546875" customWidth="1" style="105" min="112" max="115"/>
+    <col width="24.7109375" customWidth="1" style="105" min="116" max="117"/>
+    <col width="25" customWidth="1" style="105" min="118" max="118"/>
+    <col width="24.42578125" customWidth="1" style="105" min="119" max="119"/>
+    <col width="30.42578125" customWidth="1" style="105" min="120" max="120"/>
+    <col width="36" customWidth="1" style="105" min="121" max="121"/>
+    <col width="34.42578125" customWidth="1" style="105" min="122" max="122"/>
+    <col width="26.7109375" customWidth="1" style="105" min="123" max="123"/>
+    <col width="17.28515625" customWidth="1" style="105" min="124" max="125"/>
+    <col width="34.140625" customWidth="1" style="105" min="126" max="126"/>
+    <col width="28.42578125" customWidth="1" style="105" min="127" max="127"/>
+    <col width="24.7109375" customWidth="1" style="105" min="128" max="128"/>
+    <col width="30.28515625" customWidth="1" style="105" min="129" max="129"/>
+    <col width="17.5703125" customWidth="1" style="105" min="130" max="130"/>
+    <col width="20.28515625" customWidth="1" style="105" min="131" max="131"/>
+    <col width="12.140625" customWidth="1" style="105" min="132" max="132"/>
+    <col width="21.42578125" customWidth="1" style="105" min="133" max="133"/>
+    <col width="24.140625" customWidth="1" style="105" min="134" max="134"/>
+    <col width="16" customWidth="1" style="105" min="135" max="135"/>
+    <col width="14" customWidth="1" style="105" min="136" max="136"/>
+    <col width="16.7109375" customWidth="1" style="105" min="137" max="137"/>
+    <col width="10" customWidth="1" style="105" min="138" max="138"/>
+    <col width="8.5703125" customWidth="1" style="105" min="139" max="139"/>
+    <col width="19.140625" customWidth="1" style="105" min="140" max="140"/>
+    <col width="37.7109375" customWidth="1" style="105" min="141" max="141"/>
+    <col width="15.85546875" customWidth="1" style="105" min="142" max="142"/>
+    <col width="9.28515625" customWidth="1" style="105" min="143" max="143"/>
+    <col width="16.7109375" customWidth="1" style="105" min="144" max="145"/>
+    <col width="12.85546875" customWidth="1" style="105" min="146" max="146"/>
+    <col width="32.42578125" customWidth="1" style="105" min="147" max="147"/>
+    <col width="11.7109375" customWidth="1" style="105" min="148" max="148"/>
+    <col width="35" customWidth="1" style="105" min="149" max="149"/>
+    <col width="18.140625" customWidth="1" style="105" min="150" max="150"/>
+    <col width="15.7109375" customWidth="1" style="105" min="151" max="151"/>
+    <col width="24" customWidth="1" style="105" min="152" max="152"/>
+    <col width="11.5703125" customWidth="1" style="105" min="153" max="153"/>
+    <col width="8.28515625" customWidth="1" style="105" min="154" max="154"/>
+    <col width="16.5703125" customWidth="1" style="105" min="155" max="155"/>
+    <col width="32.85546875" customWidth="1" style="105" min="156" max="156"/>
+    <col width="18.7109375" customWidth="1" style="105" min="157" max="157"/>
+    <col width="18.28515625" customWidth="1" style="105" min="158" max="158"/>
+    <col width="10.42578125" customWidth="1" style="105" min="159" max="159"/>
+    <col width="9.7109375" customWidth="1" style="105" min="160" max="160"/>
+    <col width="12.7109375" customWidth="1" style="105" min="161" max="161"/>
+    <col width="11.7109375" customWidth="1" style="105" min="162" max="162"/>
+    <col width="24" customWidth="1" style="105" min="163" max="163"/>
+    <col width="43.7109375" customWidth="1" style="105" min="164" max="164"/>
+    <col width="44.85546875" customWidth="1" style="105" min="165" max="165"/>
+    <col width="30.140625" customWidth="1" style="105" min="166" max="166"/>
+    <col width="29.42578125" customWidth="1" style="105" min="167" max="167"/>
+    <col width="25.28515625" customWidth="1" style="105" min="168" max="168"/>
+    <col width="9.5703125" customWidth="1" style="105" min="169" max="169"/>
+    <col width="25.7109375" customWidth="1" style="105" min="170" max="170"/>
+    <col width="19.7109375" customWidth="1" style="105" min="171" max="171"/>
+    <col width="28.5703125" customWidth="1" style="105" min="172" max="172"/>
+    <col width="21.140625" customWidth="1" style="105" min="173" max="173"/>
+    <col width="14.5703125" customWidth="1" style="105" min="174" max="174"/>
+    <col width="20.5703125" customWidth="1" style="105" min="175" max="175"/>
+    <col width="18.28515625" customWidth="1" style="105" min="176" max="176"/>
+    <col width="18.85546875" customWidth="1" style="105" min="177" max="177"/>
+    <col width="35" customWidth="1" style="105" min="178" max="178"/>
+    <col width="20" customWidth="1" style="105" min="179" max="179"/>
+    <col width="32.42578125" customWidth="1" style="105" min="180" max="180"/>
+    <col width="21.5703125" customWidth="1" style="105" min="181" max="181"/>
+    <col width="13.5703125" customWidth="1" style="105" min="182" max="182"/>
+    <col width="26.28515625" customWidth="1" style="105" min="183" max="183"/>
+    <col width="19.140625" customWidth="1" style="105" min="184" max="184"/>
+    <col width="44" customWidth="1" style="105" min="185" max="185"/>
+    <col width="23.5703125" customWidth="1" style="105" min="186" max="186"/>
+    <col width="26.28515625" customWidth="1" style="105" min="187" max="187"/>
+    <col width="34.85546875" customWidth="1" style="105" min="188" max="188"/>
+    <col width="9.140625" customWidth="1" style="105" min="189" max="189"/>
+    <col width="15.85546875" customWidth="1" style="105" min="190" max="190"/>
+    <col width="9" customWidth="1" style="105" min="191" max="193"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -10156,6 +10147,21 @@
       <c r="AZ1" s="25" t="inlineStr">
         <is>
           <t>WIP_AwaitingRelease</t>
+        </is>
+      </c>
+      <c r="BA1" s="48" t="inlineStr">
+        <is>
+          <t>Lender1_IntentNoticeMethod</t>
+        </is>
+      </c>
+      <c r="BB1" s="48" t="inlineStr">
+        <is>
+          <t>Lender2_IntentNoticeMethod</t>
+        </is>
+      </c>
+      <c r="BC1" s="48" t="inlineStr">
+        <is>
+          <t>Borrower_IntentNoticeMethod</t>
         </is>
       </c>
       <c r="BF1" s="28" t="n"/>
@@ -10224,12 +10230,12 @@
       <c r="GH1" s="28" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_FEE_CAP02_Fee PaymentForCapitalizedOngoingFees</t>
         </is>
@@ -10244,7 +10250,7 @@
           <t>S8TERM14092020165659</t>
         </is>
       </c>
-      <c r="E2" s="75" t="n">
+      <c r="E2" s="105" t="n">
         <v>80</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -10252,17 +10258,17 @@
           <t>60000039</t>
         </is>
       </c>
-      <c r="G2" s="36" t="n"/>
-      <c r="H2" s="75" t="n">
-        <v>1808.22</v>
-      </c>
-      <c r="I2" s="36" t="n">
+      <c r="G2" s="98" t="n"/>
+      <c r="H2" s="105" t="n">
+        <v>12109.59</v>
+      </c>
+      <c r="I2" s="98" t="n">
         <v>55</v>
       </c>
-      <c r="J2" s="36" t="n">
+      <c r="J2" s="98" t="n">
         <v>25</v>
       </c>
-      <c r="K2" s="36" t="n">
+      <c r="K2" s="98" t="n">
         <v>20</v>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -10270,211 +10276,254 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="M2" s="36" t="inlineStr">
+      <c r="M2" s="98" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK AU-DBU</t>
         </is>
       </c>
-      <c r="N2" s="36" t="inlineStr">
+      <c r="N2" s="98" t="inlineStr">
         <is>
           <t>BDOLEND44119</t>
         </is>
       </c>
-      <c r="O2" s="36" t="inlineStr">
+      <c r="O2" s="98" t="inlineStr">
         <is>
           <t>BPILEND28140</t>
         </is>
       </c>
-      <c r="P2" s="36" t="inlineStr">
+      <c r="P2" s="105" t="inlineStr">
+        <is>
+          <t>LEDNSHORT14157</t>
+        </is>
+      </c>
+      <c r="Q2" s="105" t="inlineStr">
+        <is>
+          <t>LEDNSHORT46153</t>
+        </is>
+      </c>
+      <c r="R2" s="105" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="S2" s="105" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="T2" s="105" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="U2" s="105" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="V2" s="105" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="W2" s="105" t="n">
+        <v>14850000</v>
+      </c>
+      <c r="X2" s="105" t="n">
+        <v>14850000</v>
+      </c>
+      <c r="Y2" s="105" t="inlineStr">
+        <is>
+          <t>Line Fee</t>
+        </is>
+      </c>
+      <c r="Z2" s="98" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="AA2" s="105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB2" s="105" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="105" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="AD2" s="105" t="inlineStr">
+        <is>
+          <t>DOIT</t>
+        </is>
+      </c>
+      <c r="AE2" s="105" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="AF2" s="105" t="inlineStr">
+        <is>
+          <t>DDAAUD1-3733</t>
+        </is>
+      </c>
+      <c r="AG2" s="105" t="inlineStr">
+        <is>
+          <t>DDA1-AUD4421</t>
+        </is>
+      </c>
+      <c r="AH2" s="105" t="inlineStr">
+        <is>
+          <t>DDA1-AUD2842</t>
+        </is>
+      </c>
+      <c r="AI2" s="105" t="inlineStr">
+        <is>
+          <t>12001001836</t>
+        </is>
+      </c>
+      <c r="AJ2" s="105" t="inlineStr">
+        <is>
+          <t>18565001838</t>
+        </is>
+      </c>
+      <c r="AK2" s="98" t="n"/>
+      <c r="AL2" s="105" t="inlineStr">
         <is>
           <t>BDOLEND44121</t>
         </is>
       </c>
-      <c r="Q2" s="36" t="inlineStr">
+      <c r="AM2" s="105" t="inlineStr">
         <is>
           <t>BPILEND28142</t>
         </is>
       </c>
-      <c r="R2" s="75" t="n">
-        <v>28000000</v>
-      </c>
-      <c r="S2" s="75" t="n">
-        <v>27000000</v>
-      </c>
-      <c r="T2" s="75" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="U2" s="75" t="n">
-        <v>27000000</v>
-      </c>
-      <c r="V2" s="75" t="n">
-        <v>27000000</v>
-      </c>
-      <c r="W2" s="75" t="n">
-        <v>14850000</v>
-      </c>
-      <c r="X2" s="75" t="n">
-        <v>14850000</v>
-      </c>
-      <c r="Y2" s="75" t="inlineStr">
-        <is>
-          <t>Commitment Fee</t>
-        </is>
-      </c>
-      <c r="Z2" s="36" t="inlineStr">
-        <is>
-          <t>Loan</t>
-        </is>
-      </c>
-      <c r="AA2" s="75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB2" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC2" s="75" t="inlineStr">
-        <is>
-          <t>DDA</t>
-        </is>
-      </c>
-      <c r="AD2" s="75" t="inlineStr">
-        <is>
-          <t>DOIT</t>
-        </is>
-      </c>
-      <c r="AE2" s="75" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="AF2" s="75" t="inlineStr">
-        <is>
-          <t>DDAAUD1-3733</t>
-        </is>
-      </c>
-      <c r="AG2" s="75" t="inlineStr">
-        <is>
-          <t>DDA1-AUD4421</t>
-        </is>
-      </c>
-      <c r="AH2" s="75" t="inlineStr">
-        <is>
-          <t>DDA1-AUD2842</t>
-        </is>
-      </c>
-      <c r="AI2" s="75" t="inlineStr">
-        <is>
-          <t>12001001836</t>
-        </is>
-      </c>
-      <c r="AJ2" s="75" t="inlineStr">
-        <is>
-          <t>18565001838</t>
-        </is>
-      </c>
-      <c r="AK2" s="36" t="inlineStr">
-        <is>
-          <t>IEEBRW764235129</t>
-        </is>
-      </c>
-      <c r="AL2" s="75" t="inlineStr">
-        <is>
-          <t>BDOLEND44121</t>
-        </is>
-      </c>
-      <c r="AM2" s="75" t="inlineStr">
-        <is>
-          <t>BPILEND28142</t>
-        </is>
-      </c>
-      <c r="AN2" s="75" t="inlineStr">
+      <c r="AN2" s="41" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="AO2" s="75" t="inlineStr">
-        <is>
-          <t>john.blogg@abc.com</t>
-        </is>
-      </c>
-      <c r="AP2" s="75" t="inlineStr">
-        <is>
-          <t>john.blogg@abc.com</t>
-        </is>
-      </c>
-      <c r="AQ2" s="75" t="inlineStr">
+      <c r="AO2" s="98" t="inlineStr">
+        <is>
+          <t>darlonhijara@abc.com</t>
+        </is>
+      </c>
+      <c r="AP2" s="98" t="inlineStr">
+        <is>
+          <t>darlonhijara@abc.com</t>
+        </is>
+      </c>
+      <c r="AQ2" s="105" t="inlineStr">
         <is>
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="AR2" s="75" t="inlineStr">
-        <is>
-          <t>John Bloggs</t>
-        </is>
-      </c>
-      <c r="AS2" s="75" t="inlineStr">
-        <is>
-          <t>John Bloggs</t>
-        </is>
-      </c>
-      <c r="AT2" s="75" t="inlineStr">
+      <c r="AR2" s="105" t="inlineStr">
+        <is>
+          <t>Darlon Hijara</t>
+        </is>
+      </c>
+      <c r="AS2" s="105" t="inlineStr">
+        <is>
+          <t>DarlonJeremiah Hijaratwo</t>
+        </is>
+      </c>
+      <c r="AT2" s="105" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="AU2" s="75" t="inlineStr">
+      <c r="AU2" s="105" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="AV2" s="75" t="inlineStr">
+      <c r="AV2" s="105" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="AW2" s="75" t="inlineStr">
+      <c r="AW2" s="105" t="inlineStr">
         <is>
           <t>Ongoing Fee Payment</t>
         </is>
       </c>
-      <c r="AY2" s="75" t="inlineStr">
+      <c r="AY2" s="105" t="inlineStr">
         <is>
           <t>Awaiting Generate Intent Notices</t>
         </is>
       </c>
-      <c r="AZ2" s="75" t="inlineStr">
+      <c r="AZ2" s="105" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
+        </is>
+      </c>
+      <c r="BA2" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="BB2" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="BC2" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
         </is>
       </c>
       <c r="BV2" s="35" t="n"/>
       <c r="BW2" s="35" t="n"/>
-      <c r="CF2" s="54" t="n"/>
-      <c r="CG2" s="42" t="n"/>
-      <c r="GI2" s="75" t="n">
+      <c r="CF2" s="53" t="n"/>
+      <c r="CG2" s="41" t="n"/>
+      <c r="GI2" s="105" t="n">
         <v>14300000</v>
       </c>
-      <c r="GJ2" s="75" t="n">
+      <c r="GJ2" s="105" t="n">
         <v>14300000</v>
       </c>
-      <c r="GK2" s="75" t="n">
+      <c r="GK2" s="105" t="n">
         <v>14300000</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="30" t="n"/>
-      <c r="F3" s="36" t="n"/>
-      <c r="G3" s="36" t="n"/>
+      <c r="C3" s="99" t="n"/>
+      <c r="D3" s="88" t="n"/>
+      <c r="E3" s="88" t="n"/>
+      <c r="F3" s="98" t="n"/>
+      <c r="G3" s="98" t="n"/>
+      <c r="L3" s="88" t="n"/>
+      <c r="P3" s="105" t="inlineStr">
+        <is>
+          <t>LEDNSHORT14157</t>
+        </is>
+      </c>
+      <c r="Q3" s="105" t="inlineStr">
+        <is>
+          <t>LEDNSHORT46153</t>
+        </is>
+      </c>
+      <c r="R3" s="88" t="n"/>
+      <c r="S3" s="88" t="n"/>
+      <c r="T3" s="88" t="n"/>
+      <c r="U3" s="88" t="n"/>
+      <c r="V3" s="88" t="n"/>
+      <c r="W3" s="88" t="n"/>
+      <c r="X3" s="88" t="n"/>
+      <c r="Y3" s="88" t="n"/>
+      <c r="AA3" s="88" t="n"/>
+      <c r="AC3" s="88" t="n"/>
+      <c r="AQ3" s="88" t="n"/>
+      <c r="AR3" s="88" t="n"/>
+      <c r="AS3" s="88" t="n"/>
+      <c r="AT3" s="88" t="n"/>
       <c r="BV3" s="35" t="n"/>
       <c r="BW3" s="35" t="n"/>
-      <c r="CF3" s="54" t="n"/>
-      <c r="CG3" s="42" t="n"/>
+      <c r="CF3" s="53" t="n"/>
+      <c r="CG3" s="41" t="n"/>
     </row>
     <row r="4">
-      <c r="BO4" s="55" t="n"/>
-      <c r="BP4" s="55" t="n"/>
+      <c r="Y4" s="105" t="inlineStr">
+        <is>
+          <t>Commitment Fee</t>
+        </is>
+      </c>
+      <c r="BO4" s="54" t="n"/>
+      <c r="BP4" s="54" t="n"/>
       <c r="BR4" s="30" t="n"/>
       <c r="BS4" s="30" t="n"/>
       <c r="BT4" s="30" t="n"/>
@@ -10483,8 +10532,8 @@
       <c r="BW4" s="30" t="n"/>
     </row>
     <row r="5">
-      <c r="BO5" s="55" t="n"/>
-      <c r="BP5" s="55" t="n"/>
+      <c r="BO5" s="54" t="n"/>
+      <c r="BP5" s="54" t="n"/>
       <c r="BR5" s="30" t="n"/>
       <c r="BS5" s="30" t="n"/>
       <c r="BT5" s="30" t="n"/>
@@ -10505,63 +10554,63 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="39.85546875" customWidth="1" style="75" min="2" max="2"/>
-    <col width="20.85546875" customWidth="1" style="75" min="3" max="3"/>
-    <col width="21.5703125" customWidth="1" style="75" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="75" min="5" max="5"/>
-    <col width="16.140625" customWidth="1" style="75" min="6" max="6"/>
-    <col width="15.85546875" customWidth="1" style="75" min="7" max="7"/>
-    <col width="25.28515625" customWidth="1" style="75" min="8" max="8"/>
-    <col width="29.140625" customWidth="1" style="75" min="9" max="9"/>
-    <col width="27.42578125" customWidth="1" style="75" min="10" max="10"/>
-    <col width="4.7109375" customWidth="1" style="75" min="11" max="11"/>
-    <col width="11.140625" customWidth="1" style="75" min="12" max="12"/>
-    <col width="16.140625" customWidth="1" style="75" min="13" max="13"/>
-    <col width="20" customWidth="1" style="75" min="14" max="14"/>
-    <col width="19.5703125" customWidth="1" style="75" min="15" max="15"/>
-    <col width="15.85546875" customWidth="1" style="75" min="16" max="16"/>
-    <col width="21.5703125" customWidth="1" style="75" min="17" max="17"/>
-    <col width="12.5703125" customWidth="1" style="75" min="18" max="18"/>
-    <col width="13.85546875" customWidth="1" style="75" min="19" max="19"/>
-    <col width="14.7109375" customWidth="1" style="75" min="20" max="20"/>
-    <col width="8.28515625" customWidth="1" style="75" min="21" max="21"/>
-    <col width="8.7109375" customWidth="1" style="75" min="22" max="22"/>
-    <col width="16.140625" customWidth="1" style="75" min="23" max="23"/>
-    <col width="11.85546875" customWidth="1" style="75" min="24" max="24"/>
-    <col width="18" customWidth="1" style="75" min="25" max="25"/>
-    <col width="17.7109375" customWidth="1" style="75" min="26" max="26"/>
-    <col width="15.28515625" customWidth="1" style="75" min="27" max="27"/>
-    <col width="12.28515625" customWidth="1" style="75" min="28" max="28"/>
-    <col width="18.140625" customWidth="1" style="75" min="29" max="29"/>
-    <col width="10.85546875" customWidth="1" style="75" min="30" max="30"/>
-    <col width="12" customWidth="1" style="75" min="31" max="31"/>
-    <col width="50.85546875" customWidth="1" style="75" min="32" max="32"/>
-    <col width="26.42578125" customWidth="1" style="75" min="33" max="33"/>
-    <col width="31" customWidth="1" style="75" min="34" max="34"/>
-    <col width="21.140625" customWidth="1" style="75" min="35" max="35"/>
-    <col width="19.42578125" customWidth="1" style="75" min="36" max="36"/>
-    <col width="20.140625" customWidth="1" style="75" min="37" max="37"/>
-    <col width="21" customWidth="1" style="75" min="38" max="38"/>
-    <col width="23.85546875" customWidth="1" style="75" min="39" max="39"/>
-    <col width="20" customWidth="1" style="75" min="40" max="40"/>
-    <col width="20.140625" customWidth="1" style="75" min="41" max="41"/>
-    <col width="20.7109375" customWidth="1" style="75" min="42" max="42"/>
-    <col width="19.42578125" customWidth="1" style="75" min="43" max="43"/>
-    <col width="24" customWidth="1" style="75" min="44" max="44"/>
-    <col width="17.5703125" customWidth="1" style="75" min="45" max="46"/>
-    <col width="29.28515625" customWidth="1" style="75" min="47" max="47"/>
-    <col width="13.42578125" customWidth="1" style="75" min="48" max="48"/>
-    <col width="12.42578125" customWidth="1" style="75" min="49" max="49"/>
-    <col width="21" customWidth="1" style="75" min="50" max="51"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="39.85546875" customWidth="1" style="105" min="2" max="2"/>
+    <col width="22.5703125" bestFit="1" customWidth="1" style="105" min="3" max="3"/>
+    <col width="22.85546875" bestFit="1" customWidth="1" style="105" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="105" min="5" max="5"/>
+    <col width="16.140625" customWidth="1" style="105" min="6" max="6"/>
+    <col width="15.85546875" customWidth="1" style="105" min="7" max="7"/>
+    <col width="25.28515625" customWidth="1" style="105" min="8" max="8"/>
+    <col width="29.140625" customWidth="1" style="105" min="9" max="9"/>
+    <col width="27.42578125" customWidth="1" style="105" min="10" max="10"/>
+    <col width="4.7109375" customWidth="1" style="105" min="11" max="11"/>
+    <col width="11.140625" customWidth="1" style="105" min="12" max="12"/>
+    <col width="16.140625" customWidth="1" style="105" min="13" max="13"/>
+    <col width="20" customWidth="1" style="105" min="14" max="14"/>
+    <col width="19.5703125" customWidth="1" style="105" min="15" max="15"/>
+    <col width="15.85546875" customWidth="1" style="105" min="16" max="16"/>
+    <col width="21.5703125" customWidth="1" style="105" min="17" max="17"/>
+    <col width="12.5703125" customWidth="1" style="105" min="18" max="18"/>
+    <col width="13.85546875" customWidth="1" style="105" min="19" max="19"/>
+    <col width="14.7109375" customWidth="1" style="105" min="20" max="20"/>
+    <col width="8.28515625" customWidth="1" style="105" min="21" max="21"/>
+    <col width="8.7109375" customWidth="1" style="105" min="22" max="22"/>
+    <col width="16.140625" customWidth="1" style="105" min="23" max="23"/>
+    <col width="11.85546875" customWidth="1" style="105" min="24" max="24"/>
+    <col width="18" customWidth="1" style="105" min="25" max="25"/>
+    <col width="17.7109375" customWidth="1" style="105" min="26" max="26"/>
+    <col width="15.28515625" customWidth="1" style="105" min="27" max="27"/>
+    <col width="12.28515625" customWidth="1" style="105" min="28" max="28"/>
+    <col width="18.140625" customWidth="1" style="105" min="29" max="29"/>
+    <col width="10.85546875" customWidth="1" style="105" min="30" max="30"/>
+    <col width="12" customWidth="1" style="105" min="31" max="31"/>
+    <col width="50.85546875" customWidth="1" style="105" min="32" max="32"/>
+    <col width="26.42578125" customWidth="1" style="105" min="33" max="33"/>
+    <col width="31" customWidth="1" style="105" min="34" max="34"/>
+    <col width="21.140625" customWidth="1" style="105" min="35" max="35"/>
+    <col width="19.42578125" customWidth="1" style="105" min="36" max="36"/>
+    <col width="20.140625" customWidth="1" style="105" min="37" max="37"/>
+    <col width="21" customWidth="1" style="105" min="38" max="38"/>
+    <col width="23.85546875" customWidth="1" style="105" min="39" max="39"/>
+    <col width="20" customWidth="1" style="105" min="40" max="40"/>
+    <col width="20.140625" customWidth="1" style="105" min="41" max="41"/>
+    <col width="20.7109375" customWidth="1" style="105" min="42" max="42"/>
+    <col width="19.42578125" customWidth="1" style="105" min="43" max="43"/>
+    <col width="24" customWidth="1" style="105" min="44" max="44"/>
+    <col width="17.5703125" customWidth="1" style="105" min="45" max="46"/>
+    <col width="29.28515625" customWidth="1" style="105" min="47" max="47"/>
+    <col width="13.42578125" customWidth="1" style="105" min="48" max="48"/>
+    <col width="12.42578125" customWidth="1" style="105" min="49" max="49"/>
+    <col width="21" customWidth="1" style="105" min="50" max="51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -10615,12 +10664,12 @@
           <t>SBLCFeePayment_NoticeMethod</t>
         </is>
       </c>
-      <c r="K1" s="56" t="inlineStr">
+      <c r="K1" s="55" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="L1" s="56" t="inlineStr">
+      <c r="L1" s="55" t="inlineStr">
         <is>
           <t>Search_By</t>
         </is>
@@ -10725,7 +10774,7 @@
           <t>Reason</t>
         </is>
       </c>
-      <c r="AG1" s="25" t="inlineStr">
+      <c r="AG1" s="76" t="inlineStr">
         <is>
           <t>PrincipalPayment_EffectiveDate</t>
         </is>
@@ -10780,32 +10829,32 @@
           <t>Orig_LoanHostBankNet</t>
         </is>
       </c>
-      <c r="AR1" s="39" t="inlineStr">
+      <c r="AR1" s="38" t="inlineStr">
         <is>
           <t>HostBankLender_Percentage</t>
         </is>
       </c>
-      <c r="AS1" s="39" t="inlineStr">
+      <c r="AS1" s="38" t="inlineStr">
         <is>
           <t>Lender1_Percentage</t>
         </is>
       </c>
-      <c r="AT1" s="39" t="inlineStr">
+      <c r="AT1" s="38" t="inlineStr">
         <is>
           <t>Lender2_Percentage</t>
         </is>
       </c>
-      <c r="AU1" s="39" t="inlineStr">
+      <c r="AU1" s="38" t="inlineStr">
         <is>
           <t>HostBank_Lender</t>
         </is>
       </c>
-      <c r="AV1" s="39" t="inlineStr">
+      <c r="AV1" s="38" t="inlineStr">
         <is>
           <t>Lender1</t>
         </is>
       </c>
-      <c r="AW1" s="39" t="inlineStr">
+      <c r="AW1" s="38" t="inlineStr">
         <is>
           <t>Lender2</t>
         </is>
@@ -10822,12 +10871,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_PAY_CRE02_ScheduledPrincipalPayment</t>
         </is>
@@ -10847,12 +10896,12 @@
           <t>CUSTSHORT59122</t>
         </is>
       </c>
-      <c r="K2" s="75" t="inlineStr">
+      <c r="K2" s="105" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="L2" s="75" t="inlineStr">
+      <c r="L2" s="105" t="inlineStr">
         <is>
           <t>Deal/Facility</t>
         </is>
@@ -10862,35 +10911,35 @@
           <t>60000039</t>
         </is>
       </c>
-      <c r="N2" s="75" t="inlineStr">
+      <c r="N2" s="105" t="inlineStr">
         <is>
           <t>DDAAUD1-3733</t>
         </is>
       </c>
-      <c r="O2" s="75" t="inlineStr">
+      <c r="O2" s="105" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="P2" s="75" t="inlineStr">
+      <c r="P2" s="105" t="inlineStr">
         <is>
           <t>DOIT</t>
         </is>
       </c>
-      <c r="Q2" s="75" t="inlineStr">
+      <c r="Q2" s="105" t="inlineStr">
         <is>
           <t>IEEBRW764235129</t>
         </is>
       </c>
-      <c r="R2" s="75" t="inlineStr">
+      <c r="R2" s="105" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="S2" s="75" t="n">
+      <c r="S2" s="105" t="n">
         <v>116</v>
       </c>
-      <c r="T2" s="75" t="inlineStr">
+      <c r="T2" s="105" t="inlineStr">
         <is>
           <t>Borrower</t>
         </is>
@@ -10898,80 +10947,94 @@
       <c r="AA2" s="30" t="n">
         <v>43353</v>
       </c>
-      <c r="AF2" s="75" t="inlineStr">
+      <c r="AF2" s="105" t="inlineStr">
         <is>
           <t>This is to create a principal payment for Scenario 8 Term loan</t>
         </is>
       </c>
-      <c r="AG2" s="75" t="inlineStr">
-        <is>
-          <t>02-Sep-2020</t>
-        </is>
-      </c>
-      <c r="AH2" s="75" t="n">
+      <c r="AG2" s="105" t="inlineStr">
+        <is>
+          <t>30-Apr-2013</t>
+        </is>
+      </c>
+      <c r="AH2" s="105" t="n">
         <v>1000000</v>
       </c>
-      <c r="AI2" s="75" t="n">
+      <c r="AI2" s="105" t="n">
         <v>27000000</v>
       </c>
-      <c r="AJ2" s="75" t="n">
+      <c r="AJ2" s="105" t="n">
         <v>27000000</v>
       </c>
-      <c r="AK2" s="75" t="n">
+      <c r="AK2" s="105" t="n">
         <v>28000000</v>
       </c>
-      <c r="AL2" s="75" t="n">
-        <v>27001446.58</v>
-      </c>
-      <c r="AM2" s="75" t="n">
-        <v>998553.42</v>
-      </c>
-      <c r="AN2" s="75" t="n">
+      <c r="AL2" s="105" t="n">
+        <v>27009687.67</v>
+      </c>
+      <c r="AM2" s="105" t="n">
+        <v>990312.33</v>
+      </c>
+      <c r="AN2" s="105" t="n">
         <v>27000000</v>
       </c>
-      <c r="AO2" s="75" t="n">
-        <v>27001446.58</v>
-      </c>
-      <c r="AP2" s="75" t="n">
-        <v>14851328.23</v>
-      </c>
-      <c r="AQ2" s="75" t="n">
-        <v>14851328.23</v>
-      </c>
-      <c r="AR2" s="75" t="n">
+      <c r="AO2" s="105" t="n">
+        <v>27009687.67</v>
+      </c>
+      <c r="AP2" s="105" t="n">
+        <v>14855860.83</v>
+      </c>
+      <c r="AQ2" s="105" t="n">
+        <v>14855860.83</v>
+      </c>
+      <c r="AR2" s="105" t="n">
         <v>55</v>
       </c>
-      <c r="AS2" s="75" t="n">
+      <c r="AS2" s="105" t="n">
         <v>25</v>
       </c>
-      <c r="AT2" s="75" t="n">
+      <c r="AT2" s="105" t="n">
         <v>20</v>
       </c>
-      <c r="AU2" s="75" t="inlineStr">
+      <c r="AU2" s="105" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK AU-DBU</t>
         </is>
       </c>
-      <c r="AV2" s="75" t="inlineStr">
+      <c r="AV2" s="105" t="inlineStr">
         <is>
           <t>BDOLEND44119</t>
         </is>
       </c>
-      <c r="AW2" s="75" t="inlineStr">
+      <c r="AW2" s="105" t="inlineStr">
         <is>
           <t>BPILEND28140</t>
         </is>
       </c>
-      <c r="AX2" s="75" t="inlineStr">
+      <c r="AX2" s="105" t="inlineStr">
         <is>
           <t>DDA1-AUD4421</t>
         </is>
       </c>
-      <c r="AY2" s="75" t="inlineStr">
+      <c r="AY2" s="105" t="inlineStr">
         <is>
           <t>DDA1-AUD2842</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="O3" s="88" t="n"/>
+      <c r="AF3" s="88" t="n"/>
+      <c r="AH3" s="88" t="n"/>
+      <c r="AI3" s="88" t="n"/>
+      <c r="AJ3" s="88" t="n"/>
+      <c r="AK3" s="88" t="n"/>
+      <c r="AL3" s="88" t="n"/>
+      <c r="AM3" s="88" t="n"/>
+      <c r="AN3" s="88" t="n"/>
+      <c r="AO3" s="88" t="n"/>
+      <c r="AP3" s="88" t="n"/>
+      <c r="AQ3" s="88" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -10994,87 +11057,87 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" bestFit="1" customWidth="1" style="36" min="1" max="1"/>
-    <col width="10" customWidth="1" style="36" min="2" max="2"/>
-    <col width="42.5703125" bestFit="1" customWidth="1" style="36" min="3" max="3"/>
-    <col width="37.42578125" customWidth="1" style="36" min="4" max="4"/>
-    <col width="18.85546875" bestFit="1" customWidth="1" style="36" min="5" max="5"/>
-    <col width="30.5703125" bestFit="1" customWidth="1" style="36" min="6" max="6"/>
-    <col width="36.42578125" bestFit="1" customWidth="1" style="36" min="7" max="7"/>
-    <col width="42.5703125" bestFit="1" customWidth="1" style="36" min="8" max="9"/>
-    <col width="39.7109375" customWidth="1" style="36" min="10" max="10"/>
-    <col width="38.7109375" bestFit="1" customWidth="1" style="36" min="11" max="11"/>
-    <col width="34.140625" bestFit="1" customWidth="1" style="36" min="12" max="12"/>
-    <col width="36.42578125" customWidth="1" style="36" min="13" max="13"/>
-    <col width="42.5703125" bestFit="1" customWidth="1" style="36" min="14" max="14"/>
-    <col width="28.5703125" customWidth="1" style="36" min="15" max="15"/>
-    <col width="34.5703125" customWidth="1" style="36" min="16" max="16"/>
-    <col width="33.28515625" customWidth="1" style="36" min="17" max="17"/>
-    <col width="12.140625" customWidth="1" style="36" min="18" max="18"/>
+    <col width="6.140625" bestFit="1" customWidth="1" style="98" min="1" max="1"/>
+    <col width="10" customWidth="1" style="98" min="2" max="2"/>
+    <col width="42.5703125" bestFit="1" customWidth="1" style="98" min="3" max="3"/>
+    <col width="37.42578125" customWidth="1" style="98" min="4" max="4"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="98" min="5" max="5"/>
+    <col width="30.5703125" bestFit="1" customWidth="1" style="98" min="6" max="6"/>
+    <col width="36.42578125" bestFit="1" customWidth="1" style="98" min="7" max="7"/>
+    <col width="42.5703125" bestFit="1" customWidth="1" style="98" min="8" max="9"/>
+    <col width="39.7109375" customWidth="1" style="98" min="10" max="10"/>
+    <col width="38.7109375" bestFit="1" customWidth="1" style="98" min="11" max="11"/>
+    <col width="34.140625" bestFit="1" customWidth="1" style="98" min="12" max="12"/>
+    <col width="36.42578125" customWidth="1" style="98" min="13" max="13"/>
+    <col width="42.5703125" bestFit="1" customWidth="1" style="98" min="14" max="14"/>
+    <col width="28.5703125" customWidth="1" style="98" min="15" max="15"/>
+    <col width="34.5703125" customWidth="1" style="98" min="16" max="16"/>
+    <col width="33.28515625" customWidth="1" style="98" min="17" max="17"/>
+    <col width="12.140625" customWidth="1" style="98" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="82" t="inlineStr">
+      <c r="A1" s="80" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="83" t="inlineStr">
+      <c r="B1" s="81" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="83" t="inlineStr">
+      <c r="C1" s="81" t="inlineStr">
         <is>
           <t>InputFilePath</t>
         </is>
       </c>
-      <c r="D1" s="83" t="inlineStr">
+      <c r="D1" s="81" t="inlineStr">
         <is>
           <t>InputGSFile</t>
         </is>
       </c>
-      <c r="E1" s="83" t="inlineStr">
+      <c r="E1" s="81" t="inlineStr">
         <is>
           <t>InputJson</t>
         </is>
       </c>
-      <c r="F1" s="83" t="inlineStr">
+      <c r="F1" s="81" t="inlineStr">
         <is>
           <t>InputFFCResponse</t>
         </is>
       </c>
-      <c r="G1" s="83" t="inlineStr">
+      <c r="G1" s="81" t="inlineStr">
         <is>
           <t>Expected_wsFinalLIQDestination</t>
         </is>
       </c>
-      <c r="H1" s="83" t="inlineStr">
+      <c r="H1" s="81" t="inlineStr">
         <is>
           <t>OutputFilePath</t>
         </is>
       </c>
-      <c r="I1" s="83" t="inlineStr">
+      <c r="I1" s="81" t="inlineStr">
         <is>
           <t>OutputFFCResponse</t>
         </is>
       </c>
-      <c r="J1" s="83" t="inlineStr">
+      <c r="J1" s="81" t="inlineStr">
         <is>
           <t>Actual_wsFinalLIQDestination</t>
         </is>
       </c>
-      <c r="K1" s="84" t="inlineStr">
+      <c r="K1" s="82" t="inlineStr">
         <is>
           <t>Actual_CustomCBAPush_Response</t>
         </is>
       </c>
-      <c r="L1" s="84" t="inlineStr">
+      <c r="L1" s="82" t="inlineStr">
         <is>
           <t>Actual_ResponseMechanism</t>
         </is>
       </c>
-      <c r="M1" s="84" t="inlineStr">
+      <c r="M1" s="82" t="inlineStr">
         <is>
           <t>DealName</t>
         </is>
@@ -11096,7 +11159,7 @@
           <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\</t>
         </is>
       </c>
-      <c r="D2" s="61" t="inlineStr">
+      <c r="D2" s="60" t="inlineStr">
         <is>
           <t>FINASTRA_CCB_BASERATE_SY_GROUP1_SC8-1.csv</t>
         </is>
@@ -11165,7 +11228,7 @@
           <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\</t>
         </is>
       </c>
-      <c r="D3" s="61" t="inlineStr">
+      <c r="D3" s="60" t="inlineStr">
         <is>
           <t>FINASTRA_CCB_BASERATE_SY_GROUP1_SC8-2.csv</t>
         </is>
@@ -11267,97 +11330,97 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="57" t="inlineStr">
+      <c r="A1" s="56" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="58" t="inlineStr">
+      <c r="B1" s="57" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="67" t="inlineStr">
+      <c r="C1" s="66" t="inlineStr">
         <is>
           <t>HTTPMethodType</t>
         </is>
       </c>
-      <c r="D1" s="68" t="inlineStr">
+      <c r="D1" s="67" t="inlineStr">
         <is>
           <t>MDM_FFC_SERVER</t>
         </is>
       </c>
-      <c r="E1" s="68" t="inlineStr">
+      <c r="E1" s="67" t="inlineStr">
         <is>
           <t>MDM_FFC_PORT</t>
         </is>
       </c>
-      <c r="F1" s="68" t="inlineStr">
+      <c r="F1" s="67" t="inlineStr">
         <is>
           <t>MDM_FFC_URL</t>
         </is>
       </c>
-      <c r="G1" s="68" t="inlineStr">
+      <c r="G1" s="67" t="inlineStr">
         <is>
           <t>MDM_FFC_Username</t>
         </is>
       </c>
-      <c r="H1" s="68" t="inlineStr">
+      <c r="H1" s="67" t="inlineStr">
         <is>
           <t>MDM_FFC_Password</t>
         </is>
       </c>
-      <c r="I1" s="58" t="inlineStr">
+      <c r="I1" s="57" t="inlineStr">
         <is>
           <t>InputFilePath</t>
         </is>
       </c>
-      <c r="J1" s="58" t="inlineStr">
+      <c r="J1" s="57" t="inlineStr">
         <is>
           <t>InputGSFile</t>
         </is>
       </c>
-      <c r="K1" s="58" t="inlineStr">
+      <c r="K1" s="57" t="inlineStr">
         <is>
           <t>InputJson</t>
         </is>
       </c>
-      <c r="L1" s="58" t="inlineStr">
+      <c r="L1" s="57" t="inlineStr">
         <is>
           <t>InputFFCResponse</t>
         </is>
       </c>
-      <c r="M1" s="58" t="inlineStr">
+      <c r="M1" s="57" t="inlineStr">
         <is>
           <t>Expected_wsFinalLIQDestination</t>
         </is>
       </c>
-      <c r="N1" s="58" t="inlineStr">
+      <c r="N1" s="57" t="inlineStr">
         <is>
           <t>OutputFilePath</t>
         </is>
       </c>
-      <c r="O1" s="58" t="inlineStr">
+      <c r="O1" s="57" t="inlineStr">
         <is>
           <t>OutputFFCResponse</t>
         </is>
       </c>
-      <c r="P1" s="58" t="inlineStr">
+      <c r="P1" s="57" t="inlineStr">
         <is>
           <t>Actual_wsFinalLIQDestination</t>
         </is>
       </c>
-      <c r="Q1" s="59" t="inlineStr">
+      <c r="Q1" s="58" t="inlineStr">
         <is>
           <t>Actual_CustomCBAInterface</t>
         </is>
       </c>
-      <c r="R1" s="59" t="inlineStr">
+      <c r="R1" s="58" t="inlineStr">
         <is>
           <t>Browser_used</t>
         </is>
       </c>
-      <c r="S1" s="59" t="inlineStr">
+      <c r="S1" s="58" t="inlineStr">
         <is>
           <t>FundingDesk_1</t>
         </is>
@@ -11379,7 +11442,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="D2" s="60" t="inlineStr">
+      <c r="D2" s="59" t="inlineStr">
         <is>
           <t>http://mancsleverg0021</t>
         </is>
@@ -11404,7 +11467,7 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="I2" s="60" t="inlineStr">
+      <c r="I2" s="59" t="inlineStr">
         <is>
           <t>\DataSet\TL_DataSet\FxRates_GSFile\</t>
         </is>
@@ -11429,7 +11492,7 @@
           <t>Expected_wsFinalLIQDestination_TL_FXRATES01</t>
         </is>
       </c>
-      <c r="N2" s="60" t="inlineStr">
+      <c r="N2" s="59" t="inlineStr">
         <is>
           <t>\DataSet\TL_DataSet\FxRates_GSFile\</t>
         </is>
@@ -11476,7 +11539,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="D3" s="60" t="inlineStr">
+      <c r="D3" s="59" t="inlineStr">
         <is>
           <t>http://mancsleverg0021</t>
         </is>
@@ -11501,7 +11564,7 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="I3" s="60" t="inlineStr">
+      <c r="I3" s="59" t="inlineStr">
         <is>
           <t>\DataSet\TL_DataSet\FxRates_GSFile\</t>
         </is>
@@ -11526,7 +11589,7 @@
           <t>Expected_wsFinalLIQDestination_TL_FXRATES02</t>
         </is>
       </c>
-      <c r="N3" s="60" t="inlineStr">
+      <c r="N3" s="59" t="inlineStr">
         <is>
           <t>\DataSet\TL_DataSet\FxRates_GSFile\</t>
         </is>
@@ -13696,8 +13759,8 @@
   </sheetPr>
   <dimension ref="A1:EF2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -14585,7 +14648,7 @@
           <t>CUSTLEGAL59123</t>
         </is>
       </c>
-      <c r="N2" s="69" t="inlineStr">
+      <c r="N2" s="68" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -14676,7 +14739,7 @@
           <t>4061</t>
         </is>
       </c>
-      <c r="AF2" s="70" t="inlineStr">
+      <c r="AF2" s="69" t="inlineStr">
         <is>
           <t>8431</t>
         </is>
@@ -15215,27 +15278,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.7109375" customWidth="1" style="75" min="1" max="1"/>
-    <col width="22.5703125" customWidth="1" style="75" min="2" max="2"/>
-    <col width="10.140625" customWidth="1" style="75" min="3" max="3"/>
-    <col width="18.42578125" customWidth="1" style="75" min="4" max="4"/>
-    <col width="7" customWidth="1" style="75" min="5" max="5"/>
-    <col width="31.85546875" customWidth="1" style="75" min="6" max="6"/>
-    <col width="19.5703125" customWidth="1" style="75" min="7" max="7"/>
-    <col width="12.85546875" customWidth="1" style="75" min="8" max="8"/>
-    <col width="10.140625" customWidth="1" style="75" min="9" max="9"/>
-    <col width="9.7109375" customWidth="1" style="75" min="10" max="10"/>
-    <col width="37.7109375" customWidth="1" style="75" min="11" max="11"/>
-    <col width="12.28515625" customWidth="1" style="75" min="12" max="14"/>
-    <col width="48.85546875" customWidth="1" style="75" min="15" max="15"/>
-    <col width="10.7109375" customWidth="1" style="75" min="16" max="16"/>
-    <col width="8.5703125" customWidth="1" style="75" min="17" max="17"/>
-    <col width="17.5703125" customWidth="1" style="75" min="18" max="20"/>
-    <col width="17.85546875" customWidth="1" style="75" min="21" max="21"/>
-    <col width="14.28515625" customWidth="1" style="75" min="22" max="22"/>
-    <col width="9.5703125" customWidth="1" style="75" min="23" max="23"/>
-    <col width="19.140625" customWidth="1" style="75" min="24" max="24"/>
-    <col width="17.85546875" customWidth="1" style="75" min="25" max="25"/>
+    <col width="6.7109375" customWidth="1" style="105" min="1" max="1"/>
+    <col width="22.5703125" customWidth="1" style="105" min="2" max="2"/>
+    <col width="10.140625" customWidth="1" style="105" min="3" max="3"/>
+    <col width="18.42578125" customWidth="1" style="105" min="4" max="4"/>
+    <col width="7" customWidth="1" style="105" min="5" max="5"/>
+    <col width="31.85546875" customWidth="1" style="105" min="6" max="6"/>
+    <col width="19.5703125" customWidth="1" style="105" min="7" max="7"/>
+    <col width="12.85546875" customWidth="1" style="105" min="8" max="8"/>
+    <col width="10.140625" customWidth="1" style="105" min="9" max="9"/>
+    <col width="9.7109375" customWidth="1" style="105" min="10" max="10"/>
+    <col width="37.7109375" customWidth="1" style="105" min="11" max="11"/>
+    <col width="12.28515625" customWidth="1" style="105" min="12" max="14"/>
+    <col width="48.85546875" customWidth="1" style="105" min="15" max="15"/>
+    <col width="10.7109375" customWidth="1" style="105" min="16" max="16"/>
+    <col width="8.5703125" customWidth="1" style="105" min="17" max="17"/>
+    <col width="17.5703125" customWidth="1" style="105" min="18" max="20"/>
+    <col width="17.85546875" customWidth="1" style="105" min="21" max="21"/>
+    <col width="14.28515625" customWidth="1" style="105" min="22" max="22"/>
+    <col width="9.5703125" customWidth="1" style="105" min="23" max="23"/>
+    <col width="19.140625" customWidth="1" style="105" min="24" max="24"/>
+    <col width="17.85546875" customWidth="1" style="105" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -15366,221 +15429,221 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="n">
+      <c r="A2" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVG_LIQ_Batch_Daily</t>
         </is>
       </c>
-      <c r="C2" s="75" t="inlineStr">
+      <c r="C2" s="105" t="inlineStr">
         <is>
           <t>MASTER</t>
         </is>
       </c>
-      <c r="D2" s="75" t="inlineStr">
+      <c r="D2" s="105" t="inlineStr">
         <is>
           <t>Once - Specific Date</t>
         </is>
       </c>
-      <c r="E2" s="75" t="inlineStr">
+      <c r="E2" s="105" t="inlineStr">
         <is>
           <t>ZONE3</t>
         </is>
       </c>
-      <c r="F2" s="75" t="inlineStr">
+      <c r="F2" s="105" t="inlineStr">
         <is>
           <t>C:\\Program Files\\PuTTY\\putty.exe</t>
         </is>
       </c>
-      <c r="G2" s="75" t="inlineStr">
+      <c r="G2" s="105" t="inlineStr">
         <is>
           <t>MANCSLEVERG0005</t>
         </is>
       </c>
-      <c r="H2" s="75" t="n">
+      <c r="H2" s="105" t="n">
         <v>22</v>
       </c>
-      <c r="I2" s="75" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>micloud</t>
         </is>
       </c>
-      <c r="J2" s="75" t="inlineStr">
+      <c r="J2" s="105" t="inlineStr">
         <is>
           <t>misys123</t>
         </is>
       </c>
-      <c r="K2" s="75" t="inlineStr">
+      <c r="K2" s="105" t="inlineStr">
         <is>
           <t>cd{SPACE}/evgdata/loaniq/server</t>
         </is>
       </c>
-      <c r="L2" s="75" t="inlineStr">
+      <c r="L2" s="105" t="inlineStr">
         <is>
           <t>ls</t>
         </is>
       </c>
-      <c r="M2" s="75" t="inlineStr">
+      <c r="M2" s="105" t="inlineStr">
         <is>
           <t>adm</t>
         </is>
       </c>
-      <c r="N2" s="75" t="inlineStr">
+      <c r="N2" s="105" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="O2" s="75" t="inlineStr">
+      <c r="O2" s="105" t="inlineStr">
         <is>
           <t>C:\\Program Files (x86)\\HP\\Unified Functional Testing\\</t>
         </is>
       </c>
-      <c r="P2" s="75" t="inlineStr">
+      <c r="P2" s="105" t="inlineStr">
         <is>
           <t>BATCH.txt</t>
         </is>
       </c>
-      <c r="Q2" s="75" t="inlineStr">
+      <c r="Q2" s="105" t="inlineStr">
         <is>
           <t>Skipped</t>
         </is>
       </c>
-      <c r="R2" s="75" t="inlineStr">
+      <c r="R2" s="105" t="inlineStr">
         <is>
           <t>mancsleverg0005_1</t>
         </is>
       </c>
-      <c r="S2" s="75" t="inlineStr">
+      <c r="S2" s="105" t="inlineStr">
         <is>
           <t>mancsleverg0005_2</t>
         </is>
       </c>
-      <c r="T2" s="75" t="inlineStr">
+      <c r="T2" s="105" t="inlineStr">
         <is>
           <t>mancsleverg0005_3</t>
         </is>
       </c>
-      <c r="U2" s="75" t="inlineStr">
+      <c r="U2" s="105" t="inlineStr">
         <is>
           <t>Next Business Date</t>
         </is>
       </c>
-      <c r="V2" s="75" t="inlineStr">
+      <c r="V2" s="105" t="inlineStr">
         <is>
           <t>1 Days</t>
         </is>
       </c>
-      <c r="X2" s="75" t="inlineStr">
+      <c r="X2" s="105" t="inlineStr">
         <is>
           <t>C:\\Client_7462_Lite\\</t>
         </is>
       </c>
-      <c r="Y2" s="75" t="inlineStr">
+      <c r="Y2" s="105" t="inlineStr">
         <is>
           <t>LoanIQJ.exe</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="75" t="n">
+      <c r="A3" s="105" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="75" t="inlineStr">
+      <c r="B3" s="105" t="inlineStr">
         <is>
           <t>EVG_LIQ_Batch_Multiple</t>
         </is>
       </c>
-      <c r="C3" s="75" t="inlineStr">
+      <c r="C3" s="105" t="inlineStr">
         <is>
           <t>MASTER</t>
         </is>
       </c>
-      <c r="D3" s="75" t="inlineStr">
+      <c r="D3" s="105" t="inlineStr">
         <is>
           <t>Once - Specific Date</t>
         </is>
       </c>
-      <c r="E3" s="75" t="inlineStr">
+      <c r="E3" s="105" t="inlineStr">
         <is>
           <t>ZONE3</t>
         </is>
       </c>
-      <c r="F3" s="75" t="inlineStr">
+      <c r="F3" s="105" t="inlineStr">
         <is>
           <t>C:\\Program Files\\PuTTY\\putty.exe</t>
         </is>
       </c>
-      <c r="G3" s="75" t="inlineStr">
+      <c r="G3" s="105" t="inlineStr">
         <is>
           <t>MANCSLEVERG0005</t>
         </is>
       </c>
-      <c r="H3" s="75" t="n">
+      <c r="H3" s="105" t="n">
         <v>22</v>
       </c>
-      <c r="I3" s="75" t="inlineStr">
+      <c r="I3" s="105" t="inlineStr">
         <is>
           <t>micloud</t>
         </is>
       </c>
-      <c r="J3" s="75" t="inlineStr">
+      <c r="J3" s="105" t="inlineStr">
         <is>
           <t>misys123</t>
         </is>
       </c>
-      <c r="K3" s="75" t="inlineStr">
+      <c r="K3" s="105" t="inlineStr">
         <is>
           <t>cd{SPACE}/evgdata/loaniq/server</t>
         </is>
       </c>
-      <c r="L3" s="75" t="inlineStr">
+      <c r="L3" s="105" t="inlineStr">
         <is>
           <t>ls</t>
         </is>
       </c>
-      <c r="M3" s="75" t="inlineStr">
+      <c r="M3" s="105" t="inlineStr">
         <is>
           <t>adm</t>
         </is>
       </c>
-      <c r="N3" s="75" t="inlineStr">
+      <c r="N3" s="105" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="O3" s="75" t="inlineStr">
+      <c r="O3" s="105" t="inlineStr">
         <is>
           <t>C:\\Program Files (x86)\\HP\\Unified Functional Testing\\</t>
         </is>
       </c>
-      <c r="P3" s="75" t="inlineStr">
+      <c r="P3" s="105" t="inlineStr">
         <is>
           <t>BATCH.txt</t>
         </is>
       </c>
-      <c r="Q3" s="75" t="inlineStr">
+      <c r="Q3" s="105" t="inlineStr">
         <is>
           <t>Skipped</t>
         </is>
       </c>
-      <c r="R3" s="75" t="inlineStr">
+      <c r="R3" s="105" t="inlineStr">
         <is>
           <t>mancsleverg0005_1</t>
         </is>
       </c>
-      <c r="S3" s="75" t="inlineStr">
+      <c r="S3" s="105" t="inlineStr">
         <is>
           <t>mancsleverg0005_2</t>
         </is>
       </c>
-      <c r="T3" s="75" t="inlineStr">
+      <c r="T3" s="105" t="inlineStr">
         <is>
           <t>mancsleverg0005_3</t>
         </is>
       </c>
-      <c r="U3" s="75" t="inlineStr">
+      <c r="U3" s="105" t="inlineStr">
         <is>
           <t>Next Business Date</t>
         </is>
@@ -15590,17 +15653,17 @@
           <t>15-Jun-2020</t>
         </is>
       </c>
-      <c r="W3" s="75" t="inlineStr">
+      <c r="W3" s="105" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="X3" s="75" t="inlineStr">
+      <c r="X3" s="105" t="inlineStr">
         <is>
           <t>C:\\Client_7462_Lite\\</t>
         </is>
       </c>
-      <c r="Y3" s="75" t="inlineStr">
+      <c r="Y3" s="105" t="inlineStr">
         <is>
           <t>LoanIQJ.exe</t>
         </is>
@@ -15622,16 +15685,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="20.5703125" customWidth="1" style="75" min="3" max="3"/>
-    <col width="18.5703125" customWidth="1" style="75" min="4" max="4"/>
-    <col width="20.42578125" customWidth="1" style="75" min="5" max="5"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="20.5703125" customWidth="1" style="105" min="3" max="3"/>
+    <col width="18.5703125" customWidth="1" style="105" min="4" max="4"/>
+    <col width="20.42578125" customWidth="1" style="105" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="28">
@@ -15662,50 +15725,50 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>SCEN8</t>
         </is>
       </c>
-      <c r="C2" s="75" t="inlineStr">
+      <c r="C2" s="105" t="inlineStr">
         <is>
           <t>Scenario 8 Holidays</t>
         </is>
       </c>
-      <c r="D2" s="80" t="n">
+      <c r="D2" s="78" t="n">
         <v>41389</v>
       </c>
-      <c r="E2" s="75" t="inlineStr">
+      <c r="E2" s="105" t="inlineStr">
         <is>
           <t>Scenario 8 Holiday</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="75" t="inlineStr">
+      <c r="A3" s="105" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="75" t="inlineStr">
+      <c r="B3" s="105" t="inlineStr">
         <is>
           <t>SCEN8</t>
         </is>
       </c>
-      <c r="C3" s="75" t="inlineStr">
+      <c r="C3" s="105" t="inlineStr">
         <is>
           <t>Scenario 8 Holidays</t>
         </is>
       </c>
-      <c r="D3" s="80" t="n">
+      <c r="D3" s="78" t="n">
         <v>41389</v>
       </c>
-      <c r="E3" s="75" t="inlineStr">
+      <c r="E3" s="105" t="inlineStr">
         <is>
           <t>Scenario 8 Holiday</t>
         </is>
@@ -15726,8 +15789,8 @@
   </sheetPr>
   <dimension ref="A1:DF2"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BJ2" sqref="BJ2"/>
+    <sheetView topLeftCell="BZ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CI1" sqref="CI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -15838,22 +15901,22 @@
           <t>Deal_AliasPrefix</t>
         </is>
       </c>
-      <c r="E1" s="66" t="inlineStr">
+      <c r="E1" s="65" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="F1" s="66" t="inlineStr">
+      <c r="F1" s="65" t="inlineStr">
         <is>
           <t>Deal_Alias</t>
         </is>
       </c>
-      <c r="G1" s="66" t="inlineStr">
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="H1" s="66" t="inlineStr">
+      <c r="H1" s="65" t="inlineStr">
         <is>
           <t>Facility2_Name</t>
         </is>
@@ -16358,12 +16421,12 @@
           <t>Deal_EffectiveDate</t>
         </is>
       </c>
-      <c r="DE1" s="62" t="inlineStr">
+      <c r="DE1" s="61" t="inlineStr">
         <is>
           <t>OwningBranch</t>
         </is>
       </c>
-      <c r="DF1" s="62" t="inlineStr">
+      <c r="DF1" s="61" t="inlineStr">
         <is>
           <t>ProcessingArea</t>
         </is>
@@ -16772,24 +16835,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="30.140625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="19.140625" customWidth="1" style="75" min="3" max="3"/>
-    <col width="16.5703125" customWidth="1" style="75" min="4" max="4"/>
-    <col width="22.5703125" customWidth="1" style="75" min="5" max="5"/>
-    <col width="22.85546875" customWidth="1" style="75" min="6" max="6"/>
-    <col width="12.28515625" customWidth="1" style="75" min="7" max="7"/>
-    <col width="10.85546875" customWidth="1" style="75" min="8" max="8"/>
-    <col width="21.7109375" customWidth="1" style="75" min="9" max="9"/>
-    <col width="14.28515625" customWidth="1" style="75" min="10" max="10"/>
-    <col width="20.140625" customWidth="1" style="75" min="11" max="11"/>
-    <col width="17.85546875" customWidth="1" style="75" min="12" max="12"/>
-    <col width="15.7109375" customWidth="1" style="75" min="13" max="13"/>
-    <col width="18" customWidth="1" style="75" min="14" max="14"/>
-    <col width="15" customWidth="1" style="75" min="15" max="17"/>
-    <col width="18.140625" customWidth="1" style="75" min="18" max="18"/>
-    <col width="21.42578125" customWidth="1" style="75" min="19" max="19"/>
-    <col width="15.28515625" customWidth="1" style="75" min="20" max="21"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="30.140625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="19.140625" customWidth="1" style="105" min="3" max="3"/>
+    <col width="16.5703125" customWidth="1" style="105" min="4" max="4"/>
+    <col width="22.5703125" customWidth="1" style="105" min="5" max="5"/>
+    <col width="22.85546875" customWidth="1" style="105" min="6" max="6"/>
+    <col width="12.28515625" customWidth="1" style="105" min="7" max="7"/>
+    <col width="10.85546875" customWidth="1" style="105" min="8" max="8"/>
+    <col width="21.7109375" customWidth="1" style="105" min="9" max="9"/>
+    <col width="14.28515625" customWidth="1" style="105" min="10" max="10"/>
+    <col width="20.140625" customWidth="1" style="105" min="11" max="11"/>
+    <col width="17.85546875" customWidth="1" style="105" min="12" max="12"/>
+    <col width="15.7109375" customWidth="1" style="105" min="13" max="13"/>
+    <col width="18" customWidth="1" style="105" min="14" max="14"/>
+    <col width="15" customWidth="1" style="105" min="15" max="17"/>
+    <col width="18.140625" customWidth="1" style="105" min="18" max="18"/>
+    <col width="21.42578125" customWidth="1" style="105" min="19" max="19"/>
+    <col width="15.28515625" customWidth="1" style="105" min="20" max="21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -16899,21 +16962,21 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="75">
-      <c r="A2" s="75" t="inlineStr">
+    <row r="2" customFormat="1" s="105">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_FAC_CRE07_TermFacility</t>
         </is>
       </c>
-      <c r="C2" s="75" t="n">
+      <c r="C2" s="105" t="n">
         <v>730</v>
       </c>
-      <c r="D2" s="75" t="inlineStr">
+      <c r="D2" s="105" t="inlineStr">
         <is>
           <t>S8TERM</t>
         </is>
@@ -16928,17 +16991,17 @@
           <t>S8TERM14092020165659</t>
         </is>
       </c>
-      <c r="G2" s="75" t="inlineStr">
+      <c r="G2" s="105" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="H2" s="75" t="inlineStr">
+      <c r="H2" s="105" t="inlineStr">
         <is>
           <t>Term</t>
         </is>
       </c>
-      <c r="I2" s="75" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>27,000,000.00</t>
         </is>
@@ -16968,12 +17031,12 @@
           <t>01-Jun-2022</t>
         </is>
       </c>
-      <c r="O2" s="75" t="inlineStr">
+      <c r="O2" s="105" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="P2" s="36" t="n"/>
+      <c r="P2" s="98" t="n"/>
       <c r="S2" s="32" t="inlineStr">
         <is>
           <t>Acquisition</t>
@@ -16986,20 +17049,20 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="75" t="inlineStr">
+      <c r="A3" s="105" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="75" t="inlineStr">
+      <c r="B3" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_FAC_CRE08_RevolverFacility</t>
         </is>
       </c>
-      <c r="C3" s="75" t="n">
+      <c r="C3" s="105" t="n">
         <v>91</v>
       </c>
-      <c r="D3" s="75" t="inlineStr">
+      <c r="D3" s="105" t="inlineStr">
         <is>
           <t>S8REV</t>
         </is>
@@ -17014,22 +17077,22 @@
           <t>S8REV14092020171233</t>
         </is>
       </c>
-      <c r="G3" s="75" t="inlineStr">
+      <c r="G3" s="105" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="H3" s="75" t="inlineStr">
+      <c r="H3" s="105" t="inlineStr">
         <is>
           <t>Revolver</t>
         </is>
       </c>
-      <c r="I3" s="75" t="inlineStr">
+      <c r="I3" s="105" t="inlineStr">
         <is>
           <t>22,000,000.00</t>
         </is>
       </c>
-      <c r="J3" s="75" t="inlineStr">
+      <c r="J3" s="105" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -17054,7 +17117,7 @@
           <t>22-Jul-2013</t>
         </is>
       </c>
-      <c r="O3" s="75" t="inlineStr">
+      <c r="O3" s="105" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
@@ -17069,7 +17132,7 @@
           <t>Australian Dollar</t>
         </is>
       </c>
-      <c r="U3" s="75" t="inlineStr">
+      <c r="U3" s="105" t="inlineStr">
         <is>
           <t>US Dollar</t>
         </is>
@@ -17091,36 +17154,36 @@
   <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="75" min="1" max="1"/>
-    <col width="30.140625" customWidth="1" style="75" min="2" max="2"/>
-    <col width="21.5703125" customWidth="1" style="75" min="3" max="3"/>
-    <col width="19.42578125" customWidth="1" style="75" min="4" max="5"/>
-    <col width="16" customWidth="1" style="75" min="6" max="9"/>
-    <col width="19.7109375" customWidth="1" style="75" min="10" max="11"/>
-    <col width="19.28515625" customWidth="1" style="75" min="12" max="12"/>
-    <col width="23.140625" customWidth="1" style="75" min="13" max="13"/>
-    <col width="20.28515625" customWidth="1" style="75" min="14" max="15"/>
-    <col width="18.7109375" customWidth="1" style="75" min="16" max="16"/>
-    <col width="13.42578125" customWidth="1" style="75" min="17" max="17"/>
-    <col width="21.7109375" customWidth="1" style="75" min="18" max="19"/>
-    <col width="21.42578125" customWidth="1" style="75" min="20" max="21"/>
-    <col width="15.140625" customWidth="1" style="75" min="22" max="22"/>
-    <col width="19.5703125" customWidth="1" style="75" min="23" max="26"/>
-    <col width="15.5703125" customWidth="1" style="75" min="27" max="27"/>
-    <col width="18.5703125" customWidth="1" style="75" min="28" max="29"/>
-    <col width="19.28515625" customWidth="1" style="75" min="30" max="33"/>
-    <col width="18.28515625" customWidth="1" style="75" min="34" max="35"/>
-    <col width="20.5703125" customWidth="1" style="75" min="36" max="39"/>
-    <col width="22.5703125" customWidth="1" style="75" min="40" max="43"/>
-    <col width="28.85546875" customWidth="1" style="75" min="44" max="44"/>
-    <col width="23.85546875" customWidth="1" style="75" min="45" max="45"/>
-    <col width="21.42578125" customWidth="1" style="75" min="46" max="49"/>
-    <col width="21.7109375" customWidth="1" style="75" min="50" max="53"/>
+    <col width="5.5703125" customWidth="1" style="105" min="1" max="1"/>
+    <col width="30.140625" customWidth="1" style="105" min="2" max="2"/>
+    <col width="21.5703125" customWidth="1" style="105" min="3" max="3"/>
+    <col width="19.42578125" customWidth="1" style="105" min="4" max="5"/>
+    <col width="16" customWidth="1" style="105" min="6" max="9"/>
+    <col width="19.7109375" customWidth="1" style="105" min="10" max="11"/>
+    <col width="19.28515625" customWidth="1" style="105" min="12" max="12"/>
+    <col width="23.140625" customWidth="1" style="105" min="13" max="13"/>
+    <col width="20.28515625" customWidth="1" style="105" min="14" max="15"/>
+    <col width="18.7109375" customWidth="1" style="105" min="16" max="16"/>
+    <col width="13.42578125" customWidth="1" style="105" min="17" max="17"/>
+    <col width="21.7109375" customWidth="1" style="105" min="18" max="19"/>
+    <col width="21.42578125" customWidth="1" style="105" min="20" max="21"/>
+    <col width="15.140625" customWidth="1" style="105" min="22" max="22"/>
+    <col width="19.5703125" customWidth="1" style="105" min="23" max="26"/>
+    <col width="15.5703125" customWidth="1" style="105" min="27" max="27"/>
+    <col width="18.5703125" customWidth="1" style="105" min="28" max="29"/>
+    <col width="19.28515625" customWidth="1" style="105" min="30" max="33"/>
+    <col width="18.28515625" customWidth="1" style="105" min="34" max="35"/>
+    <col width="20.5703125" customWidth="1" style="105" min="36" max="39"/>
+    <col width="22.5703125" customWidth="1" style="105" min="40" max="43"/>
+    <col width="28.85546875" customWidth="1" style="105" min="44" max="44"/>
+    <col width="23.85546875" customWidth="1" style="105" min="45" max="45"/>
+    <col width="21.42578125" customWidth="1" style="105" min="46" max="49"/>
+    <col width="21.7109375" customWidth="1" style="105" min="50" max="53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="25">
@@ -17391,12 +17454,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="inlineStr">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="75" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_FAC_CRE07_TermFacility</t>
         </is>
@@ -17446,27 +17509,27 @@
           <t>Percent</t>
         </is>
       </c>
-      <c r="S2" s="36" t="inlineStr">
+      <c r="S2" s="98" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
       </c>
-      <c r="T2" s="75" t="inlineStr">
+      <c r="T2" s="105" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U2" s="75" t="inlineStr">
+      <c r="U2" s="105" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="V2" s="75" t="inlineStr">
+      <c r="V2" s="105" t="inlineStr">
         <is>
           <t>Option</t>
         </is>
       </c>
-      <c r="W2" s="36" t="inlineStr">
+      <c r="W2" s="98" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
@@ -17476,8 +17539,8 @@
           <t>BBSW - Mid</t>
         </is>
       </c>
-      <c r="Y2" s="36" t="n"/>
-      <c r="AA2" s="75" t="inlineStr">
+      <c r="Y2" s="98" t="n"/>
+      <c r="AA2" s="105" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
@@ -17487,22 +17550,22 @@
           <t>Percent</t>
         </is>
       </c>
-      <c r="AC2" s="36" t="inlineStr">
+      <c r="AC2" s="98" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
       </c>
-      <c r="AD2" s="75" t="inlineStr">
+      <c r="AD2" s="105" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="AE2" s="75" t="inlineStr">
+      <c r="AE2" s="105" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="AF2" s="75" t="inlineStr">
+      <c r="AF2" s="105" t="inlineStr">
         <is>
           <t>0.75</t>
         </is>
@@ -17542,44 +17605,44 @@
           <t>Leverage Ratio (LR)</t>
         </is>
       </c>
-      <c r="AT2" s="75" t="inlineStr">
+      <c r="AT2" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AU2" s="75" t="inlineStr">
+      <c r="AU2" s="105" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AV2" s="75" t="inlineStr">
+      <c r="AV2" s="105" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AX2" s="75" t="inlineStr">
+      <c r="AX2" s="105" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AY2" s="75" t="inlineStr">
+      <c r="AY2" s="105" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AZ2" s="75" t="inlineStr">
+      <c r="AZ2" s="105" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="75" t="inlineStr">
+      <c r="A3" s="105" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="75" t="inlineStr">
+      <c r="B3" s="105" t="inlineStr">
         <is>
           <t>EVGLIQ_FAC_CRE08_RevolverFacility</t>
         </is>
@@ -17629,27 +17692,27 @@
           <t>Percent</t>
         </is>
       </c>
-      <c r="S3" s="36" t="inlineStr">
+      <c r="S3" s="98" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
       </c>
-      <c r="T3" s="75" t="inlineStr">
+      <c r="T3" s="105" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U3" s="75" t="inlineStr">
+      <c r="U3" s="105" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="V3" s="75" t="inlineStr">
+      <c r="V3" s="105" t="inlineStr">
         <is>
           <t>Option</t>
         </is>
       </c>
-      <c r="W3" s="36" t="inlineStr">
+      <c r="W3" s="98" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
@@ -17659,12 +17722,12 @@
           <t>BBSW - Mid</t>
         </is>
       </c>
-      <c r="Y3" s="36" t="inlineStr">
+      <c r="Y3" s="98" t="inlineStr">
         <is>
           <t>USD LIBOR Option</t>
         </is>
       </c>
-      <c r="AA3" s="75" t="inlineStr">
+      <c r="AA3" s="105" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
@@ -17674,27 +17737,27 @@
           <t>Percent</t>
         </is>
       </c>
-      <c r="AC3" s="36" t="inlineStr">
+      <c r="AC3" s="98" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
       </c>
-      <c r="AD3" s="75" t="inlineStr">
+      <c r="AD3" s="105" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="AE3" s="75" t="inlineStr">
+      <c r="AE3" s="105" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="AF3" s="75" t="inlineStr">
+      <c r="AF3" s="105" t="inlineStr">
         <is>
           <t>0.75</t>
         </is>
       </c>
-      <c r="AG3" s="75" t="inlineStr">
+      <c r="AG3" s="105" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
@@ -17739,32 +17802,32 @@
           <t>Leverage Ratio (LR)</t>
         </is>
       </c>
-      <c r="AT3" s="75" t="inlineStr">
+      <c r="AT3" s="105" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AU3" s="75" t="inlineStr">
+      <c r="AU3" s="105" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AV3" s="75" t="inlineStr">
+      <c r="AV3" s="105" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AX3" s="75" t="inlineStr">
+      <c r="AX3" s="105" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AY3" s="75" t="inlineStr">
+      <c r="AY3" s="105" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AZ3" s="75" t="inlineStr">
+      <c r="AZ3" s="105" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
